--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5616BFF1-E0F4-40F9-ACB5-516473741605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22378F8-CD13-4A7B-9F01-F2809ECD60A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44377,9 +44377,6 @@
     <t xml:space="preserve">Noite  </t>
   </si>
   <si>
-    <t xml:space="preserve">Nº  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mudei de ideia.  </t>
   </si>
   <si>
@@ -46146,6 +46143,9 @@
   <si>
     <t xml:space="preserve">Impede que a velocidade dos inimigos aumente  _x000D_
 quando o nível deles ultrapassa 1000.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não. </t>
   </si>
 </sst>
 </file>
@@ -46332,8 +46332,8 @@
   <dimension ref="A1:F2555"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2535" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2537" sqref="D2537:D2555"/>
+      <pane ySplit="2" topLeftCell="A2161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E2168" sqref="E2168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -54772,7 +54772,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="78.75">
+    <row r="426" spans="1:6" ht="66">
       <c r="A426" s="1" t="s">
         <v>1255</v>
       </c>
@@ -58289,7 +58289,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="142.5">
+    <row r="602" spans="1:6" ht="132">
       <c r="A602" s="1" t="s">
         <v>1780</v>
       </c>
@@ -58489,7 +58489,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="155.25">
+    <row r="612" spans="1:6" ht="148.5">
       <c r="A612" s="1" t="s">
         <v>1810</v>
       </c>
@@ -58889,7 +58889,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="206.25">
+    <row r="632" spans="1:6" ht="148.5">
       <c r="A632" s="1" t="s">
         <v>1871</v>
       </c>
@@ -59909,7 +59909,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="53.25">
+    <row r="683" spans="1:6" ht="49.5">
       <c r="A683" s="1" t="s">
         <v>2026</v>
       </c>
@@ -60089,7 +60089,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="53.25">
+    <row r="692" spans="1:6" ht="49.5">
       <c r="A692" s="1" t="s">
         <v>2053</v>
       </c>
@@ -83954,7 +83954,7 @@
         <v>7</v>
       </c>
       <c r="D1927" s="1" t="s">
-        <v>9056</v>
+        <v>9631</v>
       </c>
       <c r="E1927" s="1" t="s">
         <v>5526</v>
@@ -83971,7 +83971,7 @@
         <v>7</v>
       </c>
       <c r="D1928" s="1" t="s">
-        <v>9057</v>
+        <v>9056</v>
       </c>
       <c r="E1928" s="1" t="s">
         <v>5529</v>
@@ -83988,7 +83988,7 @@
         <v>7</v>
       </c>
       <c r="D1929" s="1" t="s">
-        <v>9058</v>
+        <v>9057</v>
       </c>
       <c r="E1929" s="1" t="s">
         <v>5532</v>
@@ -84005,7 +84005,7 @@
         <v>7</v>
       </c>
       <c r="D1930" s="1" t="s">
-        <v>9059</v>
+        <v>9058</v>
       </c>
       <c r="E1930" s="1" t="s">
         <v>5535</v>
@@ -84022,7 +84022,7 @@
         <v>27</v>
       </c>
       <c r="D1931" s="1" t="s">
-        <v>9060</v>
+        <v>9059</v>
       </c>
       <c r="E1931" s="1" t="s">
         <v>5538</v>
@@ -84039,7 +84039,7 @@
         <v>7</v>
       </c>
       <c r="D1932" s="1" t="s">
-        <v>9061</v>
+        <v>9060</v>
       </c>
       <c r="E1932" s="1" t="s">
         <v>5541</v>
@@ -84056,7 +84056,7 @@
         <v>7</v>
       </c>
       <c r="D1933" s="1" t="s">
-        <v>9062</v>
+        <v>9061</v>
       </c>
       <c r="E1933" s="1" t="s">
         <v>5544</v>
@@ -84073,7 +84073,7 @@
         <v>7</v>
       </c>
       <c r="D1934" s="1" t="s">
-        <v>9063</v>
+        <v>9062</v>
       </c>
       <c r="E1934" s="1" t="s">
         <v>5547</v>
@@ -84107,7 +84107,7 @@
         <v>7</v>
       </c>
       <c r="D1936" s="1" t="s">
-        <v>9064</v>
+        <v>9063</v>
       </c>
       <c r="E1936" s="1" t="s">
         <v>5550</v>
@@ -84124,7 +84124,7 @@
         <v>7</v>
       </c>
       <c r="D1937" s="1" t="s">
-        <v>9065</v>
+        <v>9064</v>
       </c>
       <c r="E1937" s="1" t="s">
         <v>5553</v>
@@ -84141,7 +84141,7 @@
         <v>7</v>
       </c>
       <c r="D1938" s="1" t="s">
-        <v>9066</v>
+        <v>9065</v>
       </c>
       <c r="E1938" s="1" t="s">
         <v>5556</v>
@@ -84158,7 +84158,7 @@
         <v>7</v>
       </c>
       <c r="D1939" s="1" t="s">
-        <v>9067</v>
+        <v>9066</v>
       </c>
       <c r="E1939" s="1" t="s">
         <v>5559</v>
@@ -84175,7 +84175,7 @@
         <v>7</v>
       </c>
       <c r="D1940" s="1" t="s">
-        <v>9068</v>
+        <v>9067</v>
       </c>
       <c r="E1940" s="1" t="s">
         <v>5561</v>
@@ -84192,7 +84192,7 @@
         <v>7</v>
       </c>
       <c r="D1941" s="1" t="s">
-        <v>9069</v>
+        <v>9068</v>
       </c>
       <c r="E1941" s="1" t="s">
         <v>5564</v>
@@ -84209,7 +84209,7 @@
         <v>7</v>
       </c>
       <c r="D1942" s="1" t="s">
-        <v>9070</v>
+        <v>9069</v>
       </c>
       <c r="E1942" s="1" t="s">
         <v>5567</v>
@@ -84226,7 +84226,7 @@
         <v>7</v>
       </c>
       <c r="D1943" s="1" t="s">
-        <v>9071</v>
+        <v>9070</v>
       </c>
       <c r="E1943" s="1" t="s">
         <v>5570</v>
@@ -84243,7 +84243,7 @@
         <v>7</v>
       </c>
       <c r="D1944" s="1" t="s">
-        <v>9072</v>
+        <v>9071</v>
       </c>
       <c r="E1944" s="1" t="s">
         <v>5573</v>
@@ -84260,7 +84260,7 @@
         <v>7</v>
       </c>
       <c r="D1945" s="1" t="s">
-        <v>9073</v>
+        <v>9072</v>
       </c>
       <c r="E1945" s="1" t="s">
         <v>5576</v>
@@ -84277,7 +84277,7 @@
         <v>273</v>
       </c>
       <c r="D1946" s="1" t="s">
-        <v>9074</v>
+        <v>9073</v>
       </c>
       <c r="E1946" s="1" t="s">
         <v>5579</v>
@@ -84294,7 +84294,7 @@
         <v>7</v>
       </c>
       <c r="D1947" s="1" t="s">
-        <v>9075</v>
+        <v>9074</v>
       </c>
       <c r="E1947" s="1" t="s">
         <v>5581</v>
@@ -84311,7 +84311,7 @@
         <v>7</v>
       </c>
       <c r="D1948" s="1" t="s">
-        <v>9076</v>
+        <v>9075</v>
       </c>
       <c r="E1948" s="1" t="s">
         <v>5583</v>
@@ -84328,7 +84328,7 @@
         <v>7</v>
       </c>
       <c r="D1949" s="1" t="s">
-        <v>9077</v>
+        <v>9076</v>
       </c>
       <c r="E1949" s="1" t="s">
         <v>5584</v>
@@ -84362,7 +84362,7 @@
         <v>7</v>
       </c>
       <c r="D1951" s="1" t="s">
-        <v>9078</v>
+        <v>9077</v>
       </c>
       <c r="E1951" s="1" t="s">
         <v>5588</v>
@@ -84379,7 +84379,7 @@
         <v>7</v>
       </c>
       <c r="D1952" s="1" t="s">
-        <v>9079</v>
+        <v>9078</v>
       </c>
       <c r="E1952" s="1" t="s">
         <v>5592</v>
@@ -84396,7 +84396,7 @@
         <v>7</v>
       </c>
       <c r="D1953" s="1" t="s">
-        <v>9080</v>
+        <v>9079</v>
       </c>
       <c r="E1953" s="1" t="s">
         <v>5594</v>
@@ -84413,7 +84413,7 @@
         <v>7</v>
       </c>
       <c r="D1954" s="1" t="s">
-        <v>9081</v>
+        <v>9080</v>
       </c>
       <c r="E1954" s="1" t="s">
         <v>5597</v>
@@ -84430,7 +84430,7 @@
         <v>7</v>
       </c>
       <c r="D1955" s="1" t="s">
-        <v>9082</v>
+        <v>9081</v>
       </c>
       <c r="E1955" s="1" t="s">
         <v>5600</v>
@@ -84464,7 +84464,7 @@
         <v>7</v>
       </c>
       <c r="D1957" t="s">
-        <v>9083</v>
+        <v>9082</v>
       </c>
       <c r="E1957" t="s">
         <v>5604</v>
@@ -84481,7 +84481,7 @@
         <v>7</v>
       </c>
       <c r="D1958" s="1" t="s">
-        <v>9084</v>
+        <v>9083</v>
       </c>
       <c r="E1958" s="1" t="s">
         <v>5607</v>
@@ -84498,7 +84498,7 @@
         <v>7</v>
       </c>
       <c r="D1959" s="1" t="s">
-        <v>9085</v>
+        <v>9084</v>
       </c>
       <c r="E1959" s="1" t="s">
         <v>5610</v>
@@ -84515,7 +84515,7 @@
         <v>109</v>
       </c>
       <c r="D1960" s="1" t="s">
-        <v>9086</v>
+        <v>9085</v>
       </c>
       <c r="E1960" s="1" t="s">
         <v>5613</v>
@@ -84549,7 +84549,7 @@
         <v>2208</v>
       </c>
       <c r="D1962" s="1" t="s">
-        <v>9087</v>
+        <v>9086</v>
       </c>
       <c r="E1962" s="1" t="s">
         <v>1007</v>
@@ -84583,7 +84583,7 @@
         <v>7</v>
       </c>
       <c r="D1964" s="1" t="s">
-        <v>9088</v>
+        <v>9087</v>
       </c>
       <c r="E1964" s="1" t="s">
         <v>5621</v>
@@ -84600,7 +84600,7 @@
         <v>5623</v>
       </c>
       <c r="D1965" s="1" t="s">
-        <v>9089</v>
+        <v>9088</v>
       </c>
       <c r="E1965" s="1" t="s">
         <v>5624</v>
@@ -84617,7 +84617,7 @@
         <v>4346</v>
       </c>
       <c r="D1966" s="1" t="s">
-        <v>9090</v>
+        <v>9089</v>
       </c>
       <c r="E1966" s="1" t="s">
         <v>5628</v>
@@ -84634,7 +84634,7 @@
         <v>7</v>
       </c>
       <c r="D1967" s="1" t="s">
-        <v>9091</v>
+        <v>9090</v>
       </c>
       <c r="E1967" s="1" t="s">
         <v>5630</v>
@@ -84651,7 +84651,7 @@
         <v>7</v>
       </c>
       <c r="D1968" s="1" t="s">
-        <v>9092</v>
+        <v>9091</v>
       </c>
       <c r="E1968" s="1" t="s">
         <v>5632</v>
@@ -84685,7 +84685,7 @@
         <v>7</v>
       </c>
       <c r="D1970" s="1" t="s">
-        <v>9093</v>
+        <v>9092</v>
       </c>
       <c r="E1970" s="1" t="s">
         <v>5637</v>
@@ -84702,7 +84702,7 @@
         <v>7</v>
       </c>
       <c r="D1971" s="1" t="s">
-        <v>9094</v>
+        <v>9093</v>
       </c>
       <c r="E1971" s="1" t="s">
         <v>5639</v>
@@ -84719,7 +84719,7 @@
         <v>7</v>
       </c>
       <c r="D1972" s="1" t="s">
-        <v>9095</v>
+        <v>9094</v>
       </c>
       <c r="E1972" s="1" t="s">
         <v>5641</v>
@@ -84736,7 +84736,7 @@
         <v>5644</v>
       </c>
       <c r="D1973" s="1" t="s">
-        <v>9096</v>
+        <v>9095</v>
       </c>
       <c r="E1973" s="1" t="s">
         <v>956</v>
@@ -84770,7 +84770,7 @@
         <v>7</v>
       </c>
       <c r="D1975" s="1" t="s">
-        <v>9097</v>
+        <v>9096</v>
       </c>
       <c r="E1975" s="1" t="s">
         <v>5647</v>
@@ -84787,7 +84787,7 @@
         <v>7</v>
       </c>
       <c r="D1976" s="1" t="s">
-        <v>9098</v>
+        <v>9097</v>
       </c>
       <c r="E1976" s="1" t="s">
         <v>5650</v>
@@ -84804,7 +84804,7 @@
         <v>7</v>
       </c>
       <c r="D1977" s="1" t="s">
-        <v>9099</v>
+        <v>9098</v>
       </c>
       <c r="E1977" s="1" t="s">
         <v>5653</v>
@@ -84821,7 +84821,7 @@
         <v>1706</v>
       </c>
       <c r="D1978" s="4" t="s">
-        <v>9100</v>
+        <v>9099</v>
       </c>
       <c r="E1978" s="4" t="s">
         <v>5656</v>
@@ -84838,7 +84838,7 @@
         <v>1706</v>
       </c>
       <c r="D1979" s="4" t="s">
-        <v>9101</v>
+        <v>9100</v>
       </c>
       <c r="E1979" s="4" t="s">
         <v>5659</v>
@@ -84855,7 +84855,7 @@
         <v>7</v>
       </c>
       <c r="D1980" s="4" t="s">
-        <v>9102</v>
+        <v>9101</v>
       </c>
       <c r="E1980" s="4" t="s">
         <v>5662</v>
@@ -84872,7 +84872,7 @@
         <v>7</v>
       </c>
       <c r="D1981" s="1" t="s">
-        <v>9103</v>
+        <v>9102</v>
       </c>
       <c r="E1981" s="1" t="s">
         <v>5665</v>
@@ -84889,7 +84889,7 @@
         <v>7</v>
       </c>
       <c r="D1982" s="1" t="s">
-        <v>9104</v>
+        <v>9103</v>
       </c>
       <c r="E1982" s="1" t="s">
         <v>5668</v>
@@ -84906,7 +84906,7 @@
         <v>7</v>
       </c>
       <c r="D1983" s="1" t="s">
-        <v>9104</v>
+        <v>9103</v>
       </c>
       <c r="E1983" s="1" t="s">
         <v>5668</v>
@@ -84923,7 +84923,7 @@
         <v>7</v>
       </c>
       <c r="D1984" s="1" t="s">
-        <v>9105</v>
+        <v>9104</v>
       </c>
       <c r="E1984" s="1" t="s">
         <v>5672</v>
@@ -84940,7 +84940,7 @@
         <v>7</v>
       </c>
       <c r="D1985" s="1" t="s">
-        <v>9106</v>
+        <v>9105</v>
       </c>
       <c r="E1985" s="1" t="s">
         <v>5675</v>
@@ -84957,7 +84957,7 @@
         <v>3102</v>
       </c>
       <c r="D1986" s="1" t="s">
-        <v>9107</v>
+        <v>9106</v>
       </c>
       <c r="E1986" s="1" t="s">
         <v>5678</v>
@@ -84974,7 +84974,7 @@
         <v>7</v>
       </c>
       <c r="D1987" s="1" t="s">
-        <v>9108</v>
+        <v>9107</v>
       </c>
       <c r="E1987" s="1" t="s">
         <v>5681</v>
@@ -84991,7 +84991,7 @@
         <v>7</v>
       </c>
       <c r="D1988" s="1" t="s">
-        <v>9109</v>
+        <v>9108</v>
       </c>
       <c r="E1988" s="1" t="s">
         <v>5684</v>
@@ -85008,7 +85008,7 @@
         <v>7</v>
       </c>
       <c r="D1989" s="1" t="s">
-        <v>9110</v>
+        <v>9109</v>
       </c>
       <c r="E1989" s="1" t="s">
         <v>5687</v>
@@ -85025,7 +85025,7 @@
         <v>7</v>
       </c>
       <c r="D1990" s="1" t="s">
-        <v>9111</v>
+        <v>9110</v>
       </c>
       <c r="E1990" s="1" t="s">
         <v>3651</v>
@@ -85042,7 +85042,7 @@
         <v>7</v>
       </c>
       <c r="D1991" s="1" t="s">
-        <v>9112</v>
+        <v>9111</v>
       </c>
       <c r="E1991" s="1" t="s">
         <v>5690</v>
@@ -85059,7 +85059,7 @@
         <v>7</v>
       </c>
       <c r="D1992" s="1" t="s">
-        <v>9113</v>
+        <v>9112</v>
       </c>
       <c r="E1992" s="1" t="s">
         <v>5693</v>
@@ -85076,7 +85076,7 @@
         <v>7</v>
       </c>
       <c r="D1993" s="1" t="s">
-        <v>9114</v>
+        <v>9113</v>
       </c>
       <c r="E1993" s="1" t="s">
         <v>5696</v>
@@ -85093,7 +85093,7 @@
         <v>7</v>
       </c>
       <c r="D1994" s="1" t="s">
-        <v>9115</v>
+        <v>9114</v>
       </c>
       <c r="E1994" s="1" t="s">
         <v>5699</v>
@@ -85110,7 +85110,7 @@
         <v>7</v>
       </c>
       <c r="D1995" s="1" t="s">
-        <v>9116</v>
+        <v>9115</v>
       </c>
       <c r="E1995" s="1" t="s">
         <v>5702</v>
@@ -85127,7 +85127,7 @@
         <v>7</v>
       </c>
       <c r="D1996" s="1" t="s">
-        <v>9117</v>
+        <v>9116</v>
       </c>
       <c r="E1996" s="1" t="s">
         <v>5705</v>
@@ -85144,7 +85144,7 @@
         <v>7</v>
       </c>
       <c r="D1997" s="1" t="s">
-        <v>9118</v>
+        <v>9117</v>
       </c>
       <c r="E1997" s="1" t="s">
         <v>5708</v>
@@ -85161,7 +85161,7 @@
         <v>7</v>
       </c>
       <c r="D1998" s="1" t="s">
-        <v>9119</v>
+        <v>9118</v>
       </c>
       <c r="E1998" s="1" t="s">
         <v>5711</v>
@@ -85178,7 +85178,7 @@
         <v>7</v>
       </c>
       <c r="D1999" s="1" t="s">
-        <v>9120</v>
+        <v>9119</v>
       </c>
       <c r="E1999" s="1" t="s">
         <v>5714</v>
@@ -85195,7 +85195,7 @@
         <v>7</v>
       </c>
       <c r="D2000" s="1" t="s">
-        <v>9121</v>
+        <v>9120</v>
       </c>
       <c r="E2000" s="1" t="s">
         <v>850</v>
@@ -85212,7 +85212,7 @@
         <v>7</v>
       </c>
       <c r="D2001" s="1" t="s">
-        <v>9122</v>
+        <v>9121</v>
       </c>
       <c r="E2001" s="1" t="s">
         <v>5718</v>
@@ -85229,7 +85229,7 @@
         <v>7</v>
       </c>
       <c r="D2002" s="1" t="s">
-        <v>9123</v>
+        <v>9122</v>
       </c>
       <c r="E2002" s="1" t="s">
         <v>5720</v>
@@ -85246,7 +85246,7 @@
         <v>7</v>
       </c>
       <c r="D2003" s="1" t="s">
-        <v>9124</v>
+        <v>9123</v>
       </c>
       <c r="E2003" s="1" t="s">
         <v>5724</v>
@@ -85263,7 +85263,7 @@
         <v>7</v>
       </c>
       <c r="D2004" s="1" t="s">
-        <v>9125</v>
+        <v>9124</v>
       </c>
       <c r="E2004" s="1" t="s">
         <v>5726</v>
@@ -85280,7 +85280,7 @@
         <v>7</v>
       </c>
       <c r="D2005" s="1" t="s">
-        <v>9126</v>
+        <v>9125</v>
       </c>
       <c r="E2005" s="1" t="s">
         <v>5729</v>
@@ -85297,7 +85297,7 @@
         <v>7</v>
       </c>
       <c r="D2006" s="1" t="s">
-        <v>9127</v>
+        <v>9126</v>
       </c>
       <c r="E2006" s="1" t="s">
         <v>5732</v>
@@ -85314,7 +85314,7 @@
         <v>7</v>
       </c>
       <c r="D2007" s="1" t="s">
-        <v>9128</v>
+        <v>9127</v>
       </c>
       <c r="E2007" s="1" t="s">
         <v>5735</v>
@@ -85331,7 +85331,7 @@
         <v>7</v>
       </c>
       <c r="D2008" s="1" t="s">
-        <v>9129</v>
+        <v>9128</v>
       </c>
       <c r="E2008" s="1" t="s">
         <v>5738</v>
@@ -85348,7 +85348,7 @@
         <v>7</v>
       </c>
       <c r="D2009" s="1" t="s">
-        <v>9130</v>
+        <v>9129</v>
       </c>
       <c r="E2009" s="1" t="s">
         <v>5741</v>
@@ -85365,7 +85365,7 @@
         <v>7</v>
       </c>
       <c r="D2010" s="1" t="s">
-        <v>9131</v>
+        <v>9130</v>
       </c>
       <c r="E2010" s="1" t="s">
         <v>5744</v>
@@ -85382,7 +85382,7 @@
         <v>7</v>
       </c>
       <c r="D2011" s="1" t="s">
-        <v>9132</v>
+        <v>9131</v>
       </c>
       <c r="E2011" s="1" t="s">
         <v>5747</v>
@@ -85399,7 +85399,7 @@
         <v>7</v>
       </c>
       <c r="D2012" s="1" t="s">
-        <v>9133</v>
+        <v>9132</v>
       </c>
       <c r="E2012" s="1" t="s">
         <v>5750</v>
@@ -85416,7 +85416,7 @@
         <v>7</v>
       </c>
       <c r="D2013" s="1" t="s">
-        <v>9134</v>
+        <v>9133</v>
       </c>
       <c r="E2013" s="1" t="s">
         <v>5754</v>
@@ -85433,7 +85433,7 @@
         <v>7</v>
       </c>
       <c r="D2014" s="1" t="s">
-        <v>9135</v>
+        <v>9134</v>
       </c>
       <c r="E2014" s="1" t="s">
         <v>5756</v>
@@ -85450,7 +85450,7 @@
         <v>7</v>
       </c>
       <c r="D2015" s="1" t="s">
-        <v>9136</v>
+        <v>9135</v>
       </c>
       <c r="E2015" s="1" t="s">
         <v>5759</v>
@@ -85467,7 +85467,7 @@
         <v>7</v>
       </c>
       <c r="D2016" s="1" t="s">
-        <v>9137</v>
+        <v>9136</v>
       </c>
       <c r="E2016" s="1" t="s">
         <v>5762</v>
@@ -85484,7 +85484,7 @@
         <v>7</v>
       </c>
       <c r="D2017" s="1" t="s">
-        <v>9138</v>
+        <v>9137</v>
       </c>
       <c r="E2017" s="1" t="s">
         <v>5765</v>
@@ -85501,7 +85501,7 @@
         <v>7</v>
       </c>
       <c r="D2018" s="1" t="s">
-        <v>9139</v>
+        <v>9138</v>
       </c>
       <c r="E2018" s="1" t="s">
         <v>2427</v>
@@ -85518,7 +85518,7 @@
         <v>7</v>
       </c>
       <c r="D2019" s="1" t="s">
-        <v>9140</v>
+        <v>9139</v>
       </c>
       <c r="E2019" s="1" t="s">
         <v>5769</v>
@@ -85535,7 +85535,7 @@
         <v>7</v>
       </c>
       <c r="D2020" s="1" t="s">
-        <v>9141</v>
+        <v>9140</v>
       </c>
       <c r="E2020" s="1" t="s">
         <v>5772</v>
@@ -85552,7 +85552,7 @@
         <v>7</v>
       </c>
       <c r="D2021" s="1" t="s">
-        <v>9142</v>
+        <v>9141</v>
       </c>
       <c r="E2021" s="1" t="s">
         <v>5775</v>
@@ -85569,7 +85569,7 @@
         <v>7</v>
       </c>
       <c r="D2022" s="1" t="s">
-        <v>9143</v>
+        <v>9142</v>
       </c>
       <c r="E2022" s="1" t="s">
         <v>5778</v>
@@ -85586,7 +85586,7 @@
         <v>7</v>
       </c>
       <c r="D2023" s="1" t="s">
-        <v>9144</v>
+        <v>9143</v>
       </c>
       <c r="E2023" s="1" t="s">
         <v>5781</v>
@@ -85603,7 +85603,7 @@
         <v>7</v>
       </c>
       <c r="D2024" s="1" t="s">
-        <v>9145</v>
+        <v>9144</v>
       </c>
       <c r="E2024" s="1" t="s">
         <v>5784</v>
@@ -85620,7 +85620,7 @@
         <v>7</v>
       </c>
       <c r="D2025" s="1" t="s">
-        <v>9146</v>
+        <v>9145</v>
       </c>
       <c r="E2025" s="1" t="s">
         <v>5787</v>
@@ -85637,7 +85637,7 @@
         <v>7</v>
       </c>
       <c r="D2026" s="1" t="s">
-        <v>9147</v>
+        <v>9146</v>
       </c>
       <c r="E2026" s="1" t="s">
         <v>5790</v>
@@ -85654,7 +85654,7 @@
         <v>7</v>
       </c>
       <c r="D2027" s="1" t="s">
-        <v>9148</v>
+        <v>9147</v>
       </c>
       <c r="E2027" s="1" t="s">
         <v>5793</v>
@@ -85671,7 +85671,7 @@
         <v>7</v>
       </c>
       <c r="D2028" s="1" t="s">
-        <v>9149</v>
+        <v>9148</v>
       </c>
       <c r="E2028" s="1" t="s">
         <v>5796</v>
@@ -85688,7 +85688,7 @@
         <v>7</v>
       </c>
       <c r="D2029" s="1" t="s">
-        <v>9150</v>
+        <v>9149</v>
       </c>
       <c r="E2029" s="1" t="s">
         <v>5800</v>
@@ -85705,7 +85705,7 @@
         <v>7</v>
       </c>
       <c r="D2030" s="1" t="s">
-        <v>9151</v>
+        <v>9150</v>
       </c>
       <c r="E2030" s="1" t="s">
         <v>5801</v>
@@ -85722,7 +85722,7 @@
         <v>7</v>
       </c>
       <c r="D2031" s="1" t="s">
-        <v>9152</v>
+        <v>9151</v>
       </c>
       <c r="E2031" s="1" t="s">
         <v>5803</v>
@@ -85739,7 +85739,7 @@
         <v>7</v>
       </c>
       <c r="D2032" s="1" t="s">
-        <v>9153</v>
+        <v>9152</v>
       </c>
       <c r="E2032" s="1" t="s">
         <v>5806</v>
@@ -85756,7 +85756,7 @@
         <v>7</v>
       </c>
       <c r="D2033" s="1" t="s">
-        <v>9154</v>
+        <v>9153</v>
       </c>
       <c r="E2033" s="1" t="s">
         <v>5809</v>
@@ -85773,7 +85773,7 @@
         <v>7</v>
       </c>
       <c r="D2034" s="1" t="s">
-        <v>9155</v>
+        <v>9154</v>
       </c>
       <c r="E2034" s="1" t="s">
         <v>5812</v>
@@ -85790,7 +85790,7 @@
         <v>7</v>
       </c>
       <c r="D2035" s="1" t="s">
-        <v>9156</v>
+        <v>9155</v>
       </c>
       <c r="E2035" s="1" t="s">
         <v>5815</v>
@@ -85807,7 +85807,7 @@
         <v>7</v>
       </c>
       <c r="D2036" s="1" t="s">
-        <v>9157</v>
+        <v>9156</v>
       </c>
       <c r="E2036" s="1" t="s">
         <v>5818</v>
@@ -85824,7 +85824,7 @@
         <v>7</v>
       </c>
       <c r="D2037" s="1" t="s">
-        <v>9158</v>
+        <v>9157</v>
       </c>
       <c r="E2037" s="1" t="s">
         <v>5821</v>
@@ -85841,7 +85841,7 @@
         <v>7</v>
       </c>
       <c r="D2038" s="1" t="s">
-        <v>9159</v>
+        <v>9158</v>
       </c>
       <c r="E2038" s="1" t="s">
         <v>5824</v>
@@ -85858,7 +85858,7 @@
         <v>7</v>
       </c>
       <c r="D2039" s="1" t="s">
-        <v>9160</v>
+        <v>9159</v>
       </c>
       <c r="E2039" s="1" t="s">
         <v>5827</v>
@@ -85875,7 +85875,7 @@
         <v>7</v>
       </c>
       <c r="D2040" s="1" t="s">
-        <v>9159</v>
+        <v>9158</v>
       </c>
       <c r="E2040" s="1" t="s">
         <v>5824</v>
@@ -85892,7 +85892,7 @@
         <v>7</v>
       </c>
       <c r="D2041" s="1" t="s">
-        <v>9161</v>
+        <v>9160</v>
       </c>
       <c r="E2041" s="1" t="s">
         <v>5832</v>
@@ -85909,7 +85909,7 @@
         <v>7</v>
       </c>
       <c r="D2042" s="1" t="s">
-        <v>9162</v>
+        <v>9161</v>
       </c>
       <c r="E2042" s="1" t="s">
         <v>5835</v>
@@ -85926,7 +85926,7 @@
         <v>7</v>
       </c>
       <c r="D2043" s="1" t="s">
-        <v>9163</v>
+        <v>9162</v>
       </c>
       <c r="E2043" s="1" t="s">
         <v>5838</v>
@@ -85943,7 +85943,7 @@
         <v>7</v>
       </c>
       <c r="D2044" s="1" t="s">
-        <v>9164</v>
+        <v>9163</v>
       </c>
       <c r="E2044" s="1" t="s">
         <v>5842</v>
@@ -85977,7 +85977,7 @@
         <v>7</v>
       </c>
       <c r="D2046" s="1" t="s">
-        <v>9165</v>
+        <v>9164</v>
       </c>
       <c r="E2046" s="1" t="s">
         <v>5845</v>
@@ -85994,7 +85994,7 @@
         <v>7</v>
       </c>
       <c r="D2047" s="1" t="s">
-        <v>9166</v>
+        <v>9165</v>
       </c>
       <c r="E2047" s="1" t="s">
         <v>5848</v>
@@ -86011,7 +86011,7 @@
         <v>7</v>
       </c>
       <c r="D2048" s="1" t="s">
-        <v>9167</v>
+        <v>9166</v>
       </c>
       <c r="E2048" s="1" t="s">
         <v>5851</v>
@@ -86028,7 +86028,7 @@
         <v>7</v>
       </c>
       <c r="D2049" s="1" t="s">
-        <v>9168</v>
+        <v>9167</v>
       </c>
       <c r="E2049" s="1" t="s">
         <v>5854</v>
@@ -86045,7 +86045,7 @@
         <v>7</v>
       </c>
       <c r="D2050" s="1" t="s">
-        <v>9169</v>
+        <v>9168</v>
       </c>
       <c r="E2050" s="1" t="s">
         <v>5857</v>
@@ -86062,7 +86062,7 @@
         <v>7</v>
       </c>
       <c r="D2051" s="1" t="s">
-        <v>9170</v>
+        <v>9169</v>
       </c>
       <c r="E2051" s="1" t="s">
         <v>5860</v>
@@ -86079,7 +86079,7 @@
         <v>7</v>
       </c>
       <c r="D2052" s="1" t="s">
-        <v>9171</v>
+        <v>9170</v>
       </c>
       <c r="E2052" s="1" t="s">
         <v>5863</v>
@@ -86096,7 +86096,7 @@
         <v>7</v>
       </c>
       <c r="D2053" s="1" t="s">
-        <v>9172</v>
+        <v>9171</v>
       </c>
       <c r="E2053" s="1" t="s">
         <v>5866</v>
@@ -86113,7 +86113,7 @@
         <v>7</v>
       </c>
       <c r="D2054" s="1" t="s">
-        <v>9173</v>
+        <v>9172</v>
       </c>
       <c r="E2054" s="1" t="s">
         <v>5869</v>
@@ -86130,7 +86130,7 @@
         <v>7</v>
       </c>
       <c r="D2055" s="1" t="s">
-        <v>9174</v>
+        <v>9173</v>
       </c>
       <c r="E2055" s="1" t="s">
         <v>5872</v>
@@ -86147,7 +86147,7 @@
         <v>7</v>
       </c>
       <c r="D2056" s="1" t="s">
-        <v>9175</v>
+        <v>9174</v>
       </c>
       <c r="E2056" s="1" t="s">
         <v>814</v>
@@ -86164,7 +86164,7 @@
         <v>7</v>
       </c>
       <c r="D2057" s="1" t="s">
-        <v>9176</v>
+        <v>9175</v>
       </c>
       <c r="E2057" s="1" t="s">
         <v>5875</v>
@@ -86181,7 +86181,7 @@
         <v>7</v>
       </c>
       <c r="D2058" s="1" t="s">
-        <v>9177</v>
+        <v>9176</v>
       </c>
       <c r="E2058" s="1" t="s">
         <v>5877</v>
@@ -86198,7 +86198,7 @@
         <v>7</v>
       </c>
       <c r="D2059" s="1" t="s">
-        <v>9178</v>
+        <v>9177</v>
       </c>
       <c r="E2059" s="1" t="s">
         <v>5880</v>
@@ -86215,7 +86215,7 @@
         <v>7</v>
       </c>
       <c r="D2060" s="1" t="s">
-        <v>9179</v>
+        <v>9178</v>
       </c>
       <c r="E2060" s="1" t="s">
         <v>22</v>
@@ -86232,7 +86232,7 @@
         <v>283</v>
       </c>
       <c r="D2061" s="1" t="s">
-        <v>9180</v>
+        <v>9179</v>
       </c>
       <c r="E2061" s="1" t="s">
         <v>5884</v>
@@ -86249,7 +86249,7 @@
         <v>283</v>
       </c>
       <c r="D2062" s="1" t="s">
-        <v>9181</v>
+        <v>9180</v>
       </c>
       <c r="E2062" s="1" t="s">
         <v>5887</v>
@@ -86283,7 +86283,7 @@
         <v>7</v>
       </c>
       <c r="D2064" s="1" t="s">
-        <v>9182</v>
+        <v>9181</v>
       </c>
       <c r="E2064" s="1" t="s">
         <v>5890</v>
@@ -86300,7 +86300,7 @@
         <v>7</v>
       </c>
       <c r="D2065" s="1" t="s">
-        <v>9183</v>
+        <v>9182</v>
       </c>
       <c r="E2065" s="1" t="s">
         <v>5892</v>
@@ -86317,7 +86317,7 @@
         <v>7</v>
       </c>
       <c r="D2066" s="1" t="s">
-        <v>9184</v>
+        <v>9183</v>
       </c>
       <c r="E2066" s="1" t="s">
         <v>5895</v>
@@ -86334,7 +86334,7 @@
         <v>7</v>
       </c>
       <c r="D2067" s="1" t="s">
-        <v>9185</v>
+        <v>9184</v>
       </c>
       <c r="E2067" s="1" t="s">
         <v>5897</v>
@@ -86351,7 +86351,7 @@
         <v>7</v>
       </c>
       <c r="D2068" s="1" t="s">
-        <v>9186</v>
+        <v>9185</v>
       </c>
       <c r="E2068" s="1" t="s">
         <v>5900</v>
@@ -86368,7 +86368,7 @@
         <v>7</v>
       </c>
       <c r="D2069" s="1" t="s">
-        <v>9187</v>
+        <v>9186</v>
       </c>
       <c r="E2069" s="1" t="s">
         <v>5902</v>
@@ -86385,7 +86385,7 @@
         <v>1184</v>
       </c>
       <c r="D2070" s="1" t="s">
-        <v>9188</v>
+        <v>9187</v>
       </c>
       <c r="E2070" s="1" t="s">
         <v>5905</v>
@@ -86402,7 +86402,7 @@
         <v>1337</v>
       </c>
       <c r="D2071" s="1" t="s">
-        <v>9189</v>
+        <v>9188</v>
       </c>
       <c r="E2071" s="1" t="s">
         <v>5908</v>
@@ -86419,7 +86419,7 @@
         <v>5911</v>
       </c>
       <c r="D2072" s="1" t="s">
-        <v>9190</v>
+        <v>9189</v>
       </c>
       <c r="E2072" s="1" t="s">
         <v>5912</v>
@@ -86436,7 +86436,7 @@
         <v>5644</v>
       </c>
       <c r="D2073" s="1" t="s">
-        <v>9191</v>
+        <v>9190</v>
       </c>
       <c r="E2073" s="1" t="s">
         <v>5915</v>
@@ -86453,7 +86453,7 @@
         <v>7</v>
       </c>
       <c r="D2074" s="1" t="s">
-        <v>9192</v>
+        <v>9191</v>
       </c>
       <c r="E2074" s="1" t="s">
         <v>5918</v>
@@ -86470,7 +86470,7 @@
         <v>7</v>
       </c>
       <c r="D2075" s="1" t="s">
-        <v>9193</v>
+        <v>9192</v>
       </c>
       <c r="E2075" s="1" t="s">
         <v>5921</v>
@@ -86487,7 +86487,7 @@
         <v>7</v>
       </c>
       <c r="D2076" s="1" t="s">
-        <v>9194</v>
+        <v>9193</v>
       </c>
       <c r="E2076" s="1" t="s">
         <v>5924</v>
@@ -86504,7 +86504,7 @@
         <v>7</v>
       </c>
       <c r="D2077" s="1" t="s">
-        <v>9195</v>
+        <v>9194</v>
       </c>
       <c r="E2077" s="1" t="s">
         <v>5927</v>
@@ -86521,7 +86521,7 @@
         <v>7</v>
       </c>
       <c r="D2078" s="1" t="s">
-        <v>9196</v>
+        <v>9195</v>
       </c>
       <c r="E2078" s="1" t="s">
         <v>5930</v>
@@ -86538,7 +86538,7 @@
         <v>7</v>
       </c>
       <c r="D2079" s="1" t="s">
-        <v>9197</v>
+        <v>9196</v>
       </c>
       <c r="E2079" s="1" t="s">
         <v>5934</v>
@@ -86555,7 +86555,7 @@
         <v>7</v>
       </c>
       <c r="D2080" s="1" t="s">
-        <v>9198</v>
+        <v>9197</v>
       </c>
       <c r="E2080" s="1" t="s">
         <v>5936</v>
@@ -86572,7 +86572,7 @@
         <v>7</v>
       </c>
       <c r="D2081" s="1" t="s">
-        <v>9199</v>
+        <v>9198</v>
       </c>
       <c r="E2081" s="1" t="s">
         <v>674</v>
@@ -86589,7 +86589,7 @@
         <v>7</v>
       </c>
       <c r="D2082" s="1" t="s">
-        <v>9200</v>
+        <v>9199</v>
       </c>
       <c r="E2082" s="1" t="s">
         <v>5940</v>
@@ -86606,7 +86606,7 @@
         <v>7</v>
       </c>
       <c r="D2083" s="1" t="s">
-        <v>9201</v>
+        <v>9200</v>
       </c>
       <c r="E2083" s="1" t="s">
         <v>5943</v>
@@ -86623,7 +86623,7 @@
         <v>7</v>
       </c>
       <c r="D2084" s="1" t="s">
-        <v>9202</v>
+        <v>9201</v>
       </c>
       <c r="E2084" s="1" t="s">
         <v>5946</v>
@@ -86640,7 +86640,7 @@
         <v>7</v>
       </c>
       <c r="D2085" s="1" t="s">
-        <v>9203</v>
+        <v>9202</v>
       </c>
       <c r="E2085" s="1" t="s">
         <v>5949</v>
@@ -86657,7 +86657,7 @@
         <v>7</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>9204</v>
+        <v>9203</v>
       </c>
       <c r="E2086" s="1" t="s">
         <v>5952</v>
@@ -86674,7 +86674,7 @@
         <v>7</v>
       </c>
       <c r="D2087" s="1" t="s">
-        <v>9205</v>
+        <v>9204</v>
       </c>
       <c r="E2087" s="1" t="s">
         <v>5954</v>
@@ -86691,7 +86691,7 @@
         <v>7</v>
       </c>
       <c r="D2088" s="1" t="s">
-        <v>9206</v>
+        <v>9205</v>
       </c>
       <c r="E2088" s="1" t="s">
         <v>5956</v>
@@ -86708,7 +86708,7 @@
         <v>7</v>
       </c>
       <c r="D2089" s="1" t="s">
-        <v>9207</v>
+        <v>9206</v>
       </c>
       <c r="E2089" s="1" t="s">
         <v>5960</v>
@@ -86725,7 +86725,7 @@
         <v>7</v>
       </c>
       <c r="D2090" s="1" t="s">
-        <v>9208</v>
+        <v>9207</v>
       </c>
       <c r="E2090" s="1" t="s">
         <v>5962</v>
@@ -86759,7 +86759,7 @@
         <v>7</v>
       </c>
       <c r="D2092" s="1" t="s">
-        <v>9209</v>
+        <v>9208</v>
       </c>
       <c r="E2092" s="1" t="s">
         <v>998</v>
@@ -86776,7 +86776,7 @@
         <v>7</v>
       </c>
       <c r="D2093" s="1" t="s">
-        <v>9210</v>
+        <v>9209</v>
       </c>
       <c r="E2093" s="1" t="s">
         <v>5968</v>
@@ -86793,7 +86793,7 @@
         <v>7</v>
       </c>
       <c r="D2094" s="4" t="s">
-        <v>9211</v>
+        <v>9210</v>
       </c>
       <c r="E2094" s="4" t="s">
         <v>5971</v>
@@ -86810,7 +86810,7 @@
         <v>7</v>
       </c>
       <c r="D2095" s="1" t="s">
-        <v>9212</v>
+        <v>9211</v>
       </c>
       <c r="E2095" s="1" t="s">
         <v>5974</v>
@@ -86827,7 +86827,7 @@
         <v>7</v>
       </c>
       <c r="D2096" s="1" t="s">
-        <v>9213</v>
+        <v>9212</v>
       </c>
       <c r="E2096" s="1" t="s">
         <v>5977</v>
@@ -86844,7 +86844,7 @@
         <v>7</v>
       </c>
       <c r="D2097" s="1" t="s">
-        <v>9214</v>
+        <v>9213</v>
       </c>
       <c r="E2097" s="1" t="s">
         <v>5980</v>
@@ -86861,7 +86861,7 @@
         <v>7</v>
       </c>
       <c r="D2098" s="1" t="s">
-        <v>9215</v>
+        <v>9214</v>
       </c>
       <c r="E2098" s="1" t="s">
         <v>5983</v>
@@ -86878,7 +86878,7 @@
         <v>1165</v>
       </c>
       <c r="D2099" s="1" t="s">
-        <v>9216</v>
+        <v>9215</v>
       </c>
       <c r="E2099" s="1" t="s">
         <v>5985</v>
@@ -86895,7 +86895,7 @@
         <v>7</v>
       </c>
       <c r="D2100" s="1" t="s">
-        <v>9217</v>
+        <v>9216</v>
       </c>
       <c r="E2100" s="1" t="s">
         <v>5988</v>
@@ -86912,7 +86912,7 @@
         <v>7</v>
       </c>
       <c r="D2101" s="1" t="s">
-        <v>9218</v>
+        <v>9217</v>
       </c>
       <c r="E2101" s="1" t="s">
         <v>605</v>
@@ -86929,7 +86929,7 @@
         <v>46</v>
       </c>
       <c r="D2102" s="1" t="s">
-        <v>9171</v>
+        <v>9170</v>
       </c>
       <c r="E2102" s="1" t="s">
         <v>5863</v>
@@ -86946,7 +86946,7 @@
         <v>46</v>
       </c>
       <c r="D2103" s="1" t="s">
-        <v>9219</v>
+        <v>9218</v>
       </c>
       <c r="E2103" s="1" t="s">
         <v>2591</v>
@@ -86980,7 +86980,7 @@
         <v>7</v>
       </c>
       <c r="D2105" s="1" t="s">
-        <v>9220</v>
+        <v>9219</v>
       </c>
       <c r="E2105" s="1" t="s">
         <v>5996</v>
@@ -86997,7 +86997,7 @@
         <v>46</v>
       </c>
       <c r="D2106" s="1" t="s">
-        <v>9221</v>
+        <v>9220</v>
       </c>
       <c r="E2106" s="1" t="s">
         <v>3477</v>
@@ -87014,7 +87014,7 @@
         <v>7</v>
       </c>
       <c r="D2107" s="1" t="s">
-        <v>9222</v>
+        <v>9221</v>
       </c>
       <c r="E2107" s="1" t="s">
         <v>6001</v>
@@ -87048,7 +87048,7 @@
         <v>7</v>
       </c>
       <c r="D2109" s="1" t="s">
-        <v>9223</v>
+        <v>9222</v>
       </c>
       <c r="E2109" s="1" t="s">
         <v>6005</v>
@@ -87065,7 +87065,7 @@
         <v>7</v>
       </c>
       <c r="D2110" s="1" t="s">
-        <v>9224</v>
+        <v>9223</v>
       </c>
       <c r="E2110" s="1" t="s">
         <v>6008</v>
@@ -87082,7 +87082,7 @@
         <v>7</v>
       </c>
       <c r="D2111" s="1" t="s">
-        <v>9225</v>
+        <v>9224</v>
       </c>
       <c r="E2111" s="1" t="s">
         <v>6011</v>
@@ -87099,7 +87099,7 @@
         <v>7</v>
       </c>
       <c r="D2112" s="1" t="s">
-        <v>9226</v>
+        <v>9225</v>
       </c>
       <c r="E2112" s="1" t="s">
         <v>6014</v>
@@ -87116,7 +87116,7 @@
         <v>46</v>
       </c>
       <c r="D2113" s="1" t="s">
-        <v>9227</v>
+        <v>9226</v>
       </c>
       <c r="E2113" s="1" t="s">
         <v>6017</v>
@@ -87133,7 +87133,7 @@
         <v>46</v>
       </c>
       <c r="D2114" s="1" t="s">
-        <v>9228</v>
+        <v>9227</v>
       </c>
       <c r="E2114" s="1" t="s">
         <v>6021</v>
@@ -87150,7 +87150,7 @@
         <v>3252</v>
       </c>
       <c r="D2115" s="1" t="s">
-        <v>9229</v>
+        <v>9228</v>
       </c>
       <c r="E2115" s="1" t="s">
         <v>6023</v>
@@ -87167,7 +87167,7 @@
         <v>46</v>
       </c>
       <c r="D2116" s="1" t="s">
-        <v>9230</v>
+        <v>9229</v>
       </c>
       <c r="E2116" s="1" t="s">
         <v>1910</v>
@@ -87184,7 +87184,7 @@
         <v>7</v>
       </c>
       <c r="D2117" s="1" t="s">
-        <v>9231</v>
+        <v>9230</v>
       </c>
       <c r="E2117" s="1" t="s">
         <v>6028</v>
@@ -87201,7 +87201,7 @@
         <v>7</v>
       </c>
       <c r="D2118" s="1" t="s">
-        <v>9232</v>
+        <v>9231</v>
       </c>
       <c r="E2118" s="1" t="s">
         <v>6031</v>
@@ -87218,7 +87218,7 @@
         <v>7</v>
       </c>
       <c r="D2119" s="1" t="s">
-        <v>9233</v>
+        <v>9232</v>
       </c>
       <c r="E2119" s="1" t="s">
         <v>6034</v>
@@ -87235,7 +87235,7 @@
         <v>7</v>
       </c>
       <c r="D2120" s="1" t="s">
-        <v>9234</v>
+        <v>9233</v>
       </c>
       <c r="E2120" s="1" t="s">
         <v>6037</v>
@@ -87252,7 +87252,7 @@
         <v>7</v>
       </c>
       <c r="D2121" s="1" t="s">
-        <v>9235</v>
+        <v>9234</v>
       </c>
       <c r="E2121" s="1" t="s">
         <v>6040</v>
@@ -87269,7 +87269,7 @@
         <v>7</v>
       </c>
       <c r="D2122" s="1" t="s">
-        <v>9236</v>
+        <v>9235</v>
       </c>
       <c r="E2122" s="1" t="s">
         <v>6043</v>
@@ -87286,7 +87286,7 @@
         <v>7</v>
       </c>
       <c r="D2123" s="1" t="s">
-        <v>9237</v>
+        <v>9236</v>
       </c>
       <c r="E2123" s="1" t="s">
         <v>6046</v>
@@ -87303,7 +87303,7 @@
         <v>7</v>
       </c>
       <c r="D2124" s="1" t="s">
-        <v>9238</v>
+        <v>9237</v>
       </c>
       <c r="E2124" s="1" t="s">
         <v>2675</v>
@@ -87320,7 +87320,7 @@
         <v>2929</v>
       </c>
       <c r="D2125" s="1" t="s">
-        <v>9239</v>
+        <v>9238</v>
       </c>
       <c r="E2125" s="1" t="s">
         <v>6049</v>
@@ -87337,7 +87337,7 @@
         <v>7</v>
       </c>
       <c r="D2126" s="1" t="s">
-        <v>9240</v>
+        <v>9239</v>
       </c>
       <c r="E2126" s="1" t="s">
         <v>6052</v>
@@ -87354,7 +87354,7 @@
         <v>2172</v>
       </c>
       <c r="D2127" s="1" t="s">
-        <v>9241</v>
+        <v>9240</v>
       </c>
       <c r="E2127" s="1" t="s">
         <v>6055</v>
@@ -87371,7 +87371,7 @@
         <v>7</v>
       </c>
       <c r="D2128" s="1" t="s">
-        <v>9242</v>
+        <v>9241</v>
       </c>
       <c r="E2128" s="1" t="s">
         <v>2360</v>
@@ -87388,7 +87388,7 @@
         <v>7</v>
       </c>
       <c r="D2129" s="1" t="s">
-        <v>9243</v>
+        <v>9242</v>
       </c>
       <c r="E2129" s="1" t="s">
         <v>6059</v>
@@ -87405,7 +87405,7 @@
         <v>7</v>
       </c>
       <c r="D2130" s="1" t="s">
-        <v>9244</v>
+        <v>9243</v>
       </c>
       <c r="E2130" s="1" t="s">
         <v>6062</v>
@@ -87422,7 +87422,7 @@
         <v>53</v>
       </c>
       <c r="D2131" s="1" t="s">
-        <v>9245</v>
+        <v>9244</v>
       </c>
       <c r="E2131" s="1" t="s">
         <v>6065</v>
@@ -87439,7 +87439,7 @@
         <v>53</v>
       </c>
       <c r="D2132" s="1" t="s">
-        <v>9246</v>
+        <v>9245</v>
       </c>
       <c r="E2132" s="1" t="s">
         <v>6068</v>
@@ -87456,7 +87456,7 @@
         <v>7</v>
       </c>
       <c r="D2133" s="1" t="s">
-        <v>9247</v>
+        <v>9246</v>
       </c>
       <c r="E2133" s="1" t="s">
         <v>6072</v>
@@ -87476,7 +87476,7 @@
         <v>6074</v>
       </c>
       <c r="D2134" s="1" t="s">
-        <v>9248</v>
+        <v>9247</v>
       </c>
       <c r="E2134" s="1" t="s">
         <v>3614</v>
@@ -87496,7 +87496,7 @@
         <v>6074</v>
       </c>
       <c r="D2135" s="1" t="s">
-        <v>9249</v>
+        <v>9248</v>
       </c>
       <c r="E2135" s="1" t="s">
         <v>6077</v>
@@ -87516,7 +87516,7 @@
         <v>6074</v>
       </c>
       <c r="D2136" s="4" t="s">
-        <v>9250</v>
+        <v>9249</v>
       </c>
       <c r="E2136" s="4" t="s">
         <v>6080</v>
@@ -87536,7 +87536,7 @@
         <v>6074</v>
       </c>
       <c r="D2137" s="1" t="s">
-        <v>9251</v>
+        <v>9250</v>
       </c>
       <c r="E2137" s="1" t="s">
         <v>6083</v>
@@ -87556,7 +87556,7 @@
         <v>6074</v>
       </c>
       <c r="D2138" s="4" t="s">
-        <v>9252</v>
+        <v>9251</v>
       </c>
       <c r="E2138" s="4" t="s">
         <v>6086</v>
@@ -87576,7 +87576,7 @@
         <v>6074</v>
       </c>
       <c r="D2139" s="1" t="s">
-        <v>9253</v>
+        <v>9252</v>
       </c>
       <c r="E2139" s="1" t="s">
         <v>6089</v>
@@ -87596,7 +87596,7 @@
         <v>6074</v>
       </c>
       <c r="D2140" s="4" t="s">
-        <v>9254</v>
+        <v>9253</v>
       </c>
       <c r="E2140" s="4" t="s">
         <v>6092</v>
@@ -87616,7 +87616,7 @@
         <v>6074</v>
       </c>
       <c r="D2141" s="1" t="s">
-        <v>9255</v>
+        <v>9254</v>
       </c>
       <c r="E2141" s="1" t="s">
         <v>6095</v>
@@ -87636,7 +87636,7 @@
         <v>6098</v>
       </c>
       <c r="D2142" s="1" t="s">
-        <v>9256</v>
+        <v>9255</v>
       </c>
       <c r="E2142" s="1" t="s">
         <v>6099</v>
@@ -87656,7 +87656,7 @@
         <v>6098</v>
       </c>
       <c r="D2143" s="1" t="s">
-        <v>9257</v>
+        <v>9256</v>
       </c>
       <c r="E2143" s="1" t="s">
         <v>6102</v>
@@ -87676,7 +87676,7 @@
         <v>6098</v>
       </c>
       <c r="D2144" s="1" t="s">
-        <v>9258</v>
+        <v>9257</v>
       </c>
       <c r="E2144" s="1" t="s">
         <v>6105</v>
@@ -87696,7 +87696,7 @@
         <v>6098</v>
       </c>
       <c r="D2145" s="1" t="s">
-        <v>9259</v>
+        <v>9258</v>
       </c>
       <c r="E2145" s="1" t="s">
         <v>6108</v>
@@ -87716,7 +87716,7 @@
         <v>6098</v>
       </c>
       <c r="D2146" s="1" t="s">
-        <v>9260</v>
+        <v>9259</v>
       </c>
       <c r="E2146" s="1" t="s">
         <v>6111</v>
@@ -87736,7 +87736,7 @@
         <v>6098</v>
       </c>
       <c r="D2147" s="1" t="s">
-        <v>9261</v>
+        <v>9260</v>
       </c>
       <c r="E2147" s="1" t="s">
         <v>6114</v>
@@ -87756,7 +87756,7 @@
         <v>6098</v>
       </c>
       <c r="D2148" s="1" t="s">
-        <v>9262</v>
+        <v>9261</v>
       </c>
       <c r="E2148" s="1" t="s">
         <v>6117</v>
@@ -87816,7 +87816,7 @@
         <v>6098</v>
       </c>
       <c r="D2151" s="1" t="s">
-        <v>9263</v>
+        <v>9262</v>
       </c>
       <c r="E2151" s="1" t="s">
         <v>6124</v>
@@ -87876,7 +87876,7 @@
         <v>6098</v>
       </c>
       <c r="D2154" s="1" t="s">
-        <v>9264</v>
+        <v>9263</v>
       </c>
       <c r="E2154" s="1" t="s">
         <v>6131</v>
@@ -87896,7 +87896,7 @@
         <v>6098</v>
       </c>
       <c r="D2155" s="1" t="s">
-        <v>9265</v>
+        <v>9264</v>
       </c>
       <c r="E2155" s="1" t="s">
         <v>6134</v>
@@ -87916,7 +87916,7 @@
         <v>6098</v>
       </c>
       <c r="D2156" s="1" t="s">
-        <v>9266</v>
+        <v>9265</v>
       </c>
       <c r="E2156" s="1" t="s">
         <v>6137</v>
@@ -87936,7 +87936,7 @@
         <v>6098</v>
       </c>
       <c r="D2157" s="1" t="s">
-        <v>9267</v>
+        <v>9266</v>
       </c>
       <c r="E2157" s="1" t="s">
         <v>6140</v>
@@ -87956,7 +87956,7 @@
         <v>6098</v>
       </c>
       <c r="D2158" s="1" t="s">
-        <v>9268</v>
+        <v>9267</v>
       </c>
       <c r="E2158" s="1" t="s">
         <v>6143</v>
@@ -87976,7 +87976,7 @@
         <v>6098</v>
       </c>
       <c r="D2159" s="1" t="s">
-        <v>9269</v>
+        <v>9268</v>
       </c>
       <c r="E2159" s="1" t="s">
         <v>6146</v>
@@ -87996,7 +87996,7 @@
         <v>6098</v>
       </c>
       <c r="D2160" s="1" t="s">
-        <v>9270</v>
+        <v>9269</v>
       </c>
       <c r="E2160" s="1" t="s">
         <v>6149</v>
@@ -88033,7 +88033,7 @@
         <v>46</v>
       </c>
       <c r="D2162" s="1" t="s">
-        <v>9271</v>
+        <v>9270</v>
       </c>
       <c r="E2162" s="1" t="s">
         <v>735</v>
@@ -88155,7 +88155,7 @@
         <v>6169</v>
       </c>
       <c r="D2169" s="4" t="s">
-        <v>9272</v>
+        <v>9271</v>
       </c>
       <c r="E2169" s="4" t="s">
         <v>6170</v>
@@ -88195,7 +88195,7 @@
         <v>6169</v>
       </c>
       <c r="D2171" s="1" t="s">
-        <v>9273</v>
+        <v>9272</v>
       </c>
       <c r="E2171" s="1" t="s">
         <v>6175</v>
@@ -88215,7 +88215,7 @@
         <v>6169</v>
       </c>
       <c r="D2172" s="1" t="s">
-        <v>9274</v>
+        <v>9273</v>
       </c>
       <c r="E2172" s="1" t="s">
         <v>6178</v>
@@ -88255,7 +88255,7 @@
         <v>6169</v>
       </c>
       <c r="D2174" s="1" t="s">
-        <v>9275</v>
+        <v>9274</v>
       </c>
       <c r="E2174" s="1" t="s">
         <v>6182</v>
@@ -88275,7 +88275,7 @@
         <v>6169</v>
       </c>
       <c r="D2175" s="1" t="s">
-        <v>9276</v>
+        <v>9275</v>
       </c>
       <c r="E2175" s="1" t="s">
         <v>6185</v>
@@ -88295,7 +88295,7 @@
         <v>6169</v>
       </c>
       <c r="D2176" s="4" t="s">
-        <v>9277</v>
+        <v>9276</v>
       </c>
       <c r="E2176" s="4" t="s">
         <v>6188</v>
@@ -88315,7 +88315,7 @@
         <v>6169</v>
       </c>
       <c r="D2177" s="1" t="s">
-        <v>9278</v>
+        <v>9277</v>
       </c>
       <c r="E2177" s="1" t="s">
         <v>6191</v>
@@ -88335,7 +88335,7 @@
         <v>6169</v>
       </c>
       <c r="D2178" s="4" t="s">
-        <v>9279</v>
+        <v>9278</v>
       </c>
       <c r="E2178" s="4" t="s">
         <v>6194</v>
@@ -88355,7 +88355,7 @@
         <v>6169</v>
       </c>
       <c r="D2179" t="s">
-        <v>9280</v>
+        <v>9279</v>
       </c>
       <c r="E2179" t="s">
         <v>6198</v>
@@ -88375,7 +88375,7 @@
         <v>6169</v>
       </c>
       <c r="D2180" s="1" t="s">
-        <v>9281</v>
+        <v>9280</v>
       </c>
       <c r="E2180" s="1" t="s">
         <v>6201</v>
@@ -88395,7 +88395,7 @@
         <v>6169</v>
       </c>
       <c r="D2181" s="1" t="s">
-        <v>9282</v>
+        <v>9281</v>
       </c>
       <c r="E2181" s="1" t="s">
         <v>6204</v>
@@ -88415,7 +88415,7 @@
         <v>6169</v>
       </c>
       <c r="D2182" s="1" t="s">
-        <v>9283</v>
+        <v>9282</v>
       </c>
       <c r="E2182" s="1" t="s">
         <v>6207</v>
@@ -88435,7 +88435,7 @@
         <v>6169</v>
       </c>
       <c r="D2183" s="1" t="s">
-        <v>9284</v>
+        <v>9283</v>
       </c>
       <c r="E2183" s="1" t="s">
         <v>6210</v>
@@ -88475,7 +88475,7 @@
         <v>6169</v>
       </c>
       <c r="D2185" s="1" t="s">
-        <v>9285</v>
+        <v>9284</v>
       </c>
       <c r="E2185" s="1" t="s">
         <v>6216</v>
@@ -88492,7 +88492,7 @@
         <v>7</v>
       </c>
       <c r="D2186" s="1" t="s">
-        <v>9286</v>
+        <v>9285</v>
       </c>
       <c r="E2186" s="1" t="s">
         <v>6219</v>
@@ -88512,7 +88512,7 @@
         <v>1885</v>
       </c>
       <c r="D2187" s="1" t="s">
-        <v>9287</v>
+        <v>9286</v>
       </c>
       <c r="E2187" s="1" t="s">
         <v>6222</v>
@@ -88532,7 +88532,7 @@
         <v>1885</v>
       </c>
       <c r="D2188" s="1" t="s">
-        <v>9288</v>
+        <v>9287</v>
       </c>
       <c r="E2188" s="1" t="s">
         <v>6225</v>
@@ -88552,7 +88552,7 @@
         <v>1885</v>
       </c>
       <c r="D2189" s="1" t="s">
-        <v>9289</v>
+        <v>9288</v>
       </c>
       <c r="E2189" s="1" t="s">
         <v>6228</v>
@@ -88572,7 +88572,7 @@
         <v>1885</v>
       </c>
       <c r="D2190" s="1" t="s">
-        <v>9290</v>
+        <v>9289</v>
       </c>
       <c r="E2190" s="1" t="s">
         <v>6231</v>
@@ -88592,7 +88592,7 @@
         <v>1885</v>
       </c>
       <c r="D2191" s="1" t="s">
-        <v>9291</v>
+        <v>9290</v>
       </c>
       <c r="E2191" s="1" t="s">
         <v>6234</v>
@@ -88612,7 +88612,7 @@
         <v>1885</v>
       </c>
       <c r="D2192" s="4" t="s">
-        <v>9292</v>
+        <v>9291</v>
       </c>
       <c r="E2192" s="4" t="s">
         <v>6237</v>
@@ -88629,7 +88629,7 @@
         <v>7</v>
       </c>
       <c r="D2193" s="1" t="s">
-        <v>9293</v>
+        <v>9292</v>
       </c>
       <c r="E2193" s="1" t="s">
         <v>6240</v>
@@ -88646,7 +88646,7 @@
         <v>7</v>
       </c>
       <c r="D2194" s="1" t="s">
-        <v>9294</v>
+        <v>9293</v>
       </c>
       <c r="E2194" s="1" t="s">
         <v>6243</v>
@@ -88666,7 +88666,7 @@
         <v>5518</v>
       </c>
       <c r="D2195" s="1" t="s">
-        <v>9295</v>
+        <v>9294</v>
       </c>
       <c r="E2195" s="1" t="s">
         <v>6246</v>
@@ -88686,7 +88686,7 @@
         <v>5518</v>
       </c>
       <c r="D2196" s="1" t="s">
-        <v>9296</v>
+        <v>9295</v>
       </c>
       <c r="E2196" s="1" t="s">
         <v>6249</v>
@@ -88706,7 +88706,7 @@
         <v>5518</v>
       </c>
       <c r="D2197" s="1" t="s">
-        <v>9297</v>
+        <v>9296</v>
       </c>
       <c r="E2197" s="1" t="s">
         <v>6252</v>
@@ -88726,7 +88726,7 @@
         <v>5518</v>
       </c>
       <c r="D2198" s="1" t="s">
-        <v>9298</v>
+        <v>9297</v>
       </c>
       <c r="E2198" s="1" t="s">
         <v>6255</v>
@@ -88746,7 +88746,7 @@
         <v>5518</v>
       </c>
       <c r="D2199" s="1" t="s">
-        <v>9299</v>
+        <v>9298</v>
       </c>
       <c r="E2199" s="1" t="s">
         <v>6259</v>
@@ -88766,7 +88766,7 @@
         <v>5518</v>
       </c>
       <c r="D2200" s="1" t="s">
-        <v>9300</v>
+        <v>9299</v>
       </c>
       <c r="E2200" s="1" t="s">
         <v>6261</v>
@@ -88786,7 +88786,7 @@
         <v>5518</v>
       </c>
       <c r="D2201" s="1" t="s">
-        <v>9301</v>
+        <v>9300</v>
       </c>
       <c r="E2201" s="1" t="s">
         <v>6264</v>
@@ -88806,7 +88806,7 @@
         <v>5518</v>
       </c>
       <c r="D2202" s="1" t="s">
-        <v>9302</v>
+        <v>9301</v>
       </c>
       <c r="E2202" s="1" t="s">
         <v>6266</v>
@@ -88826,7 +88826,7 @@
         <v>6268</v>
       </c>
       <c r="D2203" s="1" t="s">
-        <v>9303</v>
+        <v>9302</v>
       </c>
       <c r="E2203" s="1" t="s">
         <v>6269</v>
@@ -88846,7 +88846,7 @@
         <v>5518</v>
       </c>
       <c r="D2204" s="4" t="s">
-        <v>9304</v>
+        <v>9303</v>
       </c>
       <c r="E2204" s="4" t="s">
         <v>6272</v>
@@ -88866,7 +88866,7 @@
         <v>5518</v>
       </c>
       <c r="D2205" s="1" t="s">
-        <v>9305</v>
+        <v>9304</v>
       </c>
       <c r="E2205" s="1" t="s">
         <v>6275</v>
@@ -88886,7 +88886,7 @@
         <v>6268</v>
       </c>
       <c r="D2206" s="1" t="s">
-        <v>9306</v>
+        <v>9305</v>
       </c>
       <c r="E2206" s="1" t="s">
         <v>6278</v>
@@ -88906,7 +88906,7 @@
         <v>6268</v>
       </c>
       <c r="D2207" s="1" t="s">
-        <v>9307</v>
+        <v>9306</v>
       </c>
       <c r="E2207" s="1" t="s">
         <v>6281</v>
@@ -88923,7 +88923,7 @@
         <v>7</v>
       </c>
       <c r="D2208" s="1" t="s">
-        <v>9308</v>
+        <v>9307</v>
       </c>
       <c r="E2208" s="1" t="s">
         <v>6284</v>
@@ -88943,7 +88943,7 @@
         <v>6268</v>
       </c>
       <c r="D2209" s="4" t="s">
-        <v>9309</v>
+        <v>9308</v>
       </c>
       <c r="E2209" s="4" t="s">
         <v>6287</v>
@@ -88963,7 +88963,7 @@
         <v>6268</v>
       </c>
       <c r="D2210" s="1" t="s">
-        <v>9310</v>
+        <v>9309</v>
       </c>
       <c r="E2210" s="1" t="s">
         <v>6290</v>
@@ -88983,7 +88983,7 @@
         <v>6268</v>
       </c>
       <c r="D2211" s="1" t="s">
-        <v>9311</v>
+        <v>9310</v>
       </c>
       <c r="E2211" s="1" t="s">
         <v>6293</v>
@@ -89003,7 +89003,7 @@
         <v>6268</v>
       </c>
       <c r="D2212" s="1" t="s">
-        <v>9312</v>
+        <v>9311</v>
       </c>
       <c r="E2212" s="1" t="s">
         <v>6296</v>
@@ -89023,7 +89023,7 @@
         <v>6299</v>
       </c>
       <c r="D2213" s="1" t="s">
-        <v>9313</v>
+        <v>9312</v>
       </c>
       <c r="E2213" s="1" t="s">
         <v>6300</v>
@@ -89043,7 +89043,7 @@
         <v>6299</v>
       </c>
       <c r="D2214" s="1" t="s">
-        <v>9314</v>
+        <v>9313</v>
       </c>
       <c r="E2214" s="1" t="s">
         <v>6303</v>
@@ -89063,7 +89063,7 @@
         <v>6299</v>
       </c>
       <c r="D2215" s="1" t="s">
-        <v>9315</v>
+        <v>9314</v>
       </c>
       <c r="E2215" s="1" t="s">
         <v>994</v>
@@ -89123,7 +89123,7 @@
         <v>6311</v>
       </c>
       <c r="D2218" s="1" t="s">
-        <v>9316</v>
+        <v>9315</v>
       </c>
       <c r="E2218" s="1" t="s">
         <v>6312</v>
@@ -89143,7 +89143,7 @@
         <v>6311</v>
       </c>
       <c r="D2219" s="1" t="s">
-        <v>9317</v>
+        <v>9316</v>
       </c>
       <c r="E2219" s="1" t="s">
         <v>6315</v>
@@ -89163,7 +89163,7 @@
         <v>6311</v>
       </c>
       <c r="D2220" s="1" t="s">
-        <v>9318</v>
+        <v>9317</v>
       </c>
       <c r="E2220" s="1" t="s">
         <v>4161</v>
@@ -89183,7 +89183,7 @@
         <v>6311</v>
       </c>
       <c r="D2221" s="1" t="s">
-        <v>9319</v>
+        <v>9318</v>
       </c>
       <c r="E2221" s="1" t="s">
         <v>6319</v>
@@ -89203,7 +89203,7 @@
         <v>6311</v>
       </c>
       <c r="D2222" s="1" t="s">
-        <v>9320</v>
+        <v>9319</v>
       </c>
       <c r="E2222" s="1" t="s">
         <v>6322</v>
@@ -89223,7 +89223,7 @@
         <v>6311</v>
       </c>
       <c r="D2223" s="1" t="s">
-        <v>9321</v>
+        <v>9320</v>
       </c>
       <c r="E2223" s="1" t="s">
         <v>6326</v>
@@ -89243,7 +89243,7 @@
         <v>6311</v>
       </c>
       <c r="D2224" s="1" t="s">
-        <v>9322</v>
+        <v>9321</v>
       </c>
       <c r="E2224" s="1" t="s">
         <v>6328</v>
@@ -89263,7 +89263,7 @@
         <v>6311</v>
       </c>
       <c r="D2225" s="1" t="s">
-        <v>9323</v>
+        <v>9322</v>
       </c>
       <c r="E2225" s="1" t="s">
         <v>6331</v>
@@ -89283,7 +89283,7 @@
         <v>6311</v>
       </c>
       <c r="D2226" s="1" t="s">
-        <v>9324</v>
+        <v>9323</v>
       </c>
       <c r="E2226" s="1" t="s">
         <v>6334</v>
@@ -89303,7 +89303,7 @@
         <v>6311</v>
       </c>
       <c r="D2227" s="1" t="s">
-        <v>9325</v>
+        <v>9324</v>
       </c>
       <c r="E2227" s="1" t="s">
         <v>6337</v>
@@ -89323,7 +89323,7 @@
         <v>6311</v>
       </c>
       <c r="D2228" s="1" t="s">
-        <v>9326</v>
+        <v>9325</v>
       </c>
       <c r="E2228" s="1" t="s">
         <v>6340</v>
@@ -89343,7 +89343,7 @@
         <v>6311</v>
       </c>
       <c r="D2229" s="1" t="s">
-        <v>9327</v>
+        <v>9326</v>
       </c>
       <c r="E2229" s="1" t="s">
         <v>6343</v>
@@ -89363,7 +89363,7 @@
         <v>6346</v>
       </c>
       <c r="D2230" s="1" t="s">
-        <v>9328</v>
+        <v>9327</v>
       </c>
       <c r="E2230" s="1" t="s">
         <v>6347</v>
@@ -89403,7 +89403,7 @@
         <v>6346</v>
       </c>
       <c r="D2232" s="1" t="s">
-        <v>9329</v>
+        <v>9328</v>
       </c>
       <c r="E2232" s="1" t="s">
         <v>6353</v>
@@ -89420,7 +89420,7 @@
         <v>119</v>
       </c>
       <c r="D2233" s="1" t="s">
-        <v>9330</v>
+        <v>9329</v>
       </c>
       <c r="E2233" s="1" t="s">
         <v>6356</v>
@@ -89437,7 +89437,7 @@
         <v>119</v>
       </c>
       <c r="D2234" s="1" t="s">
-        <v>9331</v>
+        <v>9330</v>
       </c>
       <c r="E2234" s="1" t="s">
         <v>6359</v>
@@ -89454,7 +89454,7 @@
         <v>119</v>
       </c>
       <c r="D2235" s="1" t="s">
-        <v>9332</v>
+        <v>9331</v>
       </c>
       <c r="E2235" s="1" t="s">
         <v>6362</v>
@@ -89471,7 +89471,7 @@
         <v>119</v>
       </c>
       <c r="D2236" s="1" t="s">
-        <v>9333</v>
+        <v>9332</v>
       </c>
       <c r="E2236" s="1" t="s">
         <v>6365</v>
@@ -89488,7 +89488,7 @@
         <v>53</v>
       </c>
       <c r="D2237" s="1" t="s">
-        <v>9334</v>
+        <v>9333</v>
       </c>
       <c r="E2237" s="1" t="s">
         <v>6368</v>
@@ -89522,7 +89522,7 @@
         <v>53</v>
       </c>
       <c r="D2239" s="1" t="s">
-        <v>9335</v>
+        <v>9334</v>
       </c>
       <c r="E2239" s="1" t="s">
         <v>6374</v>
@@ -89539,7 +89539,7 @@
         <v>53</v>
       </c>
       <c r="D2240" s="1" t="s">
-        <v>9336</v>
+        <v>9335</v>
       </c>
       <c r="E2240" s="1" t="s">
         <v>6377</v>
@@ -89556,7 +89556,7 @@
         <v>53</v>
       </c>
       <c r="D2241" s="1" t="s">
-        <v>9337</v>
+        <v>9336</v>
       </c>
       <c r="E2241" s="1" t="s">
         <v>6380</v>
@@ -89573,7 +89573,7 @@
         <v>12</v>
       </c>
       <c r="D2242" s="1" t="s">
-        <v>9338</v>
+        <v>9337</v>
       </c>
       <c r="E2242" s="1" t="s">
         <v>6383</v>
@@ -89590,7 +89590,7 @@
         <v>12</v>
       </c>
       <c r="D2243" s="1" t="s">
-        <v>9339</v>
+        <v>9338</v>
       </c>
       <c r="E2243" s="1" t="s">
         <v>6386</v>
@@ -89607,7 +89607,7 @@
         <v>12</v>
       </c>
       <c r="D2244" s="1" t="s">
-        <v>9340</v>
+        <v>9339</v>
       </c>
       <c r="E2244" s="1" t="s">
         <v>6389</v>
@@ -89641,7 +89641,7 @@
         <v>970</v>
       </c>
       <c r="D2246" s="1" t="s">
-        <v>9341</v>
+        <v>9340</v>
       </c>
       <c r="E2246" s="1" t="s">
         <v>6393</v>
@@ -89658,7 +89658,7 @@
         <v>46</v>
       </c>
       <c r="D2247" s="1" t="s">
-        <v>9342</v>
+        <v>9341</v>
       </c>
       <c r="E2247" s="1" t="s">
         <v>6396</v>
@@ -89678,7 +89678,7 @@
         <v>5862</v>
       </c>
       <c r="D2248" s="1" t="s">
-        <v>9343</v>
+        <v>9342</v>
       </c>
       <c r="E2248" s="1" t="s">
         <v>6399</v>
@@ -89698,7 +89698,7 @@
         <v>5862</v>
       </c>
       <c r="D2249" s="1" t="s">
-        <v>9344</v>
+        <v>9343</v>
       </c>
       <c r="E2249" s="1" t="s">
         <v>6402</v>
@@ -89718,7 +89718,7 @@
         <v>5862</v>
       </c>
       <c r="D2250" s="1" t="s">
-        <v>9345</v>
+        <v>9344</v>
       </c>
       <c r="E2250" s="1" t="s">
         <v>6405</v>
@@ -89738,7 +89738,7 @@
         <v>5862</v>
       </c>
       <c r="D2251" s="1" t="s">
-        <v>9345</v>
+        <v>9344</v>
       </c>
       <c r="E2251" s="1" t="s">
         <v>6405</v>
@@ -89758,7 +89758,7 @@
         <v>5862</v>
       </c>
       <c r="D2252" s="1" t="s">
-        <v>9346</v>
+        <v>9345</v>
       </c>
       <c r="E2252" s="1" t="s">
         <v>6410</v>
@@ -89778,7 +89778,7 @@
         <v>5862</v>
       </c>
       <c r="D2253" s="1" t="s">
-        <v>9347</v>
+        <v>9346</v>
       </c>
       <c r="E2253" s="1" t="s">
         <v>5271</v>
@@ -89798,7 +89798,7 @@
         <v>5862</v>
       </c>
       <c r="D2254" s="1" t="s">
-        <v>9348</v>
+        <v>9347</v>
       </c>
       <c r="E2254" s="1" t="s">
         <v>6415</v>
@@ -89818,7 +89818,7 @@
         <v>5862</v>
       </c>
       <c r="D2255" s="1" t="s">
-        <v>9349</v>
+        <v>9348</v>
       </c>
       <c r="E2255" s="1" t="s">
         <v>6418</v>
@@ -89858,7 +89858,7 @@
         <v>5862</v>
       </c>
       <c r="D2257" s="1" t="s">
-        <v>9350</v>
+        <v>9349</v>
       </c>
       <c r="E2257" s="1" t="s">
         <v>6423</v>
@@ -89892,7 +89892,7 @@
         <v>3627</v>
       </c>
       <c r="D2259" s="1" t="s">
-        <v>9351</v>
+        <v>9350</v>
       </c>
       <c r="E2259" s="1" t="s">
         <v>6429</v>
@@ -89909,7 +89909,7 @@
         <v>880</v>
       </c>
       <c r="D2260" s="1" t="s">
-        <v>9352</v>
+        <v>9351</v>
       </c>
       <c r="E2260" s="1" t="s">
         <v>6432</v>
@@ -89926,7 +89926,7 @@
         <v>1249</v>
       </c>
       <c r="D2261" s="1" t="s">
-        <v>9353</v>
+        <v>9352</v>
       </c>
       <c r="E2261" s="1" t="s">
         <v>6435</v>
@@ -89943,7 +89943,7 @@
         <v>134</v>
       </c>
       <c r="D2262" s="1" t="s">
-        <v>9354</v>
+        <v>9353</v>
       </c>
       <c r="E2262" s="1" t="s">
         <v>6438</v>
@@ -89960,7 +89960,7 @@
         <v>46</v>
       </c>
       <c r="D2263" s="1" t="s">
-        <v>9355</v>
+        <v>9354</v>
       </c>
       <c r="E2263" s="1" t="s">
         <v>6441</v>
@@ -89994,7 +89994,7 @@
         <v>46</v>
       </c>
       <c r="D2265" s="1" t="s">
-        <v>9356</v>
+        <v>9355</v>
       </c>
       <c r="E2265" s="1" t="s">
         <v>4869</v>
@@ -90028,7 +90028,7 @@
         <v>419</v>
       </c>
       <c r="D2267" s="1" t="s">
-        <v>9357</v>
+        <v>9356</v>
       </c>
       <c r="E2267" s="1" t="s">
         <v>6447</v>
@@ -90045,7 +90045,7 @@
         <v>134</v>
       </c>
       <c r="D2268" s="1" t="s">
-        <v>9358</v>
+        <v>9357</v>
       </c>
       <c r="E2268" s="1" t="s">
         <v>6450</v>
@@ -90062,7 +90062,7 @@
         <v>134</v>
       </c>
       <c r="D2269" s="1" t="s">
-        <v>9359</v>
+        <v>9358</v>
       </c>
       <c r="E2269" s="1" t="s">
         <v>6453</v>
@@ -90079,7 +90079,7 @@
         <v>134</v>
       </c>
       <c r="D2270" s="1" t="s">
-        <v>9360</v>
+        <v>9359</v>
       </c>
       <c r="E2270" s="1" t="s">
         <v>6456</v>
@@ -90096,7 +90096,7 @@
         <v>1409</v>
       </c>
       <c r="D2271" s="1" t="s">
-        <v>9361</v>
+        <v>9360</v>
       </c>
       <c r="E2271" s="1" t="s">
         <v>6459</v>
@@ -90113,7 +90113,7 @@
         <v>348</v>
       </c>
       <c r="D2272" s="1" t="s">
-        <v>9362</v>
+        <v>9361</v>
       </c>
       <c r="E2272" s="1" t="s">
         <v>6462</v>
@@ -90130,7 +90130,7 @@
         <v>134</v>
       </c>
       <c r="D2273" s="1" t="s">
-        <v>9363</v>
+        <v>9362</v>
       </c>
       <c r="E2273" s="1" t="s">
         <v>6465</v>
@@ -90147,7 +90147,7 @@
         <v>134</v>
       </c>
       <c r="D2274" s="1" t="s">
-        <v>9364</v>
+        <v>9363</v>
       </c>
       <c r="E2274" s="1" t="s">
         <v>6468</v>
@@ -90164,7 +90164,7 @@
         <v>134</v>
       </c>
       <c r="D2275" s="1" t="s">
-        <v>9365</v>
+        <v>9364</v>
       </c>
       <c r="E2275" s="1" t="s">
         <v>6471</v>
@@ -90181,7 +90181,7 @@
         <v>134</v>
       </c>
       <c r="D2276" s="1" t="s">
-        <v>9366</v>
+        <v>9365</v>
       </c>
       <c r="E2276" s="1" t="s">
         <v>6474</v>
@@ -90198,7 +90198,7 @@
         <v>109</v>
       </c>
       <c r="D2277" s="1" t="s">
-        <v>9367</v>
+        <v>9366</v>
       </c>
       <c r="E2277" s="1" t="s">
         <v>6477</v>
@@ -90215,7 +90215,7 @@
         <v>134</v>
       </c>
       <c r="D2278" s="1" t="s">
-        <v>9368</v>
+        <v>9367</v>
       </c>
       <c r="E2278" s="1" t="s">
         <v>6480</v>
@@ -90232,7 +90232,7 @@
         <v>134</v>
       </c>
       <c r="D2279" s="1" t="s">
-        <v>9369</v>
+        <v>9368</v>
       </c>
       <c r="E2279" s="1" t="s">
         <v>6483</v>
@@ -90249,7 +90249,7 @@
         <v>134</v>
       </c>
       <c r="D2280" s="1" t="s">
-        <v>9370</v>
+        <v>9369</v>
       </c>
       <c r="E2280" s="1" t="s">
         <v>6486</v>
@@ -90266,7 +90266,7 @@
         <v>5230</v>
       </c>
       <c r="D2281" s="1" t="s">
-        <v>9371</v>
+        <v>9370</v>
       </c>
       <c r="E2281" s="1" t="s">
         <v>6489</v>
@@ -90283,7 +90283,7 @@
         <v>5230</v>
       </c>
       <c r="D2282" s="1" t="s">
-        <v>9372</v>
+        <v>9371</v>
       </c>
       <c r="E2282" s="1" t="s">
         <v>6492</v>
@@ -90300,7 +90300,7 @@
         <v>5230</v>
       </c>
       <c r="D2283" s="1" t="s">
-        <v>9373</v>
+        <v>9372</v>
       </c>
       <c r="E2283" s="1" t="s">
         <v>6495</v>
@@ -90317,7 +90317,7 @@
         <v>880</v>
       </c>
       <c r="D2284" s="1" t="s">
-        <v>9374</v>
+        <v>9373</v>
       </c>
       <c r="E2284" s="1" t="s">
         <v>6498</v>
@@ -90334,7 +90334,7 @@
         <v>5230</v>
       </c>
       <c r="D2285" s="1" t="s">
-        <v>9375</v>
+        <v>9374</v>
       </c>
       <c r="E2285" s="1" t="s">
         <v>6501</v>
@@ -90368,7 +90368,7 @@
         <v>134</v>
       </c>
       <c r="D2287" s="1" t="s">
-        <v>9376</v>
+        <v>9375</v>
       </c>
       <c r="E2287" s="1" t="s">
         <v>6505</v>
@@ -90388,7 +90388,7 @@
         <v>2974</v>
       </c>
       <c r="D2288" t="s">
-        <v>9377</v>
+        <v>9376</v>
       </c>
       <c r="E2288" t="s">
         <v>6508</v>
@@ -90422,7 +90422,7 @@
         <v>87</v>
       </c>
       <c r="D2290" s="1" t="s">
-        <v>9378</v>
+        <v>9377</v>
       </c>
       <c r="E2290" s="1" t="s">
         <v>6513</v>
@@ -90439,7 +90439,7 @@
         <v>139</v>
       </c>
       <c r="D2291" s="1" t="s">
-        <v>9379</v>
+        <v>9378</v>
       </c>
       <c r="E2291" s="1" t="s">
         <v>6516</v>
@@ -90456,7 +90456,7 @@
         <v>139</v>
       </c>
       <c r="D2292" s="1" t="s">
-        <v>9380</v>
+        <v>9379</v>
       </c>
       <c r="E2292" s="1" t="s">
         <v>6519</v>
@@ -90473,7 +90473,7 @@
         <v>139</v>
       </c>
       <c r="D2293" s="1" t="s">
-        <v>9381</v>
+        <v>9380</v>
       </c>
       <c r="E2293" s="1" t="s">
         <v>6522</v>
@@ -90490,7 +90490,7 @@
         <v>87</v>
       </c>
       <c r="D2294" s="1" t="s">
-        <v>9382</v>
+        <v>9381</v>
       </c>
       <c r="E2294" s="1" t="s">
         <v>6525</v>
@@ -90507,7 +90507,7 @@
         <v>27</v>
       </c>
       <c r="D2295" s="1" t="s">
-        <v>9383</v>
+        <v>9382</v>
       </c>
       <c r="E2295" s="1" t="s">
         <v>6528</v>
@@ -90524,7 +90524,7 @@
         <v>27</v>
       </c>
       <c r="D2296" s="1" t="s">
-        <v>9384</v>
+        <v>9383</v>
       </c>
       <c r="E2296" s="1" t="s">
         <v>6531</v>
@@ -90541,7 +90541,7 @@
         <v>87</v>
       </c>
       <c r="D2297" s="1" t="s">
-        <v>9385</v>
+        <v>9384</v>
       </c>
       <c r="E2297" s="1" t="s">
         <v>6534</v>
@@ -90558,7 +90558,7 @@
         <v>27</v>
       </c>
       <c r="D2298" s="1" t="s">
-        <v>9386</v>
+        <v>9385</v>
       </c>
       <c r="E2298" s="1" t="s">
         <v>6537</v>
@@ -90575,7 +90575,7 @@
         <v>27</v>
       </c>
       <c r="D2299" s="1" t="s">
-        <v>9387</v>
+        <v>9386</v>
       </c>
       <c r="E2299" s="1" t="s">
         <v>6540</v>
@@ -90592,7 +90592,7 @@
         <v>27</v>
       </c>
       <c r="D2300" s="1" t="s">
-        <v>9388</v>
+        <v>9387</v>
       </c>
       <c r="E2300" s="1" t="s">
         <v>6543</v>
@@ -90609,7 +90609,7 @@
         <v>27</v>
       </c>
       <c r="D2301" s="1" t="s">
-        <v>9389</v>
+        <v>9388</v>
       </c>
       <c r="E2301" s="1" t="s">
         <v>6546</v>
@@ -90626,7 +90626,7 @@
         <v>87</v>
       </c>
       <c r="D2302" s="1" t="s">
-        <v>9390</v>
+        <v>9389</v>
       </c>
       <c r="E2302" s="1" t="s">
         <v>6550</v>
@@ -90643,7 +90643,7 @@
         <v>109</v>
       </c>
       <c r="D2303" s="1" t="s">
-        <v>9391</v>
+        <v>9390</v>
       </c>
       <c r="E2303" s="1" t="s">
         <v>6552</v>
@@ -90663,7 +90663,7 @@
         <v>1895</v>
       </c>
       <c r="D2304" s="1" t="s">
-        <v>9392</v>
+        <v>9391</v>
       </c>
       <c r="E2304" s="1" t="s">
         <v>6555</v>
@@ -90683,7 +90683,7 @@
         <v>1895</v>
       </c>
       <c r="D2305" s="1" t="s">
-        <v>9393</v>
+        <v>9392</v>
       </c>
       <c r="E2305" s="1" t="s">
         <v>6558</v>
@@ -90703,7 +90703,7 @@
         <v>1895</v>
       </c>
       <c r="D2306" s="1" t="s">
-        <v>9394</v>
+        <v>9393</v>
       </c>
       <c r="E2306" s="1" t="s">
         <v>6561</v>
@@ -90723,7 +90723,7 @@
         <v>2677</v>
       </c>
       <c r="D2307" s="1" t="s">
-        <v>9395</v>
+        <v>9394</v>
       </c>
       <c r="E2307" s="1" t="s">
         <v>6564</v>
@@ -90780,7 +90780,7 @@
         <v>87</v>
       </c>
       <c r="D2310" s="1" t="s">
-        <v>9396</v>
+        <v>9395</v>
       </c>
       <c r="E2310" s="1" t="s">
         <v>6569</v>
@@ -90797,7 +90797,7 @@
         <v>87</v>
       </c>
       <c r="D2311" s="1" t="s">
-        <v>9397</v>
+        <v>9396</v>
       </c>
       <c r="E2311" s="1" t="s">
         <v>6573</v>
@@ -90814,7 +90814,7 @@
         <v>87</v>
       </c>
       <c r="D2312" s="1" t="s">
-        <v>9398</v>
+        <v>9397</v>
       </c>
       <c r="E2312" s="1" t="s">
         <v>6575</v>
@@ -90834,7 +90834,7 @@
         <v>2383</v>
       </c>
       <c r="D2313" s="1" t="s">
-        <v>9399</v>
+        <v>9398</v>
       </c>
       <c r="E2313" s="1" t="s">
         <v>6578</v>
@@ -90851,7 +90851,7 @@
         <v>1295</v>
       </c>
       <c r="D2314" s="1" t="s">
-        <v>9400</v>
+        <v>9399</v>
       </c>
       <c r="E2314" s="1" t="s">
         <v>6581</v>
@@ -90871,7 +90871,7 @@
         <v>3848</v>
       </c>
       <c r="D2315" s="1" t="s">
-        <v>9401</v>
+        <v>9400</v>
       </c>
       <c r="E2315" s="1" t="s">
         <v>6584</v>
@@ -90888,7 +90888,7 @@
         <v>2161</v>
       </c>
       <c r="D2316" s="1" t="s">
-        <v>9402</v>
+        <v>9401</v>
       </c>
       <c r="E2316" s="1" t="s">
         <v>6587</v>
@@ -90905,7 +90905,7 @@
         <v>93</v>
       </c>
       <c r="D2317" s="1" t="s">
-        <v>9403</v>
+        <v>9402</v>
       </c>
       <c r="E2317" s="1" t="s">
         <v>6590</v>
@@ -90925,7 +90925,7 @@
         <v>3848</v>
       </c>
       <c r="D2318" s="1" t="s">
-        <v>9404</v>
+        <v>9403</v>
       </c>
       <c r="E2318" s="1" t="s">
         <v>4007</v>
@@ -90942,7 +90942,7 @@
         <v>3597</v>
       </c>
       <c r="D2319" s="1" t="s">
-        <v>9405</v>
+        <v>9404</v>
       </c>
       <c r="E2319" s="1" t="s">
         <v>6595</v>
@@ -90959,7 +90959,7 @@
         <v>348</v>
       </c>
       <c r="D2320" s="1" t="s">
-        <v>9406</v>
+        <v>9405</v>
       </c>
       <c r="E2320" s="1" t="s">
         <v>6598</v>
@@ -90979,7 +90979,7 @@
         <v>6601</v>
       </c>
       <c r="D2321" t="s">
-        <v>9407</v>
+        <v>9406</v>
       </c>
       <c r="E2321" t="s">
         <v>6603</v>
@@ -90999,7 +90999,7 @@
         <v>6601</v>
       </c>
       <c r="D2322" t="s">
-        <v>9408</v>
+        <v>9407</v>
       </c>
       <c r="E2322" t="s">
         <v>6605</v>
@@ -91039,7 +91039,7 @@
         <v>2876</v>
       </c>
       <c r="D2324" s="1" t="s">
-        <v>9409</v>
+        <v>9408</v>
       </c>
       <c r="E2324" s="1" t="s">
         <v>6609</v>
@@ -91059,7 +91059,7 @@
         <v>2876</v>
       </c>
       <c r="D2325" s="1" t="s">
-        <v>9410</v>
+        <v>9409</v>
       </c>
       <c r="E2325" s="1" t="s">
         <v>6612</v>
@@ -91079,7 +91079,7 @@
         <v>2876</v>
       </c>
       <c r="D2326" s="1" t="s">
-        <v>9411</v>
+        <v>9410</v>
       </c>
       <c r="E2326" s="1" t="s">
         <v>6615</v>
@@ -91099,7 +91099,7 @@
         <v>2876</v>
       </c>
       <c r="D2327" s="1" t="s">
-        <v>9412</v>
+        <v>9411</v>
       </c>
       <c r="E2327" s="1" t="s">
         <v>6618</v>
@@ -91119,7 +91119,7 @@
         <v>2876</v>
       </c>
       <c r="D2328" s="1" t="s">
-        <v>9413</v>
+        <v>9412</v>
       </c>
       <c r="E2328" s="1" t="s">
         <v>6621</v>
@@ -91139,7 +91139,7 @@
         <v>2876</v>
       </c>
       <c r="D2329" s="1" t="s">
-        <v>9414</v>
+        <v>9413</v>
       </c>
       <c r="E2329" s="1" t="s">
         <v>6624</v>
@@ -91159,7 +91159,7 @@
         <v>2876</v>
       </c>
       <c r="D2330" s="1" t="s">
-        <v>9415</v>
+        <v>9414</v>
       </c>
       <c r="E2330" s="1" t="s">
         <v>6627</v>
@@ -91179,7 +91179,7 @@
         <v>4465</v>
       </c>
       <c r="D2331" s="1" t="s">
-        <v>9416</v>
+        <v>9415</v>
       </c>
       <c r="E2331" s="1" t="s">
         <v>6630</v>
@@ -91199,7 +91199,7 @@
         <v>3463</v>
       </c>
       <c r="D2332" s="1" t="s">
-        <v>9417</v>
+        <v>9416</v>
       </c>
       <c r="E2332" s="1" t="s">
         <v>6633</v>
@@ -91208,7 +91208,7 @@
         <v>6634</v>
       </c>
     </row>
-    <row r="2333" spans="1:6" ht="219">
+    <row r="2333" spans="1:6" ht="214.5">
       <c r="A2333" s="1" t="s">
         <v>6635</v>
       </c>
@@ -91219,7 +91219,7 @@
         <v>2383</v>
       </c>
       <c r="D2333" s="4" t="s">
-        <v>9418</v>
+        <v>9417</v>
       </c>
       <c r="E2333" s="4" t="s">
         <v>6637</v>
@@ -91228,7 +91228,7 @@
         <v>6638</v>
       </c>
     </row>
-    <row r="2334" spans="1:6" ht="219">
+    <row r="2334" spans="1:6" ht="214.5">
       <c r="A2334" s="1" t="s">
         <v>6639</v>
       </c>
@@ -91239,7 +91239,7 @@
         <v>2383</v>
       </c>
       <c r="D2334" s="4" t="s">
-        <v>9419</v>
+        <v>9418</v>
       </c>
       <c r="E2334" s="4" t="s">
         <v>6640</v>
@@ -91248,7 +91248,7 @@
         <v>6641</v>
       </c>
     </row>
-    <row r="2335" spans="1:6" ht="206.25">
+    <row r="2335" spans="1:6" ht="165">
       <c r="A2335" s="1" t="s">
         <v>6642</v>
       </c>
@@ -91259,7 +91259,7 @@
         <v>2383</v>
       </c>
       <c r="D2335" s="4" t="s">
-        <v>9420</v>
+        <v>9419</v>
       </c>
       <c r="E2335" s="4" t="s">
         <v>6643</v>
@@ -91276,7 +91276,7 @@
         <v>6646</v>
       </c>
       <c r="D2336" s="1" t="s">
-        <v>9421</v>
+        <v>9420</v>
       </c>
       <c r="E2336" s="1" t="s">
         <v>6647</v>
@@ -91293,7 +91293,7 @@
         <v>6646</v>
       </c>
       <c r="D2337" s="1" t="s">
-        <v>9422</v>
+        <v>9421</v>
       </c>
       <c r="E2337" s="1" t="s">
         <v>6650</v>
@@ -91310,7 +91310,7 @@
         <v>1657</v>
       </c>
       <c r="D2338" s="1" t="s">
-        <v>9423</v>
+        <v>9422</v>
       </c>
       <c r="E2338" s="1" t="s">
         <v>6653</v>
@@ -91364,7 +91364,7 @@
         <v>712</v>
       </c>
       <c r="D2341" s="1" t="s">
-        <v>9424</v>
+        <v>9423</v>
       </c>
       <c r="E2341" s="1" t="s">
         <v>6662</v>
@@ -91384,7 +91384,7 @@
         <v>712</v>
       </c>
       <c r="D2342" s="1" t="s">
-        <v>9425</v>
+        <v>9424</v>
       </c>
       <c r="E2342" s="1" t="s">
         <v>6665</v>
@@ -91404,7 +91404,7 @@
         <v>712</v>
       </c>
       <c r="D2343" s="1" t="s">
-        <v>9426</v>
+        <v>9425</v>
       </c>
       <c r="E2343" s="1" t="s">
         <v>6668</v>
@@ -91424,7 +91424,7 @@
         <v>712</v>
       </c>
       <c r="D2344" s="1" t="s">
-        <v>9427</v>
+        <v>9426</v>
       </c>
       <c r="E2344" s="1" t="s">
         <v>6671</v>
@@ -91444,7 +91444,7 @@
         <v>712</v>
       </c>
       <c r="D2345" s="1" t="s">
-        <v>9428</v>
+        <v>9427</v>
       </c>
       <c r="E2345" s="1" t="s">
         <v>6674</v>
@@ -91464,7 +91464,7 @@
         <v>6677</v>
       </c>
       <c r="D2346" s="1" t="s">
-        <v>9429</v>
+        <v>9428</v>
       </c>
       <c r="E2346" s="1" t="s">
         <v>6678</v>
@@ -91484,7 +91484,7 @@
         <v>6677</v>
       </c>
       <c r="D2347" s="1" t="s">
-        <v>9430</v>
+        <v>9429</v>
       </c>
       <c r="E2347" s="1" t="s">
         <v>6682</v>
@@ -91504,7 +91504,7 @@
         <v>6677</v>
       </c>
       <c r="D2348" s="1" t="s">
-        <v>9431</v>
+        <v>9430</v>
       </c>
       <c r="E2348" s="1" t="s">
         <v>6685</v>
@@ -91524,7 +91524,7 @@
         <v>6677</v>
       </c>
       <c r="D2349" s="1" t="s">
-        <v>9432</v>
+        <v>9431</v>
       </c>
       <c r="E2349" s="1" t="s">
         <v>6688</v>
@@ -91544,7 +91544,7 @@
         <v>6677</v>
       </c>
       <c r="D2350" s="1" t="s">
-        <v>9433</v>
+        <v>9432</v>
       </c>
       <c r="E2350" s="1" t="s">
         <v>6691</v>
@@ -91564,7 +91564,7 @@
         <v>6677</v>
       </c>
       <c r="D2351" s="1" t="s">
-        <v>9434</v>
+        <v>9433</v>
       </c>
       <c r="E2351" s="1" t="s">
         <v>6694</v>
@@ -91584,7 +91584,7 @@
         <v>6677</v>
       </c>
       <c r="D2352" s="1" t="s">
-        <v>9435</v>
+        <v>9434</v>
       </c>
       <c r="E2352" s="1" t="s">
         <v>6697</v>
@@ -91604,7 +91604,7 @@
         <v>6677</v>
       </c>
       <c r="D2353" s="1" t="s">
-        <v>9436</v>
+        <v>9435</v>
       </c>
       <c r="E2353" s="1" t="s">
         <v>6700</v>
@@ -91621,7 +91621,7 @@
         <v>2122</v>
       </c>
       <c r="D2354" s="1" t="s">
-        <v>9437</v>
+        <v>9436</v>
       </c>
       <c r="E2354" s="1" t="s">
         <v>6703</v>
@@ -91638,7 +91638,7 @@
         <v>3189</v>
       </c>
       <c r="D2355" s="1" t="s">
-        <v>9438</v>
+        <v>9437</v>
       </c>
       <c r="E2355" s="1" t="s">
         <v>6706</v>
@@ -91655,7 +91655,7 @@
         <v>3189</v>
       </c>
       <c r="D2356" s="1" t="s">
-        <v>9439</v>
+        <v>9438</v>
       </c>
       <c r="E2356" s="1" t="s">
         <v>6709</v>
@@ -91672,7 +91672,7 @@
         <v>3189</v>
       </c>
       <c r="D2357" s="1" t="s">
-        <v>9440</v>
+        <v>9439</v>
       </c>
       <c r="E2357" s="1" t="s">
         <v>6712</v>
@@ -91689,7 +91689,7 @@
         <v>3189</v>
       </c>
       <c r="D2358" s="1" t="s">
-        <v>9441</v>
+        <v>9440</v>
       </c>
       <c r="E2358" s="1" t="s">
         <v>6715</v>
@@ -91706,7 +91706,7 @@
         <v>93</v>
       </c>
       <c r="D2359" s="1" t="s">
-        <v>9442</v>
+        <v>9441</v>
       </c>
       <c r="E2359" s="1" t="s">
         <v>6718</v>
@@ -91723,7 +91723,7 @@
         <v>93</v>
       </c>
       <c r="D2360" s="1" t="s">
-        <v>9443</v>
+        <v>9442</v>
       </c>
       <c r="E2360" s="1" t="s">
         <v>6721</v>
@@ -91740,7 +91740,7 @@
         <v>93</v>
       </c>
       <c r="D2361" s="1" t="s">
-        <v>9444</v>
+        <v>9443</v>
       </c>
       <c r="E2361" s="1" t="s">
         <v>6724</v>
@@ -91757,7 +91757,7 @@
         <v>93</v>
       </c>
       <c r="D2362" s="1" t="s">
-        <v>9445</v>
+        <v>9444</v>
       </c>
       <c r="E2362" s="1" t="s">
         <v>6727</v>
@@ -91774,7 +91774,7 @@
         <v>93</v>
       </c>
       <c r="D2363" s="1" t="s">
-        <v>9446</v>
+        <v>9445</v>
       </c>
       <c r="E2363" s="1" t="s">
         <v>6730</v>
@@ -91791,7 +91791,7 @@
         <v>93</v>
       </c>
       <c r="D2364" s="1" t="s">
-        <v>9447</v>
+        <v>9446</v>
       </c>
       <c r="E2364" s="1" t="s">
         <v>6733</v>
@@ -91808,7 +91808,7 @@
         <v>93</v>
       </c>
       <c r="D2365" s="1" t="s">
-        <v>9448</v>
+        <v>9447</v>
       </c>
       <c r="E2365" s="1" t="s">
         <v>6736</v>
@@ -91825,7 +91825,7 @@
         <v>93</v>
       </c>
       <c r="D2366" t="s">
-        <v>9449</v>
+        <v>9448</v>
       </c>
       <c r="E2366" t="s">
         <v>6739</v>
@@ -91842,7 +91842,7 @@
         <v>93</v>
       </c>
       <c r="D2367" t="s">
-        <v>9450</v>
+        <v>9449</v>
       </c>
       <c r="E2367" t="s">
         <v>6742</v>
@@ -91859,7 +91859,7 @@
         <v>93</v>
       </c>
       <c r="D2368" t="s">
-        <v>9451</v>
+        <v>9450</v>
       </c>
       <c r="E2368" t="s">
         <v>6745</v>
@@ -91876,7 +91876,7 @@
         <v>93</v>
       </c>
       <c r="D2369" t="s">
-        <v>9452</v>
+        <v>9451</v>
       </c>
       <c r="E2369" t="s">
         <v>6748</v>
@@ -91893,7 +91893,7 @@
         <v>93</v>
       </c>
       <c r="D2370" t="s">
-        <v>9453</v>
+        <v>9452</v>
       </c>
       <c r="E2370" t="s">
         <v>6751</v>
@@ -91910,7 +91910,7 @@
         <v>93</v>
       </c>
       <c r="D2371" t="s">
-        <v>9454</v>
+        <v>9453</v>
       </c>
       <c r="E2371" t="s">
         <v>6754</v>
@@ -91927,7 +91927,7 @@
         <v>93</v>
       </c>
       <c r="D2372" t="s">
-        <v>9455</v>
+        <v>9454</v>
       </c>
       <c r="E2372" t="s">
         <v>6757</v>
@@ -91944,7 +91944,7 @@
         <v>93</v>
       </c>
       <c r="D2373" t="s">
-        <v>9456</v>
+        <v>9455</v>
       </c>
       <c r="E2373" t="s">
         <v>6760</v>
@@ -91961,7 +91961,7 @@
         <v>93</v>
       </c>
       <c r="D2374" t="s">
-        <v>9457</v>
+        <v>9456</v>
       </c>
       <c r="E2374" t="s">
         <v>6763</v>
@@ -91978,7 +91978,7 @@
         <v>2929</v>
       </c>
       <c r="D2375" t="s">
-        <v>9458</v>
+        <v>9457</v>
       </c>
       <c r="E2375" t="s">
         <v>6766</v>
@@ -91995,7 +91995,7 @@
         <v>93</v>
       </c>
       <c r="D2376" t="s">
-        <v>9459</v>
+        <v>9458</v>
       </c>
       <c r="E2376" t="s">
         <v>6769</v>
@@ -92012,7 +92012,7 @@
         <v>93</v>
       </c>
       <c r="D2377" t="s">
-        <v>9460</v>
+        <v>9459</v>
       </c>
       <c r="E2377" t="s">
         <v>6772</v>
@@ -92029,7 +92029,7 @@
         <v>397</v>
       </c>
       <c r="D2378" t="s">
-        <v>9461</v>
+        <v>9460</v>
       </c>
       <c r="E2378" t="s">
         <v>6775</v>
@@ -92046,7 +92046,7 @@
         <v>93</v>
       </c>
       <c r="D2379" t="s">
-        <v>9462</v>
+        <v>9461</v>
       </c>
       <c r="E2379" t="s">
         <v>6778</v>
@@ -92063,7 +92063,7 @@
         <v>93</v>
       </c>
       <c r="D2380" s="1" t="s">
-        <v>9463</v>
+        <v>9462</v>
       </c>
       <c r="E2380" s="1" t="s">
         <v>6781</v>
@@ -92080,7 +92080,7 @@
         <v>93</v>
       </c>
       <c r="D2381" s="1" t="s">
-        <v>9464</v>
+        <v>9463</v>
       </c>
       <c r="E2381" s="1" t="s">
         <v>6784</v>
@@ -92097,7 +92097,7 @@
         <v>93</v>
       </c>
       <c r="D2382" s="1" t="s">
-        <v>9465</v>
+        <v>9464</v>
       </c>
       <c r="E2382" s="1" t="s">
         <v>6787</v>
@@ -92114,7 +92114,7 @@
         <v>219</v>
       </c>
       <c r="D2383" s="1" t="s">
-        <v>9466</v>
+        <v>9465</v>
       </c>
       <c r="E2383" s="1" t="s">
         <v>6790</v>
@@ -92131,7 +92131,7 @@
         <v>219</v>
       </c>
       <c r="D2384" s="1" t="s">
-        <v>9467</v>
+        <v>9466</v>
       </c>
       <c r="E2384" s="1" t="s">
         <v>6793</v>
@@ -92148,7 +92148,7 @@
         <v>219</v>
       </c>
       <c r="D2385" s="4" t="s">
-        <v>9468</v>
+        <v>9467</v>
       </c>
       <c r="E2385" s="4" t="s">
         <v>6796</v>
@@ -92165,7 +92165,7 @@
         <v>219</v>
       </c>
       <c r="D2386" t="s">
-        <v>9469</v>
+        <v>9468</v>
       </c>
       <c r="E2386" t="s">
         <v>6799</v>
@@ -92174,7 +92174,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="2387" spans="1:6" ht="119.25">
+    <row r="2387" spans="1:6" ht="115.5">
       <c r="A2387" s="1" t="s">
         <v>6801</v>
       </c>
@@ -92182,7 +92182,7 @@
         <v>219</v>
       </c>
       <c r="D2387" s="3" t="s">
-        <v>9470</v>
+        <v>9469</v>
       </c>
       <c r="E2387" s="3" t="s">
         <v>6802</v>
@@ -92199,7 +92199,7 @@
         <v>219</v>
       </c>
       <c r="D2388" t="s">
-        <v>9471</v>
+        <v>9470</v>
       </c>
       <c r="E2388" t="s">
         <v>6805</v>
@@ -92216,7 +92216,7 @@
         <v>219</v>
       </c>
       <c r="D2389" t="s">
-        <v>9472</v>
+        <v>9471</v>
       </c>
       <c r="E2389" t="s">
         <v>6808</v>
@@ -92233,7 +92233,7 @@
         <v>219</v>
       </c>
       <c r="D2390" t="s">
-        <v>9473</v>
+        <v>9472</v>
       </c>
       <c r="E2390" t="s">
         <v>6811</v>
@@ -92258,7 +92258,7 @@
         <v>219</v>
       </c>
       <c r="D2392" t="s">
-        <v>9474</v>
+        <v>9473</v>
       </c>
       <c r="E2392" t="s">
         <v>6815</v>
@@ -92275,7 +92275,7 @@
         <v>219</v>
       </c>
       <c r="D2393" s="1" t="s">
-        <v>9475</v>
+        <v>9474</v>
       </c>
       <c r="E2393" s="1" t="s">
         <v>6818</v>
@@ -92292,7 +92292,7 @@
         <v>219</v>
       </c>
       <c r="D2394" s="1" t="s">
-        <v>9476</v>
+        <v>9475</v>
       </c>
       <c r="E2394" s="1" t="s">
         <v>6821</v>
@@ -92309,7 +92309,7 @@
         <v>219</v>
       </c>
       <c r="D2395" s="1" t="s">
-        <v>9477</v>
+        <v>9476</v>
       </c>
       <c r="E2395" s="1" t="s">
         <v>6824</v>
@@ -92326,7 +92326,7 @@
         <v>219</v>
       </c>
       <c r="D2396" s="1" t="s">
-        <v>9478</v>
+        <v>9477</v>
       </c>
       <c r="E2396" s="1" t="s">
         <v>6827</v>
@@ -92343,7 +92343,7 @@
         <v>219</v>
       </c>
       <c r="D2397" s="1" t="s">
-        <v>9479</v>
+        <v>9478</v>
       </c>
       <c r="E2397" s="1" t="s">
         <v>6830</v>
@@ -92360,7 +92360,7 @@
         <v>5230</v>
       </c>
       <c r="D2398" s="1" t="s">
-        <v>9480</v>
+        <v>9479</v>
       </c>
       <c r="E2398" s="1" t="s">
         <v>6833</v>
@@ -92377,7 +92377,7 @@
         <v>219</v>
       </c>
       <c r="D2399" s="1" t="s">
-        <v>9481</v>
+        <v>9480</v>
       </c>
       <c r="E2399" s="1" t="s">
         <v>6836</v>
@@ -92394,7 +92394,7 @@
         <v>219</v>
       </c>
       <c r="D2400" s="1" t="s">
-        <v>9482</v>
+        <v>9481</v>
       </c>
       <c r="E2400" s="1" t="s">
         <v>6839</v>
@@ -92411,7 +92411,7 @@
         <v>219</v>
       </c>
       <c r="D2401" s="1" t="s">
-        <v>9483</v>
+        <v>9482</v>
       </c>
       <c r="E2401" s="1" t="s">
         <v>6842</v>
@@ -92428,7 +92428,7 @@
         <v>6845</v>
       </c>
       <c r="D2402" s="1" t="s">
-        <v>9484</v>
+        <v>9483</v>
       </c>
       <c r="E2402" s="1" t="s">
         <v>6846</v>
@@ -92445,7 +92445,7 @@
         <v>6849</v>
       </c>
       <c r="D2403" s="1" t="s">
-        <v>9485</v>
+        <v>9484</v>
       </c>
       <c r="E2403" s="1" t="s">
         <v>6850</v>
@@ -92462,7 +92462,7 @@
         <v>6849</v>
       </c>
       <c r="D2404" s="1" t="s">
-        <v>9486</v>
+        <v>9485</v>
       </c>
       <c r="E2404" s="1" t="s">
         <v>6853</v>
@@ -92479,7 +92479,7 @@
         <v>6849</v>
       </c>
       <c r="D2405" s="1" t="s">
-        <v>9487</v>
+        <v>9486</v>
       </c>
       <c r="E2405" s="1" t="s">
         <v>6856</v>
@@ -92496,7 +92496,7 @@
         <v>6849</v>
       </c>
       <c r="D2406" s="1" t="s">
-        <v>9488</v>
+        <v>9487</v>
       </c>
       <c r="E2406" s="1" t="s">
         <v>6859</v>
@@ -92513,7 +92513,7 @@
         <v>6849</v>
       </c>
       <c r="D2407" s="1" t="s">
-        <v>9489</v>
+        <v>9488</v>
       </c>
       <c r="E2407" s="1" t="s">
         <v>6862</v>
@@ -92530,7 +92530,7 @@
         <v>6849</v>
       </c>
       <c r="D2408" s="1" t="s">
-        <v>9490</v>
+        <v>9489</v>
       </c>
       <c r="E2408" s="1" t="s">
         <v>1143</v>
@@ -92547,7 +92547,7 @@
         <v>6849</v>
       </c>
       <c r="D2409" s="1" t="s">
-        <v>9491</v>
+        <v>9490</v>
       </c>
       <c r="E2409" s="1" t="s">
         <v>6867</v>
@@ -92564,7 +92564,7 @@
         <v>6849</v>
       </c>
       <c r="D2410" s="1" t="s">
-        <v>9492</v>
+        <v>9491</v>
       </c>
       <c r="E2410" s="1" t="s">
         <v>6870</v>
@@ -92581,7 +92581,7 @@
         <v>6849</v>
       </c>
       <c r="D2411" s="1" t="s">
-        <v>9493</v>
+        <v>9492</v>
       </c>
       <c r="E2411" s="1" t="s">
         <v>6873</v>
@@ -92598,7 +92598,7 @@
         <v>6849</v>
       </c>
       <c r="D2412" s="1" t="s">
-        <v>9494</v>
+        <v>9493</v>
       </c>
       <c r="E2412" s="1" t="s">
         <v>6876</v>
@@ -92615,7 +92615,7 @@
         <v>3085</v>
       </c>
       <c r="D2413" s="1" t="s">
-        <v>9495</v>
+        <v>9494</v>
       </c>
       <c r="E2413" s="1" t="s">
         <v>6879</v>
@@ -92632,7 +92632,7 @@
         <v>3085</v>
       </c>
       <c r="D2414" s="1" t="s">
-        <v>9496</v>
+        <v>9495</v>
       </c>
       <c r="E2414" s="1" t="s">
         <v>6883</v>
@@ -92649,7 +92649,7 @@
         <v>6885</v>
       </c>
       <c r="D2415" s="1" t="s">
-        <v>9497</v>
+        <v>9496</v>
       </c>
       <c r="E2415" s="1" t="s">
         <v>6886</v>
@@ -92666,7 +92666,7 @@
         <v>42</v>
       </c>
       <c r="D2416" s="1" t="s">
-        <v>9498</v>
+        <v>9497</v>
       </c>
       <c r="E2416" s="1" t="s">
         <v>6889</v>
@@ -92683,7 +92683,7 @@
         <v>1657</v>
       </c>
       <c r="D2417" s="1" t="s">
-        <v>9499</v>
+        <v>9498</v>
       </c>
       <c r="E2417" s="1" t="s">
         <v>6892</v>
@@ -92700,7 +92700,7 @@
         <v>1657</v>
       </c>
       <c r="D2418" s="1" t="s">
-        <v>9500</v>
+        <v>9499</v>
       </c>
       <c r="E2418" s="1" t="s">
         <v>6895</v>
@@ -92717,7 +92717,7 @@
         <v>273</v>
       </c>
       <c r="D2419" s="1" t="s">
-        <v>9501</v>
+        <v>9500</v>
       </c>
       <c r="E2419" s="1" t="s">
         <v>6898</v>
@@ -92734,7 +92734,7 @@
         <v>273</v>
       </c>
       <c r="D2420" s="1" t="s">
-        <v>9502</v>
+        <v>9501</v>
       </c>
       <c r="E2420" s="1" t="s">
         <v>6901</v>
@@ -92751,7 +92751,7 @@
         <v>273</v>
       </c>
       <c r="D2421" s="1" t="s">
-        <v>9503</v>
+        <v>9502</v>
       </c>
       <c r="E2421" s="1" t="s">
         <v>6904</v>
@@ -92768,7 +92768,7 @@
         <v>1996</v>
       </c>
       <c r="D2422" s="1" t="s">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="E2422" s="1" t="s">
         <v>6907</v>
@@ -92785,7 +92785,7 @@
         <v>447</v>
       </c>
       <c r="D2423" s="1" t="s">
-        <v>9505</v>
+        <v>9504</v>
       </c>
       <c r="E2423" s="1" t="s">
         <v>6910</v>
@@ -92802,7 +92802,7 @@
         <v>6913</v>
       </c>
       <c r="D2424" s="1" t="s">
-        <v>9506</v>
+        <v>9505</v>
       </c>
       <c r="E2424" s="1" t="s">
         <v>6914</v>
@@ -92819,7 +92819,7 @@
         <v>42</v>
       </c>
       <c r="D2425" s="1" t="s">
-        <v>9507</v>
+        <v>9506</v>
       </c>
       <c r="E2425" s="1" t="s">
         <v>6917</v>
@@ -92836,7 +92836,7 @@
         <v>6920</v>
       </c>
       <c r="D2426" s="1" t="s">
-        <v>9508</v>
+        <v>9507</v>
       </c>
       <c r="E2426" s="1" t="s">
         <v>6921</v>
@@ -92853,7 +92853,7 @@
         <v>5230</v>
       </c>
       <c r="D2427" s="1" t="s">
-        <v>9509</v>
+        <v>9508</v>
       </c>
       <c r="E2427" s="1" t="s">
         <v>6924</v>
@@ -92862,7 +92862,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="2428" spans="1:6" ht="142.5">
+    <row r="2428" spans="1:6" ht="115.5">
       <c r="A2428" s="1" t="s">
         <v>6926</v>
       </c>
@@ -92870,7 +92870,7 @@
         <v>5230</v>
       </c>
       <c r="D2428" s="4" t="s">
-        <v>9510</v>
+        <v>9509</v>
       </c>
       <c r="E2428" s="4" t="s">
         <v>6927</v>
@@ -92887,7 +92887,7 @@
         <v>976</v>
       </c>
       <c r="D2429" s="1" t="s">
-        <v>9511</v>
+        <v>9510</v>
       </c>
       <c r="E2429" s="1" t="s">
         <v>6930</v>
@@ -92904,7 +92904,7 @@
         <v>42</v>
       </c>
       <c r="D2430" s="1" t="s">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="E2430" s="1" t="s">
         <v>6933</v>
@@ -92924,7 +92924,7 @@
         <v>712</v>
       </c>
       <c r="D2431" s="1" t="s">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="E2431" s="1" t="s">
         <v>6936</v>
@@ -92944,7 +92944,7 @@
         <v>712</v>
       </c>
       <c r="D2432" s="1" t="s">
-        <v>9240</v>
+        <v>9239</v>
       </c>
       <c r="E2432" s="1" t="s">
         <v>6052</v>
@@ -92964,7 +92964,7 @@
         <v>712</v>
       </c>
       <c r="D2433" s="1" t="s">
-        <v>9514</v>
+        <v>9513</v>
       </c>
       <c r="E2433" s="1" t="s">
         <v>971</v>
@@ -92984,7 +92984,7 @@
         <v>712</v>
       </c>
       <c r="D2434" s="1" t="s">
-        <v>9515</v>
+        <v>9514</v>
       </c>
       <c r="E2434" s="1" t="s">
         <v>6941</v>
@@ -93004,7 +93004,7 @@
         <v>6943</v>
       </c>
       <c r="D2435" s="1" t="s">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="E2435" s="1" t="s">
         <v>6944</v>
@@ -93024,7 +93024,7 @@
         <v>6943</v>
       </c>
       <c r="D2436" s="1" t="s">
-        <v>9517</v>
+        <v>9516</v>
       </c>
       <c r="E2436" s="1" t="s">
         <v>6947</v>
@@ -93044,7 +93044,7 @@
         <v>6943</v>
       </c>
       <c r="D2437" s="1" t="s">
-        <v>9518</v>
+        <v>9517</v>
       </c>
       <c r="E2437" s="1" t="s">
         <v>6950</v>
@@ -93084,7 +93084,7 @@
         <v>6943</v>
       </c>
       <c r="D2439" s="1" t="s">
-        <v>9519</v>
+        <v>9518</v>
       </c>
       <c r="E2439" s="1" t="s">
         <v>6955</v>
@@ -93104,7 +93104,7 @@
         <v>6943</v>
       </c>
       <c r="D2440" s="1" t="s">
-        <v>9520</v>
+        <v>9519</v>
       </c>
       <c r="E2440" s="1" t="s">
         <v>6958</v>
@@ -93124,7 +93124,7 @@
         <v>6943</v>
       </c>
       <c r="D2441" s="1" t="s">
-        <v>9521</v>
+        <v>9520</v>
       </c>
       <c r="E2441" s="1" t="s">
         <v>6961</v>
@@ -93144,7 +93144,7 @@
         <v>6943</v>
       </c>
       <c r="D2442" s="1" t="s">
-        <v>9522</v>
+        <v>9521</v>
       </c>
       <c r="E2442" s="1" t="s">
         <v>6964</v>
@@ -93161,7 +93161,7 @@
         <v>983</v>
       </c>
       <c r="D2443" s="1" t="s">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="E2443" s="1" t="s">
         <v>6966</v>
@@ -93178,7 +93178,7 @@
         <v>3398</v>
       </c>
       <c r="D2444" s="1" t="s">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="E2444" s="1" t="s">
         <v>6969</v>
@@ -93195,7 +93195,7 @@
         <v>6972</v>
       </c>
       <c r="D2445" s="1" t="s">
-        <v>9525</v>
+        <v>9524</v>
       </c>
       <c r="E2445" s="1" t="s">
         <v>6973</v>
@@ -93212,7 +93212,7 @@
         <v>3398</v>
       </c>
       <c r="D2446" s="1" t="s">
-        <v>9526</v>
+        <v>9525</v>
       </c>
       <c r="E2446" s="1" t="s">
         <v>6976</v>
@@ -93229,7 +93229,7 @@
         <v>3398</v>
       </c>
       <c r="D2447" s="1" t="s">
-        <v>9527</v>
+        <v>9526</v>
       </c>
       <c r="E2447" s="1" t="s">
         <v>6979</v>
@@ -93246,7 +93246,7 @@
         <v>61</v>
       </c>
       <c r="D2448" s="1" t="s">
-        <v>9528</v>
+        <v>9527</v>
       </c>
       <c r="E2448" s="1" t="s">
         <v>6982</v>
@@ -93263,7 +93263,7 @@
         <v>887</v>
       </c>
       <c r="D2449" s="1" t="s">
-        <v>9529</v>
+        <v>9528</v>
       </c>
       <c r="E2449" s="1" t="s">
         <v>6985</v>
@@ -93280,7 +93280,7 @@
         <v>887</v>
       </c>
       <c r="D2450" s="1" t="s">
-        <v>9530</v>
+        <v>9529</v>
       </c>
       <c r="E2450" s="1" t="s">
         <v>6988</v>
@@ -93297,7 +93297,7 @@
         <v>887</v>
       </c>
       <c r="D2451" s="1" t="s">
-        <v>9531</v>
+        <v>9530</v>
       </c>
       <c r="E2451" s="1" t="s">
         <v>6991</v>
@@ -93314,7 +93314,7 @@
         <v>980</v>
       </c>
       <c r="D2452" s="1" t="s">
-        <v>9532</v>
+        <v>9531</v>
       </c>
       <c r="E2452" s="1" t="s">
         <v>6994</v>
@@ -93331,7 +93331,7 @@
         <v>1049</v>
       </c>
       <c r="D2453" s="1" t="s">
-        <v>9533</v>
+        <v>9532</v>
       </c>
       <c r="E2453" s="1" t="s">
         <v>6997</v>
@@ -93348,7 +93348,7 @@
         <v>976</v>
       </c>
       <c r="D2454" s="1" t="s">
-        <v>9534</v>
+        <v>9533</v>
       </c>
       <c r="E2454" s="1" t="s">
         <v>7000</v>
@@ -93365,7 +93365,7 @@
         <v>269</v>
       </c>
       <c r="D2455" s="1" t="s">
-        <v>9535</v>
+        <v>9534</v>
       </c>
       <c r="E2455" s="1" t="s">
         <v>7003</v>
@@ -93382,7 +93382,7 @@
         <v>269</v>
       </c>
       <c r="D2456" s="1" t="s">
-        <v>9536</v>
+        <v>9535</v>
       </c>
       <c r="E2456" s="1" t="s">
         <v>7006</v>
@@ -93399,7 +93399,7 @@
         <v>269</v>
       </c>
       <c r="D2457" s="1" t="s">
-        <v>9537</v>
+        <v>9536</v>
       </c>
       <c r="E2457" s="1" t="s">
         <v>7009</v>
@@ -93416,7 +93416,7 @@
         <v>269</v>
       </c>
       <c r="D2458" s="1" t="s">
-        <v>9538</v>
+        <v>9537</v>
       </c>
       <c r="E2458" s="1" t="s">
         <v>7012</v>
@@ -93433,7 +93433,7 @@
         <v>269</v>
       </c>
       <c r="D2459" s="1" t="s">
-        <v>9539</v>
+        <v>9538</v>
       </c>
       <c r="E2459" s="1" t="s">
         <v>1853</v>
@@ -93450,7 +93450,7 @@
         <v>1037</v>
       </c>
       <c r="D2460" s="1" t="s">
-        <v>9540</v>
+        <v>9539</v>
       </c>
       <c r="E2460" s="1" t="s">
         <v>7017</v>
@@ -93467,7 +93467,7 @@
         <v>1037</v>
       </c>
       <c r="D2461" s="1" t="s">
-        <v>9541</v>
+        <v>9540</v>
       </c>
       <c r="E2461" s="1" t="s">
         <v>7020</v>
@@ -93484,7 +93484,7 @@
         <v>1037</v>
       </c>
       <c r="D2462" s="1" t="s">
-        <v>9542</v>
+        <v>9541</v>
       </c>
       <c r="E2462" s="1" t="s">
         <v>7023</v>
@@ -93501,7 +93501,7 @@
         <v>1037</v>
       </c>
       <c r="D2463" s="1" t="s">
-        <v>9543</v>
+        <v>9542</v>
       </c>
       <c r="E2463" s="1" t="s">
         <v>7026</v>
@@ -93518,7 +93518,7 @@
         <v>1037</v>
       </c>
       <c r="D2464" s="1" t="s">
-        <v>9544</v>
+        <v>9543</v>
       </c>
       <c r="E2464" s="1" t="s">
         <v>7029</v>
@@ -93535,7 +93535,7 @@
         <v>1037</v>
       </c>
       <c r="D2465" s="1" t="s">
-        <v>9545</v>
+        <v>9544</v>
       </c>
       <c r="E2465" s="1" t="s">
         <v>7032</v>
@@ -93552,7 +93552,7 @@
         <v>1037</v>
       </c>
       <c r="D2466" s="1" t="s">
-        <v>9546</v>
+        <v>9545</v>
       </c>
       <c r="E2466" s="1" t="s">
         <v>7035</v>
@@ -93569,7 +93569,7 @@
         <v>1037</v>
       </c>
       <c r="D2467" s="1" t="s">
-        <v>9547</v>
+        <v>9546</v>
       </c>
       <c r="E2467" s="1" t="s">
         <v>7038</v>
@@ -93586,7 +93586,7 @@
         <v>1037</v>
       </c>
       <c r="D2468" s="1" t="s">
-        <v>9548</v>
+        <v>9547</v>
       </c>
       <c r="E2468" s="1" t="s">
         <v>7040</v>
@@ -93603,7 +93603,7 @@
         <v>7043</v>
       </c>
       <c r="D2469" s="1" t="s">
-        <v>9549</v>
+        <v>9548</v>
       </c>
       <c r="E2469" s="1" t="s">
         <v>7044</v>
@@ -93620,7 +93620,7 @@
         <v>5623</v>
       </c>
       <c r="D2470" s="1" t="s">
-        <v>9550</v>
+        <v>9549</v>
       </c>
       <c r="E2470" s="1" t="s">
         <v>7047</v>
@@ -93637,7 +93637,7 @@
         <v>7050</v>
       </c>
       <c r="D2471" s="1" t="s">
-        <v>9551</v>
+        <v>9550</v>
       </c>
       <c r="E2471" s="1" t="s">
         <v>7051</v>
@@ -93654,7 +93654,7 @@
         <v>7050</v>
       </c>
       <c r="D2472" s="1" t="s">
-        <v>9552</v>
+        <v>9551</v>
       </c>
       <c r="E2472" s="1" t="s">
         <v>7054</v>
@@ -93671,7 +93671,7 @@
         <v>2208</v>
       </c>
       <c r="D2473" s="1" t="s">
-        <v>9553</v>
+        <v>9552</v>
       </c>
       <c r="E2473" s="1" t="s">
         <v>2587</v>
@@ -93688,7 +93688,7 @@
         <v>2208</v>
       </c>
       <c r="D2474" s="1" t="s">
-        <v>9554</v>
+        <v>9553</v>
       </c>
       <c r="E2474" s="1" t="s">
         <v>7057</v>
@@ -93705,7 +93705,7 @@
         <v>2208</v>
       </c>
       <c r="D2475" s="1" t="s">
-        <v>9555</v>
+        <v>9554</v>
       </c>
       <c r="E2475" s="1" t="s">
         <v>7060</v>
@@ -93722,7 +93722,7 @@
         <v>880</v>
       </c>
       <c r="D2476" s="1" t="s">
-        <v>9556</v>
+        <v>9555</v>
       </c>
       <c r="E2476" s="1" t="s">
         <v>7063</v>
@@ -93739,7 +93739,7 @@
         <v>250</v>
       </c>
       <c r="D2477" s="1" t="s">
-        <v>9557</v>
+        <v>9556</v>
       </c>
       <c r="E2477" s="1" t="s">
         <v>7066</v>
@@ -93756,7 +93756,7 @@
         <v>393</v>
       </c>
       <c r="D2478" s="1" t="s">
-        <v>9558</v>
+        <v>9557</v>
       </c>
       <c r="E2478" s="1" t="s">
         <v>7069</v>
@@ -93773,7 +93773,7 @@
         <v>393</v>
       </c>
       <c r="D2479" s="1" t="s">
-        <v>9559</v>
+        <v>9558</v>
       </c>
       <c r="E2479" s="1" t="s">
         <v>7072</v>
@@ -93790,7 +93790,7 @@
         <v>393</v>
       </c>
       <c r="D2480" s="1" t="s">
-        <v>9560</v>
+        <v>9559</v>
       </c>
       <c r="E2480" s="1" t="s">
         <v>7075</v>
@@ -93807,7 +93807,7 @@
         <v>393</v>
       </c>
       <c r="D2481" s="1" t="s">
-        <v>9561</v>
+        <v>9560</v>
       </c>
       <c r="E2481" s="1" t="s">
         <v>7078</v>
@@ -93824,7 +93824,7 @@
         <v>393</v>
       </c>
       <c r="D2482" s="1" t="s">
-        <v>9194</v>
+        <v>9193</v>
       </c>
       <c r="E2482" s="1" t="s">
         <v>7081</v>
@@ -93841,7 +93841,7 @@
         <v>393</v>
       </c>
       <c r="D2483" s="1" t="s">
-        <v>9562</v>
+        <v>9561</v>
       </c>
       <c r="E2483" s="1" t="s">
         <v>7084</v>
@@ -93858,7 +93858,7 @@
         <v>393</v>
       </c>
       <c r="D2484" t="s">
-        <v>9563</v>
+        <v>9562</v>
       </c>
       <c r="E2484" t="s">
         <v>7087</v>
@@ -93875,7 +93875,7 @@
         <v>6408</v>
       </c>
       <c r="D2485" t="s">
-        <v>9564</v>
+        <v>9563</v>
       </c>
       <c r="E2485" t="s">
         <v>7090</v>
@@ -93892,7 +93892,7 @@
         <v>393</v>
       </c>
       <c r="D2486" s="1" t="s">
-        <v>9565</v>
+        <v>9564</v>
       </c>
       <c r="E2486" s="1" t="s">
         <v>7093</v>
@@ -93909,7 +93909,7 @@
         <v>2990</v>
       </c>
       <c r="D2487" s="1" t="s">
-        <v>9566</v>
+        <v>9565</v>
       </c>
       <c r="E2487" s="1" t="s">
         <v>7096</v>
@@ -93926,7 +93926,7 @@
         <v>1417</v>
       </c>
       <c r="D2488" s="1" t="s">
-        <v>9567</v>
+        <v>9566</v>
       </c>
       <c r="E2488" s="1" t="s">
         <v>7099</v>
@@ -93943,7 +93943,7 @@
         <v>1417</v>
       </c>
       <c r="D2489" s="1" t="s">
-        <v>9568</v>
+        <v>9567</v>
       </c>
       <c r="E2489" s="1" t="s">
         <v>7102</v>
@@ -93977,7 +93977,7 @@
         <v>1249</v>
       </c>
       <c r="D2491" s="1" t="s">
-        <v>9569</v>
+        <v>9568</v>
       </c>
       <c r="E2491" s="1" t="s">
         <v>7107</v>
@@ -93997,7 +93997,7 @@
         <v>4465</v>
       </c>
       <c r="D2492" s="1" t="s">
-        <v>9570</v>
+        <v>9569</v>
       </c>
       <c r="E2492" s="1" t="s">
         <v>7111</v>
@@ -94017,7 +94017,7 @@
         <v>4465</v>
       </c>
       <c r="D2493" t="s">
-        <v>9571</v>
+        <v>9570</v>
       </c>
       <c r="E2493" t="s">
         <v>7114</v>
@@ -94034,7 +94034,7 @@
         <v>5044</v>
       </c>
       <c r="D2494" s="1" t="s">
-        <v>9572</v>
+        <v>9571</v>
       </c>
       <c r="E2494" s="1" t="s">
         <v>7116</v>
@@ -94051,7 +94051,7 @@
         <v>5044</v>
       </c>
       <c r="D2495" s="1" t="s">
-        <v>9573</v>
+        <v>9572</v>
       </c>
       <c r="E2495" s="1" t="s">
         <v>7119</v>
@@ -94068,7 +94068,7 @@
         <v>447</v>
       </c>
       <c r="D2496" s="4" t="s">
-        <v>9574</v>
+        <v>9573</v>
       </c>
       <c r="E2496" s="4" t="s">
         <v>7122</v>
@@ -94085,7 +94085,7 @@
         <v>1409</v>
       </c>
       <c r="D2497" s="1" t="s">
-        <v>9575</v>
+        <v>9574</v>
       </c>
       <c r="E2497" s="1" t="s">
         <v>7125</v>
@@ -94102,7 +94102,7 @@
         <v>3026</v>
       </c>
       <c r="D2498" s="1" t="s">
-        <v>9576</v>
+        <v>9575</v>
       </c>
       <c r="E2498" s="1" t="s">
         <v>7128</v>
@@ -94119,7 +94119,7 @@
         <v>3026</v>
       </c>
       <c r="D2499" s="1" t="s">
-        <v>9577</v>
+        <v>9576</v>
       </c>
       <c r="E2499" s="1" t="s">
         <v>7131</v>
@@ -94136,7 +94136,7 @@
         <v>464</v>
       </c>
       <c r="D2500" s="1" t="s">
-        <v>9578</v>
+        <v>9577</v>
       </c>
       <c r="E2500" s="1" t="s">
         <v>7134</v>
@@ -94153,7 +94153,7 @@
         <v>464</v>
       </c>
       <c r="D2501" s="1" t="s">
-        <v>9579</v>
+        <v>9578</v>
       </c>
       <c r="E2501" s="1" t="s">
         <v>7137</v>
@@ -94170,7 +94170,7 @@
         <v>4177</v>
       </c>
       <c r="D2502" s="1" t="s">
-        <v>9580</v>
+        <v>9579</v>
       </c>
       <c r="E2502" s="1" t="s">
         <v>7140</v>
@@ -94187,7 +94187,7 @@
         <v>6972</v>
       </c>
       <c r="D2503" s="1" t="s">
-        <v>9581</v>
+        <v>9580</v>
       </c>
       <c r="E2503" s="1" t="s">
         <v>7143</v>
@@ -94204,7 +94204,7 @@
         <v>250</v>
       </c>
       <c r="D2504" s="1" t="s">
-        <v>9582</v>
+        <v>9581</v>
       </c>
       <c r="E2504" s="1" t="s">
         <v>7146</v>
@@ -94221,7 +94221,7 @@
         <v>254</v>
       </c>
       <c r="D2505" s="1" t="s">
-        <v>9583</v>
+        <v>9582</v>
       </c>
       <c r="E2505" s="1" t="s">
         <v>7149</v>
@@ -94238,7 +94238,7 @@
         <v>254</v>
       </c>
       <c r="D2506" s="1" t="s">
-        <v>9584</v>
+        <v>9583</v>
       </c>
       <c r="E2506" s="1" t="s">
         <v>7151</v>
@@ -94255,7 +94255,7 @@
         <v>2637</v>
       </c>
       <c r="D2507" s="1" t="s">
-        <v>9079</v>
+        <v>9078</v>
       </c>
       <c r="E2507" s="1" t="s">
         <v>5592</v>
@@ -94272,7 +94272,7 @@
         <v>2637</v>
       </c>
       <c r="D2508" s="1" t="s">
-        <v>9585</v>
+        <v>9584</v>
       </c>
       <c r="E2508" s="1" t="s">
         <v>7156</v>
@@ -94289,7 +94289,7 @@
         <v>2637</v>
       </c>
       <c r="D2509" s="1" t="s">
-        <v>9586</v>
+        <v>9585</v>
       </c>
       <c r="E2509" s="1" t="s">
         <v>7159</v>
@@ -94306,7 +94306,7 @@
         <v>7162</v>
       </c>
       <c r="D2510" s="1" t="s">
-        <v>9587</v>
+        <v>9586</v>
       </c>
       <c r="E2510" s="1" t="s">
         <v>7163</v>
@@ -94323,7 +94323,7 @@
         <v>7162</v>
       </c>
       <c r="D2511" s="1" t="s">
-        <v>9588</v>
+        <v>9587</v>
       </c>
       <c r="E2511" s="1" t="s">
         <v>7166</v>
@@ -94340,7 +94340,7 @@
         <v>7162</v>
       </c>
       <c r="D2512" s="1" t="s">
-        <v>9589</v>
+        <v>9588</v>
       </c>
       <c r="E2512" s="1" t="s">
         <v>7169</v>
@@ -94357,7 +94357,7 @@
         <v>7172</v>
       </c>
       <c r="D2513" s="1" t="s">
-        <v>9590</v>
+        <v>9589</v>
       </c>
       <c r="E2513" s="1" t="s">
         <v>7173</v>
@@ -94374,7 +94374,7 @@
         <v>3102</v>
       </c>
       <c r="D2514" s="1" t="s">
-        <v>9591</v>
+        <v>9590</v>
       </c>
       <c r="E2514" s="1" t="s">
         <v>7176</v>
@@ -94391,7 +94391,7 @@
         <v>3102</v>
       </c>
       <c r="D2515" s="1" t="s">
-        <v>9592</v>
+        <v>9591</v>
       </c>
       <c r="E2515" s="1" t="s">
         <v>7179</v>
@@ -94408,7 +94408,7 @@
         <v>683</v>
       </c>
       <c r="D2516" s="1" t="s">
-        <v>9593</v>
+        <v>9592</v>
       </c>
       <c r="E2516" s="1" t="s">
         <v>7182</v>
@@ -94425,7 +94425,7 @@
         <v>1960</v>
       </c>
       <c r="D2517" s="4" t="s">
-        <v>9594</v>
+        <v>9593</v>
       </c>
       <c r="E2517" s="4" t="s">
         <v>7185</v>
@@ -94442,7 +94442,7 @@
         <v>1960</v>
       </c>
       <c r="D2518" s="1" t="s">
-        <v>9595</v>
+        <v>9594</v>
       </c>
       <c r="E2518" s="1" t="s">
         <v>7188</v>
@@ -94459,7 +94459,7 @@
         <v>1960</v>
       </c>
       <c r="D2519" s="1" t="s">
-        <v>9596</v>
+        <v>9595</v>
       </c>
       <c r="E2519" s="1" t="s">
         <v>7191</v>
@@ -94476,7 +94476,7 @@
         <v>1071</v>
       </c>
       <c r="D2520" s="1" t="s">
-        <v>9597</v>
+        <v>9596</v>
       </c>
       <c r="E2520" s="1" t="s">
         <v>7194</v>
@@ -94493,7 +94493,7 @@
         <v>1960</v>
       </c>
       <c r="D2521" s="1" t="s">
-        <v>9598</v>
+        <v>9597</v>
       </c>
       <c r="E2521" s="1" t="s">
         <v>7191</v>
@@ -94510,7 +94510,7 @@
         <v>258</v>
       </c>
       <c r="D2522" s="1" t="s">
-        <v>9599</v>
+        <v>9598</v>
       </c>
       <c r="E2522" s="1" t="s">
         <v>7199</v>
@@ -94527,7 +94527,7 @@
         <v>258</v>
       </c>
       <c r="D2523" s="1" t="s">
-        <v>9600</v>
+        <v>9599</v>
       </c>
       <c r="E2523" s="1" t="s">
         <v>7202</v>
@@ -94544,7 +94544,7 @@
         <v>7205</v>
       </c>
       <c r="D2524" s="1" t="s">
-        <v>9601</v>
+        <v>9600</v>
       </c>
       <c r="E2524" s="1" t="s">
         <v>7206</v>
@@ -94561,7 +94561,7 @@
         <v>7205</v>
       </c>
       <c r="D2525" s="1" t="s">
-        <v>9602</v>
+        <v>9601</v>
       </c>
       <c r="E2525" s="1" t="s">
         <v>7209</v>
@@ -94595,7 +94595,7 @@
         <v>5157</v>
       </c>
       <c r="D2527" s="1" t="s">
-        <v>9603</v>
+        <v>9602</v>
       </c>
       <c r="E2527" s="1" t="s">
         <v>7213</v>
@@ -94612,7 +94612,7 @@
         <v>970</v>
       </c>
       <c r="D2528" s="1" t="s">
-        <v>9604</v>
+        <v>9603</v>
       </c>
       <c r="E2528" s="1" t="s">
         <v>7216</v>
@@ -94629,7 +94629,7 @@
         <v>15</v>
       </c>
       <c r="D2529" s="1" t="s">
-        <v>9605</v>
+        <v>9604</v>
       </c>
       <c r="E2529" s="1" t="s">
         <v>7219</v>
@@ -94646,7 +94646,7 @@
         <v>15</v>
       </c>
       <c r="D2530" s="1" t="s">
-        <v>9606</v>
+        <v>9605</v>
       </c>
       <c r="E2530" s="1" t="s">
         <v>7222</v>
@@ -94663,7 +94663,7 @@
         <v>15</v>
       </c>
       <c r="D2531" s="1" t="s">
-        <v>9607</v>
+        <v>9606</v>
       </c>
       <c r="E2531" s="1" t="s">
         <v>7225</v>
@@ -94680,7 +94680,7 @@
         <v>15</v>
       </c>
       <c r="D2532" s="1" t="s">
-        <v>9608</v>
+        <v>9607</v>
       </c>
       <c r="E2532" s="1" t="s">
         <v>7228</v>
@@ -94697,7 +94697,7 @@
         <v>15</v>
       </c>
       <c r="D2533" s="1" t="s">
-        <v>9609</v>
+        <v>9608</v>
       </c>
       <c r="E2533" s="1" t="s">
         <v>7231</v>
@@ -94714,7 +94714,7 @@
         <v>15</v>
       </c>
       <c r="D2534" s="1" t="s">
-        <v>9610</v>
+        <v>9609</v>
       </c>
       <c r="E2534" s="1" t="s">
         <v>7234</v>
@@ -94731,7 +94731,7 @@
         <v>15</v>
       </c>
       <c r="D2535" s="1" t="s">
-        <v>9611</v>
+        <v>9610</v>
       </c>
       <c r="E2535" s="1" t="s">
         <v>7237</v>
@@ -94748,7 +94748,7 @@
         <v>5911</v>
       </c>
       <c r="D2536" s="1" t="s">
-        <v>9630</v>
+        <v>9629</v>
       </c>
       <c r="E2536" s="1" t="s">
         <v>7240</v>
@@ -94765,7 +94765,7 @@
         <v>443</v>
       </c>
       <c r="D2537" s="1" t="s">
-        <v>9612</v>
+        <v>9611</v>
       </c>
       <c r="E2537" s="1" t="s">
         <v>7243</v>
@@ -94782,7 +94782,7 @@
         <v>1380</v>
       </c>
       <c r="D2538" s="4" t="s">
-        <v>9613</v>
+        <v>9612</v>
       </c>
       <c r="E2538" s="4" t="s">
         <v>7246</v>
@@ -94799,7 +94799,7 @@
         <v>1342</v>
       </c>
       <c r="D2539" s="1" t="s">
-        <v>9614</v>
+        <v>9613</v>
       </c>
       <c r="E2539" s="1" t="s">
         <v>1913</v>
@@ -94816,7 +94816,7 @@
         <v>1342</v>
       </c>
       <c r="D2540" s="1" t="s">
-        <v>9615</v>
+        <v>9614</v>
       </c>
       <c r="E2540" s="1" t="s">
         <v>7250</v>
@@ -94833,7 +94833,7 @@
         <v>6636</v>
       </c>
       <c r="D2541" s="1" t="s">
-        <v>9616</v>
+        <v>9615</v>
       </c>
       <c r="E2541" s="1" t="s">
         <v>7253</v>
@@ -94850,7 +94850,7 @@
         <v>6636</v>
       </c>
       <c r="D2542" s="1" t="s">
-        <v>9617</v>
+        <v>9616</v>
       </c>
       <c r="E2542" s="1" t="s">
         <v>7256</v>
@@ -94867,7 +94867,7 @@
         <v>6636</v>
       </c>
       <c r="D2543" s="1" t="s">
-        <v>9618</v>
+        <v>9617</v>
       </c>
       <c r="E2543" s="1" t="s">
         <v>7259</v>
@@ -94884,7 +94884,7 @@
         <v>6636</v>
       </c>
       <c r="D2544" s="1" t="s">
-        <v>9619</v>
+        <v>9618</v>
       </c>
       <c r="E2544" s="1" t="s">
         <v>7262</v>
@@ -94901,7 +94901,7 @@
         <v>6636</v>
       </c>
       <c r="D2545" s="1" t="s">
-        <v>9620</v>
+        <v>9619</v>
       </c>
       <c r="E2545" s="1" t="s">
         <v>7265</v>
@@ -94918,7 +94918,7 @@
         <v>6636</v>
       </c>
       <c r="D2546" s="1" t="s">
-        <v>9621</v>
+        <v>9620</v>
       </c>
       <c r="E2546" s="1" t="s">
         <v>7268</v>
@@ -94935,7 +94935,7 @@
         <v>1342</v>
       </c>
       <c r="D2547" s="1" t="s">
-        <v>9622</v>
+        <v>9621</v>
       </c>
       <c r="E2547" s="1" t="s">
         <v>7271</v>
@@ -94952,7 +94952,7 @@
         <v>6636</v>
       </c>
       <c r="D2548" s="1" t="s">
-        <v>9623</v>
+        <v>9622</v>
       </c>
       <c r="E2548" s="1" t="s">
         <v>7274</v>
@@ -94969,7 +94969,7 @@
         <v>6636</v>
       </c>
       <c r="D2549" s="1" t="s">
-        <v>9624</v>
+        <v>9623</v>
       </c>
       <c r="E2549" s="1" t="s">
         <v>7277</v>
@@ -94986,7 +94986,7 @@
         <v>6636</v>
       </c>
       <c r="D2550" s="1" t="s">
-        <v>9625</v>
+        <v>9624</v>
       </c>
       <c r="E2550" s="1" t="s">
         <v>7280</v>
@@ -95003,7 +95003,7 @@
         <v>6636</v>
       </c>
       <c r="D2551" s="1" t="s">
-        <v>9626</v>
+        <v>9625</v>
       </c>
       <c r="E2551" s="1" t="s">
         <v>7283</v>
@@ -95020,7 +95020,7 @@
         <v>6636</v>
       </c>
       <c r="D2552" s="1" t="s">
-        <v>9627</v>
+        <v>9626</v>
       </c>
       <c r="E2552" s="1" t="s">
         <v>7286</v>
@@ -95037,7 +95037,7 @@
         <v>1706</v>
       </c>
       <c r="D2553" s="1" t="s">
-        <v>9628</v>
+        <v>9627</v>
       </c>
       <c r="E2553" s="1" t="s">
         <v>7289</v>
@@ -95054,7 +95054,7 @@
         <v>1706</v>
       </c>
       <c r="D2554" s="1" t="s">
-        <v>9629</v>
+        <v>9628</v>
       </c>
       <c r="E2554" s="1" t="s">
         <v>7292</v>
@@ -95071,7 +95071,7 @@
         <v>1706</v>
       </c>
       <c r="D2555" s="4" t="s">
-        <v>9631</v>
+        <v>9630</v>
       </c>
       <c r="E2555" s="4" t="s">
         <v>7295</v>

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22378F8-CD13-4A7B-9F01-F2809ECD60A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EF11AD-F7D6-4712-8C76-742E88D1C6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$A$2:$F$2</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14543" uniqueCount="9632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14576" uniqueCount="9660">
   <si>
     <t>id</t>
   </si>
@@ -46146,6 +46157,110 @@
   </si>
   <si>
     <t xml:space="preserve">Não. </t>
+  </si>
+  <si>
+    <t>isOnlyUsableByPC</t>
+  </si>
+  <si>
+    <t>EA 23.113</t>
+  </si>
+  <si>
+    <t>It can be only used by you.</t>
+  </si>
+  <si>
+    <t>それはあなたにしか使えない。</t>
+  </si>
+  <si>
+    <t>hintCon2</t>
+  </si>
+  <si>
+    <t>EA 23.114</t>
+  </si>
+  <si>
+    <t>Apply #1</t>
+  </si>
+  <si>
+    <t>#1を付与する</t>
+  </si>
+  <si>
+    <t>sword_</t>
+  </si>
+  <si>
+    <t>EA 23.117</t>
+  </si>
+  <si>
+    <t>#1 sword</t>
+  </si>
+  <si>
+    <t>#1の剣</t>
+  </si>
+  <si>
+    <t>pp_enableDamageReduction</t>
+  </si>
+  <si>
+    <t>EA 23.111</t>
+  </si>
+  <si>
+    <t>Dampen enemy damage in the higher level range</t>
+  </si>
+  <si>
+    <t>高レベル帯での敵の与えるダメージを減衰する</t>
+  </si>
+  <si>
+    <t>pp_enableDamageReduction_hint</t>
+  </si>
+  <si>
+    <t>– Blessings upon the adventurers who seek the abyss, where even the gods cannot reach –
+※ In Early Access, balance is primarily adjusted up to floor 200.
+Without the full range of rewards and enhancements planned for the final release,
+it is expected that enemies beyond floor 500 will deal fatal damage in a single hit.
+Enabling this allows you to gain comparable enhancements to those of high-level enemies.
+(Legacy options do not affect achievements.)
+(Legacy options may be deprecated in the future.)</t>
+  </si>
+  <si>
+    <t>- 神すら届かぬ深淵を目指す冒険者に祝福あれ -
+※EAでは200階層までのバランスが主に調整され
+正式版までに導入される全ての報酬や強化の恩恵なくしては
+500階層以上では敵の攻撃でほぼ一撃死するバランスが想定されています。
+このオプションを有効にすると、高レベル帯で敵と同等の強化を得られるようになります。
+（レガシーオプションは実績に影響しません）
+（レガシーオプションは廃止される可能性があります）</t>
+  </si>
+  <si>
+    <t>pp_Legacy</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>レガシー</t>
+  </si>
+  <si>
+    <t>Só pode ser usado por você.</t>
+  </si>
+  <si>
+    <t>Aplique #1</t>
+  </si>
+  <si>
+    <t>#1 espada</t>
+  </si>
+  <si>
+    <t>Atenue o dano dos inimigos em níveis mais elevados</t>
+  </si>
+  <si>
+    <t>– Bênçãos aos aventureiros que buscam o abismo, onde nem os deuses podem alcançar –_x000D_
+_x000D_
+※ No Acesso Antecipado, o equilíbrio é ajustado principalmente até o piso 200._x000D_
+Sem a gama completa de recompensas e melhorias planejadas para o lançamento final,_x000D_
+espera-se que inimigos além do piso 500 causem dano fatal em um único golpe._x000D_
+Ativar isso permite que você obtenha melhorias comparáveis às dos inimigos de alto nível._x000D_
+_x000D_
+(Opções legadas não afetam as conquistas.)_x000D_
+(Opções legadas podem ser descontinuadas no futuro.)</t>
+  </si>
+  <si>
+    <t>Legado</t>
   </si>
 </sst>
 </file>
@@ -46329,11 +46444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2555"/>
+  <dimension ref="A1:F2561"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2168" sqref="E2168"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A2555" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2561" sqref="D2561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -95080,6 +95195,117 @@
         <v>7296</v>
       </c>
     </row>
+    <row r="2556" spans="1:6">
+      <c r="A2556" t="s">
+        <v>9632</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>9633</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D2556" t="s">
+        <v>9654</v>
+      </c>
+      <c r="E2556" t="s">
+        <v>9634</v>
+      </c>
+      <c r="F2556" t="s">
+        <v>9635</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:6">
+      <c r="A2557" t="s">
+        <v>9636</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>9637</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D2557" t="s">
+        <v>9655</v>
+      </c>
+      <c r="E2557" t="s">
+        <v>9638</v>
+      </c>
+      <c r="F2557" t="s">
+        <v>9639</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:6">
+      <c r="A2558" t="s">
+        <v>9640</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>9641</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D2558" t="s">
+        <v>9656</v>
+      </c>
+      <c r="E2558" t="s">
+        <v>9642</v>
+      </c>
+      <c r="F2558" t="s">
+        <v>9643</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:6">
+      <c r="A2559" t="s">
+        <v>9644</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>9645</v>
+      </c>
+      <c r="D2559" t="s">
+        <v>9657</v>
+      </c>
+      <c r="E2559" t="s">
+        <v>9646</v>
+      </c>
+      <c r="F2559" t="s">
+        <v>9647</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:6" ht="148.5">
+      <c r="A2560" t="s">
+        <v>9648</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>9645</v>
+      </c>
+      <c r="D2560" s="3" t="s">
+        <v>9658</v>
+      </c>
+      <c r="E2560" s="3" t="s">
+        <v>9649</v>
+      </c>
+      <c r="F2560" t="s">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:6">
+      <c r="A2561" t="s">
+        <v>9651</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>9645</v>
+      </c>
+      <c r="D2561" t="s">
+        <v>9659</v>
+      </c>
+      <c r="E2561" t="s">
+        <v>9652</v>
+      </c>
+      <c r="F2561" t="s">
+        <v>9653</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397C9F15-C80F-4FC7-AF85-DA87AA136E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B424BE34-BD21-40C7-B3D6-BCFCF0FBA554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="540" windowWidth="20400" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -44366,9 +44366,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;color=#AAFFAA&gt;(Bebê)&lt;/color&gt;</t>
-  </si>
-  <si>
     <t>#1 (Possuído: #2 — Exibindo: #3)</t>
   </si>
   <si>
@@ -44879,9 +44876,6 @@
   <si>
     <t>Para usar o uploader do jogo,
 Leia os Termos de Uso e concorde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apodrecendo  </t>
   </si>
   <si>
     <t>Pastorear Gado</t>
@@ -44979,6 +44973,12 @@
   </si>
   <si>
     <t>Sem Filtro</t>
+  </si>
+  <si>
+    <t>&lt;color=#AAFFAA&gt;(Bebê)&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Apodrecendo</t>
   </si>
 </sst>
 </file>
@@ -45170,9 +45170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2561"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D297" sqref="D297"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -45282,7 +45282,7 @@
         <v>2160</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9463</v>
+        <v>9462</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4945</v>
@@ -45299,7 +45299,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9464</v>
+        <v>9463</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>5535</v>
@@ -45316,7 +45316,7 @@
         <v>390</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9391</v>
+        <v>9546</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7016</v>
@@ -45336,7 +45336,7 @@
         <v>870</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9449</v>
+        <v>9448</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>971</v>
@@ -45481,7 +45481,7 @@
         <v>5017</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>9482</v>
+        <v>9481</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>5018</v>
@@ -45785,7 +45785,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>9447</v>
+        <v>9446</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>4807</v>
@@ -45968,7 +45968,7 @@
         <v>173</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9445</v>
+        <v>9444</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -46076,7 +46076,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>9435</v>
+        <v>9434</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>22</v>
@@ -46096,7 +46096,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>9435</v>
+        <v>9434</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>22</v>
@@ -46116,7 +46116,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>9483</v>
+        <v>9482</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>137</v>
@@ -46210,7 +46210,7 @@
         <v>280</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9487</v>
+        <v>9486</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>8825</v>
@@ -46358,7 +46358,7 @@
         <v>1891</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>9413</v>
+        <v>9412</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>8577</v>
@@ -46378,7 +46378,7 @@
         <v>1891</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>9451</v>
+        <v>9450</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>8572</v>
@@ -46412,7 +46412,7 @@
         <v>270</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>9486</v>
+        <v>9485</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>6858</v>
@@ -46452,7 +46452,7 @@
         <v>2760</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>9392</v>
+        <v>9391</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>8581</v>
@@ -46489,7 +46489,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>9467</v>
+        <v>9466</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>23</v>
@@ -46694,7 +46694,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>9456</v>
+        <v>9455</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>80</v>
@@ -46714,7 +46714,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>9546</v>
+        <v>9544</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>103</v>
@@ -46754,7 +46754,7 @@
         <v>3444</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>9448</v>
+        <v>9447</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>3570</v>
@@ -46828,7 +46828,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>9438</v>
+        <v>9437</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>29</v>
@@ -47219,7 +47219,7 @@
         <v>4240</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>9444</v>
+        <v>9443</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>173</v>
@@ -47253,7 +47253,7 @@
         <v>7</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>9428</v>
+        <v>9427</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>9104</v>
@@ -47330,7 +47330,7 @@
         <v>4372</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>9430</v>
+        <v>9429</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>4387</v>
@@ -47821,7 +47821,7 @@
         <v>691</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>9429</v>
+        <v>9428</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>692</v>
@@ -47935,7 +47935,7 @@
         <v>8</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>9475</v>
+        <v>9474</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>117</v>
@@ -48143,7 +48143,7 @@
         <v>8</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>9440</v>
+        <v>9439</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>154</v>
@@ -48183,7 +48183,7 @@
         <v>8</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>9472</v>
+        <v>9471</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>88</v>
@@ -48289,7 +48289,7 @@
         <v>106</v>
       </c>
       <c r="F165" t="s">
-        <v>9442</v>
+        <v>9441</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -48369,7 +48369,7 @@
         <v>112</v>
       </c>
       <c r="F169" t="s">
-        <v>9441</v>
+        <v>9440</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -48477,7 +48477,7 @@
         <v>8</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>9471</v>
+        <v>9470</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>90</v>
@@ -48497,7 +48497,7 @@
         <v>1932</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>9450</v>
+        <v>9449</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>913</v>
@@ -48599,7 +48599,7 @@
         <v>7</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>9393</v>
+        <v>9392</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>4980</v>
@@ -48986,7 +48986,7 @@
         <v>216</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>9404</v>
+        <v>9403</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>6750</v>
@@ -49294,7 +49294,7 @@
         <v>6609</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>9460</v>
+        <v>9459</v>
       </c>
       <c r="E219" s="1" t="s">
         <v>6613</v>
@@ -49553,7 +49553,7 @@
         <v>870</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>9484</v>
+        <v>9483</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>891</v>
@@ -49641,7 +49641,7 @@
         <v>719</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>9406</v>
+        <v>9405</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>824</v>
@@ -49980,7 +49980,7 @@
         <v>8</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>9437</v>
+        <v>9436</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>78</v>
@@ -50051,7 +50051,7 @@
         <v>1536</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>9407</v>
+        <v>9406</v>
       </c>
       <c r="E260" s="1" t="s">
         <v>8585</v>
@@ -50085,7 +50085,7 @@
         <v>6371</v>
       </c>
       <c r="D262" t="s">
-        <v>9399</v>
+        <v>9398</v>
       </c>
       <c r="E262" t="s">
         <v>7036</v>
@@ -50145,13 +50145,13 @@
         <v>8</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>9474</v>
+        <v>9473</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>114</v>
       </c>
       <c r="F265" t="s">
-        <v>9473</v>
+        <v>9472</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -50165,7 +50165,7 @@
         <v>3444</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>9478</v>
+        <v>9477</v>
       </c>
       <c r="E266" s="1" t="s">
         <v>3532</v>
@@ -50182,7 +50182,7 @@
         <v>6839</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>9481</v>
+        <v>9480</v>
       </c>
       <c r="E267" s="1" t="s">
         <v>6840</v>
@@ -50202,7 +50202,7 @@
         <v>3538</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>9477</v>
+        <v>9476</v>
       </c>
       <c r="E268" s="1" t="s">
         <v>3542</v>
@@ -50222,7 +50222,7 @@
         <v>4282</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>9476</v>
+        <v>9475</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>3806</v>
@@ -50242,7 +50242,7 @@
         <v>3282</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>9480</v>
+        <v>9479</v>
       </c>
       <c r="E270" s="1" t="s">
         <v>3387</v>
@@ -50536,7 +50536,7 @@
         <v>6640</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>9452</v>
+        <v>9451</v>
       </c>
       <c r="E285" s="1" t="s">
         <v>9195</v>
@@ -50553,7 +50553,7 @@
         <v>42</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>9394</v>
+        <v>9393</v>
       </c>
       <c r="E286" s="1" t="s">
         <v>6130</v>
@@ -50644,7 +50644,7 @@
         <v>8</v>
       </c>
       <c r="D291" t="s">
-        <v>9459</v>
+        <v>9458</v>
       </c>
       <c r="E291" t="s">
         <v>16</v>
@@ -50664,7 +50664,7 @@
         <v>2669</v>
       </c>
       <c r="D292" t="s">
-        <v>9405</v>
+        <v>9404</v>
       </c>
       <c r="E292" t="s">
         <v>2689</v>
@@ -51081,7 +51081,7 @@
         <v>46</v>
       </c>
       <c r="D316" t="s">
-        <v>9458</v>
+        <v>9457</v>
       </c>
       <c r="E316" t="s">
         <v>6128</v>
@@ -51101,7 +51101,7 @@
         <v>4444</v>
       </c>
       <c r="D317" t="s">
-        <v>9453</v>
+        <v>9452</v>
       </c>
       <c r="E317" t="s">
         <v>7058</v>
@@ -51158,7 +51158,7 @@
         <v>709</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>9503</v>
+        <v>9502</v>
       </c>
       <c r="E320" s="1" t="s">
         <v>1259</v>
@@ -51178,7 +51178,7 @@
         <v>709</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="E321" s="1" t="s">
         <v>1262</v>
@@ -51198,7 +51198,7 @@
         <v>709</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>9505</v>
+        <v>9504</v>
       </c>
       <c r="E322" s="1" t="s">
         <v>1265</v>
@@ -51218,7 +51218,7 @@
         <v>709</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>9506</v>
+        <v>9505</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>1268</v>
@@ -51238,7 +51238,7 @@
         <v>709</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>9507</v>
+        <v>9506</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>1271</v>
@@ -52194,7 +52194,7 @@
         <v>1945</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>9398</v>
+        <v>9397</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>2064</v>
@@ -53098,7 +53098,7 @@
         <v>217</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>9454</v>
+        <v>9453</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>426</v>
@@ -53981,7 +53981,7 @@
         <v>3444</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>9416</v>
+        <v>9415</v>
       </c>
       <c r="E467" s="1" t="s">
         <v>3495</v>
@@ -54550,7 +54550,7 @@
         <v>7</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>9395</v>
+        <v>9394</v>
       </c>
       <c r="E498" s="1" t="s">
         <v>5153</v>
@@ -54724,7 +54724,7 @@
         <v>116</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>9425</v>
+        <v>9424</v>
       </c>
       <c r="E507" s="1" t="s">
         <v>6328</v>
@@ -55283,7 +55283,7 @@
         <v>1702</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>9479</v>
+        <v>9478</v>
       </c>
       <c r="E536" s="4" t="s">
         <v>5630</v>
@@ -55884,7 +55884,7 @@
         <v>7</v>
       </c>
       <c r="D568" s="1" t="s">
-        <v>9545</v>
+        <v>9543</v>
       </c>
       <c r="E568" s="1" t="s">
         <v>5467</v>
@@ -58518,7 +58518,7 @@
         <v>3008</v>
       </c>
       <c r="D706" s="1" t="s">
-        <v>9468</v>
+        <v>9467</v>
       </c>
       <c r="E706" s="1" t="s">
         <v>7075</v>
@@ -59088,7 +59088,7 @@
         <v>7</v>
       </c>
       <c r="D736" s="1" t="s">
-        <v>9457</v>
+        <v>9456</v>
       </c>
       <c r="E736" s="1" t="s">
         <v>5808</v>
@@ -59427,7 +59427,7 @@
         <v>1855</v>
       </c>
       <c r="D754" s="1" t="s">
-        <v>9469</v>
+        <v>9468</v>
       </c>
       <c r="E754" s="1" t="s">
         <v>1856</v>
@@ -60978,7 +60978,7 @@
         <v>870</v>
       </c>
       <c r="D835" s="1" t="s">
-        <v>9446</v>
+        <v>9445</v>
       </c>
       <c r="E835" s="1" t="s">
         <v>913</v>
@@ -61460,7 +61460,7 @@
         <v>2111</v>
       </c>
       <c r="D860" s="1" t="s">
-        <v>9544</v>
+        <v>9542</v>
       </c>
       <c r="E860" s="1" t="s">
         <v>2228</v>
@@ -63356,7 +63356,7 @@
         <v>2956</v>
       </c>
       <c r="D959" s="1" t="s">
-        <v>9409</v>
+        <v>9408</v>
       </c>
       <c r="E959" s="1" t="s">
         <v>3054</v>
@@ -63376,7 +63376,7 @@
         <v>2956</v>
       </c>
       <c r="D960" s="1" t="s">
-        <v>9412</v>
+        <v>9411</v>
       </c>
       <c r="E960" s="1" t="s">
         <v>3137</v>
@@ -63684,7 +63684,7 @@
         <v>4282</v>
       </c>
       <c r="D976" s="1" t="s">
-        <v>9417</v>
+        <v>9416</v>
       </c>
       <c r="E976" s="1" t="s">
         <v>4294</v>
@@ -63986,7 +63986,7 @@
         <v>7</v>
       </c>
       <c r="D992" s="1" t="s">
-        <v>9436</v>
+        <v>9435</v>
       </c>
       <c r="E992" s="1" t="s">
         <v>4775</v>
@@ -64260,7 +64260,7 @@
         <v>2956</v>
       </c>
       <c r="D1006" s="1" t="s">
-        <v>9462</v>
+        <v>9461</v>
       </c>
       <c r="E1006" s="1" t="s">
         <v>3220</v>
@@ -65980,7 +65980,7 @@
         <v>2956</v>
       </c>
       <c r="D1095" s="1" t="s">
-        <v>9410</v>
+        <v>9409</v>
       </c>
       <c r="E1095" s="1" t="s">
         <v>8587</v>
@@ -66787,7 +66787,7 @@
         <v>709</v>
       </c>
       <c r="D1137" s="4" t="s">
-        <v>9455</v>
+        <v>9454</v>
       </c>
       <c r="E1137" s="4" t="s">
         <v>1747</v>
@@ -66935,7 +66935,7 @@
         <v>93</v>
       </c>
       <c r="D1145" s="1" t="s">
-        <v>9403</v>
+        <v>9402</v>
       </c>
       <c r="E1145" s="1" t="s">
         <v>6741</v>
@@ -68198,7 +68198,7 @@
         <v>709</v>
       </c>
       <c r="D1211" s="1" t="s">
-        <v>9547</v>
+        <v>9545</v>
       </c>
       <c r="E1211" s="1" t="s">
         <v>1197</v>
@@ -68848,7 +68848,7 @@
         <v>2551</v>
       </c>
       <c r="D1245" s="1" t="s">
-        <v>9508</v>
+        <v>9507</v>
       </c>
       <c r="E1245" s="1" t="s">
         <v>2559</v>
@@ -68885,7 +68885,7 @@
         <v>6923</v>
       </c>
       <c r="D1247" s="1" t="s">
-        <v>9396</v>
+        <v>9395</v>
       </c>
       <c r="E1247" s="1" t="s">
         <v>9278</v>
@@ -68902,7 +68902,7 @@
         <v>390</v>
       </c>
       <c r="D1248" s="1" t="s">
-        <v>9400</v>
+        <v>9399</v>
       </c>
       <c r="E1248" s="1" t="s">
         <v>9312</v>
@@ -68956,7 +68956,7 @@
         <v>2956</v>
       </c>
       <c r="D1251" s="1" t="s">
-        <v>9509</v>
+        <v>9508</v>
       </c>
       <c r="E1251" s="1" t="s">
         <v>2989</v>
@@ -69167,7 +69167,7 @@
         <v>7</v>
       </c>
       <c r="D1262" s="1" t="s">
-        <v>9510</v>
+        <v>9509</v>
       </c>
       <c r="E1262" s="1" t="s">
         <v>4930</v>
@@ -69501,7 +69501,7 @@
         <v>4338</v>
       </c>
       <c r="D1279" s="1" t="s">
-        <v>9542</v>
+        <v>9540</v>
       </c>
       <c r="E1279" s="1" t="s">
         <v>4353</v>
@@ -69521,7 +69521,7 @@
         <v>4338</v>
       </c>
       <c r="D1280" s="1" t="s">
-        <v>9543</v>
+        <v>9541</v>
       </c>
       <c r="E1280" s="1" t="s">
         <v>4356</v>
@@ -70037,7 +70037,7 @@
         <v>1702</v>
       </c>
       <c r="D1307" s="4" t="s">
-        <v>9511</v>
+        <v>9510</v>
       </c>
       <c r="E1307" s="4" t="s">
         <v>7238</v>
@@ -71177,7 +71177,7 @@
         <v>8</v>
       </c>
       <c r="D1367" s="1" t="s">
-        <v>9502</v>
+        <v>9501</v>
       </c>
       <c r="E1367" s="1" t="s">
         <v>167</v>
@@ -71197,7 +71197,7 @@
         <v>8</v>
       </c>
       <c r="D1368" s="1" t="s">
-        <v>9501</v>
+        <v>9500</v>
       </c>
       <c r="E1368" s="1" t="s">
         <v>171</v>
@@ -71901,7 +71901,7 @@
         <v>7</v>
       </c>
       <c r="D1405" s="1" t="s">
-        <v>9418</v>
+        <v>9417</v>
       </c>
       <c r="E1405" s="1" t="s">
         <v>5387</v>
@@ -72283,7 +72283,7 @@
         <v>2568</v>
       </c>
       <c r="D1425" s="1" t="s">
-        <v>9421</v>
+        <v>9420</v>
       </c>
       <c r="E1425" s="1" t="s">
         <v>2632</v>
@@ -72913,7 +72913,7 @@
         <v>6061</v>
       </c>
       <c r="D1458" s="1" t="s">
-        <v>9500</v>
+        <v>9499</v>
       </c>
       <c r="E1458" s="1" t="s">
         <v>6080</v>
@@ -73617,7 +73617,7 @@
         <v>3444</v>
       </c>
       <c r="D1495" s="1" t="s">
-        <v>9415</v>
+        <v>9414</v>
       </c>
       <c r="E1495" s="1" t="s">
         <v>3491</v>
@@ -77688,7 +77688,7 @@
         <v>2956</v>
       </c>
       <c r="D1708" s="1" t="s">
-        <v>9485</v>
+        <v>9484</v>
       </c>
       <c r="E1708" s="1" t="s">
         <v>3241</v>
@@ -77728,7 +77728,7 @@
         <v>6897</v>
       </c>
       <c r="D1710" s="1" t="s">
-        <v>9422</v>
+        <v>9421</v>
       </c>
       <c r="E1710" s="1" t="s">
         <v>9275</v>
@@ -78495,7 +78495,7 @@
         <v>2568</v>
       </c>
       <c r="D1750" s="1" t="s">
-        <v>9419</v>
+        <v>9418</v>
       </c>
       <c r="E1750" s="1" t="s">
         <v>2626</v>
@@ -78572,7 +78572,7 @@
         <v>1945</v>
       </c>
       <c r="D1754" s="1" t="s">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="E1754" s="1" t="s">
         <v>2069</v>
@@ -78652,7 +78652,7 @@
         <v>2551</v>
       </c>
       <c r="D1758" s="1" t="s">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="E1758" s="1" t="s">
         <v>2555</v>
@@ -78672,7 +78672,7 @@
         <v>2551</v>
       </c>
       <c r="D1759" s="1" t="s">
-        <v>9514</v>
+        <v>9513</v>
       </c>
       <c r="E1759" s="1" t="s">
         <v>2552</v>
@@ -78692,7 +78692,7 @@
         <v>3444</v>
       </c>
       <c r="D1760" s="1" t="s">
-        <v>9414</v>
+        <v>9413</v>
       </c>
       <c r="E1760" s="1" t="s">
         <v>3488</v>
@@ -79182,7 +79182,7 @@
         <v>87</v>
       </c>
       <c r="D1786" s="1" t="s">
-        <v>9515</v>
+        <v>9514</v>
       </c>
       <c r="E1786" s="1" t="s">
         <v>4995</v>
@@ -79415,7 +79415,7 @@
         <v>1945</v>
       </c>
       <c r="D1799" s="4" t="s">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="E1799" s="4" t="s">
         <v>5071</v>
@@ -79435,7 +79435,7 @@
         <v>1945</v>
       </c>
       <c r="D1800" s="4" t="s">
-        <v>9517</v>
+        <v>9516</v>
       </c>
       <c r="E1800" s="4" t="s">
         <v>5068</v>
@@ -79649,7 +79649,7 @@
         <v>2956</v>
       </c>
       <c r="D1811" s="1" t="s">
-        <v>9518</v>
+        <v>9547</v>
       </c>
       <c r="E1811" s="1" t="s">
         <v>3217</v>
@@ -79726,7 +79726,7 @@
         <v>3265</v>
       </c>
       <c r="D1815" s="1" t="s">
-        <v>9519</v>
+        <v>9517</v>
       </c>
       <c r="E1815" s="1" t="s">
         <v>3269</v>
@@ -79746,7 +79746,7 @@
         <v>709</v>
       </c>
       <c r="D1816" s="1" t="s">
-        <v>9433</v>
+        <v>9432</v>
       </c>
       <c r="E1816" s="1" t="s">
         <v>6634</v>
@@ -79766,7 +79766,7 @@
         <v>709</v>
       </c>
       <c r="D1817" s="1" t="s">
-        <v>9432</v>
+        <v>9431</v>
       </c>
       <c r="E1817" s="1" t="s">
         <v>6631</v>
@@ -79786,7 +79786,7 @@
         <v>709</v>
       </c>
       <c r="D1818" s="1" t="s">
-        <v>9431</v>
+        <v>9430</v>
       </c>
       <c r="E1818" s="1" t="s">
         <v>6637</v>
@@ -79806,7 +79806,7 @@
         <v>709</v>
       </c>
       <c r="D1819" s="1" t="s">
-        <v>9520</v>
+        <v>9518</v>
       </c>
       <c r="E1819" s="1" t="s">
         <v>1617</v>
@@ -80274,7 +80274,7 @@
         <v>709</v>
       </c>
       <c r="D1843" s="4" t="s">
-        <v>9521</v>
+        <v>9519</v>
       </c>
       <c r="E1843" s="4" t="s">
         <v>1390</v>
@@ -80705,7 +80705,7 @@
         <v>7</v>
       </c>
       <c r="D1865" s="4" t="s">
-        <v>9522</v>
+        <v>9520</v>
       </c>
       <c r="E1865" s="4" t="s">
         <v>5633</v>
@@ -80725,7 +80725,7 @@
         <v>3444</v>
       </c>
       <c r="D1866" s="1" t="s">
-        <v>9523</v>
+        <v>9521</v>
       </c>
       <c r="E1866" s="1" t="s">
         <v>3461</v>
@@ -81022,7 +81022,7 @@
         <v>6061</v>
       </c>
       <c r="D1881" s="1" t="s">
-        <v>9443</v>
+        <v>9442</v>
       </c>
       <c r="E1881" s="1" t="s">
         <v>173</v>
@@ -81692,7 +81692,7 @@
         <v>2956</v>
       </c>
       <c r="D1916" s="1" t="s">
-        <v>9524</v>
+        <v>9522</v>
       </c>
       <c r="E1916" s="1" t="s">
         <v>3214</v>
@@ -81860,7 +81860,7 @@
         <v>3379</v>
       </c>
       <c r="D1925" s="1" t="s">
-        <v>9397</v>
+        <v>9396</v>
       </c>
       <c r="E1925" s="1" t="s">
         <v>9280</v>
@@ -81934,7 +81934,7 @@
         <v>2858</v>
       </c>
       <c r="D1929" s="1" t="s">
-        <v>9525</v>
+        <v>9523</v>
       </c>
       <c r="E1929" s="1" t="s">
         <v>2932</v>
@@ -82253,7 +82253,7 @@
         <v>2568</v>
       </c>
       <c r="D1946" s="1" t="s">
-        <v>9402</v>
+        <v>9401</v>
       </c>
       <c r="E1946" s="1" t="s">
         <v>2611</v>
@@ -82777,7 +82777,7 @@
         <v>6897</v>
       </c>
       <c r="D1974" s="1" t="s">
-        <v>9423</v>
+        <v>9422</v>
       </c>
       <c r="E1974" s="1" t="s">
         <v>9273</v>
@@ -82965,7 +82965,7 @@
         <v>7</v>
       </c>
       <c r="D1984" s="1" t="s">
-        <v>9427</v>
+        <v>9426</v>
       </c>
       <c r="E1984" s="1" t="s">
         <v>9102</v>
@@ -82982,7 +82982,7 @@
         <v>7</v>
       </c>
       <c r="D1985" s="1" t="s">
-        <v>9426</v>
+        <v>9425</v>
       </c>
       <c r="E1985" s="1" t="s">
         <v>9100</v>
@@ -83239,7 +83239,7 @@
         <v>980</v>
       </c>
       <c r="D1998" s="1" t="s">
-        <v>9439</v>
+        <v>9438</v>
       </c>
       <c r="E1998" s="1" t="s">
         <v>981</v>
@@ -83279,7 +83279,7 @@
         <v>709</v>
       </c>
       <c r="D2000" s="1" t="s">
-        <v>9532</v>
+        <v>9530</v>
       </c>
       <c r="E2000" s="1" t="s">
         <v>1584</v>
@@ -83299,7 +83299,7 @@
         <v>709</v>
       </c>
       <c r="D2001" s="1" t="s">
-        <v>9531</v>
+        <v>9529</v>
       </c>
       <c r="E2001" s="1" t="s">
         <v>1587</v>
@@ -83319,7 +83319,7 @@
         <v>709</v>
       </c>
       <c r="D2002" s="4" t="s">
-        <v>9526</v>
+        <v>9524</v>
       </c>
       <c r="E2002" s="4" t="s">
         <v>1639</v>
@@ -83379,7 +83379,7 @@
         <v>2669</v>
       </c>
       <c r="D2005" s="4" t="s">
-        <v>9527</v>
+        <v>9525</v>
       </c>
       <c r="E2005" s="4" t="s">
         <v>2698</v>
@@ -83399,7 +83399,7 @@
         <v>2669</v>
       </c>
       <c r="D2006" s="4" t="s">
-        <v>9528</v>
+        <v>9526</v>
       </c>
       <c r="E2006" s="4" t="s">
         <v>2695</v>
@@ -83419,7 +83419,7 @@
         <v>709</v>
       </c>
       <c r="D2007" s="1" t="s">
-        <v>9533</v>
+        <v>9531</v>
       </c>
       <c r="E2007" s="1" t="s">
         <v>1593</v>
@@ -83439,7 +83439,7 @@
         <v>709</v>
       </c>
       <c r="D2008" s="4" t="s">
-        <v>9529</v>
+        <v>9527</v>
       </c>
       <c r="E2008" s="4" t="s">
         <v>1286</v>
@@ -83459,7 +83459,7 @@
         <v>709</v>
       </c>
       <c r="D2009" s="1" t="s">
-        <v>9530</v>
+        <v>9528</v>
       </c>
       <c r="E2009" s="1" t="s">
         <v>1590</v>
@@ -84318,7 +84318,7 @@
         <v>4444</v>
       </c>
       <c r="D2053" s="1" t="s">
-        <v>9534</v>
+        <v>9532</v>
       </c>
       <c r="E2053" s="1" t="s">
         <v>4493</v>
@@ -84997,7 +84997,7 @@
         <v>217</v>
       </c>
       <c r="D2088" t="s">
-        <v>9461</v>
+        <v>9460</v>
       </c>
       <c r="E2088" s="1" t="s">
         <v>277</v>
@@ -85248,7 +85248,7 @@
         <v>695</v>
       </c>
       <c r="D2101" s="1" t="s">
-        <v>9470</v>
+        <v>9469</v>
       </c>
       <c r="E2101" s="1" t="s">
         <v>702</v>
@@ -85827,7 +85827,7 @@
         <v>2794</v>
       </c>
       <c r="D2131" s="1" t="s">
-        <v>9401</v>
+        <v>9400</v>
       </c>
       <c r="E2131" s="1" t="s">
         <v>8583</v>
@@ -86166,7 +86166,7 @@
         <v>7</v>
       </c>
       <c r="D2149" s="1" t="s">
-        <v>9465</v>
+        <v>9464</v>
       </c>
       <c r="E2149" s="1" t="s">
         <v>5931</v>
@@ -86482,7 +86482,7 @@
         <v>2568</v>
       </c>
       <c r="D2166" s="1" t="s">
-        <v>9420</v>
+        <v>9419</v>
       </c>
       <c r="E2166" s="1" t="s">
         <v>2629</v>
@@ -86793,7 +86793,7 @@
         <v>2956</v>
       </c>
       <c r="D2182" s="1" t="s">
-        <v>9411</v>
+        <v>9410</v>
       </c>
       <c r="E2182" s="1" t="s">
         <v>3085</v>
@@ -87517,7 +87517,7 @@
         <v>6061</v>
       </c>
       <c r="D2220" s="1" t="s">
-        <v>9499</v>
+        <v>9498</v>
       </c>
       <c r="E2220" s="1" t="s">
         <v>6100</v>
@@ -87534,7 +87534,7 @@
         <v>3170</v>
       </c>
       <c r="D2221" s="1" t="s">
-        <v>9498</v>
+        <v>9497</v>
       </c>
       <c r="E2221" s="1" t="s">
         <v>6667</v>
@@ -87551,7 +87551,7 @@
         <v>2110</v>
       </c>
       <c r="D2222" s="1" t="s">
-        <v>9497</v>
+        <v>9496</v>
       </c>
       <c r="E2222" s="1" t="s">
         <v>6658</v>
@@ -87568,7 +87568,7 @@
         <v>3170</v>
       </c>
       <c r="D2223" s="1" t="s">
-        <v>9496</v>
+        <v>9495</v>
       </c>
       <c r="E2223" s="1" t="s">
         <v>6670</v>
@@ -87585,7 +87585,7 @@
         <v>3170</v>
       </c>
       <c r="D2224" s="1" t="s">
-        <v>9495</v>
+        <v>9494</v>
       </c>
       <c r="E2224" s="1" t="s">
         <v>6664</v>
@@ -87602,10 +87602,10 @@
         <v>93</v>
       </c>
       <c r="D2225" s="1" t="s">
-        <v>9494</v>
+        <v>9493</v>
       </c>
       <c r="E2225" s="1" t="s">
-        <v>9424</v>
+        <v>9423</v>
       </c>
       <c r="F2225" t="s">
         <v>6673</v>
@@ -87619,7 +87619,7 @@
         <v>3170</v>
       </c>
       <c r="D2226" s="1" t="s">
-        <v>9493</v>
+        <v>9492</v>
       </c>
       <c r="E2226" s="1" t="s">
         <v>6661</v>
@@ -87636,7 +87636,7 @@
         <v>93</v>
       </c>
       <c r="D2227" s="1" t="s">
-        <v>9492</v>
+        <v>9491</v>
       </c>
       <c r="E2227" s="1" t="s">
         <v>6675</v>
@@ -87696,7 +87696,7 @@
         <v>6037</v>
       </c>
       <c r="D2230" s="4" t="s">
-        <v>9535</v>
+        <v>9533</v>
       </c>
       <c r="E2230" s="4" t="s">
         <v>6043</v>
@@ -87716,7 +87716,7 @@
         <v>6037</v>
       </c>
       <c r="D2231" s="4" t="s">
-        <v>9536</v>
+        <v>9534</v>
       </c>
       <c r="E2231" s="4" t="s">
         <v>6049</v>
@@ -87816,7 +87816,7 @@
         <v>8</v>
       </c>
       <c r="D2236" s="1" t="s">
-        <v>9537</v>
+        <v>9535</v>
       </c>
       <c r="E2236" s="1" t="s">
         <v>57</v>
@@ -87890,7 +87890,7 @@
         <v>3282</v>
       </c>
       <c r="D2240" s="1" t="s">
-        <v>9408</v>
+        <v>9407</v>
       </c>
       <c r="E2240" s="1" t="s">
         <v>3328</v>
@@ -88554,7 +88554,7 @@
         <v>8</v>
       </c>
       <c r="D2275" s="1" t="s">
-        <v>9466</v>
+        <v>9465</v>
       </c>
       <c r="E2275" s="1" t="s">
         <v>192</v>
@@ -89506,7 +89506,7 @@
         <v>390</v>
       </c>
       <c r="D2325" s="1" t="s">
-        <v>9491</v>
+        <v>9490</v>
       </c>
       <c r="E2325" s="1" t="s">
         <v>7024</v>
@@ -90904,7 +90904,7 @@
         <v>4258</v>
       </c>
       <c r="D2397" s="1" t="s">
-        <v>9538</v>
+        <v>9536</v>
       </c>
       <c r="E2397" s="1" t="s">
         <v>4258</v>
@@ -91896,7 +91896,7 @@
         <v>6061</v>
       </c>
       <c r="D2449" s="1" t="s">
-        <v>9489</v>
+        <v>9488</v>
       </c>
       <c r="E2449" s="1" t="s">
         <v>6097</v>
@@ -91950,7 +91950,7 @@
         <v>1949</v>
       </c>
       <c r="D2452" s="4" t="s">
-        <v>9490</v>
+        <v>9489</v>
       </c>
       <c r="E2452" s="4" t="s">
         <v>7129</v>
@@ -93364,7 +93364,7 @@
         <v>8</v>
       </c>
       <c r="D2526" s="1" t="s">
-        <v>9539</v>
+        <v>9537</v>
       </c>
       <c r="E2526" s="1" t="s">
         <v>190</v>
@@ -93855,7 +93855,7 @@
         <v>6061</v>
       </c>
       <c r="D2551" s="1" t="s">
-        <v>9488</v>
+        <v>9487</v>
       </c>
       <c r="E2551" s="1" t="s">
         <v>6071</v>
@@ -93935,7 +93935,7 @@
         <v>3779</v>
       </c>
       <c r="D2555" s="1" t="s">
-        <v>9434</v>
+        <v>9433</v>
       </c>
       <c r="E2555" s="1" t="s">
         <v>3789</v>
@@ -93995,7 +93995,7 @@
         <v>204</v>
       </c>
       <c r="D2558" s="1" t="s">
-        <v>9540</v>
+        <v>9538</v>
       </c>
       <c r="F2558" t="s">
         <v>212</v>
@@ -94012,7 +94012,7 @@
         <v>204</v>
       </c>
       <c r="D2559" s="1" t="s">
-        <v>9539</v>
+        <v>9537</v>
       </c>
       <c r="F2559" t="s">
         <v>214</v>
@@ -94026,7 +94026,7 @@
         <v>7</v>
       </c>
       <c r="D2560" s="1" t="s">
-        <v>9541</v>
+        <v>9539</v>
       </c>
       <c r="F2560" t="s">
         <v>5033</v>

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B424BE34-BD21-40C7-B3D6-BCFCF0FBA554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6E5236-E6C1-4D90-B2FC-05304F007B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="540" windowWidth="20400" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5970" yWindow="2415" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14579" uniqueCount="9548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14579" uniqueCount="9549">
   <si>
     <t>id</t>
   </si>
@@ -44979,6 +44979,9 @@
   </si>
   <si>
     <t>Apodrecendo</t>
+  </si>
+  <si>
+    <t>EA 23.129</t>
   </si>
 </sst>
 </file>
@@ -45170,9 +45173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D219" sqref="D219"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A2233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2251" sqref="B2251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -76496,7 +76499,7 @@
         <v>1067</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>1068</v>
+        <v>9548</v>
       </c>
       <c r="C1646" s="1" t="s">
         <v>870</v>
@@ -88097,8 +88100,8 @@
       <c r="A2251" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B2251" s="1" t="s">
-        <v>1068</v>
+      <c r="B2251" t="s">
+        <v>9548</v>
       </c>
       <c r="C2251" s="1" t="s">
         <v>3723</v>

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F275C0C-3306-4262-9378-8CBDCC86E3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416548EB-ED4F-45F4-AFB8-E1B9FE2666CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="16200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14579" uniqueCount="9549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15035" uniqueCount="9896">
   <si>
     <t>id</t>
   </si>
@@ -44982,6 +44982,1083 @@
   </si>
   <si>
     <t>EA 23.129</t>
+  </si>
+  <si>
+    <t>showDmgStack</t>
+  </si>
+  <si>
+    <t>EA 23.121</t>
+  </si>
+  <si>
+    <t>Stack damage numbers</t>
+  </si>
+  <si>
+    <t>ダメージをスタックして表示する</t>
+  </si>
+  <si>
+    <t>flagShadow</t>
+  </si>
+  <si>
+    <t>Item Shadow</t>
+  </si>
+  <si>
+    <t>アイテムの影</t>
+  </si>
+  <si>
+    <t>isNoMix</t>
+  </si>
+  <si>
+    <t>EA 23.122</t>
+  </si>
+  <si>
+    <t>It does not inherit traits when crafting.</t>
+  </si>
+  <si>
+    <t>それはクラフト時に特性を継承しない。</t>
+  </si>
+  <si>
+    <t>noInherit</t>
+  </si>
+  <si>
+    <t>No Trait Mix</t>
+  </si>
+  <si>
+    <t>特性継承なし</t>
+  </si>
+  <si>
+    <t>isNoProcessIng</t>
+  </si>
+  <si>
+    <t>EA 23.125</t>
+  </si>
+  <si>
+    <t>It cannot be processed or copied.</t>
+  </si>
+  <si>
+    <t>それは加工も複製もできない。</t>
+  </si>
+  <si>
+    <t>editSkin</t>
+  </si>
+  <si>
+    <t>EA 23.131</t>
+  </si>
+  <si>
+    <t>Change Skin</t>
+  </si>
+  <si>
+    <t>スキンを変更</t>
+  </si>
+  <si>
+    <t>ActClearWater</t>
+  </si>
+  <si>
+    <t>EA 23.133</t>
+  </si>
+  <si>
+    <t>Dump Water</t>
+  </si>
+  <si>
+    <t>水を捨てる</t>
+  </si>
+  <si>
+    <t>tPin</t>
+  </si>
+  <si>
+    <t>EA 23.135</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>ピン留め</t>
+  </si>
+  <si>
+    <t>ActBanishSummonAll</t>
+  </si>
+  <si>
+    <t>EA 23.139</t>
+  </si>
+  <si>
+    <t>Banish All</t>
+  </si>
+  <si>
+    <t>全て追放する</t>
+  </si>
+  <si>
+    <t>extraToneMTP</t>
+  </si>
+  <si>
+    <t>Probability of Special Endings (Language Specific)</t>
+  </si>
+  <si>
+    <t>特殊語尾の出現倍率</t>
+  </si>
+  <si>
+    <t>weapon_enc</t>
+  </si>
+  <si>
+    <t>EA 23.145</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>info_daysWithPC</t>
+  </si>
+  <si>
+    <t>EA 23.147</t>
+  </si>
+  <si>
+    <t>Sharing #1 day#(s) with you.</t>
+  </si>
+  <si>
+    <t>あなたと共に#1日を過ごしている。</t>
+  </si>
+  <si>
+    <t>Sombra de Item</t>
+  </si>
+  <si>
+    <t>Não herda características ao fabricar.</t>
+  </si>
+  <si>
+    <t>Não pode ser processado ou copiado.</t>
+  </si>
+  <si>
+    <t>Mudar Aparência</t>
+  </si>
+  <si>
+    <t>Despejar Água</t>
+  </si>
+  <si>
+    <t>Banir Todos</t>
+  </si>
+  <si>
+    <t>Probabilidade de Finais Especiais (Específico do Idioma)</t>
+  </si>
+  <si>
+    <t>Arma</t>
+  </si>
+  <si>
+    <t>Empilhar e exibir números de dano</t>
+  </si>
+  <si>
+    <t>Sem Herança de Características</t>
+  </si>
+  <si>
+    <t>Sempre Exibir</t>
+  </si>
+  <si>
+    <t>Já passou #1 dia(s) com você.</t>
+  </si>
+  <si>
+    <t>isGrowOnLand</t>
+  </si>
+  <si>
+    <t>EA 23.150 Patch 1</t>
+  </si>
+  <si>
+    <t>It can be grown on land.</t>
+  </si>
+  <si>
+    <t>それは地上で育てることができる。</t>
+  </si>
+  <si>
+    <t>isGrowUndersea</t>
+  </si>
+  <si>
+    <t>It can be grown on seafloor.</t>
+  </si>
+  <si>
+    <t>それは海底で育てることができる。</t>
+  </si>
+  <si>
+    <t>highlightEnemy</t>
+  </si>
+  <si>
+    <t>EA 23.152</t>
+  </si>
+  <si>
+    <t>Show highlights for hostile NPCs</t>
+  </si>
+  <si>
+    <t>敵対NPCにハイライトを表示する</t>
+  </si>
+  <si>
+    <t>pp_realAdv</t>
+  </si>
+  <si>
+    <t>EA 23.153</t>
+  </si>
+  <si>
+    <t>Cruel World (Coming Soon)</t>
+  </si>
+  <si>
+    <t>残酷な世界 (Coming Soon)</t>
+  </si>
+  <si>
+    <t>pp_realAdv_hint</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;This world is cruel, but it is also very beautiful.&lt;/i&gt;
+In this mode, the world’s difficulty is adjusted to the balance originally intended.
+For more details, see the Help section on “Cruel World” (not yet available).
+This is an option exclusive to Early Access.</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;この世界は残酷だ…そして…とても美しい&lt;/i&gt;
+このモードでは、世界の難易度は本来想定されていたバランスに調整されます。
+詳しくはヘルプの「残酷な世界」（まだ未追加）を参照してください。
+EA専用のオプションです。</t>
+  </si>
+  <si>
+    <t>daystogether_bonus</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;(#1% All Growth)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;(#1% 全成長)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>actCopyBlock</t>
+  </si>
+  <si>
+    <t>EA 23.167</t>
+  </si>
+  <si>
+    <t>Copy Block</t>
+  </si>
+  <si>
+    <t>ブロックをコピー</t>
+  </si>
+  <si>
+    <t>net_noAdult</t>
+  </si>
+  <si>
+    <t>EA 23.171</t>
+  </si>
+  <si>
+    <t>Don’t visit adult maps via moongate</t>
+  </si>
+  <si>
+    <t>ムーンゲートで大人用マップに行かない</t>
+  </si>
+  <si>
+    <t>adultMap</t>
+  </si>
+  <si>
+    <t>uploader</t>
+  </si>
+  <si>
+    <t>Adult Map</t>
+  </si>
+  <si>
+    <t>大人用マップ</t>
+  </si>
+  <si>
+    <t>order_fight</t>
+  </si>
+  <si>
+    <t>EA 23.172</t>
+  </si>
+  <si>
+    <t>Go all out!</t>
+  </si>
+  <si>
+    <t>ガンガンいこうぜ！</t>
+  </si>
+  <si>
+    <t>order_wait</t>
+  </si>
+  <si>
+    <t>Wait and hold!</t>
+  </si>
+  <si>
+    <t>待機しろ！</t>
+  </si>
+  <si>
+    <t>Heal yourself!</t>
+  </si>
+  <si>
+    <t>命を大事に！</t>
+  </si>
+  <si>
+    <t>actHammerFurniture</t>
+  </si>
+  <si>
+    <t>EA 23.176</t>
+  </si>
+  <si>
+    <t>Hammer #1</t>
+  </si>
+  <si>
+    <t>#1に使う</t>
+  </si>
+  <si>
+    <t>tRemoveSkin</t>
+  </si>
+  <si>
+    <t>Remove Skin</t>
+  </si>
+  <si>
+    <t>スキン解除</t>
+  </si>
+  <si>
+    <t>Toggle PCC (Animated Sprite)</t>
+  </si>
+  <si>
+    <t>PCC(カスタムキャラ)を切り替え</t>
+  </si>
+  <si>
+    <t>_halfeaten</t>
+  </si>
+  <si>
+    <t>EA 23.178</t>
+  </si>
+  <si>
+    <t>half eaten #1</t>
+  </si>
+  <si>
+    <t>食べかけの#1</t>
+  </si>
+  <si>
+    <t>isMixedBy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (by #1)</t>
+  </si>
+  <si>
+    <t>isMixedFood</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>中身</t>
+  </si>
+  <si>
+    <t>parasiteSpeed</t>
+  </si>
+  <si>
+    <t>Symbiosis Penalty</t>
+  </si>
+  <si>
+    <t>共生ペナルティ</t>
+  </si>
+  <si>
+    <t>rideSpeed</t>
+  </si>
+  <si>
+    <t>Riding Speed Lock (#1)</t>
+  </si>
+  <si>
+    <t>騎乗による速度固定 (#1)</t>
+  </si>
+  <si>
+    <t>_heart</t>
+  </si>
+  <si>
+    <t>EA 23.183</t>
+  </si>
+  <si>
+    <t>♥</t>
+  </si>
+  <si>
+    <t>actToggleMapRoof</t>
+  </si>
+  <si>
+    <t>Generate Roof  (#1)</t>
+  </si>
+  <si>
+    <t>屋根の生成 (#1)</t>
+  </si>
+  <si>
+    <t>isLeftoverable</t>
+  </si>
+  <si>
+    <t>It keeps the uneaten portion for later.</t>
+  </si>
+  <si>
+    <t>それは食べ切れなかった分を残せる。</t>
+  </si>
+  <si>
+    <t>compressSave</t>
+  </si>
+  <si>
+    <t>EA 23.187</t>
+  </si>
+  <si>
+    <t>Compress Save Data</t>
+  </si>
+  <si>
+    <t>セーブデータを圧縮する</t>
+  </si>
+  <si>
+    <t>compressSave_tip</t>
+  </si>
+  <si>
+    <t>Compressing save data reduces file size and speeds up loading.</t>
+  </si>
+  <si>
+    <t>セーブデータを圧縮することで
+ファイル容量を節約し読み込みを高速化します。</t>
+  </si>
+  <si>
+    <t>hintWorldSetting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here you can adjust the world's difficulty.
+You can also change it later.
+For your first adventure, just press "Create" to begin. </t>
+  </si>
+  <si>
+    <t>ここでは冒険の難易度が調整できます。
+後からでも変更できるので
+最初はこのまま「決定」して冒険を開始しましょう。</t>
+  </si>
+  <si>
+    <t>pp_scaleQuest</t>
+  </si>
+  <si>
+    <t>Scale difficulty of static content with fame</t>
+  </si>
+  <si>
+    <t>固定コンテンツの難易度を名声により上昇させる</t>
+  </si>
+  <si>
+    <t>pp_scaleQuest_hint</t>
+  </si>
+  <si>
+    <t>The difficulty of static content (such as main and sub quest dungeons) is usually fixed,
+but with this oath active, it will also rise in proportion to the player’s fame.</t>
+  </si>
+  <si>
+    <t>固定コンテンツ（メイン・サブクエストのダンジョンなど）の難易度は
+通常は固定されていますが、この誓約が有効な時は
+プレイヤーの名声が高くなるほど難易度も上昇するようになります。</t>
+  </si>
+  <si>
+    <t>raid_till</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raid Level: #1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 襲撃Lv.#1</t>
+  </si>
+  <si>
+    <t>raid_ongoing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *Raid*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *襲撃中*</t>
+  </si>
+  <si>
+    <t>actWarhornRaid</t>
+  </si>
+  <si>
+    <t>EA 23.188</t>
+  </si>
+  <si>
+    <t>Blow the horn (Start Raid)</t>
+  </si>
+  <si>
+    <t>角笛を吹く （襲撃の開始）</t>
+  </si>
+  <si>
+    <t>dontCancelIfZeroDamage</t>
+  </si>
+  <si>
+    <t>EA 23.193</t>
+  </si>
+  <si>
+    <t>Don't cancel actions in progress when attacked with 0 damage.</t>
+  </si>
+  <si>
+    <t>攻撃を受けてもダメージが0の時は継続行動をキャンセルしない</t>
+  </si>
+  <si>
+    <t>_bracketLeft３</t>
+  </si>
+  <si>
+    <t>EA 23.196</t>
+  </si>
+  <si>
+    <t>【</t>
+  </si>
+  <si>
+    <t>_bracketRight３</t>
+  </si>
+  <si>
+    <t>】</t>
+  </si>
+  <si>
+    <t>TaskDisassemble_InsufficientSkill</t>
+  </si>
+  <si>
+    <t>EA 23.201</t>
+  </si>
+  <si>
+    <t>*Insufficient Skill*</t>
+  </si>
+  <si>
+    <t>*スキル不足*</t>
+  </si>
+  <si>
+    <t>TaskDisassemble_AlreadyLearned</t>
+  </si>
+  <si>
+    <t>*Already Learned*</t>
+  </si>
+  <si>
+    <t>*習得済み*</t>
+  </si>
+  <si>
+    <t>ToggleLog</t>
+  </si>
+  <si>
+    <t>EA 23.203</t>
+  </si>
+  <si>
+    <t>Target or Party</t>
+  </si>
+  <si>
+    <t>対象/全体</t>
+  </si>
+  <si>
+    <t>pp_Flavor</t>
+  </si>
+  <si>
+    <t>Flavor</t>
+  </si>
+  <si>
+    <t>フレーバー</t>
+  </si>
+  <si>
+    <t>pp_noAging</t>
+  </si>
+  <si>
+    <t>Eternal 13 Years Old</t>
+  </si>
+  <si>
+    <t>永遠の13歳</t>
+  </si>
+  <si>
+    <t>pp_noAging_hint</t>
+  </si>
+  <si>
+    <t>EA 23.209</t>
+  </si>
+  <si>
+    <t>NPCs other than unique ones will also no longer age over the years.
+However, they age normally until the age of 13.</t>
+  </si>
+  <si>
+    <t>ユニークNPC以外の一般のNPCも年数経過で年をとらなくなります。
+ただし13歳までは普通に年をとります。</t>
+  </si>
+  <si>
+    <t>dialogVoidReturn</t>
+  </si>
+  <si>
+    <t>EA 23.210</t>
+  </si>
+  <si>
+    <t>Which level do you like to return? (Max: #1)</t>
+  </si>
+  <si>
+    <t>何階に帰還する？（最大:#1）</t>
+  </si>
+  <si>
+    <t>bit_</t>
+  </si>
+  <si>
+    <t>EA 23.214</t>
+  </si>
+  <si>
+    <t>#1のビット</t>
+  </si>
+  <si>
+    <t>affinity_exp_bonus</t>
+  </si>
+  <si>
+    <t>EA 23.215</t>
+  </si>
+  <si>
+    <t>Grown "#1" with you.
+&lt;size=12&gt;(#2% Feat Exp)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>あなたとの関係は「#1」。
+&lt;size=12&gt;(#2% フィート経験値)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>pp_enableGeneDupe</t>
+  </si>
+  <si>
+    <t>EA 23.219</t>
+  </si>
+  <si>
+    <t>Allow genetically modified NPCs to self-replicate</t>
+  </si>
+  <si>
+    <t>遺伝子組み換えNPCの自己複製を許可する</t>
+  </si>
+  <si>
+    <t>pp_enableGeneDupe_hint</t>
+  </si>
+  <si>
+    <t>When this setting is enabled, NPCs capable of self-replication will still reproduce even with genes added.
+(Legacy options do not affect achievements.)
+(Legacy options may be deprecated in the future.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この設定が有効な時、自己増殖が可能なNPCは、遺伝子が組み込まれた状態でも自己複製します。
+（レガシーオプションは実績に影響しません）
+（レガシーオプションは廃止される可能性があります） </t>
+  </si>
+  <si>
+    <t>flare_</t>
+  </si>
+  <si>
+    <t>EA 23.220</t>
+  </si>
+  <si>
+    <t>#1 flare</t>
+  </si>
+  <si>
+    <t>#1のフレア</t>
+  </si>
+  <si>
+    <t>guild_fighter_benefit3</t>
+  </si>
+  <si>
+    <t>EA 23.224</t>
+  </si>
+  <si>
+    <t>・ Increased chance of bounty targets appearing.</t>
+  </si>
+  <si>
+    <t>・賞金首の発生確率上昇。</t>
+  </si>
+  <si>
+    <t>guild_mage_benefit3</t>
+  </si>
+  <si>
+    <t>・ An additional domain to specialize.</t>
+  </si>
+  <si>
+    <t>・選択可能な専門領域の増加。</t>
+  </si>
+  <si>
+    <t>guild_thief_benefit3</t>
+  </si>
+  <si>
+    <t>・ Increased quality of naturally generated furniture.</t>
+  </si>
+  <si>
+    <t>・自然生成される家具の品質上昇。</t>
+  </si>
+  <si>
+    <t>guild_merchant_benefit3</t>
+  </si>
+  <si>
+    <t>・ Increased shop level of invested shops.</t>
+  </si>
+  <si>
+    <t>・投資した店の規模の上昇。</t>
+  </si>
+  <si>
+    <t>daDisableLoyal</t>
+  </si>
+  <si>
+    <t>EA 23.231</t>
+  </si>
+  <si>
+    <t>I don’t want you to protect your comrades.</t>
+  </si>
+  <si>
+    <t>仲間をかばわないで欲しい</t>
+  </si>
+  <si>
+    <t>daDisableLoyal2</t>
+  </si>
+  <si>
+    <t>I want you to protect your comrades.</t>
+  </si>
+  <si>
+    <t>仲間をかばって欲しい</t>
+  </si>
+  <si>
+    <t>daBloom</t>
+  </si>
+  <si>
+    <t>EA 23.232</t>
+  </si>
+  <si>
+    <t>I want to deepen my bond with #1.</t>
+  </si>
+  <si>
+    <t>#1との絆を深める</t>
+  </si>
+  <si>
+    <t>actChangeHeightShadowStrength</t>
+  </si>
+  <si>
+    <t>EA 23.234</t>
+  </si>
+  <si>
+    <t>Adjust Height Shading</t>
+  </si>
+  <si>
+    <t>高低差による暗さの変更</t>
+  </si>
+  <si>
+    <t>screenExtraHeight</t>
+  </si>
+  <si>
+    <t>Extra Render Range</t>
+  </si>
+  <si>
+    <t>描画範囲の拡張</t>
+  </si>
+  <si>
+    <t>screenExtraHeight_tip</t>
+  </si>
+  <si>
+    <t>Normally, this option isn’t needed, but at extremely high altitudes the graphics may become distorted.
+Expanding the render range can improve this, though doing so will also increase rendering load.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通常のプレイでは問題ありませんが、極端に高い場所では描画が乱れることがあります。
+このオプションで描画範囲を広げることで改善できますが、広げるほど描画負荷が増します。 </t>
+  </si>
+  <si>
+    <t>_flavor</t>
+  </si>
+  <si>
+    <t>EA 23.236</t>
+  </si>
+  <si>
+    <t>(#1 flavor)</t>
+  </si>
+  <si>
+    <t>(#1風味)</t>
+  </si>
+  <si>
+    <t>feat_pet_type1</t>
+  </si>
+  <si>
+    <t>EA 23.238</t>
+  </si>
+  <si>
+    <t>大器晩成型</t>
+  </si>
+  <si>
+    <t>Late bloomer</t>
+  </si>
+  <si>
+    <t>feat_pet_type2</t>
+  </si>
+  <si>
+    <t>早熟型</t>
+  </si>
+  <si>
+    <t>Early bloomer</t>
+  </si>
+  <si>
+    <t>feat_pet_type1_hint</t>
+  </si>
+  <si>
+    <t>Born with only its innate abilities, capable of awakening if raised with care.</t>
+  </si>
+  <si>
+    <t>素の能力で生まれた個体。大事に育てると才能が目覚める。</t>
+  </si>
+  <si>
+    <t>feat_pet_type2_hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Born already enhanced or in a developed state.</t>
+  </si>
+  <si>
+    <t>既に強化、または成長された状態で生まれた個体。</t>
+  </si>
+  <si>
+    <t>petawaken1</t>
+  </si>
+  <si>
+    <t>The conditions for the "Awakening of Bond" have not been met yet.</t>
+  </si>
+  <si>
+    <t>「絆の覚醒」の条件はまだ満たしていない。</t>
+  </si>
+  <si>
+    <t>petawaken2</t>
+  </si>
+  <si>
+    <t>The conditions for the "Awakening of Bond" have been met.</t>
+  </si>
+  <si>
+    <t>「絆の覚醒」の条件を満たしている。</t>
+  </si>
+  <si>
+    <t>EA 23.239</t>
+  </si>
+  <si>
+    <t>daSuck</t>
+  </si>
+  <si>
+    <t>EA 23.245</t>
+  </si>
+  <si>
+    <t>I want you to suck me.</t>
+  </si>
+  <si>
+    <t>吸って欲しい</t>
+  </si>
+  <si>
+    <t>azaz</t>
+  </si>
+  <si>
+    <t>EA 23.246</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>LU-VHA... SHE-NUR... AZHARU-LU…</t>
+  </si>
+  <si>
+    <t>LU-VHA... SHE-NUR... AZHARU-LU...</t>
+  </si>
+  <si>
+    <t>ル＝ヴァ…シェ＝ヌル…アザルゥ＝ル…</t>
+  </si>
+  <si>
+    <t>tag_bamboo</t>
+  </si>
+  <si>
+    <t>EA 23.255</t>
+  </si>
+  <si>
+    <t>竹</t>
+  </si>
+  <si>
+    <t>Bamboo</t>
+  </si>
+  <si>
+    <t>EA 23.260</t>
+  </si>
+  <si>
+    <t>Só pode crescer no solo.</t>
+  </si>
+  <si>
+    <t>Só pode crescer no fundo do mar.</t>
+  </si>
+  <si>
+    <t>Destacar NPCs hostis</t>
+  </si>
+  <si>
+    <t>Mundo Cruel (Em Breve)</t>
+  </si>
+  <si>
+    <t>&lt;size=12&gt;(#1% Crescimento Total)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>Copiar Bloco</t>
+  </si>
+  <si>
+    <t>Acessar mapas adultos sem usar o Portal Lunar</t>
+  </si>
+  <si>
+    <t>Mapa Adulto</t>
+  </si>
+  <si>
+    <t>Ataque total!</t>
+  </si>
+  <si>
+    <t>Aguarde no local!</t>
+  </si>
+  <si>
+    <t>Preserve sua vida!</t>
+  </si>
+  <si>
+    <t>Usar em #1</t>
+  </si>
+  <si>
+    <t>Remover Aparência</t>
+  </si>
+  <si>
+    <t>Alternar PCC (Sprite de Personagem)</t>
+  </si>
+  <si>
+    <t>#1 pela metade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (por #1)</t>
+  </si>
+  <si>
+    <t>Contém</t>
+  </si>
+  <si>
+    <t>Penalidade de Simbiose</t>
+  </si>
+  <si>
+    <t>Velocidade de Montaria Fixa (#1)</t>
+  </si>
+  <si>
+    <t>Gerar Telhado (#1)</t>
+  </si>
+  <si>
+    <t>Pode deixar sobras do que não conseguir comer.</t>
+  </si>
+  <si>
+    <t>Comprimir Dados de Save</t>
+  </si>
+  <si>
+    <t>Fazer a dificuldade de conteúdo fixo aumentar com a Fama</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Invasão Nv.#1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *Em Invasão*</t>
+  </si>
+  <si>
+    <t>Soprar a Corneta (Iniciar Invasão)</t>
+  </si>
+  <si>
+    <t>Não cancelar ações contínuas ao receber ataques com 0 de dano</t>
+  </si>
+  <si>
+    <t>*Habilidade Insuficiente*</t>
+  </si>
+  <si>
+    <t>*Já Aprendido*</t>
+  </si>
+  <si>
+    <t>Alternar Log</t>
+  </si>
+  <si>
+    <t>Alvo/Todos</t>
+  </si>
+  <si>
+    <t>Manias</t>
+  </si>
+  <si>
+    <t>Eternamente 13 Anos</t>
+  </si>
+  <si>
+    <t>NPCs comuns, exceto NPCs únicos, não envelhecerão após os 13 anos.</t>
+  </si>
+  <si>
+    <t>Para qual andar deseja retornar? (Mais profundo: #1)</t>
+  </si>
+  <si>
+    <t>#1 Canhão Flutuante</t>
+  </si>
+  <si>
+    <t>Permitir que NPCs geneticamente modificados se repliquem</t>
+  </si>
+  <si>
+    <t>#1 Explosão</t>
+  </si>
+  <si>
+    <t>Espero que você não proteja aliados</t>
+  </si>
+  <si>
+    <t>Espero que você proteja aliados</t>
+  </si>
+  <si>
+    <t>Aprofundar laços com #1</t>
+  </si>
+  <si>
+    <t>Ajustar brilho com base na diferença de altitude</t>
+  </si>
+  <si>
+    <t>Aumentar Alcance de Renderização</t>
+  </si>
+  <si>
+    <t>(#1 sabor)</t>
+  </si>
+  <si>
+    <t>Tipo Florescimento Tardio</t>
+  </si>
+  <si>
+    <t>Tipo Precoce</t>
+  </si>
+  <si>
+    <t>Um indivíduo nascido com habilidades originais. Pode despertar talentos após cuidado dedicado.</t>
+  </si>
+  <si>
+    <t>Um indivíduo nascido em estado fortalecido ou já crescido.</t>
+  </si>
+  <si>
+    <t>Não atende às condições para "Despertar de Laços".</t>
+  </si>
+  <si>
+    <t>Atende às condições para "Despertar de Laços".</t>
+  </si>
+  <si>
+    <t>Quer ser sugado</t>
+  </si>
+  <si>
+    <t>Bambu</t>
+  </si>
+  <si>
+    <t>A dificuldade de conteúdo fixo (como dungeons de história principal/secundária) normalmente é fixa,
+mas quando este juramento estiver ativo, a dificuldade também aumentará com a Fama do jogador.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>&lt;i&gt;Este mundo é cruel... mas também... muito bonito&lt;/i&gt;
+Neste modo, a dificuldade do mundo será ajustada ao equilíbrio originalmente planejado.
+Para mais detalhes, consulte "Mundo Cruel" na ajuda (ainda não implementado).
+Esta é uma opção exclusiva da fase de Acesso Antecipado.</t>
+  </si>
+  <si>
+    <t>Ao comprimir os dados de save
+pode reduzir o tamanho do arquivo e acelerar o carregamento.</t>
+  </si>
+  <si>
+    <t>Aqui você pode ajustar a dificuldade da aventura.
+A dificuldade pode ser alterada após iniciar o jogo
+Primeiro clique em "OK" para começar a aventura.</t>
+  </si>
+  <si>
+    <t>Seu relacionamento é "#1".
+&lt;size=12&gt;(#2% EXP de Especialização)&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando esta configuração está ativada, permite que NPCs capazes de auto-replicação se reproduzam mesmo após modificação genética.
+(Opção legada não afeta conquistas)
+(Opção legada pode ser descontinuada) </t>
+  </si>
+  <si>
+    <t>·Probabilidade de surgimento de Procurados aumentada.</t>
+  </si>
+  <si>
+    <t>·Campos de especialização disponíveis aumentados.</t>
+  </si>
+  <si>
+    <t>·Qualidade de móveis gerados naturalmente melhorada.</t>
+  </si>
+  <si>
+    <t>·Escala de lojas investidas aumentada.</t>
+  </si>
+  <si>
+    <t>Não há problemas durante o jogo normal, mas em altitudes extremas pode ocorrer renderização anormal.
+Expandir o alcance de renderização através desta opção pode melhorar este problema, mas aumentará a carga de renderização.</t>
+  </si>
+  <si>
+    <t>Sem Lar</t>
   </si>
 </sst>
 </file>
@@ -45171,18 +46248,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2561"/>
+  <dimension ref="A1:F2643"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2369" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2366" sqref="A2366"/>
+      <pane ySplit="2" topLeftCell="A2476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2487" sqref="B2487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="94.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="235" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -90433,3619 +91511,5151 @@
       </c>
     </row>
     <row r="2366" spans="1:6">
-      <c r="A2366" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B2366" s="1" t="s">
-        <v>9548</v>
-      </c>
-      <c r="C2366" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="D2366" s="1" t="s">
-        <v>7523</v>
-      </c>
-      <c r="E2366" s="1" t="s">
-        <v>1069</v>
+      <c r="A2366" t="s">
+        <v>9549</v>
+      </c>
+      <c r="B2366" t="s">
+        <v>9550</v>
+      </c>
+      <c r="C2366" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2366" t="s">
+        <v>9601</v>
+      </c>
+      <c r="E2366" t="s">
+        <v>9551</v>
       </c>
       <c r="F2366" t="s">
-        <v>1070</v>
+        <v>9552</v>
       </c>
     </row>
     <row r="2367" spans="1:6">
-      <c r="A2367" s="1" t="s">
-        <v>1067</v>
+      <c r="A2367" t="s">
+        <v>9553</v>
       </c>
       <c r="B2367" t="s">
-        <v>9548</v>
-      </c>
-      <c r="C2367" s="1" t="s">
-        <v>3723</v>
-      </c>
-      <c r="D2367" s="1" t="s">
-        <v>8305</v>
-      </c>
-      <c r="E2367" s="1" t="s">
-        <v>3732</v>
+        <v>9550</v>
+      </c>
+      <c r="D2367" t="s">
+        <v>9593</v>
+      </c>
+      <c r="E2367" t="s">
+        <v>9554</v>
       </c>
       <c r="F2367" t="s">
-        <v>3733</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="2368" spans="1:6">
-      <c r="A2368" s="1" t="s">
-        <v>2531</v>
-      </c>
-      <c r="B2368" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C2368" s="1" t="s">
-        <v>2502</v>
-      </c>
-      <c r="D2368" s="1" t="s">
-        <v>7960</v>
-      </c>
-      <c r="E2368" s="1" t="s">
-        <v>2532</v>
+      <c r="A2368" t="s">
+        <v>9556</v>
+      </c>
+      <c r="B2368" t="s">
+        <v>9557</v>
+      </c>
+      <c r="C2368" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D2368" t="s">
+        <v>9594</v>
+      </c>
+      <c r="E2368" t="s">
+        <v>9558</v>
       </c>
       <c r="F2368" t="s">
-        <v>2533</v>
+        <v>9559</v>
       </c>
     </row>
     <row r="2369" spans="1:6">
-      <c r="A2369" s="1" t="s">
-        <v>3677</v>
-      </c>
-      <c r="B2369" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C2369" s="1" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D2369" s="1" t="s">
-        <v>8287</v>
-      </c>
-      <c r="E2369" s="1" t="s">
-        <v>3678</v>
+      <c r="A2369" t="s">
+        <v>9560</v>
+      </c>
+      <c r="B2369" t="s">
+        <v>9557</v>
+      </c>
+      <c r="C2369" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D2369" t="s">
+        <v>9602</v>
+      </c>
+      <c r="E2369" t="s">
+        <v>9561</v>
       </c>
       <c r="F2369" t="s">
-        <v>3679</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="2370" spans="1:6">
-      <c r="A2370" s="1" t="s">
-        <v>7045</v>
-      </c>
-      <c r="B2370" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D2370" s="1" t="s">
-        <v>9316</v>
-      </c>
-      <c r="E2370" s="1" t="s">
-        <v>7046</v>
+      <c r="A2370" t="s">
+        <v>9563</v>
+      </c>
+      <c r="B2370" t="s">
+        <v>9564</v>
+      </c>
+      <c r="C2370" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D2370" t="s">
+        <v>9595</v>
+      </c>
+      <c r="E2370" t="s">
+        <v>9565</v>
       </c>
       <c r="F2370" t="s">
-        <v>7047</v>
+        <v>9566</v>
       </c>
     </row>
     <row r="2371" spans="1:6">
       <c r="A2371" s="1" t="s">
-        <v>2537</v>
+        <v>1067</v>
       </c>
       <c r="B2371" s="1" t="s">
-        <v>1414</v>
+        <v>9548</v>
       </c>
       <c r="C2371" s="1" t="s">
-        <v>2502</v>
+        <v>870</v>
       </c>
       <c r="D2371" s="1" t="s">
-        <v>7962</v>
+        <v>7523</v>
       </c>
       <c r="E2371" s="1" t="s">
-        <v>2538</v>
+        <v>1069</v>
       </c>
       <c r="F2371" t="s">
-        <v>2539</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2372" spans="1:6">
       <c r="A2372" s="1" t="s">
-        <v>7048</v>
-      </c>
-      <c r="B2372" s="1" t="s">
-        <v>1414</v>
+        <v>1067</v>
+      </c>
+      <c r="B2372" t="s">
+        <v>9548</v>
+      </c>
+      <c r="C2372" s="1" t="s">
+        <v>3723</v>
       </c>
       <c r="D2372" s="1" t="s">
-        <v>8342</v>
+        <v>8305</v>
       </c>
       <c r="E2372" s="1" t="s">
-        <v>3866</v>
+        <v>3732</v>
       </c>
       <c r="F2372" t="s">
-        <v>7049</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="2373" spans="1:6">
-      <c r="A2373" s="1" t="s">
-        <v>7042</v>
-      </c>
-      <c r="B2373" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D2373" s="1" t="s">
-        <v>9315</v>
-      </c>
-      <c r="E2373" s="1" t="s">
-        <v>7043</v>
+      <c r="A2373" t="s">
+        <v>9567</v>
+      </c>
+      <c r="B2373" t="s">
+        <v>9568</v>
+      </c>
+      <c r="D2373" t="s">
+        <v>9596</v>
+      </c>
+      <c r="E2373" t="s">
+        <v>9569</v>
       </c>
       <c r="F2373" t="s">
-        <v>7044</v>
-      </c>
-    </row>
-    <row r="2374" spans="1:6" ht="33">
-      <c r="A2374" s="1" t="s">
-        <v>6150</v>
-      </c>
-      <c r="B2374" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C2374" s="1" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D2374" s="4" t="s">
-        <v>8390</v>
-      </c>
-      <c r="E2374" s="4" t="s">
-        <v>6151</v>
-      </c>
-      <c r="F2374" s="3" t="s">
-        <v>6152</v>
+        <v>9570</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:6">
+      <c r="A2374" t="s">
+        <v>9571</v>
+      </c>
+      <c r="B2374" t="s">
+        <v>9572</v>
+      </c>
+      <c r="C2374" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2374" t="s">
+        <v>9597</v>
+      </c>
+      <c r="E2374" t="s">
+        <v>9573</v>
+      </c>
+      <c r="F2374" t="s">
+        <v>9574</v>
       </c>
     </row>
     <row r="2375" spans="1:6">
-      <c r="A2375" s="1" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B2375" s="1" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C2375" s="1" t="s">
+      <c r="A2375" t="s">
+        <v>9575</v>
+      </c>
+      <c r="B2375" t="s">
+        <v>9576</v>
+      </c>
+      <c r="C2375" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D2375" t="s">
+        <v>9603</v>
+      </c>
+      <c r="E2375" t="s">
+        <v>9577</v>
+      </c>
+      <c r="F2375" t="s">
+        <v>9578</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:6">
+      <c r="A2376" t="s">
+        <v>9579</v>
+      </c>
+      <c r="B2376" t="s">
+        <v>9580</v>
+      </c>
+      <c r="C2376" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2376" t="s">
+        <v>9598</v>
+      </c>
+      <c r="E2376" t="s">
+        <v>9581</v>
+      </c>
+      <c r="F2376" t="s">
+        <v>9582</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:6">
+      <c r="A2377" t="s">
+        <v>9583</v>
+      </c>
+      <c r="B2377" t="s">
+        <v>9580</v>
+      </c>
+      <c r="C2377" t="s">
         <v>709</v>
       </c>
-      <c r="D2375" s="1" t="s">
-        <v>7621</v>
-      </c>
-      <c r="E2375" s="1" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F2375" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="2376" spans="1:6">
-      <c r="A2376" s="1" t="s">
-        <v>1245</v>
-      </c>
-      <c r="B2376" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C2376" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D2376" s="1" t="s">
-        <v>7577</v>
-      </c>
-      <c r="E2376" s="1" t="s">
-        <v>1247</v>
-      </c>
-      <c r="F2376" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="2377" spans="1:6">
-      <c r="A2377" s="1" t="s">
-        <v>6397</v>
-      </c>
-      <c r="B2377" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D2377" s="1" t="s">
-        <v>8465</v>
-      </c>
-      <c r="E2377" s="1" t="s">
-        <v>6398</v>
+      <c r="D2377" t="s">
+        <v>9599</v>
+      </c>
+      <c r="E2377" t="s">
+        <v>9584</v>
       </c>
       <c r="F2377" t="s">
-        <v>6399</v>
+        <v>9585</v>
       </c>
     </row>
     <row r="2378" spans="1:6">
-      <c r="A2378" s="1" t="s">
-        <v>7050</v>
-      </c>
-      <c r="B2378" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D2378" s="1" t="s">
-        <v>9317</v>
-      </c>
-      <c r="E2378" s="1" t="s">
-        <v>7051</v>
+      <c r="A2378" t="s">
+        <v>9586</v>
+      </c>
+      <c r="B2378" t="s">
+        <v>9587</v>
+      </c>
+      <c r="D2378" t="s">
+        <v>9600</v>
+      </c>
+      <c r="E2378" t="s">
+        <v>9588</v>
       </c>
       <c r="F2378" t="s">
-        <v>7052</v>
-      </c>
-    </row>
-    <row r="2379" spans="1:6" ht="49.5">
-      <c r="A2379" s="1" t="s">
-        <v>1970</v>
-      </c>
-      <c r="B2379" s="1" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C2379" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2379" s="4" t="s">
-        <v>7787</v>
-      </c>
-      <c r="E2379" s="4" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F2379" s="3" t="s">
-        <v>1972</v>
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:6">
+      <c r="A2379" t="s">
+        <v>9589</v>
+      </c>
+      <c r="B2379" t="s">
+        <v>9590</v>
+      </c>
+      <c r="C2379" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D2379" t="s">
+        <v>9604</v>
+      </c>
+      <c r="E2379" t="s">
+        <v>9591</v>
+      </c>
+      <c r="F2379" t="s">
+        <v>9592</v>
       </c>
     </row>
     <row r="2380" spans="1:6">
       <c r="A2380" s="1" t="s">
-        <v>7057</v>
+        <v>2531</v>
       </c>
       <c r="B2380" s="1" t="s">
-        <v>1162</v>
+        <v>1414</v>
       </c>
       <c r="C2380" s="1" t="s">
-        <v>4444</v>
-      </c>
-      <c r="D2380" t="s">
-        <v>9452</v>
-      </c>
-      <c r="E2380" t="s">
-        <v>7058</v>
+        <v>2502</v>
+      </c>
+      <c r="D2380" s="1" t="s">
+        <v>7960</v>
+      </c>
+      <c r="E2380" s="1" t="s">
+        <v>2532</v>
       </c>
       <c r="F2380" t="s">
-        <v>7058</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="2381" spans="1:6">
       <c r="A2381" s="1" t="s">
-        <v>6153</v>
+        <v>3677</v>
       </c>
       <c r="B2381" s="1" t="s">
-        <v>1162</v>
+        <v>1414</v>
       </c>
       <c r="C2381" s="1" t="s">
-        <v>6132</v>
+        <v>3593</v>
       </c>
       <c r="D2381" s="1" t="s">
-        <v>8391</v>
+        <v>8287</v>
       </c>
       <c r="E2381" s="1" t="s">
-        <v>6154</v>
+        <v>3678</v>
       </c>
       <c r="F2381" t="s">
-        <v>6155</v>
-      </c>
-    </row>
-    <row r="2382" spans="1:6" ht="33">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:6">
       <c r="A2382" s="1" t="s">
-        <v>6156</v>
+        <v>7045</v>
       </c>
       <c r="B2382" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C2382" s="1" t="s">
-        <v>6132</v>
-      </c>
-      <c r="D2382" s="4" t="s">
-        <v>8392</v>
-      </c>
-      <c r="E2382" s="4" t="s">
-        <v>6157</v>
-      </c>
-      <c r="F2382" s="3" t="s">
-        <v>6158</v>
+        <v>1414</v>
+      </c>
+      <c r="D2382" s="1" t="s">
+        <v>9316</v>
+      </c>
+      <c r="E2382" s="1" t="s">
+        <v>7046</v>
+      </c>
+      <c r="F2382" t="s">
+        <v>7047</v>
       </c>
     </row>
     <row r="2383" spans="1:6">
       <c r="A2383" s="1" t="s">
-        <v>5266</v>
+        <v>2537</v>
       </c>
       <c r="B2383" s="1" t="s">
-        <v>1162</v>
+        <v>1414</v>
+      </c>
+      <c r="C2383" s="1" t="s">
+        <v>2502</v>
       </c>
       <c r="D2383" s="1" t="s">
-        <v>8947</v>
+        <v>7962</v>
       </c>
       <c r="E2383" s="1" t="s">
-        <v>5267</v>
+        <v>2538</v>
       </c>
       <c r="F2383" t="s">
-        <v>5268</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="2384" spans="1:6">
       <c r="A2384" s="1" t="s">
-        <v>1161</v>
+        <v>7048</v>
       </c>
       <c r="B2384" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C2384" s="1" t="s">
-        <v>709</v>
+        <v>1414</v>
       </c>
       <c r="D2384" s="1" t="s">
-        <v>7553</v>
+        <v>8342</v>
       </c>
       <c r="E2384" s="1" t="s">
-        <v>1163</v>
+        <v>3866</v>
       </c>
       <c r="F2384" t="s">
-        <v>1164</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="2385" spans="1:6">
       <c r="A2385" s="1" t="s">
-        <v>6526</v>
+        <v>7042</v>
       </c>
       <c r="B2385" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C2385" s="1" t="s">
-        <v>2665</v>
+        <v>1414</v>
       </c>
       <c r="D2385" s="1" t="s">
-        <v>8506</v>
+        <v>9315</v>
       </c>
       <c r="E2385" s="1" t="s">
-        <v>6527</v>
+        <v>7043</v>
       </c>
       <c r="F2385" t="s">
-        <v>6528</v>
-      </c>
-    </row>
-    <row r="2386" spans="1:6">
+        <v>7044</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:6" ht="33">
       <c r="A2386" s="1" t="s">
-        <v>5947</v>
+        <v>6150</v>
       </c>
       <c r="B2386" s="1" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D2386" s="1" t="s">
-        <v>9156</v>
-      </c>
-      <c r="E2386" s="1" t="s">
-        <v>5948</v>
-      </c>
-      <c r="F2386" t="s">
-        <v>5949</v>
+        <v>1414</v>
+      </c>
+      <c r="C2386" s="1" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D2386" s="4" t="s">
+        <v>8390</v>
+      </c>
+      <c r="E2386" s="4" t="s">
+        <v>6151</v>
+      </c>
+      <c r="F2386" s="3" t="s">
+        <v>6152</v>
       </c>
     </row>
     <row r="2387" spans="1:6">
       <c r="A2387" s="1" t="s">
-        <v>2534</v>
+        <v>1413</v>
       </c>
       <c r="B2387" s="1" t="s">
-        <v>1162</v>
+        <v>1414</v>
       </c>
       <c r="C2387" s="1" t="s">
-        <v>2502</v>
+        <v>709</v>
       </c>
       <c r="D2387" s="1" t="s">
-        <v>7961</v>
+        <v>7621</v>
       </c>
       <c r="E2387" s="1" t="s">
-        <v>2535</v>
+        <v>1415</v>
       </c>
       <c r="F2387" t="s">
-        <v>2536</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="2388" spans="1:6">
-      <c r="A2388" s="1" t="s">
-        <v>5016</v>
-      </c>
-      <c r="B2388" s="1" t="s">
-        <v>5017</v>
-      </c>
-      <c r="D2388" s="1" t="s">
-        <v>9481</v>
-      </c>
-      <c r="E2388" s="1" t="s">
-        <v>5018</v>
-      </c>
-      <c r="F2388" s="1" t="s">
-        <v>5019</v>
+      <c r="A2388" t="s">
+        <v>9605</v>
+      </c>
+      <c r="B2388" t="s">
+        <v>9606</v>
+      </c>
+      <c r="C2388" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D2388" t="s">
+        <v>9831</v>
+      </c>
+      <c r="E2388" t="s">
+        <v>9607</v>
+      </c>
+      <c r="F2388" t="s">
+        <v>9608</v>
       </c>
     </row>
     <row r="2389" spans="1:6">
-      <c r="A2389" s="1" t="s">
-        <v>7062</v>
-      </c>
-      <c r="B2389" s="1" t="s">
-        <v>5017</v>
-      </c>
-      <c r="D2389" s="1" t="s">
-        <v>9320</v>
-      </c>
-      <c r="E2389" s="1" t="s">
-        <v>7063</v>
-      </c>
-      <c r="F2389" s="1" t="s">
-        <v>7064</v>
+      <c r="A2389" t="s">
+        <v>9609</v>
+      </c>
+      <c r="B2389" t="s">
+        <v>9606</v>
+      </c>
+      <c r="C2389" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D2389" t="s">
+        <v>9832</v>
+      </c>
+      <c r="E2389" t="s">
+        <v>9610</v>
+      </c>
+      <c r="F2389" t="s">
+        <v>9611</v>
       </c>
     </row>
     <row r="2390" spans="1:6">
-      <c r="A2390" s="1" t="s">
-        <v>7059</v>
-      </c>
-      <c r="B2390" s="1" t="s">
-        <v>5017</v>
-      </c>
-      <c r="D2390" s="1" t="s">
-        <v>9319</v>
-      </c>
-      <c r="E2390" s="1" t="s">
-        <v>7060</v>
+      <c r="A2390" t="s">
+        <v>9612</v>
+      </c>
+      <c r="B2390" t="s">
+        <v>9613</v>
+      </c>
+      <c r="C2390" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2390" t="s">
+        <v>9833</v>
+      </c>
+      <c r="E2390" t="s">
+        <v>9614</v>
       </c>
       <c r="F2390" t="s">
-        <v>7061</v>
+        <v>9615</v>
       </c>
     </row>
     <row r="2391" spans="1:6">
-      <c r="A2391" s="1" t="s">
-        <v>5051</v>
-      </c>
-      <c r="B2391" s="1" t="s">
-        <v>1963</v>
-      </c>
-      <c r="D2391" s="1" t="s">
-        <v>8884</v>
-      </c>
-      <c r="E2391" s="1" t="s">
-        <v>5052</v>
+      <c r="A2391" t="s">
+        <v>9616</v>
+      </c>
+      <c r="B2391" t="s">
+        <v>9617</v>
+      </c>
+      <c r="D2391" t="s">
+        <v>9834</v>
+      </c>
+      <c r="E2391" t="s">
+        <v>9618</v>
       </c>
       <c r="F2391" t="s">
-        <v>5053</v>
-      </c>
-    </row>
-    <row r="2392" spans="1:6" ht="33">
-      <c r="A2392" s="1" t="s">
-        <v>1962</v>
-      </c>
-      <c r="B2392" s="1" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C2392" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2392" s="4" t="s">
-        <v>7785</v>
-      </c>
-      <c r="E2392" s="4" t="s">
-        <v>1964</v>
-      </c>
-      <c r="F2392" s="3" t="s">
-        <v>1965</v>
+        <v>9619</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:6" ht="82.5">
+      <c r="A2392" t="s">
+        <v>9620</v>
+      </c>
+      <c r="B2392" t="s">
+        <v>9617</v>
+      </c>
+      <c r="D2392" s="3" t="s">
+        <v>9885</v>
+      </c>
+      <c r="E2392" t="s">
+        <v>9621</v>
+      </c>
+      <c r="F2392" t="s">
+        <v>9622</v>
       </c>
     </row>
     <row r="2393" spans="1:6">
-      <c r="A2393" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2393" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2393" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2393" s="1" t="s">
-        <v>7240</v>
-      </c>
-      <c r="E2393" s="1" t="s">
-        <v>19</v>
+      <c r="A2393" t="s">
+        <v>9623</v>
+      </c>
+      <c r="B2393" t="s">
+        <v>9617</v>
+      </c>
+      <c r="D2393" t="s">
+        <v>9835</v>
+      </c>
+      <c r="E2393" t="s">
+        <v>9624</v>
       </c>
       <c r="F2393" t="s">
-        <v>20</v>
+        <v>9625</v>
       </c>
     </row>
     <row r="2394" spans="1:6">
       <c r="A2394" s="1" t="s">
-        <v>4625</v>
+        <v>1245</v>
       </c>
       <c r="B2394" s="1" t="s">
-        <v>1410</v>
+        <v>1246</v>
       </c>
       <c r="C2394" s="1" t="s">
-        <v>4444</v>
+        <v>709</v>
       </c>
       <c r="D2394" s="1" t="s">
-        <v>8759</v>
+        <v>7577</v>
       </c>
       <c r="E2394" s="1" t="s">
-        <v>4626</v>
+        <v>1247</v>
       </c>
       <c r="F2394" t="s">
-        <v>4627</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="2395" spans="1:6">
       <c r="A2395" s="1" t="s">
-        <v>3592</v>
+        <v>6397</v>
       </c>
       <c r="B2395" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C2395" s="1" t="s">
-        <v>3593</v>
+        <v>1246</v>
       </c>
       <c r="D2395" s="1" t="s">
-        <v>8263</v>
+        <v>8465</v>
       </c>
       <c r="E2395" s="1" t="s">
-        <v>3594</v>
+        <v>6398</v>
       </c>
       <c r="F2395" t="s">
-        <v>3595</v>
+        <v>6399</v>
       </c>
     </row>
     <row r="2396" spans="1:6">
       <c r="A2396" s="1" t="s">
-        <v>1409</v>
+        <v>7050</v>
       </c>
       <c r="B2396" s="1" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C2396" s="1" t="s">
-        <v>709</v>
+        <v>1246</v>
       </c>
       <c r="D2396" s="1" t="s">
-        <v>7620</v>
+        <v>9317</v>
       </c>
       <c r="E2396" s="1" t="s">
-        <v>1411</v>
+        <v>7051</v>
       </c>
       <c r="F2396" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="2397" spans="1:6">
+        <v>7052</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:6" ht="49.5">
       <c r="A2397" s="1" t="s">
-        <v>3596</v>
+        <v>1970</v>
       </c>
       <c r="B2397" s="1" t="s">
-        <v>1410</v>
+        <v>1246</v>
       </c>
       <c r="C2397" s="1" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D2397" s="1" t="s">
-        <v>8264</v>
-      </c>
-      <c r="E2397" s="1" t="s">
-        <v>1873</v>
-      </c>
-      <c r="F2397" s="1" t="s">
-        <v>3597</v>
+        <v>1945</v>
+      </c>
+      <c r="D2397" s="4" t="s">
+        <v>7787</v>
+      </c>
+      <c r="E2397" s="4" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F2397" s="3" t="s">
+        <v>1972</v>
       </c>
     </row>
     <row r="2398" spans="1:6">
-      <c r="A2398" s="1" t="s">
-        <v>3943</v>
-      </c>
-      <c r="B2398" s="1" t="s">
-        <v>3944</v>
-      </c>
-      <c r="C2398" s="1" t="s">
-        <v>3922</v>
-      </c>
-      <c r="D2398" s="1" t="s">
-        <v>8367</v>
-      </c>
-      <c r="E2398" s="1" t="s">
-        <v>3945</v>
+      <c r="A2398" t="s">
+        <v>9626</v>
+      </c>
+      <c r="B2398" t="s">
+        <v>9627</v>
+      </c>
+      <c r="C2398" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2398" t="s">
+        <v>9836</v>
+      </c>
+      <c r="E2398" t="s">
+        <v>9628</v>
       </c>
       <c r="F2398" t="s">
-        <v>3946</v>
+        <v>9629</v>
       </c>
     </row>
     <row r="2399" spans="1:6">
       <c r="A2399" s="1" t="s">
-        <v>3947</v>
+        <v>7057</v>
       </c>
       <c r="B2399" s="1" t="s">
-        <v>3944</v>
+        <v>1162</v>
       </c>
       <c r="C2399" s="1" t="s">
-        <v>3922</v>
-      </c>
-      <c r="D2399" s="1" t="s">
-        <v>8368</v>
-      </c>
-      <c r="E2399" s="1" t="s">
-        <v>3948</v>
+        <v>4444</v>
+      </c>
+      <c r="D2399" t="s">
+        <v>9452</v>
+      </c>
+      <c r="E2399" t="s">
+        <v>7058</v>
       </c>
       <c r="F2399" t="s">
-        <v>3949</v>
+        <v>7058</v>
       </c>
     </row>
     <row r="2400" spans="1:6">
       <c r="A2400" s="1" t="s">
-        <v>472</v>
+        <v>6153</v>
       </c>
       <c r="B2400" s="1" t="s">
-        <v>473</v>
+        <v>1162</v>
       </c>
       <c r="C2400" s="1" t="s">
-        <v>217</v>
+        <v>6132</v>
       </c>
       <c r="D2400" s="1" t="s">
-        <v>7324</v>
+        <v>8391</v>
       </c>
       <c r="E2400" s="1" t="s">
-        <v>380</v>
+        <v>6154</v>
       </c>
       <c r="F2400" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="2401" spans="1:6">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:6" ht="33">
       <c r="A2401" s="1" t="s">
-        <v>4819</v>
+        <v>6156</v>
       </c>
       <c r="B2401" s="1" t="s">
-        <v>1959</v>
-      </c>
-      <c r="D2401" s="1" t="s">
-        <v>8817</v>
-      </c>
-      <c r="E2401" s="1" t="s">
-        <v>4820</v>
-      </c>
-      <c r="F2401" s="1" t="s">
-        <v>4821</v>
+        <v>1162</v>
+      </c>
+      <c r="C2401" s="1" t="s">
+        <v>6132</v>
+      </c>
+      <c r="D2401" s="4" t="s">
+        <v>8392</v>
+      </c>
+      <c r="E2401" s="4" t="s">
+        <v>6157</v>
+      </c>
+      <c r="F2401" s="3" t="s">
+        <v>6158</v>
       </c>
     </row>
     <row r="2402" spans="1:6">
       <c r="A2402" s="1" t="s">
-        <v>1958</v>
+        <v>5266</v>
       </c>
       <c r="B2402" s="1" t="s">
-        <v>1959</v>
-      </c>
-      <c r="C2402" s="1" t="s">
-        <v>1945</v>
+        <v>1162</v>
       </c>
       <c r="D2402" s="1" t="s">
-        <v>7784</v>
+        <v>8947</v>
       </c>
       <c r="E2402" s="1" t="s">
-        <v>1960</v>
+        <v>5267</v>
       </c>
       <c r="F2402" t="s">
-        <v>1961</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="2403" spans="1:6">
       <c r="A2403" s="1" t="s">
-        <v>2199</v>
+        <v>1161</v>
       </c>
       <c r="B2403" s="1" t="s">
-        <v>2200</v>
+        <v>1162</v>
       </c>
       <c r="C2403" s="1" t="s">
-        <v>2111</v>
+        <v>709</v>
       </c>
       <c r="D2403" s="1" t="s">
-        <v>7859</v>
+        <v>7553</v>
       </c>
       <c r="E2403" s="1" t="s">
-        <v>2201</v>
+        <v>1163</v>
       </c>
       <c r="F2403" t="s">
-        <v>2202</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="2404" spans="1:6">
       <c r="A2404" s="1" t="s">
-        <v>7068</v>
+        <v>6526</v>
       </c>
       <c r="B2404" s="1" t="s">
-        <v>1406</v>
+        <v>1162</v>
+      </c>
+      <c r="C2404" s="1" t="s">
+        <v>2665</v>
       </c>
       <c r="D2404" s="1" t="s">
-        <v>9322</v>
+        <v>8506</v>
       </c>
       <c r="E2404" s="1" t="s">
-        <v>7069</v>
-      </c>
-      <c r="F2404" s="1" t="s">
-        <v>7070</v>
+        <v>6527</v>
+      </c>
+      <c r="F2404" t="s">
+        <v>6528</v>
       </c>
     </row>
     <row r="2405" spans="1:6">
       <c r="A2405" s="1" t="s">
-        <v>4781</v>
+        <v>5947</v>
       </c>
       <c r="B2405" s="1" t="s">
-        <v>1406</v>
+        <v>1162</v>
       </c>
       <c r="D2405" s="1" t="s">
-        <v>8806</v>
+        <v>9156</v>
       </c>
       <c r="E2405" s="1" t="s">
-        <v>4782</v>
+        <v>5948</v>
       </c>
       <c r="F2405" t="s">
-        <v>4783</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="2406" spans="1:6">
       <c r="A2406" s="1" t="s">
-        <v>6421</v>
+        <v>2534</v>
       </c>
       <c r="B2406" s="1" t="s">
-        <v>1406</v>
+        <v>1162</v>
+      </c>
+      <c r="C2406" s="1" t="s">
+        <v>2502</v>
       </c>
       <c r="D2406" s="1" t="s">
-        <v>8473</v>
+        <v>7961</v>
       </c>
       <c r="E2406" s="1" t="s">
-        <v>6422</v>
+        <v>2535</v>
       </c>
       <c r="F2406" t="s">
-        <v>6423</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="2407" spans="1:6">
-      <c r="A2407" s="1" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B2407" s="1" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C2407" s="1" t="s">
+      <c r="A2407" t="s">
+        <v>9630</v>
+      </c>
+      <c r="B2407" t="s">
+        <v>9631</v>
+      </c>
+      <c r="C2407" t="s">
         <v>709</v>
       </c>
-      <c r="D2407" s="1" t="s">
-        <v>7619</v>
-      </c>
-      <c r="E2407" s="1" t="s">
-        <v>1407</v>
+      <c r="D2407" t="s">
+        <v>9837</v>
+      </c>
+      <c r="E2407" t="s">
+        <v>9632</v>
       </c>
       <c r="F2407" t="s">
-        <v>1408</v>
+        <v>9633</v>
       </c>
     </row>
     <row r="2408" spans="1:6">
-      <c r="A2408" s="1" t="s">
-        <v>5101</v>
-      </c>
-      <c r="B2408" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="D2408" s="1" t="s">
-        <v>8897</v>
-      </c>
-      <c r="E2408" s="1" t="s">
-        <v>5102</v>
+      <c r="A2408" t="s">
+        <v>9634</v>
+      </c>
+      <c r="B2408" t="s">
+        <v>9631</v>
+      </c>
+      <c r="C2408" t="s">
+        <v>9635</v>
+      </c>
+      <c r="D2408" t="s">
+        <v>9838</v>
+      </c>
+      <c r="E2408" t="s">
+        <v>9636</v>
       </c>
       <c r="F2408" t="s">
-        <v>5103</v>
+        <v>9637</v>
       </c>
     </row>
     <row r="2409" spans="1:6">
-      <c r="A2409" s="1" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B2409" s="1" t="s">
-        <v>2979</v>
-      </c>
-      <c r="C2409" s="1" t="s">
+      <c r="A2409" t="s">
+        <v>9638</v>
+      </c>
+      <c r="B2409" t="s">
+        <v>9639</v>
+      </c>
+      <c r="D2409" t="s">
+        <v>9839</v>
+      </c>
+      <c r="E2409" t="s">
+        <v>9640</v>
+      </c>
+      <c r="F2409" t="s">
+        <v>9641</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:6">
+      <c r="A2410" t="s">
+        <v>9642</v>
+      </c>
+      <c r="B2410" t="s">
+        <v>9639</v>
+      </c>
+      <c r="D2410" t="s">
+        <v>9840</v>
+      </c>
+      <c r="E2410" t="s">
+        <v>9643</v>
+      </c>
+      <c r="F2410" t="s">
+        <v>9644</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:6">
+      <c r="A2411" t="s">
+        <v>7045</v>
+      </c>
+      <c r="B2411" t="s">
+        <v>9639</v>
+      </c>
+      <c r="D2411" t="s">
+        <v>9841</v>
+      </c>
+      <c r="E2411" t="s">
+        <v>9645</v>
+      </c>
+      <c r="F2411" t="s">
+        <v>9646</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:6">
+      <c r="A2412" t="s">
+        <v>9647</v>
+      </c>
+      <c r="B2412" t="s">
+        <v>9648</v>
+      </c>
+      <c r="C2412" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2412" t="s">
+        <v>9842</v>
+      </c>
+      <c r="E2412" t="s">
+        <v>9649</v>
+      </c>
+      <c r="F2412" t="s">
+        <v>9650</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:6">
+      <c r="A2413" t="s">
+        <v>9651</v>
+      </c>
+      <c r="B2413" t="s">
+        <v>9648</v>
+      </c>
+      <c r="C2413" t="s">
+        <v>4260</v>
+      </c>
+      <c r="D2413" t="s">
+        <v>9843</v>
+      </c>
+      <c r="E2413" t="s">
+        <v>9652</v>
+      </c>
+      <c r="F2413" t="s">
+        <v>9653</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:6">
+      <c r="A2414" t="s">
+        <v>5898</v>
+      </c>
+      <c r="B2414" t="s">
+        <v>9648</v>
+      </c>
+      <c r="D2414" t="s">
+        <v>9844</v>
+      </c>
+      <c r="E2414" t="s">
+        <v>9654</v>
+      </c>
+      <c r="F2414" t="s">
+        <v>9655</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:6">
+      <c r="A2415" t="s">
+        <v>9656</v>
+      </c>
+      <c r="B2415" t="s">
+        <v>9657</v>
+      </c>
+      <c r="C2415" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2415" t="s">
+        <v>9845</v>
+      </c>
+      <c r="E2415" t="s">
+        <v>9658</v>
+      </c>
+      <c r="F2415" t="s">
+        <v>9659</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:6">
+      <c r="A2416" t="s">
+        <v>9660</v>
+      </c>
+      <c r="B2416" t="s">
+        <v>9657</v>
+      </c>
+      <c r="C2416" t="s">
         <v>2956</v>
       </c>
-      <c r="D2409" s="1" t="s">
-        <v>8082</v>
-      </c>
-      <c r="E2409" s="1" t="s">
-        <v>2980</v>
-      </c>
-      <c r="F2409" t="s">
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="2410" spans="1:6" ht="66">
-      <c r="A2410" s="1" t="s">
-        <v>2085</v>
-      </c>
-      <c r="B2410" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2410" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2410" s="4" t="s">
-        <v>7824</v>
-      </c>
-      <c r="E2410" s="4" t="s">
-        <v>2086</v>
-      </c>
-      <c r="F2410" s="4" t="s">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="2411" spans="1:6" ht="99">
-      <c r="A2411" s="1" t="s">
-        <v>2080</v>
-      </c>
-      <c r="B2411" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2411" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2411" s="4" t="s">
-        <v>7822</v>
-      </c>
-      <c r="E2411" s="4" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F2411" s="3" t="s">
-        <v>2082</v>
-      </c>
-    </row>
-    <row r="2412" spans="1:6">
-      <c r="A2412" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B2412" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2412" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D2412" s="1" t="s">
-        <v>7672</v>
-      </c>
-      <c r="E2412" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="F2412" t="s">
-        <v>1575</v>
-      </c>
-    </row>
-    <row r="2413" spans="1:6">
-      <c r="A2413" s="1" t="s">
-        <v>2074</v>
-      </c>
-      <c r="B2413" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2413" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2413" s="1" t="s">
-        <v>7820</v>
-      </c>
-      <c r="E2413" s="1" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F2413" s="1" t="s">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="2414" spans="1:6">
-      <c r="A2414" s="1" t="s">
-        <v>2077</v>
-      </c>
-      <c r="B2414" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2414" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2414" s="1" t="s">
-        <v>7821</v>
-      </c>
-      <c r="E2414" s="1" t="s">
-        <v>2078</v>
-      </c>
-      <c r="F2414" t="s">
-        <v>2079</v>
-      </c>
-    </row>
-    <row r="2415" spans="1:6">
-      <c r="A2415" s="1" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B2415" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2415" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D2415" s="1" t="s">
-        <v>7671</v>
-      </c>
-      <c r="E2415" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="F2415" t="s">
-        <v>1572</v>
-      </c>
-    </row>
-    <row r="2416" spans="1:6">
-      <c r="A2416" s="1" t="s">
-        <v>2103</v>
-      </c>
-      <c r="B2416" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2416" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2416" s="1" t="s">
-        <v>7830</v>
-      </c>
-      <c r="E2416" s="1" t="s">
-        <v>2104</v>
+      <c r="D2416" t="s">
+        <v>9846</v>
+      </c>
+      <c r="E2416" t="s">
+        <v>9661</v>
       </c>
       <c r="F2416" t="s">
-        <v>2105</v>
+        <v>9661</v>
       </c>
     </row>
     <row r="2417" spans="1:6">
-      <c r="A2417" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B2417" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2417" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="D2417" s="1" t="s">
-        <v>7670</v>
-      </c>
-      <c r="E2417" s="1" t="s">
-        <v>1568</v>
+      <c r="A2417" t="s">
+        <v>9662</v>
+      </c>
+      <c r="B2417" t="s">
+        <v>9657</v>
+      </c>
+      <c r="C2417" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D2417" t="s">
+        <v>9847</v>
+      </c>
+      <c r="E2417" t="s">
+        <v>9663</v>
       </c>
       <c r="F2417" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="2418" spans="1:6" ht="49.5">
-      <c r="A2418" s="1" t="s">
-        <v>2083</v>
-      </c>
-      <c r="B2418" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2418" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2418" s="4" t="s">
-        <v>7823</v>
-      </c>
-      <c r="E2418" s="4" t="s">
-        <v>8580</v>
-      </c>
-      <c r="F2418" s="4" t="s">
-        <v>2084</v>
+        <v>9664</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:6">
+      <c r="A2418" t="s">
+        <v>9665</v>
+      </c>
+      <c r="B2418" t="s">
+        <v>9657</v>
+      </c>
+      <c r="D2418" t="s">
+        <v>9848</v>
+      </c>
+      <c r="E2418" t="s">
+        <v>9666</v>
+      </c>
+      <c r="F2418" t="s">
+        <v>9667</v>
       </c>
     </row>
     <row r="2419" spans="1:6">
-      <c r="A2419" s="1" t="s">
-        <v>2106</v>
-      </c>
-      <c r="B2419" s="1" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C2419" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2419" s="1" t="s">
-        <v>7831</v>
-      </c>
-      <c r="E2419" s="1" t="s">
-        <v>2107</v>
+      <c r="A2419" t="s">
+        <v>9668</v>
+      </c>
+      <c r="B2419" t="s">
+        <v>9657</v>
+      </c>
+      <c r="D2419" t="s">
+        <v>9849</v>
+      </c>
+      <c r="E2419" t="s">
+        <v>9669</v>
       </c>
       <c r="F2419" t="s">
-        <v>2108</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="2420" spans="1:6">
       <c r="A2420" s="1" t="s">
-        <v>7074</v>
+        <v>5016</v>
       </c>
       <c r="B2420" s="1" t="s">
-        <v>3008</v>
+        <v>5017</v>
       </c>
       <c r="D2420" s="1" t="s">
-        <v>9467</v>
+        <v>9481</v>
       </c>
       <c r="E2420" s="1" t="s">
-        <v>7075</v>
-      </c>
-      <c r="F2420" t="s">
-        <v>7076</v>
+        <v>5018</v>
+      </c>
+      <c r="F2420" s="1" t="s">
+        <v>5019</v>
       </c>
     </row>
     <row r="2421" spans="1:6">
       <c r="A2421" s="1" t="s">
-        <v>7071</v>
+        <v>7062</v>
       </c>
       <c r="B2421" s="1" t="s">
-        <v>3008</v>
+        <v>5017</v>
       </c>
       <c r="D2421" s="1" t="s">
-        <v>9323</v>
+        <v>9320</v>
       </c>
       <c r="E2421" s="1" t="s">
-        <v>7072</v>
-      </c>
-      <c r="F2421" t="s">
-        <v>7073</v>
+        <v>7063</v>
+      </c>
+      <c r="F2421" s="1" t="s">
+        <v>7064</v>
       </c>
     </row>
     <row r="2422" spans="1:6">
       <c r="A2422" s="1" t="s">
-        <v>3007</v>
+        <v>7059</v>
       </c>
       <c r="B2422" s="1" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C2422" s="1" t="s">
+        <v>5017</v>
+      </c>
+      <c r="D2422" s="1" t="s">
+        <v>9319</v>
+      </c>
+      <c r="E2422" s="1" t="s">
+        <v>7060</v>
+      </c>
+      <c r="F2422" t="s">
+        <v>7061</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:6">
+      <c r="A2423" t="s">
+        <v>9671</v>
+      </c>
+      <c r="B2423" t="s">
+        <v>9672</v>
+      </c>
+      <c r="C2423" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2423" t="s">
+        <v>9673</v>
+      </c>
+      <c r="E2423" t="s">
+        <v>9673</v>
+      </c>
+      <c r="F2423" t="s">
+        <v>9673</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:6">
+      <c r="A2424" t="s">
+        <v>9674</v>
+      </c>
+      <c r="B2424" t="s">
+        <v>9672</v>
+      </c>
+      <c r="C2424" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2424" t="s">
+        <v>9850</v>
+      </c>
+      <c r="E2424" t="s">
+        <v>9675</v>
+      </c>
+      <c r="F2424" t="s">
+        <v>9676</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:6">
+      <c r="A2425" t="s">
+        <v>9677</v>
+      </c>
+      <c r="B2425" t="s">
+        <v>9672</v>
+      </c>
+      <c r="C2425" t="s">
         <v>2956</v>
       </c>
-      <c r="D2422" s="1" t="s">
-        <v>8090</v>
-      </c>
-      <c r="E2422" s="1" t="s">
-        <v>3009</v>
-      </c>
-      <c r="F2422" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="2423" spans="1:6">
-      <c r="A2423" s="1" t="s">
-        <v>7080</v>
-      </c>
-      <c r="B2423" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D2423" s="1" t="s">
-        <v>9325</v>
-      </c>
-      <c r="E2423" s="1" t="s">
-        <v>7081</v>
-      </c>
-      <c r="F2423" s="1" t="s">
-        <v>7082</v>
-      </c>
-    </row>
-    <row r="2424" spans="1:6">
-      <c r="A2424" s="1" t="s">
-        <v>7077</v>
-      </c>
-      <c r="B2424" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D2424" s="1" t="s">
-        <v>9324</v>
-      </c>
-      <c r="E2424" s="1" t="s">
-        <v>7078</v>
-      </c>
-      <c r="F2424" t="s">
-        <v>7079</v>
-      </c>
-    </row>
-    <row r="2425" spans="1:6">
-      <c r="A2425" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="B2425" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2425" s="1" t="s">
+      <c r="D2425" t="s">
+        <v>9851</v>
+      </c>
+      <c r="E2425" t="s">
+        <v>9678</v>
+      </c>
+      <c r="F2425" t="s">
+        <v>9679</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:6">
+      <c r="A2426" t="s">
+        <v>9680</v>
+      </c>
+      <c r="B2426" t="s">
+        <v>9681</v>
+      </c>
+      <c r="C2426" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2426" t="s">
+        <v>9852</v>
+      </c>
+      <c r="E2426" t="s">
+        <v>9682</v>
+      </c>
+      <c r="F2426" t="s">
+        <v>9683</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:6" ht="33">
+      <c r="A2427" t="s">
+        <v>9684</v>
+      </c>
+      <c r="B2427" t="s">
+        <v>9681</v>
+      </c>
+      <c r="C2427" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2427" s="3" t="s">
+        <v>9886</v>
+      </c>
+      <c r="E2427" t="s">
+        <v>9685</v>
+      </c>
+      <c r="F2427" t="s">
+        <v>9686</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:6" ht="49.5">
+      <c r="A2428" t="s">
+        <v>9687</v>
+      </c>
+      <c r="B2428" t="s">
+        <v>9681</v>
+      </c>
+      <c r="D2428" s="3" t="s">
+        <v>9887</v>
+      </c>
+      <c r="E2428" t="s">
+        <v>9688</v>
+      </c>
+      <c r="F2428" t="s">
+        <v>9689</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:6">
+      <c r="A2429" t="s">
+        <v>9690</v>
+      </c>
+      <c r="B2429" t="s">
+        <v>9681</v>
+      </c>
+      <c r="D2429" t="s">
+        <v>9853</v>
+      </c>
+      <c r="E2429" t="s">
+        <v>9691</v>
+      </c>
+      <c r="F2429" t="s">
+        <v>9692</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:6" ht="33">
+      <c r="A2430" t="s">
+        <v>9693</v>
+      </c>
+      <c r="B2430" t="s">
+        <v>9681</v>
+      </c>
+      <c r="D2430" s="3" t="s">
+        <v>9883</v>
+      </c>
+      <c r="E2430" t="s">
+        <v>9694</v>
+      </c>
+      <c r="F2430" t="s">
+        <v>9695</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:6">
+      <c r="A2431" t="s">
+        <v>9696</v>
+      </c>
+      <c r="B2431" t="s">
+        <v>9681</v>
+      </c>
+      <c r="D2431" t="s">
+        <v>9854</v>
+      </c>
+      <c r="E2431" t="s">
+        <v>9697</v>
+      </c>
+      <c r="F2431" t="s">
+        <v>9698</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:6">
+      <c r="A2432" t="s">
+        <v>9699</v>
+      </c>
+      <c r="B2432" t="s">
+        <v>9681</v>
+      </c>
+      <c r="D2432" t="s">
+        <v>9855</v>
+      </c>
+      <c r="E2432" t="s">
+        <v>9700</v>
+      </c>
+      <c r="F2432" t="s">
+        <v>9701</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:6">
+      <c r="A2433" t="s">
+        <v>9702</v>
+      </c>
+      <c r="B2433" t="s">
+        <v>9703</v>
+      </c>
+      <c r="C2433" t="s">
         <v>217</v>
       </c>
-      <c r="D2425" s="1" t="s">
-        <v>7347</v>
-      </c>
-      <c r="E2425" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2425" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="2426" spans="1:6">
-      <c r="A2426" s="1" t="s">
-        <v>4155</v>
-      </c>
-      <c r="B2426" s="1" t="s">
-        <v>4156</v>
-      </c>
-      <c r="C2426" s="1" t="s">
-        <v>4122</v>
-      </c>
-      <c r="D2426" s="1" t="s">
-        <v>8638</v>
-      </c>
-      <c r="E2426" s="1" t="s">
-        <v>4157</v>
-      </c>
-      <c r="F2426" t="s">
-        <v>4158</v>
-      </c>
-    </row>
-    <row r="2427" spans="1:6">
-      <c r="A2427" s="1" t="s">
-        <v>7083</v>
-      </c>
-      <c r="B2427" s="1" t="s">
-        <v>4156</v>
-      </c>
-      <c r="D2427" s="1" t="s">
-        <v>9326</v>
-      </c>
-      <c r="E2427" s="1" t="s">
-        <v>7084</v>
-      </c>
-      <c r="F2427" t="s">
-        <v>7085</v>
-      </c>
-    </row>
-    <row r="2428" spans="1:6">
-      <c r="A2428" s="1" t="s">
-        <v>6922</v>
-      </c>
-      <c r="B2428" s="1" t="s">
-        <v>6923</v>
-      </c>
-      <c r="D2428" s="1" t="s">
-        <v>9395</v>
-      </c>
-      <c r="E2428" s="1" t="s">
-        <v>9278</v>
-      </c>
-      <c r="F2428" t="s">
-        <v>9279</v>
-      </c>
-    </row>
-    <row r="2429" spans="1:6">
-      <c r="A2429" s="1" t="s">
-        <v>7086</v>
-      </c>
-      <c r="B2429" s="1" t="s">
-        <v>6923</v>
-      </c>
-      <c r="D2429" s="1" t="s">
-        <v>9327</v>
-      </c>
-      <c r="E2429" s="1" t="s">
-        <v>7087</v>
-      </c>
-      <c r="F2429" t="s">
-        <v>7088</v>
-      </c>
-    </row>
-    <row r="2430" spans="1:6">
-      <c r="A2430" s="1" t="s">
-        <v>1966</v>
-      </c>
-      <c r="B2430" s="1" t="s">
-        <v>1967</v>
-      </c>
-      <c r="C2430" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2430" s="1" t="s">
-        <v>7786</v>
-      </c>
-      <c r="E2430" s="1" t="s">
-        <v>1968</v>
-      </c>
-      <c r="F2430" s="1" t="s">
-        <v>1969</v>
-      </c>
-    </row>
-    <row r="2431" spans="1:6">
-      <c r="A2431" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2431" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2431" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2431" s="1" t="s">
-        <v>7284</v>
-      </c>
-      <c r="E2431" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F2431" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2432" spans="1:6">
-      <c r="A2432" s="1" t="s">
-        <v>6848</v>
-      </c>
-      <c r="B2432" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D2432" s="1" t="s">
-        <v>9254</v>
-      </c>
-      <c r="E2432" s="1" t="s">
-        <v>6849</v>
-      </c>
-      <c r="F2432" s="1" t="s">
-        <v>6850</v>
-      </c>
-    </row>
-    <row r="2433" spans="1:6">
-      <c r="A2433" s="1" t="s">
-        <v>6845</v>
-      </c>
-      <c r="B2433" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D2433" s="1" t="s">
-        <v>9253</v>
-      </c>
-      <c r="E2433" s="1" t="s">
-        <v>6846</v>
-      </c>
-      <c r="F2433" s="1" t="s">
-        <v>6847</v>
+      <c r="D2433" t="s">
+        <v>9856</v>
+      </c>
+      <c r="E2433" t="s">
+        <v>9704</v>
+      </c>
+      <c r="F2433" t="s">
+        <v>9705</v>
       </c>
     </row>
     <row r="2434" spans="1:6">
       <c r="A2434" s="1" t="s">
-        <v>6615</v>
+        <v>5051</v>
       </c>
       <c r="B2434" s="1" t="s">
-        <v>1653</v>
+        <v>1963</v>
       </c>
       <c r="D2434" s="1" t="s">
-        <v>8533</v>
+        <v>8884</v>
       </c>
       <c r="E2434" s="1" t="s">
-        <v>6616</v>
+        <v>5052</v>
       </c>
       <c r="F2434" t="s">
-        <v>6617</v>
-      </c>
-    </row>
-    <row r="2435" spans="1:6">
+        <v>5053</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:6" ht="33">
       <c r="A2435" s="1" t="s">
-        <v>6618</v>
+        <v>1962</v>
       </c>
       <c r="B2435" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="D2435" s="1" t="s">
-        <v>6619</v>
-      </c>
-      <c r="E2435" s="1" t="s">
-        <v>6619</v>
-      </c>
-      <c r="F2435" t="s">
-        <v>6620</v>
+        <v>1963</v>
+      </c>
+      <c r="C2435" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D2435" s="4" t="s">
+        <v>7785</v>
+      </c>
+      <c r="E2435" s="4" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F2435" s="3" t="s">
+        <v>1965</v>
       </c>
     </row>
     <row r="2436" spans="1:6">
-      <c r="A2436" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="B2436" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C2436" s="1" t="s">
+      <c r="A2436" t="s">
+        <v>9706</v>
+      </c>
+      <c r="B2436" t="s">
+        <v>9707</v>
+      </c>
+      <c r="C2436" t="s">
         <v>709</v>
       </c>
-      <c r="D2436" s="1" t="s">
-        <v>7692</v>
-      </c>
-      <c r="E2436" s="1" t="s">
-        <v>1654</v>
+      <c r="D2436" t="s">
+        <v>9857</v>
+      </c>
+      <c r="E2436" t="s">
+        <v>9708</v>
       </c>
       <c r="F2436" t="s">
-        <v>1655</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="2437" spans="1:6">
-      <c r="A2437" s="1" t="s">
-        <v>7012</v>
-      </c>
-      <c r="B2437" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2437" s="1" t="s">
-        <v>9309</v>
-      </c>
-      <c r="E2437" s="1" t="s">
-        <v>7013</v>
-      </c>
-      <c r="F2437" s="1" t="s">
-        <v>7014</v>
+      <c r="A2437" t="s">
+        <v>9710</v>
+      </c>
+      <c r="B2437" t="s">
+        <v>9711</v>
+      </c>
+      <c r="C2437" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2437" t="s">
+        <v>9884</v>
+      </c>
+      <c r="E2437" t="s">
+        <v>9712</v>
+      </c>
+      <c r="F2437" t="s">
+        <v>9712</v>
       </c>
     </row>
     <row r="2438" spans="1:6">
-      <c r="A2438" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2438" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2438" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2438" s="1" t="s">
-        <v>7285</v>
-      </c>
-      <c r="E2438" s="1" t="s">
-        <v>248</v>
+      <c r="A2438" t="s">
+        <v>9713</v>
+      </c>
+      <c r="B2438" t="s">
+        <v>9711</v>
+      </c>
+      <c r="C2438" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2438" t="s">
+        <v>9884</v>
+      </c>
+      <c r="E2438" t="s">
+        <v>9714</v>
       </c>
       <c r="F2438" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2439" spans="1:6" ht="49.5">
+        <v>9714</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:6">
       <c r="A2439" s="1" t="s">
-        <v>1955</v>
+        <v>17</v>
       </c>
       <c r="B2439" s="1" t="s">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="C2439" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2439" s="4" t="s">
-        <v>7783</v>
-      </c>
-      <c r="E2439" s="4" t="s">
-        <v>1956</v>
-      </c>
-      <c r="F2439" s="3" t="s">
-        <v>1957</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:6" ht="33">
+        <v>8</v>
+      </c>
+      <c r="D2439" s="1" t="s">
+        <v>7240</v>
+      </c>
+      <c r="E2439" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2439" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:6">
       <c r="A2440" s="1" t="s">
-        <v>5173</v>
+        <v>4625</v>
       </c>
       <c r="B2440" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2440" s="4" t="s">
-        <v>8919</v>
-      </c>
-      <c r="E2440" s="4" t="s">
-        <v>5174</v>
-      </c>
-      <c r="F2440" s="3" t="s">
-        <v>5175</v>
+        <v>1410</v>
+      </c>
+      <c r="C2440" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D2440" s="1" t="s">
+        <v>8759</v>
+      </c>
+      <c r="E2440" s="1" t="s">
+        <v>4626</v>
+      </c>
+      <c r="F2440" t="s">
+        <v>4627</v>
       </c>
     </row>
     <row r="2441" spans="1:6">
       <c r="A2441" s="1" t="s">
-        <v>7089</v>
+        <v>3592</v>
       </c>
       <c r="B2441" s="1" t="s">
-        <v>247</v>
+        <v>1410</v>
+      </c>
+      <c r="C2441" s="1" t="s">
+        <v>3593</v>
       </c>
       <c r="D2441" s="1" t="s">
-        <v>9328</v>
+        <v>8263</v>
       </c>
       <c r="E2441" s="1" t="s">
-        <v>7090</v>
+        <v>3594</v>
       </c>
       <c r="F2441" t="s">
-        <v>7091</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="2442" spans="1:6">
       <c r="A2442" s="1" t="s">
-        <v>7094</v>
+        <v>1409</v>
       </c>
       <c r="B2442" s="1" t="s">
-        <v>251</v>
+        <v>1410</v>
+      </c>
+      <c r="C2442" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="D2442" s="1" t="s">
-        <v>9329</v>
+        <v>7620</v>
       </c>
       <c r="E2442" s="1" t="s">
-        <v>7095</v>
-      </c>
-      <c r="F2442" s="1" t="s">
-        <v>7096</v>
+        <v>1411</v>
+      </c>
+      <c r="F2442" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="2443" spans="1:6">
       <c r="A2443" s="1" t="s">
-        <v>7092</v>
+        <v>3596</v>
       </c>
       <c r="B2443" s="1" t="s">
-        <v>251</v>
+        <v>1410</v>
+      </c>
+      <c r="C2443" s="1" t="s">
+        <v>3593</v>
       </c>
       <c r="D2443" s="1" t="s">
-        <v>7093</v>
+        <v>8264</v>
       </c>
       <c r="E2443" s="1" t="s">
-        <v>7093</v>
+        <v>1873</v>
       </c>
       <c r="F2443" s="1" t="s">
-        <v>7093</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="2444" spans="1:6">
-      <c r="A2444" s="1" t="s">
-        <v>2296</v>
-      </c>
-      <c r="B2444" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2444" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D2444" s="1" t="s">
-        <v>7890</v>
-      </c>
-      <c r="E2444" s="1" t="s">
-        <v>2297</v>
+      <c r="A2444" t="s">
+        <v>9715</v>
+      </c>
+      <c r="B2444" t="s">
+        <v>9716</v>
+      </c>
+      <c r="D2444" t="s">
+        <v>9858</v>
+      </c>
+      <c r="E2444" t="s">
+        <v>9717</v>
       </c>
       <c r="F2444" t="s">
-        <v>2298</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="2445" spans="1:6">
-      <c r="A2445" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2445" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C2445" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2445" s="1" t="s">
-        <v>7286</v>
-      </c>
-      <c r="E2445" s="1" t="s">
-        <v>252</v>
+      <c r="A2445" t="s">
+        <v>9719</v>
+      </c>
+      <c r="B2445" t="s">
+        <v>9716</v>
+      </c>
+      <c r="D2445" t="s">
+        <v>9859</v>
+      </c>
+      <c r="E2445" t="s">
+        <v>9720</v>
       </c>
       <c r="F2445" t="s">
-        <v>253</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="2446" spans="1:6">
-      <c r="A2446" s="1" t="s">
-        <v>7097</v>
-      </c>
-      <c r="B2446" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D2446" s="1" t="s">
-        <v>9033</v>
-      </c>
-      <c r="E2446" s="1" t="s">
-        <v>5563</v>
+      <c r="A2446" t="s">
+        <v>9722</v>
+      </c>
+      <c r="B2446" t="s">
+        <v>9723</v>
+      </c>
+      <c r="C2446" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2446" t="s">
+        <v>9860</v>
+      </c>
+      <c r="E2446" t="s">
+        <v>2927</v>
       </c>
       <c r="F2446" t="s">
-        <v>7098</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="2447" spans="1:6">
-      <c r="A2447" s="1" t="s">
-        <v>7102</v>
-      </c>
-      <c r="B2447" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D2447" s="1" t="s">
-        <v>9331</v>
-      </c>
-      <c r="E2447" s="1" t="s">
-        <v>7103</v>
+      <c r="A2447" t="s">
+        <v>6361</v>
+      </c>
+      <c r="B2447" t="s">
+        <v>9723</v>
+      </c>
+      <c r="C2447" t="s">
+        <v>5825</v>
+      </c>
+      <c r="D2447" t="s">
+        <v>9861</v>
+      </c>
+      <c r="E2447" t="s">
+        <v>9724</v>
       </c>
       <c r="F2447" t="s">
-        <v>7104</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="2448" spans="1:6">
-      <c r="A2448" s="1" t="s">
-        <v>7099</v>
-      </c>
-      <c r="B2448" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="D2448" s="1" t="s">
-        <v>9330</v>
-      </c>
-      <c r="E2448" s="1" t="s">
-        <v>7100</v>
+      <c r="A2448" t="s">
+        <v>9726</v>
+      </c>
+      <c r="B2448" t="s">
+        <v>9723</v>
+      </c>
+      <c r="D2448" t="s">
+        <v>9862</v>
+      </c>
+      <c r="E2448" t="s">
+        <v>9727</v>
       </c>
       <c r="F2448" t="s">
-        <v>7101</v>
+        <v>9728</v>
       </c>
     </row>
     <row r="2449" spans="1:6">
-      <c r="A2449" s="1" t="s">
-        <v>2624</v>
-      </c>
-      <c r="B2449" s="1" t="s">
-        <v>2625</v>
-      </c>
-      <c r="C2449" s="1" t="s">
-        <v>2568</v>
-      </c>
-      <c r="D2449" s="1" t="s">
-        <v>9418</v>
-      </c>
-      <c r="E2449" s="1" t="s">
-        <v>2626</v>
+      <c r="A2449" t="s">
+        <v>9729</v>
+      </c>
+      <c r="B2449" t="s">
+        <v>9723</v>
+      </c>
+      <c r="D2449" t="s">
+        <v>9863</v>
+      </c>
+      <c r="E2449" t="s">
+        <v>9730</v>
       </c>
       <c r="F2449" t="s">
-        <v>2627</v>
+        <v>9731</v>
       </c>
     </row>
     <row r="2450" spans="1:6">
-      <c r="A2450" s="1" t="s">
-        <v>7105</v>
-      </c>
-      <c r="B2450" s="1" t="s">
-        <v>7106</v>
-      </c>
-      <c r="D2450" s="1" t="s">
-        <v>9332</v>
-      </c>
-      <c r="E2450" s="1" t="s">
-        <v>7107</v>
+      <c r="A2450" t="s">
+        <v>9732</v>
+      </c>
+      <c r="B2450" t="s">
+        <v>9733</v>
+      </c>
+      <c r="D2450" t="s">
+        <v>9864</v>
+      </c>
+      <c r="E2450" t="s">
+        <v>9734</v>
       </c>
       <c r="F2450" t="s">
-        <v>7108</v>
+        <v>9735</v>
       </c>
     </row>
     <row r="2451" spans="1:6">
       <c r="A2451" s="1" t="s">
-        <v>7112</v>
+        <v>3943</v>
       </c>
       <c r="B2451" s="1" t="s">
-        <v>7106</v>
+        <v>3944</v>
+      </c>
+      <c r="C2451" s="1" t="s">
+        <v>3922</v>
       </c>
       <c r="D2451" s="1" t="s">
-        <v>9334</v>
+        <v>8367</v>
       </c>
       <c r="E2451" s="1" t="s">
-        <v>7113</v>
+        <v>3945</v>
       </c>
       <c r="F2451" t="s">
-        <v>7114</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="2452" spans="1:6">
       <c r="A2452" s="1" t="s">
-        <v>7109</v>
+        <v>3947</v>
       </c>
       <c r="B2452" s="1" t="s">
-        <v>7106</v>
+        <v>3944</v>
+      </c>
+      <c r="C2452" s="1" t="s">
+        <v>3922</v>
       </c>
       <c r="D2452" s="1" t="s">
-        <v>9333</v>
+        <v>8368</v>
       </c>
       <c r="E2452" s="1" t="s">
-        <v>7110</v>
+        <v>3948</v>
       </c>
       <c r="F2452" t="s">
-        <v>7111</v>
+        <v>3949</v>
       </c>
     </row>
     <row r="2453" spans="1:6">
-      <c r="A2453" s="1" t="s">
-        <v>7115</v>
-      </c>
-      <c r="B2453" s="1" t="s">
-        <v>7116</v>
-      </c>
-      <c r="D2453" s="1" t="s">
-        <v>9335</v>
-      </c>
-      <c r="E2453" s="1" t="s">
-        <v>7117</v>
-      </c>
-      <c r="F2453" s="1" t="s">
-        <v>7118</v>
+      <c r="A2453" t="s">
+        <v>9736</v>
+      </c>
+      <c r="B2453" t="s">
+        <v>9737</v>
+      </c>
+      <c r="C2453" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D2453" t="s">
+        <v>9865</v>
+      </c>
+      <c r="E2453" t="s">
+        <v>9738</v>
+      </c>
+      <c r="F2453" t="s">
+        <v>9739</v>
       </c>
     </row>
     <row r="2454" spans="1:6">
-      <c r="A2454" s="1" t="s">
-        <v>5648</v>
-      </c>
-      <c r="B2454" s="1" t="s">
-        <v>3084</v>
-      </c>
-      <c r="D2454" s="1" t="s">
-        <v>9056</v>
-      </c>
-      <c r="E2454" s="1" t="s">
-        <v>5649</v>
-      </c>
-      <c r="F2454" s="1" t="s">
-        <v>5650</v>
-      </c>
-    </row>
-    <row r="2455" spans="1:6">
-      <c r="A2455" s="1" t="s">
-        <v>7122</v>
-      </c>
-      <c r="B2455" s="1" t="s">
-        <v>3084</v>
-      </c>
-      <c r="D2455" s="1" t="s">
-        <v>9337</v>
-      </c>
-      <c r="E2455" s="1" t="s">
-        <v>7123</v>
+      <c r="A2454" t="s">
+        <v>9740</v>
+      </c>
+      <c r="B2454" t="s">
+        <v>9741</v>
+      </c>
+      <c r="C2454" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D2454" t="s">
+        <v>9866</v>
+      </c>
+      <c r="E2454" t="s">
+        <v>6077</v>
+      </c>
+      <c r="F2454" t="s">
+        <v>9742</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:6" ht="33">
+      <c r="A2455" t="s">
+        <v>9743</v>
+      </c>
+      <c r="B2455" t="s">
+        <v>9744</v>
+      </c>
+      <c r="D2455" s="3" t="s">
+        <v>9888</v>
+      </c>
+      <c r="E2455" s="3" t="s">
+        <v>9745</v>
       </c>
       <c r="F2455" t="s">
-        <v>7124</v>
+        <v>9746</v>
       </c>
     </row>
     <row r="2456" spans="1:6">
-      <c r="A2456" s="1" t="s">
-        <v>7119</v>
-      </c>
-      <c r="B2456" s="1" t="s">
-        <v>3084</v>
-      </c>
-      <c r="D2456" s="1" t="s">
-        <v>9336</v>
-      </c>
-      <c r="E2456" s="1" t="s">
-        <v>7120</v>
+      <c r="A2456" t="s">
+        <v>9747</v>
+      </c>
+      <c r="B2456" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D2456" t="s">
+        <v>9867</v>
+      </c>
+      <c r="E2456" t="s">
+        <v>9749</v>
       </c>
       <c r="F2456" t="s">
-        <v>7121</v>
-      </c>
-    </row>
-    <row r="2457" spans="1:6">
-      <c r="A2457" s="1" t="s">
-        <v>3083</v>
-      </c>
-      <c r="B2457" s="1" t="s">
-        <v>3084</v>
-      </c>
-      <c r="C2457" s="1" t="s">
-        <v>2956</v>
-      </c>
-      <c r="D2457" s="1" t="s">
-        <v>9410</v>
-      </c>
-      <c r="E2457" s="1" t="s">
-        <v>3085</v>
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:6" ht="82.5">
+      <c r="A2457" t="s">
+        <v>9751</v>
+      </c>
+      <c r="B2457" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D2457" s="3" t="s">
+        <v>9889</v>
+      </c>
+      <c r="E2457" t="s">
+        <v>9752</v>
       </c>
       <c r="F2457" t="s">
-        <v>3086</v>
+        <v>9753</v>
       </c>
     </row>
     <row r="2458" spans="1:6">
       <c r="A2458" s="1" t="s">
-        <v>4853</v>
+        <v>472</v>
       </c>
       <c r="B2458" s="1" t="s">
-        <v>3084</v>
+        <v>473</v>
+      </c>
+      <c r="C2458" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="D2458" s="1" t="s">
-        <v>8830</v>
+        <v>7324</v>
       </c>
       <c r="E2458" s="1" t="s">
-        <v>4854</v>
+        <v>380</v>
       </c>
       <c r="F2458" t="s">
-        <v>4855</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2459" spans="1:6">
-      <c r="A2459" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="B2459" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C2459" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2459" s="1" t="s">
-        <v>7377</v>
-      </c>
-      <c r="E2459" s="1" t="s">
-        <v>565</v>
+      <c r="A2459" t="s">
+        <v>9754</v>
+      </c>
+      <c r="B2459" t="s">
+        <v>9755</v>
+      </c>
+      <c r="C2459" t="s">
+        <v>6061</v>
+      </c>
+      <c r="D2459" t="s">
+        <v>9868</v>
+      </c>
+      <c r="E2459" t="s">
+        <v>9756</v>
       </c>
       <c r="F2459" t="s">
-        <v>566</v>
+        <v>9757</v>
       </c>
     </row>
     <row r="2460" spans="1:6">
-      <c r="A2460" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="B2460" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2460" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D2460" s="1" t="s">
-        <v>7415</v>
-      </c>
-      <c r="E2460" s="1" t="s">
-        <v>681</v>
+      <c r="A2460" t="s">
+        <v>9758</v>
+      </c>
+      <c r="B2460" t="s">
+        <v>9759</v>
+      </c>
+      <c r="D2460" t="s">
+        <v>9890</v>
+      </c>
+      <c r="E2460" t="s">
+        <v>9760</v>
       </c>
       <c r="F2460" t="s">
-        <v>682</v>
+        <v>9761</v>
       </c>
     </row>
     <row r="2461" spans="1:6">
-      <c r="A2461" s="1" t="s">
-        <v>2521</v>
-      </c>
-      <c r="B2461" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2461" s="1" t="s">
-        <v>2502</v>
-      </c>
-      <c r="D2461" s="1" t="s">
-        <v>7957</v>
-      </c>
-      <c r="E2461" s="1" t="s">
-        <v>2521</v>
+      <c r="A2461" t="s">
+        <v>9762</v>
+      </c>
+      <c r="B2461" t="s">
+        <v>9759</v>
+      </c>
+      <c r="D2461" t="s">
+        <v>9891</v>
+      </c>
+      <c r="E2461" t="s">
+        <v>9763</v>
       </c>
       <c r="F2461" t="s">
-        <v>2522</v>
+        <v>9764</v>
       </c>
     </row>
     <row r="2462" spans="1:6">
-      <c r="A2462" s="1" t="s">
-        <v>7125</v>
-      </c>
-      <c r="B2462" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D2462" s="1" t="s">
-        <v>9338</v>
-      </c>
-      <c r="E2462" s="1" t="s">
-        <v>7126</v>
+      <c r="A2462" t="s">
+        <v>9765</v>
+      </c>
+      <c r="B2462" t="s">
+        <v>9759</v>
+      </c>
+      <c r="D2462" t="s">
+        <v>9892</v>
+      </c>
+      <c r="E2462" t="s">
+        <v>9766</v>
       </c>
       <c r="F2462" t="s">
-        <v>7127</v>
+        <v>9767</v>
       </c>
     </row>
     <row r="2463" spans="1:6">
-      <c r="A2463" s="1" t="s">
-        <v>2139</v>
-      </c>
-      <c r="B2463" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2463" s="1" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D2463" s="1" t="s">
-        <v>7841</v>
-      </c>
-      <c r="E2463" s="1" t="s">
-        <v>2140</v>
+      <c r="A2463" t="s">
+        <v>9768</v>
+      </c>
+      <c r="B2463" t="s">
+        <v>9759</v>
+      </c>
+      <c r="D2463" t="s">
+        <v>9893</v>
+      </c>
+      <c r="E2463" t="s">
+        <v>9769</v>
       </c>
       <c r="F2463" t="s">
-        <v>2141</v>
+        <v>9770</v>
       </c>
     </row>
     <row r="2464" spans="1:6">
       <c r="A2464" s="1" t="s">
-        <v>2975</v>
+        <v>4819</v>
       </c>
       <c r="B2464" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2464" s="1" t="s">
-        <v>2956</v>
+        <v>1959</v>
       </c>
       <c r="D2464" s="1" t="s">
-        <v>8081</v>
+        <v>8817</v>
       </c>
       <c r="E2464" s="1" t="s">
-        <v>2976</v>
-      </c>
-      <c r="F2464" t="s">
-        <v>2977</v>
+        <v>4820</v>
+      </c>
+      <c r="F2464" s="1" t="s">
+        <v>4821</v>
       </c>
     </row>
     <row r="2465" spans="1:6">
       <c r="A2465" s="1" t="s">
-        <v>3610</v>
+        <v>1958</v>
       </c>
       <c r="B2465" s="1" t="s">
-        <v>680</v>
+        <v>1959</v>
       </c>
       <c r="C2465" s="1" t="s">
-        <v>3593</v>
+        <v>1945</v>
       </c>
       <c r="D2465" s="1" t="s">
-        <v>8268</v>
+        <v>7784</v>
       </c>
       <c r="E2465" s="1" t="s">
-        <v>681</v>
+        <v>1960</v>
       </c>
       <c r="F2465" t="s">
-        <v>682</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="2466" spans="1:6">
-      <c r="A2466" s="1" t="s">
-        <v>2136</v>
-      </c>
-      <c r="B2466" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2466" s="1" t="s">
+      <c r="A2466" t="s">
+        <v>9771</v>
+      </c>
+      <c r="B2466" t="s">
+        <v>9772</v>
+      </c>
+      <c r="C2466" t="s">
         <v>2111</v>
       </c>
-      <c r="D2466" s="1" t="s">
-        <v>7840</v>
-      </c>
-      <c r="E2466" s="1" t="s">
-        <v>2137</v>
+      <c r="D2466" t="s">
+        <v>9869</v>
+      </c>
+      <c r="E2466" t="s">
+        <v>9773</v>
       </c>
       <c r="F2466" t="s">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="2467" spans="1:6" ht="33">
-      <c r="A2467" s="1" t="s">
-        <v>1952</v>
-      </c>
-      <c r="B2467" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C2467" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2467" s="4" t="s">
-        <v>7782</v>
-      </c>
-      <c r="E2467" s="4" t="s">
-        <v>1953</v>
-      </c>
-      <c r="F2467" s="3" t="s">
-        <v>1954</v>
+        <v>9774</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:6">
+      <c r="A2467" t="s">
+        <v>9775</v>
+      </c>
+      <c r="B2467" t="s">
+        <v>9772</v>
+      </c>
+      <c r="C2467" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D2467" t="s">
+        <v>9870</v>
+      </c>
+      <c r="E2467" t="s">
+        <v>9776</v>
+      </c>
+      <c r="F2467" t="s">
+        <v>9777</v>
       </c>
     </row>
     <row r="2468" spans="1:6">
-      <c r="A2468" s="1" t="s">
-        <v>3768</v>
-      </c>
-      <c r="B2468" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C2468" s="1" t="s">
-        <v>3746</v>
-      </c>
-      <c r="D2468" s="1" t="s">
-        <v>8315</v>
-      </c>
-      <c r="E2468" s="1" t="s">
-        <v>3769</v>
-      </c>
-      <c r="F2468" s="1" t="s">
-        <v>3770</v>
+      <c r="A2468" t="s">
+        <v>9778</v>
+      </c>
+      <c r="B2468" t="s">
+        <v>9779</v>
+      </c>
+      <c r="C2468" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D2468" t="s">
+        <v>9871</v>
+      </c>
+      <c r="E2468" t="s">
+        <v>9780</v>
+      </c>
+      <c r="F2468" t="s">
+        <v>9781</v>
       </c>
     </row>
     <row r="2469" spans="1:6">
-      <c r="A2469" s="1" t="s">
-        <v>7131</v>
-      </c>
-      <c r="B2469" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D2469" s="1" t="s">
-        <v>9339</v>
-      </c>
-      <c r="E2469" s="1" t="s">
-        <v>7132</v>
+      <c r="A2469" t="s">
+        <v>9782</v>
+      </c>
+      <c r="B2469" t="s">
+        <v>9783</v>
+      </c>
+      <c r="C2469" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2469" t="s">
+        <v>9872</v>
+      </c>
+      <c r="E2469" t="s">
+        <v>9784</v>
       </c>
       <c r="F2469" t="s">
-        <v>7133</v>
+        <v>9785</v>
       </c>
     </row>
     <row r="2470" spans="1:6">
-      <c r="A2470" s="1" t="s">
-        <v>7134</v>
-      </c>
-      <c r="B2470" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D2470" s="1" t="s">
-        <v>9340</v>
-      </c>
-      <c r="E2470" s="1" t="s">
-        <v>7135</v>
+      <c r="A2470" t="s">
+        <v>9786</v>
+      </c>
+      <c r="B2470" t="s">
+        <v>9783</v>
+      </c>
+      <c r="C2470" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2470" t="s">
+        <v>9873</v>
+      </c>
+      <c r="E2470" t="s">
+        <v>9787</v>
       </c>
       <c r="F2470" t="s">
-        <v>7136</v>
-      </c>
-    </row>
-    <row r="2471" spans="1:6" ht="49.5">
-      <c r="A2471" s="1" t="s">
-        <v>1948</v>
-      </c>
-      <c r="B2471" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="C2471" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2471" s="4" t="s">
-        <v>7781</v>
-      </c>
-      <c r="E2471" s="4" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F2471" s="3" t="s">
-        <v>1951</v>
+        <v>9788</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:6" ht="66">
+      <c r="A2471" t="s">
+        <v>9789</v>
+      </c>
+      <c r="B2471" t="s">
+        <v>9783</v>
+      </c>
+      <c r="C2471" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2471" s="3" t="s">
+        <v>9894</v>
+      </c>
+      <c r="E2471" t="s">
+        <v>9790</v>
+      </c>
+      <c r="F2471" t="s">
+        <v>9791</v>
       </c>
     </row>
     <row r="2472" spans="1:6">
-      <c r="A2472" s="1" t="s">
-        <v>7140</v>
-      </c>
-      <c r="B2472" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D2472" s="1" t="s">
-        <v>9342</v>
-      </c>
-      <c r="E2472" s="1" t="s">
-        <v>7135</v>
+      <c r="A2472" t="s">
+        <v>9792</v>
+      </c>
+      <c r="B2472" t="s">
+        <v>9793</v>
+      </c>
+      <c r="C2472" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2472" t="s">
+        <v>9874</v>
+      </c>
+      <c r="E2472" t="s">
+        <v>9794</v>
       </c>
       <c r="F2472" t="s">
-        <v>7141</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:6" ht="33">
-      <c r="A2473" s="1" t="s">
-        <v>7128</v>
-      </c>
-      <c r="B2473" s="1" t="s">
-        <v>1949</v>
-      </c>
-      <c r="D2473" s="4" t="s">
-        <v>9489</v>
-      </c>
-      <c r="E2473" s="4" t="s">
-        <v>7129</v>
-      </c>
-      <c r="F2473" s="3" t="s">
-        <v>7130</v>
+        <v>9795</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:6">
+      <c r="A2473" t="s">
+        <v>9796</v>
+      </c>
+      <c r="B2473" t="s">
+        <v>9797</v>
+      </c>
+      <c r="D2473" t="s">
+        <v>9875</v>
+      </c>
+      <c r="E2473" t="s">
+        <v>9799</v>
+      </c>
+      <c r="F2473" t="s">
+        <v>9798</v>
       </c>
     </row>
     <row r="2474" spans="1:6">
-      <c r="A2474" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B2474" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2474" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2474" s="1" t="s">
-        <v>7287</v>
-      </c>
-      <c r="E2474" s="1" t="s">
-        <v>256</v>
+      <c r="A2474" t="s">
+        <v>9800</v>
+      </c>
+      <c r="B2474" t="s">
+        <v>9797</v>
+      </c>
+      <c r="D2474" t="s">
+        <v>9876</v>
+      </c>
+      <c r="E2474" t="s">
+        <v>9802</v>
       </c>
       <c r="F2474" t="s">
-        <v>257</v>
+        <v>9801</v>
       </c>
     </row>
     <row r="2475" spans="1:6">
-      <c r="A2475" s="1" t="s">
-        <v>7142</v>
-      </c>
-      <c r="B2475" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2475" s="1" t="s">
-        <v>9343</v>
-      </c>
-      <c r="E2475" s="1" t="s">
-        <v>7143</v>
+      <c r="A2475" t="s">
+        <v>9803</v>
+      </c>
+      <c r="B2475" t="s">
+        <v>9797</v>
+      </c>
+      <c r="D2475" t="s">
+        <v>9877</v>
+      </c>
+      <c r="E2475" t="s">
+        <v>9804</v>
       </c>
       <c r="F2475" t="s">
-        <v>7144</v>
+        <v>9805</v>
       </c>
     </row>
     <row r="2476" spans="1:6">
-      <c r="A2476" s="1" t="s">
-        <v>7145</v>
-      </c>
-      <c r="B2476" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2476" s="1" t="s">
-        <v>9344</v>
-      </c>
-      <c r="E2476" s="1" t="s">
-        <v>7146</v>
+      <c r="A2476" t="s">
+        <v>9806</v>
+      </c>
+      <c r="B2476" t="s">
+        <v>9797</v>
+      </c>
+      <c r="D2476" t="s">
+        <v>9878</v>
+      </c>
+      <c r="E2476" t="s">
+        <v>9807</v>
       </c>
       <c r="F2476" t="s">
-        <v>7147</v>
+        <v>9808</v>
       </c>
     </row>
     <row r="2477" spans="1:6">
-      <c r="A2477" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2477" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2477" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2477" s="1" t="s">
-        <v>7288</v>
-      </c>
-      <c r="E2477" s="1" t="s">
-        <v>259</v>
+      <c r="A2477" t="s">
+        <v>9809</v>
+      </c>
+      <c r="B2477" t="s">
+        <v>9797</v>
+      </c>
+      <c r="D2477" t="s">
+        <v>9879</v>
+      </c>
+      <c r="E2477" t="s">
+        <v>9810</v>
       </c>
       <c r="F2477" t="s">
-        <v>260</v>
+        <v>9811</v>
       </c>
     </row>
     <row r="2478" spans="1:6">
-      <c r="A2478" s="1" t="s">
-        <v>7152</v>
-      </c>
-      <c r="B2478" s="1" t="s">
-        <v>7149</v>
-      </c>
-      <c r="D2478" s="1" t="s">
-        <v>9346</v>
-      </c>
-      <c r="E2478" s="1" t="s">
-        <v>7153</v>
+      <c r="A2478" t="s">
+        <v>9812</v>
+      </c>
+      <c r="B2478" t="s">
+        <v>9797</v>
+      </c>
+      <c r="D2478" t="s">
+        <v>9880</v>
+      </c>
+      <c r="E2478" t="s">
+        <v>9813</v>
       </c>
       <c r="F2478" t="s">
-        <v>7154</v>
+        <v>9814</v>
       </c>
     </row>
     <row r="2479" spans="1:6">
-      <c r="A2479" s="1" t="s">
-        <v>7148</v>
-      </c>
-      <c r="B2479" s="1" t="s">
-        <v>7149</v>
-      </c>
-      <c r="D2479" s="1" t="s">
-        <v>9345</v>
-      </c>
-      <c r="E2479" s="1" t="s">
-        <v>7150</v>
+      <c r="A2479" t="s">
+        <v>5461</v>
+      </c>
+      <c r="B2479" t="s">
+        <v>9815</v>
+      </c>
+      <c r="D2479" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2479" t="s">
+        <v>73</v>
       </c>
       <c r="F2479" t="s">
-        <v>7151</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2480" spans="1:6">
       <c r="A2480" s="1" t="s">
-        <v>5129</v>
+        <v>2199</v>
       </c>
       <c r="B2480" s="1" t="s">
-        <v>5130</v>
+        <v>2200</v>
+      </c>
+      <c r="C2480" s="1" t="s">
+        <v>2111</v>
       </c>
       <c r="D2480" s="1" t="s">
-        <v>7302</v>
+        <v>7859</v>
       </c>
       <c r="E2480" s="1" t="s">
-        <v>308</v>
+        <v>2201</v>
       </c>
       <c r="F2480" t="s">
-        <v>5131</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="2481" spans="1:6">
-      <c r="A2481" s="1" t="s">
-        <v>7155</v>
-      </c>
-      <c r="B2481" s="1" t="s">
-        <v>5130</v>
-      </c>
-      <c r="D2481" s="1" t="s">
-        <v>8939</v>
-      </c>
-      <c r="E2481" s="1" t="s">
-        <v>5235</v>
+      <c r="A2481" t="s">
+        <v>9816</v>
+      </c>
+      <c r="B2481" t="s">
+        <v>9817</v>
+      </c>
+      <c r="C2481" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D2481" t="s">
+        <v>9881</v>
+      </c>
+      <c r="E2481" t="s">
+        <v>9818</v>
       </c>
       <c r="F2481" t="s">
-        <v>5236</v>
+        <v>9819</v>
       </c>
     </row>
     <row r="2482" spans="1:6">
-      <c r="A2482" s="1" t="s">
-        <v>7156</v>
-      </c>
-      <c r="B2482" s="1" t="s">
-        <v>5130</v>
-      </c>
-      <c r="D2482" s="1" t="s">
-        <v>9347</v>
-      </c>
-      <c r="E2482" s="1" t="s">
-        <v>7157</v>
+      <c r="A2482" t="s">
+        <v>9820</v>
+      </c>
+      <c r="B2482" t="s">
+        <v>9821</v>
+      </c>
+      <c r="C2482" t="s">
+        <v>9822</v>
+      </c>
+      <c r="D2482" t="s">
+        <v>9823</v>
+      </c>
+      <c r="E2482" t="s">
+        <v>9824</v>
       </c>
       <c r="F2482" t="s">
-        <v>7158</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="2483" spans="1:6">
-      <c r="A2483" s="1" t="s">
-        <v>7159</v>
-      </c>
-      <c r="B2483" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="D2483" s="1" t="s">
-        <v>9348</v>
-      </c>
-      <c r="E2483" s="1" t="s">
-        <v>7160</v>
+      <c r="A2483" t="s">
+        <v>9826</v>
+      </c>
+      <c r="B2483" t="s">
+        <v>9827</v>
+      </c>
+      <c r="C2483" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D2483" t="s">
+        <v>9882</v>
+      </c>
+      <c r="E2483" t="s">
+        <v>9829</v>
       </c>
       <c r="F2483" t="s">
-        <v>7161</v>
+        <v>9828</v>
       </c>
     </row>
     <row r="2484" spans="1:6">
-      <c r="A2484" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="B2484" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="D2484" s="1" t="s">
-        <v>7498</v>
-      </c>
-      <c r="E2484" s="1" t="s">
-        <v>968</v>
+      <c r="A2484" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B2484" t="s">
+        <v>9830</v>
+      </c>
+      <c r="C2484" t="s">
+        <v>870</v>
+      </c>
+      <c r="D2484" t="s">
+        <v>9895</v>
+      </c>
+      <c r="E2484" t="s">
+        <v>1069</v>
       </c>
       <c r="F2484" t="s">
-        <v>969</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="2485" spans="1:6">
-      <c r="A2485" s="1" t="s">
-        <v>6354</v>
-      </c>
-      <c r="B2485" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="D2485" s="1" t="s">
-        <v>7516</v>
-      </c>
-      <c r="E2485" s="1" t="s">
-        <v>1041</v>
+      <c r="A2485" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B2485" t="s">
+        <v>9830</v>
+      </c>
+      <c r="C2485" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D2485" t="s">
+        <v>9895</v>
+      </c>
+      <c r="E2485" t="s">
+        <v>3732</v>
       </c>
       <c r="F2485" t="s">
-        <v>1040</v>
+        <v>3733</v>
       </c>
     </row>
     <row r="2486" spans="1:6">
       <c r="A2486" s="1" t="s">
-        <v>6355</v>
+        <v>7068</v>
       </c>
       <c r="B2486" s="1" t="s">
-        <v>967</v>
+        <v>1406</v>
       </c>
       <c r="D2486" s="1" t="s">
-        <v>8453</v>
+        <v>9322</v>
       </c>
       <c r="E2486" s="1" t="s">
-        <v>6356</v>
-      </c>
-      <c r="F2486" t="s">
-        <v>6357</v>
+        <v>7069</v>
+      </c>
+      <c r="F2486" s="1" t="s">
+        <v>7070</v>
       </c>
     </row>
     <row r="2487" spans="1:6">
       <c r="A2487" s="1" t="s">
-        <v>3345</v>
+        <v>4781</v>
       </c>
       <c r="B2487" s="1" t="s">
-        <v>3346</v>
-      </c>
-      <c r="C2487" s="1" t="s">
-        <v>3282</v>
+        <v>1406</v>
       </c>
       <c r="D2487" s="1" t="s">
-        <v>8191</v>
+        <v>8806</v>
       </c>
       <c r="E2487" s="1" t="s">
-        <v>3347</v>
+        <v>4782</v>
       </c>
       <c r="F2487" t="s">
-        <v>3348</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2488" spans="1:6">
       <c r="A2488" s="1" t="s">
-        <v>7171</v>
+        <v>6421</v>
       </c>
       <c r="B2488" s="1" t="s">
-        <v>15</v>
+        <v>1406</v>
       </c>
       <c r="D2488" s="1" t="s">
-        <v>9352</v>
+        <v>8473</v>
       </c>
       <c r="E2488" s="1" t="s">
-        <v>7172</v>
-      </c>
-      <c r="F2488" s="1" t="s">
-        <v>7173</v>
+        <v>6422</v>
+      </c>
+      <c r="F2488" t="s">
+        <v>6423</v>
       </c>
     </row>
     <row r="2489" spans="1:6">
       <c r="A2489" s="1" t="s">
-        <v>7177</v>
+        <v>1405</v>
       </c>
       <c r="B2489" s="1" t="s">
-        <v>15</v>
+        <v>1406</v>
+      </c>
+      <c r="C2489" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="D2489" s="1" t="s">
-        <v>9354</v>
+        <v>7619</v>
       </c>
       <c r="E2489" s="1" t="s">
-        <v>7178</v>
-      </c>
-      <c r="F2489" s="1" t="s">
-        <v>7179</v>
+        <v>1407</v>
+      </c>
+      <c r="F2489" t="s">
+        <v>1408</v>
       </c>
     </row>
     <row r="2490" spans="1:6">
       <c r="A2490" s="1" t="s">
-        <v>14</v>
+        <v>5101</v>
       </c>
       <c r="B2490" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2490" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2490" t="s">
-        <v>9458</v>
-      </c>
-      <c r="E2490" t="s">
-        <v>16</v>
+        <v>2979</v>
+      </c>
+      <c r="D2490" s="1" t="s">
+        <v>8897</v>
+      </c>
+      <c r="E2490" s="1" t="s">
+        <v>5102</v>
       </c>
       <c r="F2490" t="s">
-        <v>16</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="2491" spans="1:6">
       <c r="A2491" s="1" t="s">
-        <v>7165</v>
+        <v>2978</v>
       </c>
       <c r="B2491" s="1" t="s">
-        <v>15</v>
+        <v>2979</v>
+      </c>
+      <c r="C2491" s="1" t="s">
+        <v>2956</v>
       </c>
       <c r="D2491" s="1" t="s">
-        <v>9350</v>
+        <v>8082</v>
       </c>
       <c r="E2491" s="1" t="s">
-        <v>7166</v>
+        <v>2980</v>
       </c>
       <c r="F2491" t="s">
-        <v>7167</v>
-      </c>
-    </row>
-    <row r="2492" spans="1:6">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:6" ht="66">
       <c r="A2492" s="1" t="s">
-        <v>3649</v>
+        <v>2085</v>
       </c>
       <c r="B2492" s="1" t="s">
-        <v>15</v>
+        <v>1567</v>
       </c>
       <c r="C2492" s="1" t="s">
-        <v>3593</v>
-      </c>
-      <c r="D2492" s="1" t="s">
-        <v>7505</v>
-      </c>
-      <c r="E2492" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F2492" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="2493" spans="1:6">
+        <v>1945</v>
+      </c>
+      <c r="D2492" s="4" t="s">
+        <v>7824</v>
+      </c>
+      <c r="E2492" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F2492" s="4" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:6" ht="99">
       <c r="A2493" s="1" t="s">
-        <v>2526</v>
+        <v>2080</v>
       </c>
       <c r="B2493" s="1" t="s">
-        <v>15</v>
+        <v>1567</v>
       </c>
       <c r="C2493" s="1" t="s">
-        <v>2502</v>
-      </c>
-      <c r="D2493" s="1" t="s">
-        <v>7505</v>
-      </c>
-      <c r="E2493" s="1" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F2493" t="s">
-        <v>2527</v>
+        <v>1945</v>
+      </c>
+      <c r="D2493" s="4" t="s">
+        <v>7822</v>
+      </c>
+      <c r="E2493" s="4" t="s">
+        <v>2081</v>
+      </c>
+      <c r="F2493" s="3" t="s">
+        <v>2082</v>
       </c>
     </row>
     <row r="2494" spans="1:6">
       <c r="A2494" s="1" t="s">
-        <v>7162</v>
+        <v>1573</v>
       </c>
       <c r="B2494" s="1" t="s">
-        <v>15</v>
+        <v>1567</v>
+      </c>
+      <c r="C2494" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="D2494" s="1" t="s">
-        <v>9349</v>
+        <v>7672</v>
       </c>
       <c r="E2494" s="1" t="s">
-        <v>7163</v>
+        <v>1574</v>
       </c>
       <c r="F2494" t="s">
-        <v>7164</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="2495" spans="1:6">
       <c r="A2495" s="1" t="s">
-        <v>7174</v>
+        <v>2074</v>
       </c>
       <c r="B2495" s="1" t="s">
-        <v>15</v>
+        <v>1567</v>
+      </c>
+      <c r="C2495" s="1" t="s">
+        <v>1945</v>
       </c>
       <c r="D2495" s="1" t="s">
-        <v>9353</v>
+        <v>7820</v>
       </c>
       <c r="E2495" s="1" t="s">
-        <v>7175</v>
-      </c>
-      <c r="F2495" t="s">
-        <v>7176</v>
+        <v>2075</v>
+      </c>
+      <c r="F2495" s="1" t="s">
+        <v>2076</v>
       </c>
     </row>
     <row r="2496" spans="1:6">
       <c r="A2496" s="1" t="s">
-        <v>7180</v>
+        <v>2077</v>
       </c>
       <c r="B2496" s="1" t="s">
-        <v>15</v>
+        <v>1567</v>
+      </c>
+      <c r="C2496" s="1" t="s">
+        <v>1945</v>
       </c>
       <c r="D2496" s="1" t="s">
-        <v>9355</v>
+        <v>7821</v>
       </c>
       <c r="E2496" s="1" t="s">
-        <v>7181</v>
+        <v>2078</v>
       </c>
       <c r="F2496" t="s">
-        <v>7182</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="2497" spans="1:6">
       <c r="A2497" s="1" t="s">
-        <v>7168</v>
+        <v>1570</v>
       </c>
       <c r="B2497" s="1" t="s">
-        <v>15</v>
+        <v>1567</v>
+      </c>
+      <c r="C2497" s="1" t="s">
+        <v>709</v>
       </c>
       <c r="D2497" s="1" t="s">
-        <v>9351</v>
+        <v>7671</v>
       </c>
       <c r="E2497" s="1" t="s">
-        <v>7169</v>
+        <v>1571</v>
       </c>
       <c r="F2497" t="s">
-        <v>7170</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="2498" spans="1:6">
       <c r="A2498" s="1" t="s">
-        <v>1659</v>
+        <v>2103</v>
       </c>
       <c r="B2498" s="1" t="s">
-        <v>15</v>
+        <v>1567</v>
       </c>
       <c r="C2498" s="1" t="s">
-        <v>709</v>
+        <v>1945</v>
       </c>
       <c r="D2498" s="1" t="s">
-        <v>7694</v>
+        <v>7830</v>
       </c>
       <c r="E2498" s="1" t="s">
-        <v>1660</v>
+        <v>2104</v>
       </c>
       <c r="F2498" t="s">
-        <v>1661</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="2499" spans="1:6">
       <c r="A2499" s="1" t="s">
-        <v>1239</v>
+        <v>1566</v>
       </c>
       <c r="B2499" s="1" t="s">
-        <v>15</v>
+        <v>1567</v>
       </c>
       <c r="C2499" s="1" t="s">
         <v>709</v>
       </c>
       <c r="D2499" s="1" t="s">
-        <v>7575</v>
+        <v>7670</v>
       </c>
       <c r="E2499" s="1" t="s">
-        <v>1240</v>
+        <v>1568</v>
       </c>
       <c r="F2499" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="2500" spans="1:6">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:6" ht="49.5">
       <c r="A2500" s="1" t="s">
-        <v>464</v>
+        <v>2083</v>
       </c>
       <c r="B2500" s="1" t="s">
-        <v>465</v>
+        <v>1567</v>
       </c>
       <c r="C2500" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2500" s="1" t="s">
-        <v>7348</v>
-      </c>
-      <c r="E2500" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F2500" t="s">
-        <v>467</v>
+        <v>1945</v>
+      </c>
+      <c r="D2500" s="4" t="s">
+        <v>7823</v>
+      </c>
+      <c r="E2500" s="4" t="s">
+        <v>8580</v>
+      </c>
+      <c r="F2500" s="4" t="s">
+        <v>2084</v>
       </c>
     </row>
     <row r="2501" spans="1:6">
       <c r="A2501" s="1" t="s">
-        <v>1557</v>
+        <v>2106</v>
       </c>
       <c r="B2501" s="1" t="s">
-        <v>465</v>
+        <v>1567</v>
       </c>
       <c r="C2501" s="1" t="s">
-        <v>709</v>
+        <v>1945</v>
       </c>
       <c r="D2501" s="1" t="s">
-        <v>7667</v>
+        <v>7831</v>
       </c>
       <c r="E2501" s="1" t="s">
-        <v>1558</v>
+        <v>2107</v>
       </c>
       <c r="F2501" t="s">
-        <v>1559</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="2502" spans="1:6">
       <c r="A2502" s="1" t="s">
-        <v>1395</v>
+        <v>7074</v>
       </c>
       <c r="B2502" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2502" s="1" t="s">
-        <v>709</v>
+        <v>3008</v>
       </c>
       <c r="D2502" s="1" t="s">
-        <v>7616</v>
+        <v>9467</v>
       </c>
       <c r="E2502" s="1" t="s">
-        <v>1396</v>
+        <v>7075</v>
       </c>
       <c r="F2502" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="2503" spans="1:6" ht="33">
+        <v>7076</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:6">
       <c r="A2503" s="1" t="s">
-        <v>5070</v>
+        <v>7071</v>
       </c>
       <c r="B2503" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C2503" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2503" s="4" t="s">
-        <v>9515</v>
-      </c>
-      <c r="E2503" s="4" t="s">
-        <v>5071</v>
-      </c>
-      <c r="F2503" s="3" t="s">
-        <v>5072</v>
+        <v>3008</v>
+      </c>
+      <c r="D2503" s="1" t="s">
+        <v>9323</v>
+      </c>
+      <c r="E2503" s="1" t="s">
+        <v>7072</v>
+      </c>
+      <c r="F2503" t="s">
+        <v>7073</v>
       </c>
     </row>
     <row r="2504" spans="1:6">
       <c r="A2504" s="1" t="s">
-        <v>6641</v>
+        <v>3007</v>
       </c>
       <c r="B2504" s="1" t="s">
-        <v>6642</v>
+        <v>3008</v>
       </c>
       <c r="C2504" s="1" t="s">
-        <v>6640</v>
+        <v>2956</v>
       </c>
       <c r="D2504" s="1" t="s">
-        <v>9451</v>
+        <v>8090</v>
       </c>
       <c r="E2504" s="1" t="s">
-        <v>9195</v>
-      </c>
-      <c r="F2504" s="1" t="s">
-        <v>9196</v>
+        <v>3009</v>
+      </c>
+      <c r="F2504" t="s">
+        <v>3010</v>
       </c>
     </row>
     <row r="2505" spans="1:6">
       <c r="A2505" s="1" t="s">
-        <v>443</v>
+        <v>7080</v>
       </c>
       <c r="B2505" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2505" s="1" t="s">
-        <v>217</v>
+        <v>461</v>
       </c>
       <c r="D2505" s="1" t="s">
-        <v>7342</v>
+        <v>9325</v>
       </c>
       <c r="E2505" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="F2505" t="s">
-        <v>446</v>
+        <v>7081</v>
+      </c>
+      <c r="F2505" s="1" t="s">
+        <v>7082</v>
       </c>
     </row>
     <row r="2506" spans="1:6">
       <c r="A2506" s="1" t="s">
-        <v>3362</v>
+        <v>7077</v>
       </c>
       <c r="B2506" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="C2506" s="1" t="s">
-        <v>3282</v>
+        <v>461</v>
       </c>
       <c r="D2506" s="1" t="s">
-        <v>8196</v>
+        <v>9324</v>
       </c>
       <c r="E2506" s="1" t="s">
-        <v>3363</v>
+        <v>7078</v>
       </c>
       <c r="F2506" t="s">
-        <v>3364</v>
-      </c>
-    </row>
-    <row r="2507" spans="1:6" ht="49.5">
+        <v>7079</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:6">
       <c r="A2507" s="1" t="s">
-        <v>7065</v>
+        <v>460</v>
       </c>
       <c r="B2507" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D2507" s="4" t="s">
-        <v>9321</v>
-      </c>
-      <c r="E2507" s="4" t="s">
-        <v>7066</v>
-      </c>
-      <c r="F2507" s="3" t="s">
-        <v>7067</v>
-      </c>
-    </row>
-    <row r="2508" spans="1:6" ht="33">
+        <v>461</v>
+      </c>
+      <c r="C2507" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2507" s="1" t="s">
+        <v>7347</v>
+      </c>
+      <c r="E2507" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2507" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:6">
       <c r="A2508" s="1" t="s">
-        <v>2097</v>
+        <v>4155</v>
       </c>
       <c r="B2508" s="1" t="s">
-        <v>444</v>
+        <v>4156</v>
       </c>
       <c r="C2508" s="1" t="s">
-        <v>1945</v>
-      </c>
-      <c r="D2508" s="4" t="s">
-        <v>7828</v>
-      </c>
-      <c r="E2508" s="4" t="s">
-        <v>2098</v>
-      </c>
-      <c r="F2508" s="3" t="s">
-        <v>2099</v>
+        <v>4122</v>
+      </c>
+      <c r="D2508" s="1" t="s">
+        <v>8638</v>
+      </c>
+      <c r="E2508" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="F2508" t="s">
+        <v>4158</v>
       </c>
     </row>
     <row r="2509" spans="1:6">
       <c r="A2509" s="1" t="s">
-        <v>6863</v>
+        <v>7083</v>
       </c>
       <c r="B2509" s="1" t="s">
-        <v>444</v>
+        <v>4156</v>
       </c>
       <c r="D2509" s="1" t="s">
-        <v>9258</v>
+        <v>9326</v>
       </c>
       <c r="E2509" s="1" t="s">
-        <v>6864</v>
+        <v>7084</v>
       </c>
       <c r="F2509" t="s">
-        <v>6865</v>
+        <v>7085</v>
       </c>
     </row>
     <row r="2510" spans="1:6">
       <c r="A2510" s="1" t="s">
-        <v>6612</v>
+        <v>6922</v>
       </c>
       <c r="B2510" s="1" t="s">
-        <v>6609</v>
+        <v>6923</v>
       </c>
       <c r="D2510" s="1" t="s">
-        <v>9459</v>
+        <v>9395</v>
       </c>
       <c r="E2510" s="1" t="s">
-        <v>6613</v>
-      </c>
-      <c r="F2510" s="1" t="s">
-        <v>6614</v>
+        <v>9278</v>
+      </c>
+      <c r="F2510" t="s">
+        <v>9279</v>
       </c>
     </row>
     <row r="2511" spans="1:6">
       <c r="A2511" s="1" t="s">
-        <v>6608</v>
+        <v>7086</v>
       </c>
       <c r="B2511" s="1" t="s">
-        <v>6609</v>
+        <v>6923</v>
       </c>
       <c r="D2511" s="1" t="s">
-        <v>8532</v>
+        <v>9327</v>
       </c>
       <c r="E2511" s="1" t="s">
-        <v>6610</v>
-      </c>
-      <c r="F2511" s="1" t="s">
-        <v>6611</v>
+        <v>7087</v>
+      </c>
+      <c r="F2511" t="s">
+        <v>7088</v>
       </c>
     </row>
     <row r="2512" spans="1:6">
       <c r="A2512" s="1" t="s">
-        <v>7183</v>
+        <v>1966</v>
       </c>
       <c r="B2512" s="1" t="s">
-        <v>5874</v>
+        <v>1967</v>
+      </c>
+      <c r="C2512" s="1" t="s">
+        <v>1945</v>
       </c>
       <c r="D2512" s="1" t="s">
-        <v>8540</v>
+        <v>7786</v>
       </c>
       <c r="E2512" s="1" t="s">
-        <v>7184</v>
+        <v>1968</v>
       </c>
       <c r="F2512" s="1" t="s">
-        <v>7185</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="2513" spans="1:6">
       <c r="A2513" s="1" t="s">
-        <v>5873</v>
+        <v>242</v>
       </c>
       <c r="B2513" s="1" t="s">
-        <v>5874</v>
+        <v>243</v>
+      </c>
+      <c r="C2513" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="D2513" s="1" t="s">
-        <v>9134</v>
+        <v>7284</v>
       </c>
       <c r="E2513" s="1" t="s">
-        <v>5875</v>
-      </c>
-      <c r="F2513" s="1" t="s">
-        <v>5876</v>
+        <v>244</v>
+      </c>
+      <c r="F2513" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="2514" spans="1:6">
       <c r="A2514" s="1" t="s">
-        <v>4178</v>
+        <v>6848</v>
       </c>
       <c r="B2514" s="1" t="s">
-        <v>4179</v>
+        <v>1653</v>
       </c>
       <c r="D2514" s="1" t="s">
-        <v>8644</v>
+        <v>9254</v>
       </c>
       <c r="E2514" s="1" t="s">
-        <v>4180</v>
-      </c>
-      <c r="F2514" t="s">
-        <v>4181</v>
+        <v>6849</v>
+      </c>
+      <c r="F2514" s="1" t="s">
+        <v>6850</v>
       </c>
     </row>
     <row r="2515" spans="1:6">
       <c r="A2515" s="1" t="s">
-        <v>554</v>
+        <v>6845</v>
       </c>
       <c r="B2515" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C2515" s="1" t="s">
-        <v>217</v>
+        <v>1653</v>
       </c>
       <c r="D2515" s="1" t="s">
-        <v>7374</v>
+        <v>9253</v>
       </c>
       <c r="E2515" s="1" t="s">
-        <v>555</v>
+        <v>6846</v>
       </c>
       <c r="F2515" s="1" t="s">
-        <v>556</v>
+        <v>6847</v>
       </c>
     </row>
     <row r="2516" spans="1:6">
       <c r="A2516" s="1" t="s">
-        <v>6621</v>
+        <v>6615</v>
       </c>
       <c r="B2516" s="1" t="s">
-        <v>532</v>
+        <v>1653</v>
       </c>
       <c r="D2516" s="1" t="s">
-        <v>6622</v>
+        <v>8533</v>
       </c>
       <c r="E2516" s="1" t="s">
-        <v>6622</v>
+        <v>6616</v>
       </c>
       <c r="F2516" t="s">
-        <v>6623</v>
+        <v>6617</v>
       </c>
     </row>
     <row r="2517" spans="1:6">
       <c r="A2517" s="1" t="s">
-        <v>3598</v>
+        <v>6618</v>
       </c>
       <c r="B2517" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C2517" s="1" t="s">
-        <v>3593</v>
+        <v>1653</v>
       </c>
       <c r="D2517" s="1" t="s">
-        <v>8265</v>
+        <v>6619</v>
       </c>
       <c r="E2517" s="1" t="s">
-        <v>3599</v>
+        <v>6619</v>
       </c>
       <c r="F2517" t="s">
-        <v>3600</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="2518" spans="1:6">
       <c r="A2518" s="1" t="s">
-        <v>531</v>
+        <v>1652</v>
       </c>
       <c r="B2518" s="1" t="s">
-        <v>532</v>
+        <v>1653</v>
       </c>
       <c r="C2518" s="1" t="s">
-        <v>217</v>
+        <v>709</v>
       </c>
       <c r="D2518" s="1" t="s">
-        <v>7367</v>
+        <v>7692</v>
       </c>
       <c r="E2518" s="1" t="s">
-        <v>533</v>
+        <v>1654</v>
       </c>
       <c r="F2518" t="s">
-        <v>534</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="2519" spans="1:6">
       <c r="A2519" s="1" t="s">
-        <v>4604</v>
+        <v>7012</v>
       </c>
       <c r="B2519" s="1" t="s">
-        <v>4605</v>
-      </c>
-      <c r="C2519" s="1" t="s">
-        <v>4444</v>
+        <v>247</v>
       </c>
       <c r="D2519" s="1" t="s">
-        <v>8752</v>
+        <v>9309</v>
       </c>
       <c r="E2519" s="1" t="s">
-        <v>4606</v>
-      </c>
-      <c r="F2519" t="s">
-        <v>4607</v>
+        <v>7013</v>
+      </c>
+      <c r="F2519" s="1" t="s">
+        <v>7014</v>
       </c>
     </row>
     <row r="2520" spans="1:6">
       <c r="A2520" s="1" t="s">
-        <v>7186</v>
+        <v>246</v>
       </c>
       <c r="B2520" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
+      </c>
+      <c r="C2520" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="D2520" s="1" t="s">
-        <v>9356</v>
+        <v>7285</v>
       </c>
       <c r="E2520" s="1" t="s">
-        <v>7187</v>
+        <v>248</v>
       </c>
       <c r="F2520" t="s">
-        <v>7188</v>
-      </c>
-    </row>
-    <row r="2521" spans="1:6">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:6" ht="49.5">
       <c r="A2521" s="1" t="s">
-        <v>439</v>
+        <v>1955</v>
       </c>
       <c r="B2521" s="1" t="s">
-        <v>440</v>
+        <v>247</v>
       </c>
       <c r="C2521" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D2521" s="1" t="s">
-        <v>7341</v>
-      </c>
-      <c r="E2521" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2521" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2522" spans="1:6">
+        <v>1945</v>
+      </c>
+      <c r="D2521" s="4" t="s">
+        <v>7783</v>
+      </c>
+      <c r="E2521" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F2521" s="3" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:6" ht="33">
       <c r="A2522" s="1" t="s">
-        <v>3583</v>
+        <v>5173</v>
       </c>
       <c r="B2522" s="1" t="s">
-        <v>3584</v>
-      </c>
-      <c r="C2522" s="1" t="s">
-        <v>2794</v>
-      </c>
-      <c r="D2522" s="1" t="s">
-        <v>8261</v>
-      </c>
-      <c r="E2522" s="1" t="s">
-        <v>3585</v>
-      </c>
-      <c r="F2522" t="s">
-        <v>3586</v>
+        <v>247</v>
+      </c>
+      <c r="D2522" s="4" t="s">
+        <v>8919</v>
+      </c>
+      <c r="E2522" s="4" t="s">
+        <v>5174</v>
+      </c>
+      <c r="F2522" s="3" t="s">
+        <v>5175</v>
       </c>
     </row>
     <row r="2523" spans="1:6">
       <c r="A2523" s="1" t="s">
-        <v>3232</v>
+        <v>7089</v>
       </c>
       <c r="B2523" s="1" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C2523" s="1" t="s">
-        <v>2956</v>
+        <v>247</v>
       </c>
       <c r="D2523" s="1" t="s">
-        <v>8154</v>
+        <v>9328</v>
       </c>
       <c r="E2523" s="1" t="s">
-        <v>3234</v>
+        <v>7090</v>
       </c>
       <c r="F2523" t="s">
-        <v>3235</v>
+        <v>7091</v>
       </c>
     </row>
     <row r="2524" spans="1:6">
       <c r="A2524" s="1" t="s">
-        <v>5985</v>
+        <v>7094</v>
       </c>
       <c r="B2524" s="1" t="s">
-        <v>3233</v>
+        <v>251</v>
       </c>
       <c r="D2524" s="1" t="s">
-        <v>9166</v>
+        <v>9329</v>
       </c>
       <c r="E2524" s="1" t="s">
-        <v>5986</v>
-      </c>
-      <c r="F2524" t="s">
-        <v>5987</v>
+        <v>7095</v>
+      </c>
+      <c r="F2524" s="1" t="s">
+        <v>7096</v>
       </c>
     </row>
     <row r="2525" spans="1:6">
       <c r="A2525" s="1" t="s">
-        <v>1376</v>
+        <v>7092</v>
       </c>
       <c r="B2525" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C2525" s="1" t="s">
-        <v>709</v>
+        <v>251</v>
       </c>
       <c r="D2525" s="1" t="s">
-        <v>7611</v>
+        <v>7093</v>
       </c>
       <c r="E2525" s="1" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F2525" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="2526" spans="1:6" ht="33">
+        <v>7093</v>
+      </c>
+      <c r="F2525" s="1" t="s">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:6">
       <c r="A2526" s="1" t="s">
-        <v>7189</v>
+        <v>2296</v>
       </c>
       <c r="B2526" s="1" t="s">
-        <v>1377</v>
-      </c>
-      <c r="D2526" s="4" t="s">
-        <v>9357</v>
-      </c>
-      <c r="E2526" s="4" t="s">
-        <v>7190</v>
-      </c>
-      <c r="F2526" s="3" t="s">
-        <v>7191</v>
+        <v>251</v>
+      </c>
+      <c r="C2526" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D2526" s="1" t="s">
+        <v>7890</v>
+      </c>
+      <c r="E2526" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="F2526" t="s">
+        <v>2298</v>
       </c>
     </row>
     <row r="2527" spans="1:6">
       <c r="A2527" s="1" t="s">
-        <v>6719</v>
+        <v>250</v>
       </c>
       <c r="B2527" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="D2527" t="s">
-        <v>9216</v>
-      </c>
-      <c r="E2527" t="s">
-        <v>6720</v>
+        <v>251</v>
+      </c>
+      <c r="C2527" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2527" s="1" t="s">
+        <v>7286</v>
+      </c>
+      <c r="E2527" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="F2527" t="s">
-        <v>6721</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2528" spans="1:6">
       <c r="A2528" s="1" t="s">
-        <v>6011</v>
+        <v>7097</v>
       </c>
       <c r="B2528" s="1" t="s">
-        <v>2911</v>
+        <v>2625</v>
       </c>
       <c r="D2528" s="1" t="s">
-        <v>9174</v>
+        <v>9033</v>
       </c>
       <c r="E2528" s="1" t="s">
-        <v>6012</v>
+        <v>5563</v>
       </c>
       <c r="F2528" t="s">
-        <v>6013</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="2529" spans="1:6">
       <c r="A2529" s="1" t="s">
-        <v>2910</v>
+        <v>7102</v>
       </c>
       <c r="B2529" s="1" t="s">
-        <v>2911</v>
-      </c>
-      <c r="C2529" s="1" t="s">
-        <v>2858</v>
+        <v>2625</v>
       </c>
       <c r="D2529" s="1" t="s">
-        <v>8062</v>
+        <v>9331</v>
       </c>
       <c r="E2529" s="1" t="s">
-        <v>2912</v>
+        <v>7103</v>
       </c>
       <c r="F2529" t="s">
-        <v>2913</v>
+        <v>7104</v>
       </c>
     </row>
     <row r="2530" spans="1:6">
       <c r="A2530" s="1" t="s">
-        <v>1308</v>
+        <v>7099</v>
       </c>
       <c r="B2530" s="1" t="s">
-        <v>1309</v>
+        <v>2625</v>
       </c>
       <c r="D2530" s="1" t="s">
-        <v>7591</v>
+        <v>9330</v>
       </c>
       <c r="E2530" s="1" t="s">
-        <v>1310</v>
+        <v>7100</v>
       </c>
       <c r="F2530" t="s">
-        <v>1311</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="2531" spans="1:6">
       <c r="A2531" s="1" t="s">
-        <v>3109</v>
+        <v>2624</v>
       </c>
       <c r="B2531" s="1" t="s">
-        <v>1309</v>
+        <v>2625</v>
       </c>
       <c r="C2531" s="1" t="s">
-        <v>2956</v>
+        <v>2568</v>
       </c>
       <c r="D2531" s="1" t="s">
-        <v>8120</v>
+        <v>9418</v>
       </c>
       <c r="E2531" s="1" t="s">
-        <v>3110</v>
+        <v>2626</v>
       </c>
       <c r="F2531" t="s">
-        <v>3111</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="2532" spans="1:6">
       <c r="A2532" s="1" t="s">
-        <v>7053</v>
+        <v>7105</v>
       </c>
       <c r="B2532" s="1" t="s">
-        <v>7054</v>
-      </c>
-      <c r="C2532" s="1" t="s">
-        <v>4444</v>
+        <v>7106</v>
       </c>
       <c r="D2532" s="1" t="s">
-        <v>9318</v>
+        <v>9332</v>
       </c>
       <c r="E2532" s="1" t="s">
-        <v>7055</v>
-      </c>
-      <c r="F2532" s="1" t="s">
-        <v>7056</v>
+        <v>7107</v>
+      </c>
+      <c r="F2532" t="s">
+        <v>7108</v>
       </c>
     </row>
     <row r="2533" spans="1:6">
       <c r="A2533" s="1" t="s">
-        <v>5597</v>
+        <v>7112</v>
       </c>
       <c r="B2533" s="1" t="s">
-        <v>4325</v>
+        <v>7106</v>
       </c>
       <c r="D2533" s="1" t="s">
-        <v>9042</v>
+        <v>9334</v>
       </c>
       <c r="E2533" s="1" t="s">
-        <v>5599</v>
-      </c>
-      <c r="F2533" s="1" t="s">
-        <v>5598</v>
+        <v>7113</v>
+      </c>
+      <c r="F2533" t="s">
+        <v>7114</v>
       </c>
     </row>
     <row r="2534" spans="1:6">
       <c r="A2534" s="1" t="s">
-        <v>4328</v>
+        <v>7109</v>
       </c>
       <c r="B2534" s="1" t="s">
-        <v>4325</v>
+        <v>7106</v>
       </c>
       <c r="D2534" s="1" t="s">
-        <v>8682</v>
+        <v>9333</v>
       </c>
       <c r="E2534" s="1" t="s">
-        <v>4329</v>
+        <v>7110</v>
       </c>
       <c r="F2534" t="s">
-        <v>4330</v>
+        <v>7111</v>
       </c>
     </row>
     <row r="2535" spans="1:6">
       <c r="A2535" s="1" t="s">
-        <v>4324</v>
+        <v>7115</v>
       </c>
       <c r="B2535" s="1" t="s">
-        <v>4325</v>
+        <v>7116</v>
       </c>
       <c r="D2535" s="1" t="s">
-        <v>8681</v>
+        <v>9335</v>
       </c>
       <c r="E2535" s="1" t="s">
-        <v>4326</v>
-      </c>
-      <c r="F2535" t="s">
-        <v>4327</v>
+        <v>7117</v>
+      </c>
+      <c r="F2535" s="1" t="s">
+        <v>7118</v>
       </c>
     </row>
     <row r="2536" spans="1:6">
       <c r="A2536" s="1" t="s">
-        <v>4320</v>
+        <v>5648</v>
       </c>
       <c r="B2536" s="1" t="s">
-        <v>4321</v>
-      </c>
-      <c r="C2536" s="1" t="s">
-        <v>4282</v>
+        <v>3084</v>
       </c>
       <c r="D2536" s="1" t="s">
-        <v>8680</v>
+        <v>9056</v>
       </c>
       <c r="E2536" s="1" t="s">
-        <v>4322</v>
-      </c>
-      <c r="F2536" t="s">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="2537" spans="1:6" ht="33">
+        <v>5649</v>
+      </c>
+      <c r="F2536" s="1" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:6">
       <c r="A2537" s="1" t="s">
-        <v>5323</v>
+        <v>7122</v>
       </c>
       <c r="B2537" s="1" t="s">
-        <v>5324</v>
-      </c>
-      <c r="D2537" s="4" t="s">
-        <v>8967</v>
-      </c>
-      <c r="E2537" s="4" t="s">
-        <v>5325</v>
-      </c>
-      <c r="F2537" s="3" t="s">
-        <v>5326</v>
+        <v>3084</v>
+      </c>
+      <c r="D2537" s="1" t="s">
+        <v>9337</v>
+      </c>
+      <c r="E2537" s="1" t="s">
+        <v>7123</v>
+      </c>
+      <c r="F2537" t="s">
+        <v>7124</v>
       </c>
     </row>
     <row r="2538" spans="1:6">
       <c r="A2538" s="1" t="s">
-        <v>7193</v>
+        <v>7119</v>
       </c>
       <c r="B2538" s="1" t="s">
-        <v>1339</v>
+        <v>3084</v>
       </c>
       <c r="D2538" s="1" t="s">
-        <v>9358</v>
+        <v>9336</v>
       </c>
       <c r="E2538" s="1" t="s">
-        <v>7194</v>
+        <v>7120</v>
       </c>
       <c r="F2538" t="s">
-        <v>7195</v>
+        <v>7121</v>
       </c>
     </row>
     <row r="2539" spans="1:6">
       <c r="A2539" s="1" t="s">
-        <v>7192</v>
+        <v>3083</v>
       </c>
       <c r="B2539" s="1" t="s">
-        <v>1339</v>
+        <v>3084</v>
+      </c>
+      <c r="C2539" s="1" t="s">
+        <v>2956</v>
       </c>
       <c r="D2539" s="1" t="s">
-        <v>7769</v>
+        <v>9410</v>
       </c>
       <c r="E2539" s="1" t="s">
-        <v>1905</v>
+        <v>3085</v>
       </c>
       <c r="F2539" t="s">
-        <v>1906</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="2540" spans="1:6">
       <c r="A2540" s="1" t="s">
-        <v>7214</v>
+        <v>4853</v>
       </c>
       <c r="B2540" s="1" t="s">
-        <v>1339</v>
+        <v>3084</v>
       </c>
       <c r="D2540" s="1" t="s">
-        <v>9365</v>
+        <v>8830</v>
       </c>
       <c r="E2540" s="1" t="s">
-        <v>7215</v>
+        <v>4854</v>
       </c>
       <c r="F2540" t="s">
-        <v>7216</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="2541" spans="1:6">
       <c r="A2541" s="1" t="s">
-        <v>1338</v>
+        <v>563</v>
       </c>
       <c r="B2541" s="1" t="s">
-        <v>1339</v>
+        <v>564</v>
       </c>
       <c r="C2541" s="1" t="s">
-        <v>709</v>
+        <v>217</v>
       </c>
       <c r="D2541" s="1" t="s">
-        <v>7600</v>
+        <v>7377</v>
       </c>
       <c r="E2541" s="1" t="s">
-        <v>1340</v>
+        <v>565</v>
       </c>
       <c r="F2541" t="s">
-        <v>1341</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2542" spans="1:6">
       <c r="A2542" s="1" t="s">
-        <v>7208</v>
+        <v>679</v>
       </c>
       <c r="B2542" s="1" t="s">
-        <v>6599</v>
+        <v>680</v>
+      </c>
+      <c r="C2542" s="1" t="s">
+        <v>614</v>
       </c>
       <c r="D2542" s="1" t="s">
-        <v>9363</v>
+        <v>7415</v>
       </c>
       <c r="E2542" s="1" t="s">
-        <v>7209</v>
-      </c>
-      <c r="F2542" s="1" t="s">
-        <v>7210</v>
+        <v>681</v>
+      </c>
+      <c r="F2542" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="2543" spans="1:6">
       <c r="A2543" s="1" t="s">
-        <v>7217</v>
+        <v>2521</v>
       </c>
       <c r="B2543" s="1" t="s">
-        <v>6599</v>
+        <v>680</v>
+      </c>
+      <c r="C2543" s="1" t="s">
+        <v>2502</v>
       </c>
       <c r="D2543" s="1" t="s">
-        <v>9366</v>
+        <v>7957</v>
       </c>
       <c r="E2543" s="1" t="s">
-        <v>7218</v>
+        <v>2521</v>
       </c>
       <c r="F2543" t="s">
-        <v>7219</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="2544" spans="1:6">
       <c r="A2544" s="1" t="s">
-        <v>7222</v>
+        <v>7125</v>
       </c>
       <c r="B2544" s="1" t="s">
-        <v>6599</v>
+        <v>680</v>
       </c>
       <c r="D2544" s="1" t="s">
-        <v>9369</v>
+        <v>9338</v>
       </c>
       <c r="E2544" s="1" t="s">
-        <v>7223</v>
+        <v>7126</v>
       </c>
       <c r="F2544" t="s">
-        <v>7224</v>
-      </c>
-    </row>
-    <row r="2545" spans="1:6" ht="53.25">
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:6">
       <c r="A2545" s="1" t="s">
-        <v>6605</v>
+        <v>2139</v>
       </c>
       <c r="B2545" s="1" t="s">
-        <v>6599</v>
+        <v>680</v>
       </c>
       <c r="C2545" s="1" t="s">
-        <v>2371</v>
-      </c>
-      <c r="D2545" s="4" t="s">
-        <v>8531</v>
-      </c>
-      <c r="E2545" s="4" t="s">
-        <v>6606</v>
-      </c>
-      <c r="F2545" s="3" t="s">
-        <v>6607</v>
+        <v>2111</v>
+      </c>
+      <c r="D2545" s="1" t="s">
+        <v>7841</v>
+      </c>
+      <c r="E2545" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F2545" t="s">
+        <v>2141</v>
       </c>
     </row>
     <row r="2546" spans="1:6">
       <c r="A2546" s="1" t="s">
-        <v>7211</v>
+        <v>2975</v>
       </c>
       <c r="B2546" s="1" t="s">
-        <v>6599</v>
+        <v>680</v>
+      </c>
+      <c r="C2546" s="1" t="s">
+        <v>2956</v>
       </c>
       <c r="D2546" s="1" t="s">
-        <v>9364</v>
+        <v>8081</v>
       </c>
       <c r="E2546" s="1" t="s">
-        <v>7212</v>
+        <v>2976</v>
       </c>
       <c r="F2546" t="s">
-        <v>7213</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="2547" spans="1:6">
       <c r="A2547" s="1" t="s">
-        <v>7205</v>
+        <v>3610</v>
       </c>
       <c r="B2547" s="1" t="s">
-        <v>6599</v>
+        <v>680</v>
+      </c>
+      <c r="C2547" s="1" t="s">
+        <v>3593</v>
       </c>
       <c r="D2547" s="1" t="s">
-        <v>9362</v>
+        <v>8268</v>
       </c>
       <c r="E2547" s="1" t="s">
-        <v>7206</v>
+        <v>681</v>
       </c>
       <c r="F2547" t="s">
-        <v>7207</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2548" spans="1:6">
       <c r="A2548" s="1" t="s">
-        <v>7228</v>
+        <v>2136</v>
       </c>
       <c r="B2548" s="1" t="s">
-        <v>6599</v>
+        <v>680</v>
+      </c>
+      <c r="C2548" s="1" t="s">
+        <v>2111</v>
       </c>
       <c r="D2548" s="1" t="s">
-        <v>9371</v>
+        <v>7840</v>
       </c>
       <c r="E2548" s="1" t="s">
-        <v>7229</v>
+        <v>2137</v>
       </c>
       <c r="F2548" t="s">
-        <v>7230</v>
-      </c>
-    </row>
-    <row r="2549" spans="1:6">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:6" ht="33">
       <c r="A2549" s="1" t="s">
-        <v>7225</v>
+        <v>1952</v>
       </c>
       <c r="B2549" s="1" t="s">
-        <v>6599</v>
-      </c>
-      <c r="D2549" s="1" t="s">
-        <v>9370</v>
-      </c>
-      <c r="E2549" s="1" t="s">
-        <v>7226</v>
-      </c>
-      <c r="F2549" t="s">
-        <v>7227</v>
+        <v>680</v>
+      </c>
+      <c r="C2549" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D2549" s="4" t="s">
+        <v>7782</v>
+      </c>
+      <c r="E2549" s="4" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F2549" s="3" t="s">
+        <v>1954</v>
       </c>
     </row>
     <row r="2550" spans="1:6">
       <c r="A2550" s="1" t="s">
-        <v>7199</v>
+        <v>3768</v>
       </c>
       <c r="B2550" s="1" t="s">
-        <v>6599</v>
+        <v>1949</v>
+      </c>
+      <c r="C2550" s="1" t="s">
+        <v>3746</v>
       </c>
       <c r="D2550" s="1" t="s">
-        <v>9360</v>
+        <v>8315</v>
       </c>
       <c r="E2550" s="1" t="s">
-        <v>7200</v>
-      </c>
-      <c r="F2550" t="s">
-        <v>7201</v>
-      </c>
-    </row>
-    <row r="2551" spans="1:6" ht="82.5">
+        <v>3769</v>
+      </c>
+      <c r="F2550" s="1" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:6">
       <c r="A2551" s="1" t="s">
-        <v>6602</v>
+        <v>7131</v>
       </c>
       <c r="B2551" s="1" t="s">
-        <v>6599</v>
-      </c>
-      <c r="C2551" s="1" t="s">
-        <v>2371</v>
-      </c>
-      <c r="D2551" s="4" t="s">
-        <v>8530</v>
-      </c>
-      <c r="E2551" s="4" t="s">
-        <v>6603</v>
-      </c>
-      <c r="F2551" s="3" t="s">
-        <v>6604</v>
-      </c>
-    </row>
-    <row r="2552" spans="1:6" ht="82.5">
+        <v>1949</v>
+      </c>
+      <c r="D2551" s="1" t="s">
+        <v>9339</v>
+      </c>
+      <c r="E2551" s="1" t="s">
+        <v>7132</v>
+      </c>
+      <c r="F2551" t="s">
+        <v>7133</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:6">
       <c r="A2552" s="1" t="s">
-        <v>6598</v>
+        <v>7134</v>
       </c>
       <c r="B2552" s="1" t="s">
-        <v>6599</v>
-      </c>
-      <c r="C2552" s="1" t="s">
-        <v>2371</v>
-      </c>
-      <c r="D2552" s="4" t="s">
-        <v>8529</v>
-      </c>
-      <c r="E2552" s="4" t="s">
-        <v>6600</v>
-      </c>
-      <c r="F2552" s="3" t="s">
-        <v>6601</v>
-      </c>
-    </row>
-    <row r="2553" spans="1:6">
+        <v>1949</v>
+      </c>
+      <c r="D2552" s="1" t="s">
+        <v>9340</v>
+      </c>
+      <c r="E2552" s="1" t="s">
+        <v>7135</v>
+      </c>
+      <c r="F2552" t="s">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:6" ht="49.5">
       <c r="A2553" s="1" t="s">
-        <v>7202</v>
+        <v>1948</v>
       </c>
       <c r="B2553" s="1" t="s">
-        <v>6599</v>
-      </c>
-      <c r="D2553" s="1" t="s">
-        <v>9361</v>
-      </c>
-      <c r="E2553" s="1" t="s">
-        <v>7203</v>
-      </c>
-      <c r="F2553" t="s">
-        <v>7204</v>
+        <v>1949</v>
+      </c>
+      <c r="C2553" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D2553" s="4" t="s">
+        <v>7781</v>
+      </c>
+      <c r="E2553" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F2553" s="3" t="s">
+        <v>1951</v>
       </c>
     </row>
     <row r="2554" spans="1:6">
       <c r="A2554" s="1" t="s">
-        <v>7196</v>
+        <v>7140</v>
       </c>
       <c r="B2554" s="1" t="s">
-        <v>6599</v>
+        <v>1949</v>
       </c>
       <c r="D2554" s="1" t="s">
-        <v>9359</v>
+        <v>9342</v>
       </c>
       <c r="E2554" s="1" t="s">
-        <v>7197</v>
+        <v>7135</v>
       </c>
       <c r="F2554" t="s">
-        <v>7198</v>
-      </c>
-    </row>
-    <row r="2555" spans="1:6">
+        <v>7141</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:6" ht="33">
       <c r="A2555" s="1" t="s">
-        <v>7220</v>
+        <v>7128</v>
       </c>
       <c r="B2555" s="1" t="s">
-        <v>6599</v>
-      </c>
-      <c r="D2555" s="1" t="s">
-        <v>9367</v>
-      </c>
-      <c r="E2555" s="1" t="s">
-        <v>9368</v>
-      </c>
-      <c r="F2555" t="s">
-        <v>7221</v>
-      </c>
-    </row>
-    <row r="2556" spans="1:6" ht="33">
+        <v>1949</v>
+      </c>
+      <c r="D2555" s="4" t="s">
+        <v>9489</v>
+      </c>
+      <c r="E2555" s="4" t="s">
+        <v>7129</v>
+      </c>
+      <c r="F2555" s="3" t="s">
+        <v>7130</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:6">
       <c r="A2556" s="1" t="s">
-        <v>5629</v>
+        <v>254</v>
       </c>
       <c r="B2556" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D2556" s="4" t="s">
-        <v>9478</v>
-      </c>
-      <c r="E2556" s="4" t="s">
-        <v>5630</v>
-      </c>
-      <c r="F2556" s="3" t="s">
-        <v>5631</v>
-      </c>
-    </row>
-    <row r="2557" spans="1:6" ht="33">
+        <v>255</v>
+      </c>
+      <c r="C2556" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2556" s="1" t="s">
+        <v>7287</v>
+      </c>
+      <c r="E2556" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2556" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:6">
       <c r="A2557" s="1" t="s">
-        <v>7237</v>
+        <v>7142</v>
       </c>
       <c r="B2557" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="D2557" s="4" t="s">
-        <v>9510</v>
-      </c>
-      <c r="E2557" s="4" t="s">
-        <v>7238</v>
-      </c>
-      <c r="F2557" s="3" t="s">
-        <v>7239</v>
+        <v>255</v>
+      </c>
+      <c r="D2557" s="1" t="s">
+        <v>9343</v>
+      </c>
+      <c r="E2557" s="1" t="s">
+        <v>7143</v>
+      </c>
+      <c r="F2557" t="s">
+        <v>7144</v>
       </c>
     </row>
     <row r="2558" spans="1:6">
       <c r="A2558" s="1" t="s">
-        <v>7234</v>
+        <v>7145</v>
       </c>
       <c r="B2558" s="1" t="s">
-        <v>1702</v>
+        <v>255</v>
       </c>
       <c r="D2558" s="1" t="s">
-        <v>9373</v>
+        <v>9344</v>
       </c>
       <c r="E2558" s="1" t="s">
-        <v>7235</v>
+        <v>7146</v>
       </c>
       <c r="F2558" t="s">
-        <v>7236</v>
+        <v>7147</v>
       </c>
     </row>
     <row r="2559" spans="1:6">
       <c r="A2559" s="1" t="s">
-        <v>1701</v>
+        <v>258</v>
       </c>
       <c r="B2559" s="1" t="s">
-        <v>1702</v>
+        <v>255</v>
       </c>
       <c r="C2559" s="1" t="s">
-        <v>709</v>
+        <v>217</v>
       </c>
       <c r="D2559" s="1" t="s">
-        <v>7708</v>
+        <v>7288</v>
       </c>
       <c r="E2559" s="1" t="s">
-        <v>1703</v>
+        <v>259</v>
       </c>
       <c r="F2559" t="s">
-        <v>1704</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2560" spans="1:6">
       <c r="A2560" s="1" t="s">
+        <v>7152</v>
+      </c>
+      <c r="B2560" s="1" t="s">
+        <v>7149</v>
+      </c>
+      <c r="D2560" s="1" t="s">
+        <v>9346</v>
+      </c>
+      <c r="E2560" s="1" t="s">
+        <v>7153</v>
+      </c>
+      <c r="F2560" t="s">
+        <v>7154</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:6">
+      <c r="A2561" s="1" t="s">
+        <v>7148</v>
+      </c>
+      <c r="B2561" s="1" t="s">
+        <v>7149</v>
+      </c>
+      <c r="D2561" s="1" t="s">
+        <v>9345</v>
+      </c>
+      <c r="E2561" s="1" t="s">
+        <v>7150</v>
+      </c>
+      <c r="F2561" t="s">
+        <v>7151</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:6">
+      <c r="A2562" s="1" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B2562" s="1" t="s">
+        <v>5130</v>
+      </c>
+      <c r="D2562" s="1" t="s">
+        <v>7302</v>
+      </c>
+      <c r="E2562" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F2562" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:6">
+      <c r="A2563" s="1" t="s">
+        <v>7155</v>
+      </c>
+      <c r="B2563" s="1" t="s">
+        <v>5130</v>
+      </c>
+      <c r="D2563" s="1" t="s">
+        <v>8939</v>
+      </c>
+      <c r="E2563" s="1" t="s">
+        <v>5235</v>
+      </c>
+      <c r="F2563" t="s">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:6">
+      <c r="A2564" s="1" t="s">
+        <v>7156</v>
+      </c>
+      <c r="B2564" s="1" t="s">
+        <v>5130</v>
+      </c>
+      <c r="D2564" s="1" t="s">
+        <v>9347</v>
+      </c>
+      <c r="E2564" s="1" t="s">
+        <v>7157</v>
+      </c>
+      <c r="F2564" t="s">
+        <v>7158</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:6">
+      <c r="A2565" s="1" t="s">
+        <v>7159</v>
+      </c>
+      <c r="B2565" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D2565" s="1" t="s">
+        <v>9348</v>
+      </c>
+      <c r="E2565" s="1" t="s">
+        <v>7160</v>
+      </c>
+      <c r="F2565" t="s">
+        <v>7161</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:6">
+      <c r="A2566" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="B2566" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D2566" s="1" t="s">
+        <v>7498</v>
+      </c>
+      <c r="E2566" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="F2566" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:6">
+      <c r="A2567" s="1" t="s">
+        <v>6354</v>
+      </c>
+      <c r="B2567" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D2567" s="1" t="s">
+        <v>7516</v>
+      </c>
+      <c r="E2567" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2567" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:6">
+      <c r="A2568" s="1" t="s">
+        <v>6355</v>
+      </c>
+      <c r="B2568" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D2568" s="1" t="s">
+        <v>8453</v>
+      </c>
+      <c r="E2568" s="1" t="s">
+        <v>6356</v>
+      </c>
+      <c r="F2568" t="s">
+        <v>6357</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:6">
+      <c r="A2569" s="1" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B2569" s="1" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C2569" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D2569" s="1" t="s">
+        <v>8191</v>
+      </c>
+      <c r="E2569" s="1" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F2569" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:6">
+      <c r="A2570" s="1" t="s">
+        <v>7171</v>
+      </c>
+      <c r="B2570" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2570" s="1" t="s">
+        <v>9352</v>
+      </c>
+      <c r="E2570" s="1" t="s">
+        <v>7172</v>
+      </c>
+      <c r="F2570" s="1" t="s">
+        <v>7173</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:6">
+      <c r="A2571" s="1" t="s">
+        <v>7177</v>
+      </c>
+      <c r="B2571" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2571" s="1" t="s">
+        <v>9354</v>
+      </c>
+      <c r="E2571" s="1" t="s">
+        <v>7178</v>
+      </c>
+      <c r="F2571" s="1" t="s">
+        <v>7179</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:6">
+      <c r="A2572" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2572" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2572" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2572" t="s">
+        <v>9458</v>
+      </c>
+      <c r="E2572" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2572" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:6">
+      <c r="A2573" s="1" t="s">
+        <v>7165</v>
+      </c>
+      <c r="B2573" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2573" s="1" t="s">
+        <v>9350</v>
+      </c>
+      <c r="E2573" s="1" t="s">
+        <v>7166</v>
+      </c>
+      <c r="F2573" t="s">
+        <v>7167</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:6">
+      <c r="A2574" s="1" t="s">
+        <v>3649</v>
+      </c>
+      <c r="B2574" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2574" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D2574" s="1" t="s">
+        <v>7505</v>
+      </c>
+      <c r="E2574" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F2574" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2575" spans="1:6">
+      <c r="A2575" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="B2575" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2575" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D2575" s="1" t="s">
+        <v>7505</v>
+      </c>
+      <c r="E2575" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F2575" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="2576" spans="1:6">
+      <c r="A2576" s="1" t="s">
+        <v>7162</v>
+      </c>
+      <c r="B2576" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2576" s="1" t="s">
+        <v>9349</v>
+      </c>
+      <c r="E2576" s="1" t="s">
+        <v>7163</v>
+      </c>
+      <c r="F2576" t="s">
+        <v>7164</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:6">
+      <c r="A2577" s="1" t="s">
+        <v>7174</v>
+      </c>
+      <c r="B2577" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2577" s="1" t="s">
+        <v>9353</v>
+      </c>
+      <c r="E2577" s="1" t="s">
+        <v>7175</v>
+      </c>
+      <c r="F2577" t="s">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:6">
+      <c r="A2578" s="1" t="s">
+        <v>7180</v>
+      </c>
+      <c r="B2578" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2578" s="1" t="s">
+        <v>9355</v>
+      </c>
+      <c r="E2578" s="1" t="s">
+        <v>7181</v>
+      </c>
+      <c r="F2578" t="s">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:6">
+      <c r="A2579" s="1" t="s">
+        <v>7168</v>
+      </c>
+      <c r="B2579" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2579" s="1" t="s">
+        <v>9351</v>
+      </c>
+      <c r="E2579" s="1" t="s">
+        <v>7169</v>
+      </c>
+      <c r="F2579" t="s">
+        <v>7170</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:6">
+      <c r="A2580" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B2580" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2580" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2580" s="1" t="s">
+        <v>7694</v>
+      </c>
+      <c r="E2580" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F2580" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:6">
+      <c r="A2581" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B2581" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2581" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2581" s="1" t="s">
+        <v>7575</v>
+      </c>
+      <c r="E2581" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F2581" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:6">
+      <c r="A2582" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2582" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2582" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2582" s="1" t="s">
+        <v>7348</v>
+      </c>
+      <c r="E2582" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2582" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:6">
+      <c r="A2583" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B2583" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2583" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2583" s="1" t="s">
+        <v>7667</v>
+      </c>
+      <c r="E2583" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F2583" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:6">
+      <c r="A2584" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B2584" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2584" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2584" s="1" t="s">
+        <v>7616</v>
+      </c>
+      <c r="E2584" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F2584" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:6" ht="33">
+      <c r="A2585" s="1" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B2585" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C2585" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D2585" s="4" t="s">
+        <v>9515</v>
+      </c>
+      <c r="E2585" s="4" t="s">
+        <v>5071</v>
+      </c>
+      <c r="F2585" s="3" t="s">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:6">
+      <c r="A2586" s="1" t="s">
+        <v>6641</v>
+      </c>
+      <c r="B2586" s="1" t="s">
+        <v>6642</v>
+      </c>
+      <c r="C2586" s="1" t="s">
+        <v>6640</v>
+      </c>
+      <c r="D2586" s="1" t="s">
+        <v>9451</v>
+      </c>
+      <c r="E2586" s="1" t="s">
+        <v>9195</v>
+      </c>
+      <c r="F2586" s="1" t="s">
+        <v>9196</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:6">
+      <c r="A2587" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2587" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2587" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2587" s="1" t="s">
+        <v>7342</v>
+      </c>
+      <c r="E2587" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2587" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:6">
+      <c r="A2588" s="1" t="s">
+        <v>3362</v>
+      </c>
+      <c r="B2588" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2588" s="1" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D2588" s="1" t="s">
+        <v>8196</v>
+      </c>
+      <c r="E2588" s="1" t="s">
+        <v>3363</v>
+      </c>
+      <c r="F2588" t="s">
+        <v>3364</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:6" ht="49.5">
+      <c r="A2589" s="1" t="s">
+        <v>7065</v>
+      </c>
+      <c r="B2589" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2589" s="4" t="s">
+        <v>9321</v>
+      </c>
+      <c r="E2589" s="4" t="s">
+        <v>7066</v>
+      </c>
+      <c r="F2589" s="3" t="s">
+        <v>7067</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:6" ht="33">
+      <c r="A2590" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2590" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2590" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="D2590" s="4" t="s">
+        <v>7828</v>
+      </c>
+      <c r="E2590" s="4" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F2590" s="3" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:6">
+      <c r="A2591" s="1" t="s">
+        <v>6863</v>
+      </c>
+      <c r="B2591" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2591" s="1" t="s">
+        <v>9258</v>
+      </c>
+      <c r="E2591" s="1" t="s">
+        <v>6864</v>
+      </c>
+      <c r="F2591" t="s">
+        <v>6865</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:6">
+      <c r="A2592" s="1" t="s">
+        <v>6612</v>
+      </c>
+      <c r="B2592" s="1" t="s">
+        <v>6609</v>
+      </c>
+      <c r="D2592" s="1" t="s">
+        <v>9459</v>
+      </c>
+      <c r="E2592" s="1" t="s">
+        <v>6613</v>
+      </c>
+      <c r="F2592" s="1" t="s">
+        <v>6614</v>
+      </c>
+    </row>
+    <row r="2593" spans="1:6">
+      <c r="A2593" s="1" t="s">
+        <v>6608</v>
+      </c>
+      <c r="B2593" s="1" t="s">
+        <v>6609</v>
+      </c>
+      <c r="D2593" s="1" t="s">
+        <v>8532</v>
+      </c>
+      <c r="E2593" s="1" t="s">
+        <v>6610</v>
+      </c>
+      <c r="F2593" s="1" t="s">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="2594" spans="1:6">
+      <c r="A2594" s="1" t="s">
+        <v>7183</v>
+      </c>
+      <c r="B2594" s="1" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D2594" s="1" t="s">
+        <v>8540</v>
+      </c>
+      <c r="E2594" s="1" t="s">
+        <v>7184</v>
+      </c>
+      <c r="F2594" s="1" t="s">
+        <v>7185</v>
+      </c>
+    </row>
+    <row r="2595" spans="1:6">
+      <c r="A2595" s="1" t="s">
+        <v>5873</v>
+      </c>
+      <c r="B2595" s="1" t="s">
+        <v>5874</v>
+      </c>
+      <c r="D2595" s="1" t="s">
+        <v>9134</v>
+      </c>
+      <c r="E2595" s="1" t="s">
+        <v>5875</v>
+      </c>
+      <c r="F2595" s="1" t="s">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="2596" spans="1:6">
+      <c r="A2596" s="1" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B2596" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="D2596" s="1" t="s">
+        <v>8644</v>
+      </c>
+      <c r="E2596" s="1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="F2596" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="2597" spans="1:6">
+      <c r="A2597" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2597" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2597" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2597" s="1" t="s">
+        <v>7374</v>
+      </c>
+      <c r="E2597" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F2597" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2598" spans="1:6">
+      <c r="A2598" s="1" t="s">
+        <v>6621</v>
+      </c>
+      <c r="B2598" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D2598" s="1" t="s">
+        <v>6622</v>
+      </c>
+      <c r="E2598" s="1" t="s">
+        <v>6622</v>
+      </c>
+      <c r="F2598" t="s">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="2599" spans="1:6">
+      <c r="A2599" s="1" t="s">
+        <v>3598</v>
+      </c>
+      <c r="B2599" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2599" s="1" t="s">
+        <v>3593</v>
+      </c>
+      <c r="D2599" s="1" t="s">
+        <v>8265</v>
+      </c>
+      <c r="E2599" s="1" t="s">
+        <v>3599</v>
+      </c>
+      <c r="F2599" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="2600" spans="1:6">
+      <c r="A2600" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2600" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2600" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2600" s="1" t="s">
+        <v>7367</v>
+      </c>
+      <c r="E2600" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F2600" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2601" spans="1:6">
+      <c r="A2601" s="1" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B2601" s="1" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C2601" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D2601" s="1" t="s">
+        <v>8752</v>
+      </c>
+      <c r="E2601" s="1" t="s">
+        <v>4606</v>
+      </c>
+      <c r="F2601" t="s">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="2602" spans="1:6">
+      <c r="A2602" s="1" t="s">
+        <v>7186</v>
+      </c>
+      <c r="B2602" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2602" s="1" t="s">
+        <v>9356</v>
+      </c>
+      <c r="E2602" s="1" t="s">
+        <v>7187</v>
+      </c>
+      <c r="F2602" t="s">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="2603" spans="1:6">
+      <c r="A2603" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2603" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2603" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2603" s="1" t="s">
+        <v>7341</v>
+      </c>
+      <c r="E2603" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2603" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2604" spans="1:6">
+      <c r="A2604" s="1" t="s">
+        <v>3583</v>
+      </c>
+      <c r="B2604" s="1" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C2604" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D2604" s="1" t="s">
+        <v>8261</v>
+      </c>
+      <c r="E2604" s="1" t="s">
+        <v>3585</v>
+      </c>
+      <c r="F2604" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="2605" spans="1:6">
+      <c r="A2605" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B2605" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C2605" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D2605" s="1" t="s">
+        <v>8154</v>
+      </c>
+      <c r="E2605" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="F2605" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="2606" spans="1:6">
+      <c r="A2606" s="1" t="s">
+        <v>5985</v>
+      </c>
+      <c r="B2606" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="D2606" s="1" t="s">
+        <v>9166</v>
+      </c>
+      <c r="E2606" s="1" t="s">
+        <v>5986</v>
+      </c>
+      <c r="F2606" t="s">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="2607" spans="1:6">
+      <c r="A2607" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B2607" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C2607" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2607" s="1" t="s">
+        <v>7611</v>
+      </c>
+      <c r="E2607" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F2607" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="2608" spans="1:6" ht="33">
+      <c r="A2608" s="1" t="s">
+        <v>7189</v>
+      </c>
+      <c r="B2608" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="D2608" s="4" t="s">
+        <v>9357</v>
+      </c>
+      <c r="E2608" s="4" t="s">
+        <v>7190</v>
+      </c>
+      <c r="F2608" s="3" t="s">
+        <v>7191</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:6">
+      <c r="A2609" s="1" t="s">
+        <v>6719</v>
+      </c>
+      <c r="B2609" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D2609" t="s">
+        <v>9216</v>
+      </c>
+      <c r="E2609" t="s">
+        <v>6720</v>
+      </c>
+      <c r="F2609" t="s">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:6">
+      <c r="A2610" s="1" t="s">
+        <v>6011</v>
+      </c>
+      <c r="B2610" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D2610" s="1" t="s">
+        <v>9174</v>
+      </c>
+      <c r="E2610" s="1" t="s">
+        <v>6012</v>
+      </c>
+      <c r="F2610" t="s">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:6">
+      <c r="A2611" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B2611" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C2611" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D2611" s="1" t="s">
+        <v>8062</v>
+      </c>
+      <c r="E2611" s="1" t="s">
+        <v>2912</v>
+      </c>
+      <c r="F2611" t="s">
+        <v>2913</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:6">
+      <c r="A2612" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B2612" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D2612" s="1" t="s">
+        <v>7591</v>
+      </c>
+      <c r="E2612" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F2612" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:6">
+      <c r="A2613" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B2613" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C2613" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D2613" s="1" t="s">
+        <v>8120</v>
+      </c>
+      <c r="E2613" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="F2613" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:6">
+      <c r="A2614" s="1" t="s">
+        <v>7053</v>
+      </c>
+      <c r="B2614" s="1" t="s">
+        <v>7054</v>
+      </c>
+      <c r="C2614" s="1" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D2614" s="1" t="s">
+        <v>9318</v>
+      </c>
+      <c r="E2614" s="1" t="s">
+        <v>7055</v>
+      </c>
+      <c r="F2614" s="1" t="s">
+        <v>7056</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A2615" s="1" t="s">
+        <v>5597</v>
+      </c>
+      <c r="B2615" s="1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D2615" s="1" t="s">
+        <v>9042</v>
+      </c>
+      <c r="E2615" s="1" t="s">
+        <v>5599</v>
+      </c>
+      <c r="F2615" s="1" t="s">
+        <v>5598</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A2616" s="1" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B2616" s="1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D2616" s="1" t="s">
+        <v>8682</v>
+      </c>
+      <c r="E2616" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="F2616" t="s">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A2617" s="1" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B2617" s="1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D2617" s="1" t="s">
+        <v>8681</v>
+      </c>
+      <c r="E2617" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="F2617" t="s">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A2618" s="1" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B2618" s="1" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C2618" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="D2618" s="1" t="s">
+        <v>8680</v>
+      </c>
+      <c r="E2618" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="F2618" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:6" ht="33">
+      <c r="A2619" s="1" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B2619" s="1" t="s">
+        <v>5324</v>
+      </c>
+      <c r="D2619" s="4" t="s">
+        <v>8967</v>
+      </c>
+      <c r="E2619" s="4" t="s">
+        <v>5325</v>
+      </c>
+      <c r="F2619" s="3" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:6">
+      <c r="A2620" s="1" t="s">
+        <v>7193</v>
+      </c>
+      <c r="B2620" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D2620" s="1" t="s">
+        <v>9358</v>
+      </c>
+      <c r="E2620" s="1" t="s">
+        <v>7194</v>
+      </c>
+      <c r="F2620" t="s">
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:6">
+      <c r="A2621" s="1" t="s">
+        <v>7192</v>
+      </c>
+      <c r="B2621" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D2621" s="1" t="s">
+        <v>7769</v>
+      </c>
+      <c r="E2621" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F2621" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:6">
+      <c r="A2622" s="1" t="s">
+        <v>7214</v>
+      </c>
+      <c r="B2622" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D2622" s="1" t="s">
+        <v>9365</v>
+      </c>
+      <c r="E2622" s="1" t="s">
+        <v>7215</v>
+      </c>
+      <c r="F2622" t="s">
+        <v>7216</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:6">
+      <c r="A2623" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B2623" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C2623" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2623" s="1" t="s">
+        <v>7600</v>
+      </c>
+      <c r="E2623" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F2623" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:6">
+      <c r="A2624" s="1" t="s">
+        <v>7208</v>
+      </c>
+      <c r="B2624" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2624" s="1" t="s">
+        <v>9363</v>
+      </c>
+      <c r="E2624" s="1" t="s">
+        <v>7209</v>
+      </c>
+      <c r="F2624" s="1" t="s">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:6">
+      <c r="A2625" s="1" t="s">
+        <v>7217</v>
+      </c>
+      <c r="B2625" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2625" s="1" t="s">
+        <v>9366</v>
+      </c>
+      <c r="E2625" s="1" t="s">
+        <v>7218</v>
+      </c>
+      <c r="F2625" t="s">
+        <v>7219</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:6">
+      <c r="A2626" s="1" t="s">
+        <v>7222</v>
+      </c>
+      <c r="B2626" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2626" s="1" t="s">
+        <v>9369</v>
+      </c>
+      <c r="E2626" s="1" t="s">
+        <v>7223</v>
+      </c>
+      <c r="F2626" t="s">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:6" ht="53.25">
+      <c r="A2627" s="1" t="s">
+        <v>6605</v>
+      </c>
+      <c r="B2627" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="C2627" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D2627" s="4" t="s">
+        <v>8531</v>
+      </c>
+      <c r="E2627" s="4" t="s">
+        <v>6606</v>
+      </c>
+      <c r="F2627" s="3" t="s">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:6">
+      <c r="A2628" s="1" t="s">
+        <v>7211</v>
+      </c>
+      <c r="B2628" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2628" s="1" t="s">
+        <v>9364</v>
+      </c>
+      <c r="E2628" s="1" t="s">
+        <v>7212</v>
+      </c>
+      <c r="F2628" t="s">
+        <v>7213</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:6">
+      <c r="A2629" s="1" t="s">
+        <v>7205</v>
+      </c>
+      <c r="B2629" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2629" s="1" t="s">
+        <v>9362</v>
+      </c>
+      <c r="E2629" s="1" t="s">
+        <v>7206</v>
+      </c>
+      <c r="F2629" t="s">
+        <v>7207</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:6">
+      <c r="A2630" s="1" t="s">
+        <v>7228</v>
+      </c>
+      <c r="B2630" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2630" s="1" t="s">
+        <v>9371</v>
+      </c>
+      <c r="E2630" s="1" t="s">
+        <v>7229</v>
+      </c>
+      <c r="F2630" t="s">
+        <v>7230</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:6">
+      <c r="A2631" s="1" t="s">
+        <v>7225</v>
+      </c>
+      <c r="B2631" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2631" s="1" t="s">
+        <v>9370</v>
+      </c>
+      <c r="E2631" s="1" t="s">
+        <v>7226</v>
+      </c>
+      <c r="F2631" t="s">
+        <v>7227</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:6">
+      <c r="A2632" s="1" t="s">
+        <v>7199</v>
+      </c>
+      <c r="B2632" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2632" s="1" t="s">
+        <v>9360</v>
+      </c>
+      <c r="E2632" s="1" t="s">
+        <v>7200</v>
+      </c>
+      <c r="F2632" t="s">
+        <v>7201</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:6" ht="82.5">
+      <c r="A2633" s="1" t="s">
+        <v>6602</v>
+      </c>
+      <c r="B2633" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="C2633" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D2633" s="4" t="s">
+        <v>8530</v>
+      </c>
+      <c r="E2633" s="4" t="s">
+        <v>6603</v>
+      </c>
+      <c r="F2633" s="3" t="s">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:6" ht="82.5">
+      <c r="A2634" s="1" t="s">
+        <v>6598</v>
+      </c>
+      <c r="B2634" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="C2634" s="1" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D2634" s="4" t="s">
+        <v>8529</v>
+      </c>
+      <c r="E2634" s="4" t="s">
+        <v>6600</v>
+      </c>
+      <c r="F2634" s="3" t="s">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:6">
+      <c r="A2635" s="1" t="s">
+        <v>7202</v>
+      </c>
+      <c r="B2635" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2635" s="1" t="s">
+        <v>9361</v>
+      </c>
+      <c r="E2635" s="1" t="s">
+        <v>7203</v>
+      </c>
+      <c r="F2635" t="s">
+        <v>7204</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:6">
+      <c r="A2636" s="1" t="s">
+        <v>7196</v>
+      </c>
+      <c r="B2636" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2636" s="1" t="s">
+        <v>9359</v>
+      </c>
+      <c r="E2636" s="1" t="s">
+        <v>7197</v>
+      </c>
+      <c r="F2636" t="s">
+        <v>7198</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:6">
+      <c r="A2637" s="1" t="s">
+        <v>7220</v>
+      </c>
+      <c r="B2637" s="1" t="s">
+        <v>6599</v>
+      </c>
+      <c r="D2637" s="1" t="s">
+        <v>9367</v>
+      </c>
+      <c r="E2637" s="1" t="s">
+        <v>9368</v>
+      </c>
+      <c r="F2637" t="s">
+        <v>7221</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:6" ht="33">
+      <c r="A2638" s="1" t="s">
+        <v>5629</v>
+      </c>
+      <c r="B2638" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D2638" s="4" t="s">
+        <v>9478</v>
+      </c>
+      <c r="E2638" s="4" t="s">
+        <v>5630</v>
+      </c>
+      <c r="F2638" s="3" t="s">
+        <v>5631</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:6" ht="33">
+      <c r="A2639" s="1" t="s">
+        <v>7237</v>
+      </c>
+      <c r="B2639" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D2639" s="4" t="s">
+        <v>9510</v>
+      </c>
+      <c r="E2639" s="4" t="s">
+        <v>7238</v>
+      </c>
+      <c r="F2639" s="3" t="s">
+        <v>7239</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:6">
+      <c r="A2640" s="1" t="s">
+        <v>7234</v>
+      </c>
+      <c r="B2640" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D2640" s="1" t="s">
+        <v>9373</v>
+      </c>
+      <c r="E2640" s="1" t="s">
+        <v>7235</v>
+      </c>
+      <c r="F2640" t="s">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:6">
+      <c r="A2641" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B2641" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C2641" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2641" s="1" t="s">
+        <v>7708</v>
+      </c>
+      <c r="E2641" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="F2641" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:6">
+      <c r="A2642" s="1" t="s">
         <v>7231</v>
       </c>
-      <c r="B2560" s="1" t="s">
+      <c r="B2642" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="D2560" s="1" t="s">
+      <c r="D2642" s="1" t="s">
         <v>9372</v>
       </c>
-      <c r="E2560" s="1" t="s">
+      <c r="E2642" s="1" t="s">
         <v>7232</v>
       </c>
-      <c r="F2560" t="s">
+      <c r="F2642" t="s">
         <v>7233</v>
       </c>
     </row>
-    <row r="2561" spans="1:6" ht="33">
-      <c r="A2561" s="1" t="s">
+    <row r="2643" spans="1:6" ht="33">
+      <c r="A2643" s="1" t="s">
         <v>5626</v>
       </c>
-      <c r="B2561" s="1" t="s">
+      <c r="B2643" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="D2561" s="4" t="s">
+      <c r="D2643" s="4" t="s">
         <v>9051</v>
       </c>
-      <c r="E2561" s="4" t="s">
+      <c r="E2643" s="4" t="s">
         <v>5627</v>
       </c>
-      <c r="F2561" s="3" t="s">
+      <c r="F2643" s="3" t="s">
         <v>5628</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:F2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F2561">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F2643">
       <sortCondition ref="B2"/>
     </sortState>
   </autoFilter>

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F030BCCB-1BCB-4500-98F4-F038932245B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A233B-0191-4520-A6CC-EBDB6754F7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46068,12 +46068,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -46083,11 +46078,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -46215,8 +46205,8 @@
   <dimension ref="A1:F2639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A432" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D428" sqref="D428"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -96553,7 +96543,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6A233B-0191-4520-A6CC-EBDB6754F7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A738EA9B-C97D-4E18-8099-710E50EC1E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46205,7 +46205,7 @@
   <dimension ref="A1:F2639"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A2615" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC31CB1D-1281-4988-91D8-00F129CB6157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187FA553-26EE-4949-A53B-6652C7924D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="0" windowWidth="10320" windowHeight="13500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20880" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -44727,9 +44727,6 @@
     <t>#1 #2x #3 (Acerto: #4%, Penetração: #5%)</t>
   </si>
   <si>
-    <t>#1 flecha(s)</t>
-  </si>
-  <si>
     <t>Ultravisão, Poção</t>
   </si>
   <si>
@@ -46134,6 +46131,9 @@
   </si>
   <si>
     <t>Maldição</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flecha(s) de #1</t>
   </si>
 </sst>
 </file>
@@ -46200,43 +46200,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -46373,8 +46337,8 @@
   <dimension ref="A1:F2653"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A2629" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2644" sqref="D2644:D2652"/>
+      <pane ySplit="2" topLeftCell="A1269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1283" sqref="D1283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -46678,22 +46642,22 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>9653</v>
+        <v>9652</v>
       </c>
       <c r="B18" t="s">
-        <v>9650</v>
+        <v>9649</v>
       </c>
       <c r="C18" t="s">
         <v>2956</v>
       </c>
       <c r="D18" t="s">
-        <v>9836</v>
+        <v>9835</v>
       </c>
       <c r="E18" t="s">
-        <v>9654</v>
+        <v>9653</v>
       </c>
       <c r="F18" t="s">
-        <v>9654</v>
+        <v>9653</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -46800,19 +46764,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>9691</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9673</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9844</v>
+      </c>
+      <c r="E25" t="s">
         <v>9692</v>
       </c>
-      <c r="B25" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9845</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>9693</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9694</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -46974,7 +46938,7 @@
         <v>8550</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>9886</v>
+        <v>9885</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8554</v>
@@ -47019,19 +46983,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>9688</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9673</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9843</v>
+      </c>
+      <c r="E37" t="s">
         <v>9689</v>
       </c>
-      <c r="B37" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9844</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>9690</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9691</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -47945,22 +47909,22 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>9730</v>
+      </c>
+      <c r="B86" t="s">
         <v>9731</v>
-      </c>
-      <c r="B86" t="s">
-        <v>9732</v>
       </c>
       <c r="C86" t="s">
         <v>6059</v>
       </c>
       <c r="D86" t="s">
-        <v>9855</v>
+        <v>9854</v>
       </c>
       <c r="E86" t="s">
         <v>6075</v>
       </c>
       <c r="F86" t="s">
-        <v>9733</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -47994,7 +47958,7 @@
         <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>9537</v>
+        <v>9536</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>103</v>
@@ -48259,22 +48223,22 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
+        <v>9744</v>
+      </c>
+      <c r="B102" t="s">
         <v>9745</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9746</v>
       </c>
       <c r="C102" t="s">
         <v>6059</v>
       </c>
       <c r="D102" t="s">
-        <v>9857</v>
+        <v>9856</v>
       </c>
       <c r="E102" t="s">
+        <v>9746</v>
+      </c>
+      <c r="F102" t="s">
         <v>9747</v>
-      </c>
-      <c r="F102" t="s">
-        <v>9748</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -48365,7 +48329,7 @@
         <v>6059</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>9480</v>
+        <v>9929</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>6069</v>
@@ -48858,22 +48822,22 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
+        <v>9648</v>
+      </c>
+      <c r="B133" t="s">
         <v>9649</v>
-      </c>
-      <c r="B133" t="s">
-        <v>9650</v>
       </c>
       <c r="C133" t="s">
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>9835</v>
+        <v>9834</v>
       </c>
       <c r="E133" t="s">
+        <v>9650</v>
+      </c>
+      <c r="F133" t="s">
         <v>9651</v>
-      </c>
-      <c r="F133" t="s">
-        <v>9652</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -49423,7 +49387,7 @@
         <v>5461</v>
       </c>
       <c r="B162" t="s">
-        <v>9806</v>
+        <v>9805</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
@@ -49879,22 +49843,22 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
+        <v>9782</v>
+      </c>
+      <c r="B186" t="s">
         <v>9783</v>
-      </c>
-      <c r="B186" t="s">
-        <v>9784</v>
       </c>
       <c r="C186" t="s">
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>9863</v>
+        <v>9862</v>
       </c>
       <c r="E186" t="s">
+        <v>9784</v>
+      </c>
+      <c r="F186" t="s">
         <v>9785</v>
-      </c>
-      <c r="F186" t="s">
-        <v>9786</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -51197,19 +51161,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
+        <v>9707</v>
+      </c>
+      <c r="B257" t="s">
         <v>9708</v>
       </c>
-      <c r="B257" t="s">
+      <c r="D257" t="s">
+        <v>9847</v>
+      </c>
+      <c r="E257" t="s">
         <v>9709</v>
       </c>
-      <c r="D257" t="s">
-        <v>9848</v>
-      </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>9710</v>
-      </c>
-      <c r="F257" t="s">
-        <v>9711</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -51234,19 +51198,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
+        <v>9711</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9708</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9848</v>
+      </c>
+      <c r="E259" t="s">
         <v>9712</v>
       </c>
-      <c r="B259" t="s">
-        <v>9709</v>
-      </c>
-      <c r="D259" t="s">
-        <v>9849</v>
-      </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>9713</v>
-      </c>
-      <c r="F259" t="s">
-        <v>9714</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -51382,42 +51346,42 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
+        <v>9702</v>
+      </c>
+      <c r="B267" t="s">
         <v>9703</v>
-      </c>
-      <c r="B267" t="s">
-        <v>9704</v>
       </c>
       <c r="C267" t="s">
         <v>8</v>
       </c>
       <c r="D267" t="s">
-        <v>9873</v>
+        <v>9872</v>
       </c>
       <c r="E267" t="s">
-        <v>9705</v>
+        <v>9704</v>
       </c>
       <c r="F267" t="s">
-        <v>9705</v>
+        <v>9704</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>9706</v>
+        <v>9705</v>
       </c>
       <c r="B268" t="s">
-        <v>9704</v>
+        <v>9703</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
       </c>
       <c r="D268" t="s">
-        <v>9873</v>
+        <v>9872</v>
       </c>
       <c r="E268" t="s">
-        <v>9707</v>
+        <v>9706</v>
       </c>
       <c r="F268" t="s">
-        <v>9707</v>
+        <v>9706</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -51927,7 +51891,7 @@
         <v>390</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>9539</v>
+        <v>9538</v>
       </c>
       <c r="E295" s="1" t="s">
         <v>7014</v>
@@ -52012,36 +51976,36 @@
     </row>
     <row r="300" spans="1:6" ht="82.5">
       <c r="A300" t="s">
+        <v>9612</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9609</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>9873</v>
+      </c>
+      <c r="E300" t="s">
         <v>9613</v>
       </c>
-      <c r="B300" t="s">
-        <v>9610</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>9874</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="F300" t="s">
         <v>9614</v>
-      </c>
-      <c r="F300" t="s">
-        <v>9615</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
+        <v>9615</v>
+      </c>
+      <c r="B301" t="s">
+        <v>9609</v>
+      </c>
+      <c r="D301" t="s">
+        <v>9825</v>
+      </c>
+      <c r="E301" t="s">
         <v>9616</v>
       </c>
-      <c r="B301" t="s">
-        <v>9610</v>
-      </c>
-      <c r="D301" t="s">
-        <v>9826</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="F301" t="s">
         <v>9617</v>
-      </c>
-      <c r="F301" t="s">
-        <v>9618</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -52180,70 +52144,70 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
+        <v>9752</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9749</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9879</v>
+      </c>
+      <c r="E309" t="s">
         <v>9753</v>
       </c>
-      <c r="B309" t="s">
-        <v>9750</v>
-      </c>
-      <c r="D309" t="s">
-        <v>9880</v>
-      </c>
-      <c r="E309" t="s">
+      <c r="F309" t="s">
         <v>9754</v>
-      </c>
-      <c r="F309" t="s">
-        <v>9755</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
+        <v>9758</v>
+      </c>
+      <c r="B310" t="s">
+        <v>9749</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9881</v>
+      </c>
+      <c r="E310" t="s">
         <v>9759</v>
       </c>
-      <c r="B310" t="s">
-        <v>9750</v>
-      </c>
-      <c r="D310" t="s">
-        <v>9882</v>
-      </c>
-      <c r="E310" t="s">
+      <c r="F310" t="s">
         <v>9760</v>
-      </c>
-      <c r="F310" t="s">
-        <v>9761</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
+        <v>9748</v>
+      </c>
+      <c r="B311" t="s">
         <v>9749</v>
       </c>
-      <c r="B311" t="s">
+      <c r="D311" t="s">
+        <v>9878</v>
+      </c>
+      <c r="E311" t="s">
         <v>9750</v>
       </c>
-      <c r="D311" t="s">
-        <v>9879</v>
-      </c>
-      <c r="E311" t="s">
+      <c r="F311" t="s">
         <v>9751</v>
-      </c>
-      <c r="F311" t="s">
-        <v>9752</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
+        <v>9755</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9749</v>
+      </c>
+      <c r="D312" t="s">
+        <v>9880</v>
+      </c>
+      <c r="E312" t="s">
         <v>9756</v>
       </c>
-      <c r="B312" t="s">
-        <v>9750</v>
-      </c>
-      <c r="D312" t="s">
-        <v>9881</v>
-      </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
         <v>9757</v>
-      </c>
-      <c r="F312" t="s">
-        <v>9758</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -52625,22 +52589,22 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
+        <v>9663</v>
+      </c>
+      <c r="B335" t="s">
         <v>9664</v>
-      </c>
-      <c r="B335" t="s">
-        <v>9665</v>
       </c>
       <c r="C335" t="s">
         <v>8</v>
       </c>
       <c r="D335" t="s">
-        <v>9666</v>
+        <v>9665</v>
       </c>
       <c r="E335" t="s">
-        <v>9666</v>
+        <v>9665</v>
       </c>
       <c r="F335" t="s">
-        <v>9666</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -52711,7 +52675,7 @@
         <v>709</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>9495</v>
+        <v>9494</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>1259</v>
@@ -52731,7 +52695,7 @@
         <v>709</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>9496</v>
+        <v>9495</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>1262</v>
@@ -52751,7 +52715,7 @@
         <v>709</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>9497</v>
+        <v>9496</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>1265</v>
@@ -52771,7 +52735,7 @@
         <v>709</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>9498</v>
+        <v>9497</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>1268</v>
@@ -52791,7 +52755,7 @@
         <v>709</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>9499</v>
+        <v>9498</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>1271</v>
@@ -52822,19 +52786,19 @@
     </row>
     <row r="345" spans="1:6" ht="33">
       <c r="A345" t="s">
+        <v>9685</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9673</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>9871</v>
+      </c>
+      <c r="E345" t="s">
         <v>9686</v>
       </c>
-      <c r="B345" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>9872</v>
-      </c>
-      <c r="E345" t="s">
+      <c r="F345" t="s">
         <v>9687</v>
-      </c>
-      <c r="F345" t="s">
-        <v>9688</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -53490,22 +53454,22 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
+        <v>9622</v>
+      </c>
+      <c r="B379" t="s">
         <v>9623</v>
-      </c>
-      <c r="B379" t="s">
-        <v>9624</v>
       </c>
       <c r="C379" t="s">
         <v>709</v>
       </c>
       <c r="D379" t="s">
-        <v>9828</v>
+        <v>9827</v>
       </c>
       <c r="E379" t="s">
+        <v>9624</v>
+      </c>
+      <c r="F379" t="s">
         <v>9625</v>
-      </c>
-      <c r="F379" t="s">
-        <v>9626</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="33">
@@ -53932,19 +53896,19 @@
     </row>
     <row r="402" spans="1:6">
       <c r="A402" t="s">
+        <v>9634</v>
+      </c>
+      <c r="B402" t="s">
+        <v>9631</v>
+      </c>
+      <c r="D402" t="s">
+        <v>9830</v>
+      </c>
+      <c r="E402" t="s">
         <v>9635</v>
       </c>
-      <c r="B402" t="s">
-        <v>9632</v>
-      </c>
-      <c r="D402" t="s">
-        <v>9831</v>
-      </c>
-      <c r="E402" t="s">
+      <c r="F402" t="s">
         <v>9636</v>
-      </c>
-      <c r="F402" t="s">
-        <v>9637</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -54080,22 +54044,22 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
+        <v>9772</v>
+      </c>
+      <c r="B410" t="s">
         <v>9773</v>
-      </c>
-      <c r="B410" t="s">
-        <v>9774</v>
       </c>
       <c r="C410" t="s">
         <v>217</v>
       </c>
       <c r="D410" t="s">
-        <v>9861</v>
+        <v>9860</v>
       </c>
       <c r="E410" t="s">
+        <v>9774</v>
+      </c>
+      <c r="F410" t="s">
         <v>9775</v>
-      </c>
-      <c r="F410" t="s">
-        <v>9776</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -54978,16 +54942,16 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
+        <v>9714</v>
+      </c>
+      <c r="B457" t="s">
         <v>9715</v>
-      </c>
-      <c r="B457" t="s">
-        <v>9716</v>
       </c>
       <c r="C457" t="s">
         <v>2502</v>
       </c>
       <c r="D457" t="s">
-        <v>9850</v>
+        <v>9849</v>
       </c>
       <c r="E457" t="s">
         <v>2927</v>
@@ -55129,16 +55093,16 @@
         <v>5898</v>
       </c>
       <c r="B465" t="s">
-        <v>9641</v>
+        <v>9640</v>
       </c>
       <c r="D465" t="s">
-        <v>9834</v>
+        <v>9833</v>
       </c>
       <c r="E465" t="s">
+        <v>9646</v>
+      </c>
+      <c r="F465" t="s">
         <v>9647</v>
-      </c>
-      <c r="F465" t="s">
-        <v>9648</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -55622,19 +55586,19 @@
         <v>2097</v>
       </c>
       <c r="B491" t="s">
-        <v>9915</v>
+        <v>9914</v>
       </c>
       <c r="C491" t="s">
         <v>1945</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>9921</v>
+        <v>9920</v>
       </c>
       <c r="E491" t="s">
+        <v>9915</v>
+      </c>
+      <c r="F491" t="s">
         <v>9916</v>
-      </c>
-      <c r="F491" t="s">
-        <v>9917</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -55747,22 +55711,22 @@
     </row>
     <row r="498" spans="1:6" ht="33">
       <c r="A498" t="s">
-        <v>9677</v>
+        <v>9676</v>
       </c>
       <c r="B498" t="s">
-        <v>9674</v>
+        <v>9673</v>
       </c>
       <c r="C498" t="s">
         <v>709</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>9875</v>
+        <v>9874</v>
       </c>
       <c r="E498" t="s">
+        <v>9677</v>
+      </c>
+      <c r="F498" t="s">
         <v>9678</v>
-      </c>
-      <c r="F498" t="s">
-        <v>9679</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -56035,7 +55999,7 @@
         <v>2956</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>9540</v>
+        <v>9539</v>
       </c>
       <c r="E513" s="1" t="s">
         <v>3217</v>
@@ -56080,22 +56044,22 @@
     </row>
     <row r="516" spans="1:6">
       <c r="A516" t="s">
+        <v>9768</v>
+      </c>
+      <c r="B516" t="s">
         <v>9769</v>
-      </c>
-      <c r="B516" t="s">
-        <v>9770</v>
       </c>
       <c r="C516" t="s">
         <v>2111</v>
       </c>
       <c r="D516" t="s">
-        <v>9860</v>
+        <v>9859</v>
       </c>
       <c r="E516" t="s">
+        <v>9770</v>
+      </c>
+      <c r="F516" t="s">
         <v>9771</v>
-      </c>
-      <c r="F516" t="s">
-        <v>9772</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -56140,19 +56104,19 @@
     </row>
     <row r="519" spans="1:6" ht="49.5">
       <c r="A519" t="s">
+        <v>9679</v>
+      </c>
+      <c r="B519" t="s">
+        <v>9673</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>9875</v>
+      </c>
+      <c r="E519" t="s">
         <v>9680</v>
       </c>
-      <c r="B519" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>9876</v>
-      </c>
-      <c r="E519" t="s">
+      <c r="F519" t="s">
         <v>9681</v>
-      </c>
-      <c r="F519" t="s">
-        <v>9682</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -56288,16 +56252,16 @@
     </row>
     <row r="527" spans="1:6">
       <c r="A527" t="s">
+        <v>9578</v>
+      </c>
+      <c r="B527" t="s">
         <v>9579</v>
       </c>
-      <c r="B527" t="s">
+      <c r="D527" t="s">
+        <v>9592</v>
+      </c>
+      <c r="E527" t="s">
         <v>9580</v>
-      </c>
-      <c r="D527" t="s">
-        <v>9593</v>
-      </c>
-      <c r="E527" t="s">
-        <v>9581</v>
       </c>
       <c r="F527" t="s">
         <v>1107</v>
@@ -56636,36 +56600,36 @@
     </row>
     <row r="545" spans="1:6">
       <c r="A545" t="s">
+        <v>9630</v>
+      </c>
+      <c r="B545" t="s">
         <v>9631</v>
       </c>
-      <c r="B545" t="s">
+      <c r="D545" t="s">
+        <v>9829</v>
+      </c>
+      <c r="E545" t="s">
         <v>9632</v>
       </c>
-      <c r="D545" t="s">
-        <v>9830</v>
-      </c>
-      <c r="E545" t="s">
+      <c r="F545" t="s">
         <v>9633</v>
-      </c>
-      <c r="F545" t="s">
-        <v>9634</v>
       </c>
     </row>
     <row r="546" spans="1:6">
       <c r="A546" t="s">
+        <v>9802</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9787</v>
+      </c>
+      <c r="D546" t="s">
+        <v>9868</v>
+      </c>
+      <c r="E546" t="s">
         <v>9803</v>
       </c>
-      <c r="B546" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D546" t="s">
-        <v>9869</v>
-      </c>
-      <c r="E546" t="s">
+      <c r="F546" t="s">
         <v>9804</v>
-      </c>
-      <c r="F546" t="s">
-        <v>9805</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -57209,22 +57173,22 @@
     </row>
     <row r="575" spans="1:6">
       <c r="A575" t="s">
-        <v>9777</v>
+        <v>9776</v>
       </c>
       <c r="B575" t="s">
-        <v>9774</v>
+        <v>9773</v>
       </c>
       <c r="C575" t="s">
         <v>709</v>
       </c>
       <c r="D575" t="s">
-        <v>9862</v>
+        <v>9861</v>
       </c>
       <c r="E575" t="s">
+        <v>9777</v>
+      </c>
+      <c r="F575" t="s">
         <v>9778</v>
-      </c>
-      <c r="F575" t="s">
-        <v>9779</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -57613,22 +57577,22 @@
     </row>
     <row r="597" spans="1:6">
       <c r="A597" t="s">
+        <v>9816</v>
+      </c>
+      <c r="B597" t="s">
         <v>9817</v>
-      </c>
-      <c r="B597" t="s">
-        <v>9818</v>
       </c>
       <c r="C597" t="s">
         <v>4217</v>
       </c>
       <c r="D597" t="s">
-        <v>9871</v>
+        <v>9870</v>
       </c>
       <c r="E597" t="s">
-        <v>9820</v>
+        <v>9819</v>
       </c>
       <c r="F597" t="s">
-        <v>9819</v>
+        <v>9818</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -57653,22 +57617,22 @@
     </row>
     <row r="599" spans="1:6">
       <c r="A599" t="s">
+        <v>9571</v>
+      </c>
+      <c r="B599" t="s">
         <v>9572</v>
-      </c>
-      <c r="B599" t="s">
-        <v>9573</v>
       </c>
       <c r="C599" t="s">
         <v>217</v>
       </c>
       <c r="D599" t="s">
-        <v>9591</v>
+        <v>9590</v>
       </c>
       <c r="E599" t="s">
+        <v>9573</v>
+      </c>
+      <c r="F599" t="s">
         <v>9574</v>
-      </c>
-      <c r="F599" t="s">
-        <v>9575</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -57739,7 +57703,7 @@
         <v>7</v>
       </c>
       <c r="D603" s="1" t="s">
-        <v>9536</v>
+        <v>9535</v>
       </c>
       <c r="E603" s="1" t="s">
         <v>5467</v>
@@ -59475,7 +59439,7 @@
         <v>6035</v>
       </c>
       <c r="D694" s="4" t="s">
-        <v>9526</v>
+        <v>9525</v>
       </c>
       <c r="E694" s="4" t="s">
         <v>6041</v>
@@ -61068,22 +61032,22 @@
     </row>
     <row r="778" spans="1:6">
       <c r="A778" t="s">
+        <v>9672</v>
+      </c>
+      <c r="B778" t="s">
         <v>9673</v>
-      </c>
-      <c r="B778" t="s">
-        <v>9674</v>
       </c>
       <c r="C778" t="s">
         <v>709</v>
       </c>
       <c r="D778" t="s">
-        <v>9842</v>
+        <v>9841</v>
       </c>
       <c r="E778" t="s">
+        <v>9674</v>
+      </c>
+      <c r="F778" t="s">
         <v>9675</v>
-      </c>
-      <c r="F778" t="s">
-        <v>9676</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -61131,19 +61095,19 @@
         <v>2165</v>
       </c>
       <c r="B781" t="s">
-        <v>9887</v>
+        <v>9886</v>
       </c>
       <c r="C781" t="s">
         <v>2111</v>
       </c>
       <c r="D781" t="s">
-        <v>9919</v>
+        <v>9918</v>
       </c>
       <c r="E781" t="s">
         <v>2167</v>
       </c>
       <c r="F781" t="s">
-        <v>9888</v>
+        <v>9887</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -61279,16 +61243,16 @@
         <v>5789</v>
       </c>
       <c r="B789" t="s">
-        <v>9887</v>
+        <v>9886</v>
       </c>
       <c r="D789" t="s">
-        <v>9920</v>
+        <v>9919</v>
       </c>
       <c r="E789" t="s">
+        <v>9888</v>
+      </c>
+      <c r="F789" t="s">
         <v>9889</v>
-      </c>
-      <c r="F789" t="s">
-        <v>9890</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -61724,22 +61688,22 @@
     </row>
     <row r="812" spans="1:6">
       <c r="A812" t="s">
-        <v>9655</v>
+        <v>9654</v>
       </c>
       <c r="B812" t="s">
-        <v>9650</v>
+        <v>9649</v>
       </c>
       <c r="C812" t="s">
         <v>2956</v>
       </c>
       <c r="D812" t="s">
-        <v>9837</v>
+        <v>9836</v>
       </c>
       <c r="E812" t="s">
+        <v>9655</v>
+      </c>
+      <c r="F812" t="s">
         <v>9656</v>
-      </c>
-      <c r="F812" t="s">
-        <v>9657</v>
       </c>
     </row>
     <row r="813" spans="1:6">
@@ -62143,22 +62107,22 @@
     </row>
     <row r="834" spans="1:6">
       <c r="A834" t="s">
+        <v>9618</v>
+      </c>
+      <c r="B834" t="s">
         <v>9619</v>
-      </c>
-      <c r="B834" t="s">
-        <v>9620</v>
       </c>
       <c r="C834" t="s">
         <v>217</v>
       </c>
       <c r="D834" t="s">
-        <v>9827</v>
+        <v>9826</v>
       </c>
       <c r="E834" t="s">
+        <v>9620</v>
+      </c>
+      <c r="F834" t="s">
         <v>9621</v>
-      </c>
-      <c r="F834" t="s">
-        <v>9622</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -62833,16 +62797,16 @@
         <v>7043</v>
       </c>
       <c r="B870" t="s">
-        <v>9632</v>
+        <v>9631</v>
       </c>
       <c r="D870" t="s">
         <v>9309</v>
       </c>
       <c r="E870" t="s">
+        <v>9637</v>
+      </c>
+      <c r="F870" t="s">
         <v>9638</v>
-      </c>
-      <c r="F870" t="s">
-        <v>9639</v>
       </c>
     </row>
     <row r="871" spans="1:6">
@@ -63432,7 +63396,7 @@
         <v>2111</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>9535</v>
+        <v>9534</v>
       </c>
       <c r="E901" s="1" t="s">
         <v>2228</v>
@@ -64322,22 +64286,22 @@
     </row>
     <row r="947" spans="1:6">
       <c r="A947" t="s">
+        <v>9563</v>
+      </c>
+      <c r="B947" t="s">
         <v>9564</v>
-      </c>
-      <c r="B947" t="s">
-        <v>9565</v>
       </c>
       <c r="C947" t="s">
         <v>217</v>
       </c>
       <c r="D947" t="s">
-        <v>9590</v>
+        <v>9589</v>
       </c>
       <c r="E947" t="s">
+        <v>9565</v>
+      </c>
+      <c r="F947" t="s">
         <v>9566</v>
-      </c>
-      <c r="F947" t="s">
-        <v>9567</v>
       </c>
     </row>
     <row r="948" spans="1:6">
@@ -64430,22 +64394,22 @@
     </row>
     <row r="953" spans="1:6">
       <c r="A953" t="s">
+        <v>9604</v>
+      </c>
+      <c r="B953" t="s">
         <v>9605</v>
-      </c>
-      <c r="B953" t="s">
-        <v>9606</v>
       </c>
       <c r="C953" t="s">
         <v>709</v>
       </c>
       <c r="D953" t="s">
-        <v>9824</v>
+        <v>9823</v>
       </c>
       <c r="E953" t="s">
+        <v>9606</v>
+      </c>
+      <c r="F953" t="s">
         <v>9607</v>
-      </c>
-      <c r="F953" t="s">
-        <v>9608</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -66437,22 +66401,22 @@
     </row>
     <row r="1058" spans="1:6">
       <c r="A1058" t="s">
+        <v>9541</v>
+      </c>
+      <c r="B1058" t="s">
         <v>9542</v>
-      </c>
-      <c r="B1058" t="s">
-        <v>9543</v>
       </c>
       <c r="C1058" t="s">
         <v>709</v>
       </c>
       <c r="D1058" t="s">
-        <v>9594</v>
+        <v>9593</v>
       </c>
       <c r="E1058" t="s">
+        <v>9543</v>
+      </c>
+      <c r="F1058" t="s">
         <v>9544</v>
-      </c>
-      <c r="F1058" t="s">
-        <v>9545</v>
       </c>
     </row>
     <row r="1059" spans="1:6">
@@ -67695,42 +67659,42 @@
     </row>
     <row r="1123" spans="1:6">
       <c r="A1123" t="s">
+        <v>9761</v>
+      </c>
+      <c r="B1123" t="s">
         <v>9762</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>9763</v>
       </c>
       <c r="C1123" t="s">
         <v>2111</v>
       </c>
       <c r="D1123" t="s">
-        <v>9858</v>
+        <v>9857</v>
       </c>
       <c r="E1123" t="s">
+        <v>9763</v>
+      </c>
+      <c r="F1123" t="s">
         <v>9764</v>
-      </c>
-      <c r="F1123" t="s">
-        <v>9765</v>
       </c>
     </row>
     <row r="1124" spans="1:6">
       <c r="A1124" t="s">
-        <v>9766</v>
+        <v>9765</v>
       </c>
       <c r="B1124" t="s">
-        <v>9763</v>
+        <v>9762</v>
       </c>
       <c r="C1124" t="s">
         <v>2111</v>
       </c>
       <c r="D1124" t="s">
-        <v>9859</v>
+        <v>9858</v>
       </c>
       <c r="E1124" t="s">
+        <v>9766</v>
+      </c>
+      <c r="F1124" t="s">
         <v>9767</v>
-      </c>
-      <c r="F1124" t="s">
-        <v>9768</v>
       </c>
     </row>
     <row r="1125" spans="1:6">
@@ -68479,19 +68443,19 @@
     </row>
     <row r="1164" spans="1:6">
       <c r="A1164" t="s">
+        <v>9719</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>9715</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>9851</v>
+      </c>
+      <c r="E1164" t="s">
         <v>9720</v>
       </c>
-      <c r="B1164" t="s">
-        <v>9716</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>9852</v>
-      </c>
-      <c r="E1164" t="s">
+      <c r="F1164" t="s">
         <v>9721</v>
-      </c>
-      <c r="F1164" t="s">
-        <v>9722</v>
       </c>
     </row>
     <row r="1165" spans="1:6">
@@ -68505,7 +68469,7 @@
         <v>204</v>
       </c>
       <c r="D1165" s="1" t="s">
-        <v>9531</v>
+        <v>9530</v>
       </c>
       <c r="F1165" t="s">
         <v>212</v>
@@ -69645,19 +69609,19 @@
     </row>
     <row r="1225" spans="1:6">
       <c r="A1225" t="s">
+        <v>9682</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>9673</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>9842</v>
+      </c>
+      <c r="E1225" t="s">
         <v>9683</v>
       </c>
-      <c r="B1225" t="s">
-        <v>9674</v>
-      </c>
-      <c r="D1225" t="s">
-        <v>9843</v>
-      </c>
-      <c r="E1225" t="s">
+      <c r="F1225" t="s">
         <v>9684</v>
-      </c>
-      <c r="F1225" t="s">
-        <v>9685</v>
       </c>
     </row>
     <row r="1226" spans="1:6">
@@ -70951,7 +70915,7 @@
         <v>2551</v>
       </c>
       <c r="D1293" s="1" t="s">
-        <v>9500</v>
+        <v>9499</v>
       </c>
       <c r="E1293" s="1" t="s">
         <v>2559</v>
@@ -71059,7 +71023,7 @@
         <v>2956</v>
       </c>
       <c r="D1299" s="1" t="s">
-        <v>9501</v>
+        <v>9500</v>
       </c>
       <c r="E1299" s="1" t="s">
         <v>2989</v>
@@ -71150,22 +71114,22 @@
     </row>
     <row r="1304" spans="1:6">
       <c r="A1304" t="s">
-        <v>9667</v>
+        <v>9666</v>
       </c>
       <c r="B1304" t="s">
-        <v>9665</v>
+        <v>9664</v>
       </c>
       <c r="C1304" t="s">
         <v>217</v>
       </c>
       <c r="D1304" t="s">
-        <v>9840</v>
+        <v>9839</v>
       </c>
       <c r="E1304" t="s">
+        <v>9667</v>
+      </c>
+      <c r="F1304" t="s">
         <v>9668</v>
-      </c>
-      <c r="F1304" t="s">
-        <v>9669</v>
       </c>
     </row>
     <row r="1305" spans="1:6">
@@ -71290,7 +71254,7 @@
         <v>7</v>
       </c>
       <c r="D1311" s="1" t="s">
-        <v>9502</v>
+        <v>9501</v>
       </c>
       <c r="E1311" s="1" t="s">
         <v>4930</v>
@@ -71624,7 +71588,7 @@
         <v>4338</v>
       </c>
       <c r="D1328" s="1" t="s">
-        <v>9533</v>
+        <v>9532</v>
       </c>
       <c r="E1328" s="1" t="s">
         <v>4353</v>
@@ -71644,7 +71608,7 @@
         <v>4338</v>
       </c>
       <c r="D1329" s="1" t="s">
-        <v>9534</v>
+        <v>9533</v>
       </c>
       <c r="E1329" s="1" t="s">
         <v>4356</v>
@@ -72160,7 +72124,7 @@
         <v>1702</v>
       </c>
       <c r="D1356" s="4" t="s">
-        <v>9503</v>
+        <v>9502</v>
       </c>
       <c r="E1356" s="4" t="s">
         <v>7234</v>
@@ -73300,7 +73264,7 @@
         <v>8</v>
       </c>
       <c r="D1416" s="1" t="s">
-        <v>9494</v>
+        <v>9493</v>
       </c>
       <c r="E1416" s="1" t="s">
         <v>167</v>
@@ -73320,7 +73284,7 @@
         <v>8</v>
       </c>
       <c r="D1417" s="1" t="s">
-        <v>9493</v>
+        <v>9492</v>
       </c>
       <c r="E1417" s="1" t="s">
         <v>171</v>
@@ -73465,22 +73429,22 @@
     </row>
     <row r="1425" spans="1:6">
       <c r="A1425" t="s">
+        <v>9581</v>
+      </c>
+      <c r="B1425" t="s">
         <v>9582</v>
-      </c>
-      <c r="B1425" t="s">
-        <v>9583</v>
       </c>
       <c r="C1425" t="s">
         <v>2956</v>
       </c>
       <c r="D1425" t="s">
-        <v>9597</v>
+        <v>9596</v>
       </c>
       <c r="E1425" t="s">
+        <v>9583</v>
+      </c>
+      <c r="F1425" t="s">
         <v>9584</v>
-      </c>
-      <c r="F1425" t="s">
-        <v>9585</v>
       </c>
     </row>
     <row r="1426" spans="1:6">
@@ -74699,22 +74663,22 @@
     </row>
     <row r="1490" spans="1:6">
       <c r="A1490" t="s">
+        <v>9810</v>
+      </c>
+      <c r="B1490" t="s">
         <v>9811</v>
       </c>
-      <c r="B1490" t="s">
+      <c r="C1490" t="s">
         <v>9812</v>
       </c>
-      <c r="C1490" t="s">
+      <c r="D1490" t="s">
         <v>9813</v>
       </c>
-      <c r="D1490" t="s">
+      <c r="E1490" t="s">
         <v>9814</v>
       </c>
-      <c r="E1490" t="s">
+      <c r="F1490" t="s">
         <v>9815</v>
-      </c>
-      <c r="F1490" t="s">
-        <v>9816</v>
       </c>
     </row>
     <row r="1491" spans="1:6">
@@ -74913,19 +74877,19 @@
     </row>
     <row r="1501" spans="1:6">
       <c r="A1501" t="s">
+        <v>9716</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>9715</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>9850</v>
+      </c>
+      <c r="E1501" t="s">
         <v>9717</v>
       </c>
-      <c r="B1501" t="s">
-        <v>9716</v>
-      </c>
-      <c r="D1501" t="s">
-        <v>9851</v>
-      </c>
-      <c r="E1501" t="s">
+      <c r="F1501" t="s">
         <v>9718</v>
-      </c>
-      <c r="F1501" t="s">
-        <v>9719</v>
       </c>
     </row>
     <row r="1502" spans="1:6">
@@ -75044,22 +75008,22 @@
     </row>
     <row r="1508" spans="1:6">
       <c r="A1508" t="s">
+        <v>9626</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>9623</v>
+      </c>
+      <c r="C1508" t="s">
         <v>9627</v>
       </c>
-      <c r="B1508" t="s">
-        <v>9624</v>
-      </c>
-      <c r="C1508" t="s">
+      <c r="D1508" t="s">
+        <v>9828</v>
+      </c>
+      <c r="E1508" t="s">
         <v>9628</v>
       </c>
-      <c r="D1508" t="s">
-        <v>9829</v>
-      </c>
-      <c r="E1508" t="s">
+      <c r="F1508" t="s">
         <v>9629</v>
-      </c>
-      <c r="F1508" t="s">
-        <v>9630</v>
       </c>
     </row>
     <row r="1509" spans="1:6">
@@ -75113,7 +75077,7 @@
         <v>6059</v>
       </c>
       <c r="D1511" s="1" t="s">
-        <v>9492</v>
+        <v>9491</v>
       </c>
       <c r="E1511" s="1" t="s">
         <v>6078</v>
@@ -77665,19 +77629,19 @@
     </row>
     <row r="1644" spans="1:6">
       <c r="A1644" t="s">
+        <v>9559</v>
+      </c>
+      <c r="B1644" t="s">
         <v>9560</v>
       </c>
-      <c r="B1644" t="s">
+      <c r="D1644" t="s">
+        <v>9588</v>
+      </c>
+      <c r="E1644" t="s">
         <v>9561</v>
       </c>
-      <c r="D1644" t="s">
-        <v>9589</v>
-      </c>
-      <c r="E1644" t="s">
+      <c r="F1644" t="s">
         <v>9562</v>
-      </c>
-      <c r="F1644" t="s">
-        <v>9563</v>
       </c>
     </row>
     <row r="1645" spans="1:6">
@@ -77978,19 +77942,19 @@
     </row>
     <row r="1661" spans="1:6">
       <c r="A1661" t="s">
+        <v>9608</v>
+      </c>
+      <c r="B1661" t="s">
         <v>9609</v>
       </c>
-      <c r="B1661" t="s">
+      <c r="D1661" t="s">
+        <v>9824</v>
+      </c>
+      <c r="E1661" t="s">
         <v>9610</v>
       </c>
-      <c r="D1661" t="s">
-        <v>9825</v>
-      </c>
-      <c r="E1661" t="s">
+      <c r="F1661" t="s">
         <v>9611</v>
-      </c>
-      <c r="F1661" t="s">
-        <v>9612</v>
       </c>
     </row>
     <row r="1662" spans="1:6">
@@ -78163,39 +78127,39 @@
     </row>
     <row r="1671" spans="1:6">
       <c r="A1671" t="s">
+        <v>9799</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>9787</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>9867</v>
+      </c>
+      <c r="E1671" t="s">
         <v>9800</v>
       </c>
-      <c r="B1671" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D1671" t="s">
-        <v>9868</v>
-      </c>
-      <c r="E1671" t="s">
+      <c r="F1671" t="s">
         <v>9801</v>
-      </c>
-      <c r="F1671" t="s">
-        <v>9802</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
       <c r="A1672" t="s">
+        <v>9698</v>
+      </c>
+      <c r="B1672" t="s">
         <v>9699</v>
-      </c>
-      <c r="B1672" t="s">
-        <v>9700</v>
       </c>
       <c r="C1672" t="s">
         <v>709</v>
       </c>
       <c r="D1672" t="s">
-        <v>9847</v>
+        <v>9846</v>
       </c>
       <c r="E1672" t="s">
+        <v>9700</v>
+      </c>
+      <c r="F1672" t="s">
         <v>9701</v>
-      </c>
-      <c r="F1672" t="s">
-        <v>9702</v>
       </c>
     </row>
     <row r="1673" spans="1:6">
@@ -78368,42 +78332,42 @@
     </row>
     <row r="1682" spans="1:6" ht="66">
       <c r="A1682" t="s">
-        <v>9780</v>
+        <v>9779</v>
       </c>
       <c r="B1682" t="s">
-        <v>9774</v>
+        <v>9773</v>
       </c>
       <c r="C1682" t="s">
         <v>709</v>
       </c>
       <c r="D1682" s="3" t="s">
-        <v>9883</v>
+        <v>9882</v>
       </c>
       <c r="E1682" t="s">
+        <v>9780</v>
+      </c>
+      <c r="F1682" t="s">
         <v>9781</v>
-      </c>
-      <c r="F1682" t="s">
-        <v>9782</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
       <c r="A1683" t="s">
+        <v>9548</v>
+      </c>
+      <c r="B1683" t="s">
         <v>9549</v>
-      </c>
-      <c r="B1683" t="s">
-        <v>9550</v>
       </c>
       <c r="C1683" t="s">
         <v>2956</v>
       </c>
       <c r="D1683" t="s">
-        <v>9587</v>
+        <v>9586</v>
       </c>
       <c r="E1683" t="s">
+        <v>9550</v>
+      </c>
+      <c r="F1683" t="s">
         <v>9551</v>
-      </c>
-      <c r="F1683" t="s">
-        <v>9552</v>
       </c>
     </row>
     <row r="1684" spans="1:6">
@@ -78536,22 +78500,22 @@
     </row>
     <row r="1691" spans="1:6">
       <c r="A1691" t="s">
+        <v>9555</v>
+      </c>
+      <c r="B1691" t="s">
         <v>9556</v>
-      </c>
-      <c r="B1691" t="s">
-        <v>9557</v>
       </c>
       <c r="C1691" t="s">
         <v>2956</v>
       </c>
       <c r="D1691" t="s">
-        <v>9588</v>
+        <v>9587</v>
       </c>
       <c r="E1691" t="s">
+        <v>9557</v>
+      </c>
+      <c r="F1691" t="s">
         <v>9558</v>
-      </c>
-      <c r="F1691" t="s">
-        <v>9559</v>
       </c>
     </row>
     <row r="1692" spans="1:6">
@@ -78844,7 +78808,7 @@
         <v>1067</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>9541</v>
+        <v>9540</v>
       </c>
       <c r="C1707" s="1" t="s">
         <v>870</v>
@@ -78864,7 +78828,7 @@
         <v>1067</v>
       </c>
       <c r="B1708" t="s">
-        <v>9918</v>
+        <v>9917</v>
       </c>
       <c r="C1708" t="s">
         <v>870</v>
@@ -79873,19 +79837,19 @@
     </row>
     <row r="1761" spans="1:6">
       <c r="A1761" t="s">
+        <v>9722</v>
+      </c>
+      <c r="B1761" t="s">
         <v>9723</v>
       </c>
-      <c r="B1761" t="s">
+      <c r="D1761" t="s">
+        <v>9852</v>
+      </c>
+      <c r="E1761" t="s">
         <v>9724</v>
       </c>
-      <c r="D1761" t="s">
-        <v>9853</v>
-      </c>
-      <c r="E1761" t="s">
+      <c r="F1761" t="s">
         <v>9725</v>
-      </c>
-      <c r="F1761" t="s">
-        <v>9726</v>
       </c>
     </row>
     <row r="1762" spans="1:6">
@@ -81000,7 +80964,7 @@
         <v>2551</v>
       </c>
       <c r="D1819" s="1" t="s">
-        <v>9505</v>
+        <v>9504</v>
       </c>
       <c r="E1819" s="1" t="s">
         <v>2555</v>
@@ -81020,7 +80984,7 @@
         <v>2551</v>
       </c>
       <c r="D1820" s="1" t="s">
-        <v>9506</v>
+        <v>9505</v>
       </c>
       <c r="E1820" s="1" t="s">
         <v>2552</v>
@@ -81399,7 +81363,7 @@
         <v>1945</v>
       </c>
       <c r="D1840" s="1" t="s">
-        <v>9504</v>
+        <v>9503</v>
       </c>
       <c r="E1840" s="1" t="s">
         <v>2069</v>
@@ -81550,7 +81514,7 @@
         <v>87</v>
       </c>
       <c r="D1848" s="1" t="s">
-        <v>9507</v>
+        <v>9506</v>
       </c>
       <c r="E1848" s="1" t="s">
         <v>4995</v>
@@ -81774,22 +81738,22 @@
     </row>
     <row r="1861" spans="1:6">
       <c r="A1861" t="s">
+        <v>9726</v>
+      </c>
+      <c r="B1861" t="s">
         <v>9727</v>
-      </c>
-      <c r="B1861" t="s">
-        <v>9728</v>
       </c>
       <c r="C1861" t="s">
         <v>1945</v>
       </c>
       <c r="D1861" t="s">
-        <v>9854</v>
+        <v>9853</v>
       </c>
       <c r="E1861" t="s">
+        <v>9728</v>
+      </c>
+      <c r="F1861" t="s">
         <v>9729</v>
-      </c>
-      <c r="F1861" t="s">
-        <v>9730</v>
       </c>
     </row>
     <row r="1862" spans="1:6" ht="33">
@@ -81803,7 +81767,7 @@
         <v>1945</v>
       </c>
       <c r="D1862" s="4" t="s">
-        <v>9508</v>
+        <v>9507</v>
       </c>
       <c r="E1862" s="4" t="s">
         <v>5071</v>
@@ -81823,7 +81787,7 @@
         <v>1945</v>
       </c>
       <c r="D1863" s="4" t="s">
-        <v>9509</v>
+        <v>9508</v>
       </c>
       <c r="E1863" s="4" t="s">
         <v>5068</v>
@@ -82094,7 +82058,7 @@
         <v>3265</v>
       </c>
       <c r="D1877" s="1" t="s">
-        <v>9510</v>
+        <v>9509</v>
       </c>
       <c r="E1877" s="1" t="s">
         <v>3269</v>
@@ -82114,7 +82078,7 @@
         <v>709</v>
       </c>
       <c r="D1878" s="1" t="s">
-        <v>9511</v>
+        <v>9510</v>
       </c>
       <c r="E1878" s="1" t="s">
         <v>1617</v>
@@ -82479,19 +82443,19 @@
     </row>
     <row r="1897" spans="1:6">
       <c r="A1897" t="s">
+        <v>9657</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>9649</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>9837</v>
+      </c>
+      <c r="E1897" t="s">
         <v>9658</v>
       </c>
-      <c r="B1897" t="s">
-        <v>9650</v>
-      </c>
-      <c r="D1897" t="s">
-        <v>9838</v>
-      </c>
-      <c r="E1897" t="s">
+      <c r="F1897" t="s">
         <v>9659</v>
-      </c>
-      <c r="F1897" t="s">
-        <v>9660</v>
       </c>
     </row>
     <row r="1898" spans="1:6">
@@ -82659,7 +82623,7 @@
         <v>709</v>
       </c>
       <c r="D1906" s="4" t="s">
-        <v>9512</v>
+        <v>9511</v>
       </c>
       <c r="E1906" s="4" t="s">
         <v>1390</v>
@@ -82690,19 +82654,19 @@
     </row>
     <row r="1908" spans="1:6">
       <c r="A1908" t="s">
+        <v>9737</v>
+      </c>
+      <c r="B1908" t="s">
         <v>9738</v>
       </c>
-      <c r="B1908" t="s">
+      <c r="D1908" t="s">
+        <v>9855</v>
+      </c>
+      <c r="E1908" t="s">
         <v>9739</v>
       </c>
-      <c r="D1908" t="s">
-        <v>9856</v>
-      </c>
-      <c r="E1908" t="s">
+      <c r="F1908" t="s">
         <v>9740</v>
-      </c>
-      <c r="F1908" t="s">
-        <v>9741</v>
       </c>
     </row>
     <row r="1909" spans="1:6">
@@ -83107,7 +83071,7 @@
         <v>7</v>
       </c>
       <c r="D1929" s="4" t="s">
-        <v>9513</v>
+        <v>9512</v>
       </c>
       <c r="E1929" s="4" t="s">
         <v>5633</v>
@@ -83127,7 +83091,7 @@
         <v>3444</v>
       </c>
       <c r="D1930" s="1" t="s">
-        <v>9514</v>
+        <v>9513</v>
       </c>
       <c r="E1930" s="1" t="s">
         <v>3461</v>
@@ -83603,22 +83567,22 @@
     </row>
     <row r="1955" spans="1:6">
       <c r="A1955" t="s">
-        <v>9670</v>
+        <v>9669</v>
       </c>
       <c r="B1955" t="s">
-        <v>9665</v>
+        <v>9664</v>
       </c>
       <c r="C1955" t="s">
         <v>2956</v>
       </c>
       <c r="D1955" t="s">
-        <v>9841</v>
+        <v>9840</v>
       </c>
       <c r="E1955" t="s">
+        <v>9670</v>
+      </c>
+      <c r="F1955" t="s">
         <v>9671</v>
-      </c>
-      <c r="F1955" t="s">
-        <v>9672</v>
       </c>
     </row>
     <row r="1956" spans="1:6">
@@ -84114,7 +84078,7 @@
         <v>2956</v>
       </c>
       <c r="D1981" s="1" t="s">
-        <v>9515</v>
+        <v>9514</v>
       </c>
       <c r="E1981" s="1" t="s">
         <v>3214</v>
@@ -84356,7 +84320,7 @@
         <v>2858</v>
       </c>
       <c r="D1994" s="1" t="s">
-        <v>9516</v>
+        <v>9515</v>
       </c>
       <c r="E1994" s="1" t="s">
         <v>2932</v>
@@ -85039,22 +85003,22 @@
     </row>
     <row r="2031" spans="1:6">
       <c r="A2031" t="s">
-        <v>9576</v>
+        <v>9575</v>
       </c>
       <c r="B2031" t="s">
-        <v>9573</v>
+        <v>9572</v>
       </c>
       <c r="C2031" t="s">
         <v>709</v>
       </c>
       <c r="D2031" t="s">
-        <v>9592</v>
+        <v>9591</v>
       </c>
       <c r="E2031" t="s">
+        <v>9576</v>
+      </c>
+      <c r="F2031" t="s">
         <v>9577</v>
-      </c>
-      <c r="F2031" t="s">
-        <v>9578</v>
       </c>
     </row>
     <row r="2032" spans="1:6">
@@ -85721,7 +85685,7 @@
         <v>709</v>
       </c>
       <c r="D2066" s="1" t="s">
-        <v>9523</v>
+        <v>9522</v>
       </c>
       <c r="E2066" s="1" t="s">
         <v>1584</v>
@@ -85741,7 +85705,7 @@
         <v>709</v>
       </c>
       <c r="D2067" s="1" t="s">
-        <v>9522</v>
+        <v>9521</v>
       </c>
       <c r="E2067" s="1" t="s">
         <v>1587</v>
@@ -85761,7 +85725,7 @@
         <v>709</v>
       </c>
       <c r="D2068" s="4" t="s">
-        <v>9517</v>
+        <v>9516</v>
       </c>
       <c r="E2068" s="4" t="s">
         <v>1639</v>
@@ -85821,7 +85785,7 @@
         <v>2669</v>
       </c>
       <c r="D2071" s="4" t="s">
-        <v>9518</v>
+        <v>9517</v>
       </c>
       <c r="E2071" s="4" t="s">
         <v>2698</v>
@@ -85841,7 +85805,7 @@
         <v>2669</v>
       </c>
       <c r="D2072" s="4" t="s">
-        <v>9519</v>
+        <v>9518</v>
       </c>
       <c r="E2072" s="4" t="s">
         <v>2695</v>
@@ -85852,19 +85816,19 @@
     </row>
     <row r="2073" spans="1:6" ht="82.5">
       <c r="A2073" t="s">
+        <v>9741</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>9738</v>
+      </c>
+      <c r="D2073" s="3" t="s">
+        <v>9877</v>
+      </c>
+      <c r="E2073" t="s">
         <v>9742</v>
       </c>
-      <c r="B2073" t="s">
-        <v>9739</v>
-      </c>
-      <c r="D2073" s="3" t="s">
-        <v>9878</v>
-      </c>
-      <c r="E2073" t="s">
+      <c r="F2073" t="s">
         <v>9743</v>
-      </c>
-      <c r="F2073" t="s">
-        <v>9744</v>
       </c>
     </row>
     <row r="2074" spans="1:6">
@@ -85878,7 +85842,7 @@
         <v>709</v>
       </c>
       <c r="D2074" s="1" t="s">
-        <v>9524</v>
+        <v>9523</v>
       </c>
       <c r="E2074" s="1" t="s">
         <v>1593</v>
@@ -85898,7 +85862,7 @@
         <v>709</v>
       </c>
       <c r="D2075" s="4" t="s">
-        <v>9520</v>
+        <v>9519</v>
       </c>
       <c r="E2075" s="4" t="s">
         <v>1286</v>
@@ -85918,7 +85882,7 @@
         <v>709</v>
       </c>
       <c r="D2076" s="1" t="s">
-        <v>9521</v>
+        <v>9520</v>
       </c>
       <c r="E2076" s="1" t="s">
         <v>1590</v>
@@ -86063,22 +86027,22 @@
     </row>
     <row r="2084" spans="1:6">
       <c r="A2084" t="s">
+        <v>9806</v>
+      </c>
+      <c r="B2084" t="s">
         <v>9807</v>
-      </c>
-      <c r="B2084" t="s">
-        <v>9808</v>
       </c>
       <c r="C2084" t="s">
         <v>2111</v>
       </c>
       <c r="D2084" t="s">
-        <v>9870</v>
+        <v>9869</v>
       </c>
       <c r="E2084" t="s">
+        <v>9808</v>
+      </c>
+      <c r="F2084" t="s">
         <v>9809</v>
-      </c>
-      <c r="F2084" t="s">
-        <v>9810</v>
       </c>
     </row>
     <row r="2085" spans="1:6">
@@ -86797,7 +86761,7 @@
         <v>4444</v>
       </c>
       <c r="D2121" s="1" t="s">
-        <v>9525</v>
+        <v>9524</v>
       </c>
       <c r="E2121" s="1" t="s">
         <v>4493</v>
@@ -88482,22 +88446,22 @@
     </row>
     <row r="2209" spans="1:6">
       <c r="A2209" t="s">
-        <v>9644</v>
+        <v>9643</v>
       </c>
       <c r="B2209" t="s">
-        <v>9641</v>
+        <v>9640</v>
       </c>
       <c r="C2209" t="s">
         <v>4260</v>
       </c>
       <c r="D2209" t="s">
-        <v>9833</v>
+        <v>9832</v>
       </c>
       <c r="E2209" t="s">
+        <v>9644</v>
+      </c>
+      <c r="F2209" t="s">
         <v>9645</v>
-      </c>
-      <c r="F2209" t="s">
-        <v>9646</v>
       </c>
     </row>
     <row r="2210" spans="1:6">
@@ -89075,7 +89039,7 @@
         <v>7</v>
       </c>
       <c r="D2240" s="1" t="s">
-        <v>9532</v>
+        <v>9531</v>
       </c>
       <c r="F2240" t="s">
         <v>5033</v>
@@ -90030,7 +89994,7 @@
         <v>6059</v>
       </c>
       <c r="D2290" s="1" t="s">
-        <v>9491</v>
+        <v>9490</v>
       </c>
       <c r="E2290" s="1" t="s">
         <v>6098</v>
@@ -90047,7 +90011,7 @@
         <v>3170</v>
       </c>
       <c r="D2291" s="1" t="s">
-        <v>9490</v>
+        <v>9489</v>
       </c>
       <c r="E2291" s="1" t="s">
         <v>6665</v>
@@ -90064,7 +90028,7 @@
         <v>2110</v>
       </c>
       <c r="D2292" s="1" t="s">
-        <v>9489</v>
+        <v>9488</v>
       </c>
       <c r="E2292" s="1" t="s">
         <v>6656</v>
@@ -90081,7 +90045,7 @@
         <v>3170</v>
       </c>
       <c r="D2293" s="1" t="s">
-        <v>9488</v>
+        <v>9487</v>
       </c>
       <c r="E2293" s="1" t="s">
         <v>6668</v>
@@ -90098,7 +90062,7 @@
         <v>3170</v>
       </c>
       <c r="D2294" s="1" t="s">
-        <v>9487</v>
+        <v>9486</v>
       </c>
       <c r="E2294" s="1" t="s">
         <v>6662</v>
@@ -90115,7 +90079,7 @@
         <v>93</v>
       </c>
       <c r="D2295" s="1" t="s">
-        <v>9486</v>
+        <v>9485</v>
       </c>
       <c r="E2295" s="1" t="s">
         <v>9416</v>
@@ -90132,7 +90096,7 @@
         <v>3170</v>
       </c>
       <c r="D2296" s="1" t="s">
-        <v>9485</v>
+        <v>9484</v>
       </c>
       <c r="E2296" s="1" t="s">
         <v>6659</v>
@@ -90149,7 +90113,7 @@
         <v>93</v>
       </c>
       <c r="D2297" s="1" t="s">
-        <v>9484</v>
+        <v>9483</v>
       </c>
       <c r="E2297" s="1" t="s">
         <v>6673</v>
@@ -90229,7 +90193,7 @@
         <v>6035</v>
       </c>
       <c r="D2301" s="4" t="s">
-        <v>9527</v>
+        <v>9526</v>
       </c>
       <c r="E2301" s="4" t="s">
         <v>6047</v>
@@ -90309,7 +90273,7 @@
         <v>8</v>
       </c>
       <c r="D2305" s="1" t="s">
-        <v>9528</v>
+        <v>9527</v>
       </c>
       <c r="E2305" s="1" t="s">
         <v>57</v>
@@ -90591,7 +90555,7 @@
         <v>1067</v>
       </c>
       <c r="B2320" t="s">
-        <v>9541</v>
+        <v>9540</v>
       </c>
       <c r="C2320" s="1" t="s">
         <v>3723</v>
@@ -90657,7 +90621,7 @@
         <v>709</v>
       </c>
       <c r="D2323" s="1" t="s">
-        <v>9538</v>
+        <v>9537</v>
       </c>
       <c r="E2323" s="1" t="s">
         <v>1197</v>
@@ -90668,22 +90632,22 @@
     </row>
     <row r="2324" spans="1:6">
       <c r="A2324" t="s">
-        <v>9553</v>
+        <v>9552</v>
       </c>
       <c r="B2324" t="s">
-        <v>9550</v>
+        <v>9549</v>
       </c>
       <c r="C2324" t="s">
         <v>1891</v>
       </c>
       <c r="D2324" t="s">
-        <v>9595</v>
+        <v>9594</v>
       </c>
       <c r="E2324" t="s">
+        <v>9553</v>
+      </c>
+      <c r="F2324" t="s">
         <v>9554</v>
-      </c>
-      <c r="F2324" t="s">
-        <v>9555</v>
       </c>
     </row>
     <row r="2325" spans="1:6">
@@ -90725,13 +90689,13 @@
         <v>1067</v>
       </c>
       <c r="B2327" t="s">
-        <v>9821</v>
+        <v>9820</v>
       </c>
       <c r="C2327" t="s">
         <v>870</v>
       </c>
       <c r="D2327" t="s">
-        <v>9884</v>
+        <v>9883</v>
       </c>
       <c r="E2327" t="s">
         <v>1069</v>
@@ -90745,13 +90709,13 @@
         <v>1067</v>
       </c>
       <c r="B2328" t="s">
-        <v>9821</v>
+        <v>9820</v>
       </c>
       <c r="C2328" t="s">
         <v>3723</v>
       </c>
       <c r="D2328" t="s">
-        <v>9884</v>
+        <v>9883</v>
       </c>
       <c r="E2328" t="s">
         <v>3732</v>
@@ -90765,13 +90729,13 @@
         <v>1067</v>
       </c>
       <c r="B2329" t="s">
-        <v>9918</v>
+        <v>9917</v>
       </c>
       <c r="C2329" t="s">
         <v>3723</v>
       </c>
       <c r="D2329" t="s">
-        <v>9884</v>
+        <v>9883</v>
       </c>
       <c r="E2329" t="s">
         <v>3732</v>
@@ -90970,22 +90934,22 @@
     </row>
     <row r="2340" spans="1:6">
       <c r="A2340" t="s">
+        <v>9567</v>
+      </c>
+      <c r="B2340" t="s">
         <v>9568</v>
-      </c>
-      <c r="B2340" t="s">
-        <v>9569</v>
       </c>
       <c r="C2340" t="s">
         <v>4260</v>
       </c>
       <c r="D2340" t="s">
-        <v>9596</v>
+        <v>9595</v>
       </c>
       <c r="E2340" t="s">
+        <v>9569</v>
+      </c>
+      <c r="F2340" t="s">
         <v>9570</v>
-      </c>
-      <c r="F2340" t="s">
-        <v>9571</v>
       </c>
     </row>
     <row r="2341" spans="1:6">
@@ -91158,19 +91122,19 @@
     </row>
     <row r="2350" spans="1:6" ht="33">
       <c r="A2350" t="s">
+        <v>9733</v>
+      </c>
+      <c r="B2350" t="s">
         <v>9734</v>
       </c>
-      <c r="B2350" t="s">
+      <c r="D2350" s="3" t="s">
+        <v>9876</v>
+      </c>
+      <c r="E2350" s="3" t="s">
         <v>9735</v>
       </c>
-      <c r="D2350" s="3" t="s">
-        <v>9877</v>
-      </c>
-      <c r="E2350" s="3" t="s">
+      <c r="F2350" t="s">
         <v>9736</v>
-      </c>
-      <c r="F2350" t="s">
-        <v>9737</v>
       </c>
     </row>
     <row r="2351" spans="1:6">
@@ -91489,42 +91453,42 @@
     </row>
     <row r="2367" spans="1:6">
       <c r="A2367" t="s">
-        <v>9602</v>
+        <v>9601</v>
       </c>
       <c r="B2367" t="s">
-        <v>9599</v>
+        <v>9598</v>
       </c>
       <c r="C2367" t="s">
         <v>2956</v>
       </c>
       <c r="D2367" t="s">
-        <v>9823</v>
+        <v>9822</v>
       </c>
       <c r="E2367" t="s">
+        <v>9602</v>
+      </c>
+      <c r="F2367" t="s">
         <v>9603</v>
-      </c>
-      <c r="F2367" t="s">
-        <v>9604</v>
       </c>
     </row>
     <row r="2368" spans="1:6">
       <c r="A2368" t="s">
+        <v>9597</v>
+      </c>
+      <c r="B2368" t="s">
         <v>9598</v>
-      </c>
-      <c r="B2368" t="s">
-        <v>9599</v>
       </c>
       <c r="C2368" t="s">
         <v>2956</v>
       </c>
       <c r="D2368" t="s">
-        <v>9822</v>
+        <v>9821</v>
       </c>
       <c r="E2368" t="s">
+        <v>9599</v>
+      </c>
+      <c r="F2368" t="s">
         <v>9600</v>
-      </c>
-      <c r="F2368" t="s">
-        <v>9601</v>
       </c>
     </row>
     <row r="2369" spans="1:6">
@@ -91780,19 +91744,19 @@
     </row>
     <row r="2382" spans="1:6">
       <c r="A2382" t="s">
+        <v>9545</v>
+      </c>
+      <c r="B2382" t="s">
+        <v>9542</v>
+      </c>
+      <c r="D2382" t="s">
+        <v>9585</v>
+      </c>
+      <c r="E2382" t="s">
         <v>9546</v>
       </c>
-      <c r="B2382" t="s">
-        <v>9543</v>
-      </c>
-      <c r="D2382" t="s">
-        <v>9586</v>
-      </c>
-      <c r="E2382" t="s">
+      <c r="F2382" t="s">
         <v>9547</v>
-      </c>
-      <c r="F2382" t="s">
-        <v>9548</v>
       </c>
     </row>
     <row r="2383" spans="1:6">
@@ -91817,22 +91781,22 @@
     </row>
     <row r="2384" spans="1:6">
       <c r="A2384" t="s">
+        <v>9694</v>
+      </c>
+      <c r="B2384" t="s">
         <v>9695</v>
-      </c>
-      <c r="B2384" t="s">
-        <v>9696</v>
       </c>
       <c r="C2384" t="s">
         <v>217</v>
       </c>
       <c r="D2384" t="s">
-        <v>9846</v>
+        <v>9845</v>
       </c>
       <c r="E2384" t="s">
+        <v>9696</v>
+      </c>
+      <c r="F2384" t="s">
         <v>9697</v>
-      </c>
-      <c r="F2384" t="s">
-        <v>9698</v>
       </c>
     </row>
     <row r="2385" spans="1:6">
@@ -92213,7 +92177,7 @@
         <v>390</v>
       </c>
       <c r="D2405" s="1" t="s">
-        <v>9483</v>
+        <v>9482</v>
       </c>
       <c r="E2405" s="1" t="s">
         <v>7022</v>
@@ -93611,7 +93575,7 @@
         <v>4258</v>
       </c>
       <c r="D2477" s="1" t="s">
-        <v>9529</v>
+        <v>9528</v>
       </c>
       <c r="E2477" s="1" t="s">
         <v>4258</v>
@@ -93776,36 +93740,36 @@
     </row>
     <row r="2486" spans="1:6">
       <c r="A2486" t="s">
+        <v>9786</v>
+      </c>
+      <c r="B2486" t="s">
         <v>9787</v>
       </c>
-      <c r="B2486" t="s">
+      <c r="D2486" t="s">
+        <v>9863</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>9789</v>
+      </c>
+      <c r="F2486" t="s">
         <v>9788</v>
-      </c>
-      <c r="D2486" t="s">
-        <v>9864</v>
-      </c>
-      <c r="E2486" t="s">
-        <v>9790</v>
-      </c>
-      <c r="F2486" t="s">
-        <v>9789</v>
       </c>
     </row>
     <row r="2487" spans="1:6">
       <c r="A2487" t="s">
+        <v>9790</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>9787</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>9864</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>9792</v>
+      </c>
+      <c r="F2487" t="s">
         <v>9791</v>
-      </c>
-      <c r="B2487" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D2487" t="s">
-        <v>9865</v>
-      </c>
-      <c r="E2487" t="s">
-        <v>9793</v>
-      </c>
-      <c r="F2487" t="s">
-        <v>9792</v>
       </c>
     </row>
     <row r="2488" spans="1:6">
@@ -94637,7 +94601,7 @@
         <v>6059</v>
       </c>
       <c r="D2531" s="1" t="s">
-        <v>9481</v>
+        <v>9480</v>
       </c>
       <c r="E2531" s="1" t="s">
         <v>6095</v>
@@ -94691,7 +94655,7 @@
         <v>1949</v>
       </c>
       <c r="D2534" s="4" t="s">
-        <v>9482</v>
+        <v>9481</v>
       </c>
       <c r="E2534" s="4" t="s">
         <v>7125</v>
@@ -94702,36 +94666,36 @@
     </row>
     <row r="2535" spans="1:6">
       <c r="A2535" t="s">
+        <v>9793</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>9787</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>9865</v>
+      </c>
+      <c r="E2535" t="s">
         <v>9794</v>
       </c>
-      <c r="B2535" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D2535" t="s">
-        <v>9866</v>
-      </c>
-      <c r="E2535" t="s">
+      <c r="F2535" t="s">
         <v>9795</v>
-      </c>
-      <c r="F2535" t="s">
-        <v>9796</v>
       </c>
     </row>
     <row r="2536" spans="1:6">
       <c r="A2536" t="s">
+        <v>9796</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>9787</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>9866</v>
+      </c>
+      <c r="E2536" t="s">
         <v>9797</v>
       </c>
-      <c r="B2536" t="s">
-        <v>9788</v>
-      </c>
-      <c r="D2536" t="s">
-        <v>9867</v>
-      </c>
-      <c r="E2536" t="s">
+      <c r="F2536" t="s">
         <v>9798</v>
-      </c>
-      <c r="F2536" t="s">
-        <v>9799</v>
       </c>
     </row>
     <row r="2537" spans="1:6">
@@ -94981,22 +94945,22 @@
     </row>
     <row r="2550" spans="1:6">
       <c r="A2550" t="s">
+        <v>9639</v>
+      </c>
+      <c r="B2550" t="s">
         <v>9640</v>
-      </c>
-      <c r="B2550" t="s">
-        <v>9641</v>
       </c>
       <c r="C2550" t="s">
         <v>217</v>
       </c>
       <c r="D2550" t="s">
-        <v>9832</v>
+        <v>9831</v>
       </c>
       <c r="E2550" t="s">
+        <v>9641</v>
+      </c>
+      <c r="F2550" t="s">
         <v>9642</v>
-      </c>
-      <c r="F2550" t="s">
-        <v>9643</v>
       </c>
     </row>
     <row r="2551" spans="1:6">
@@ -95551,19 +95515,19 @@
     </row>
     <row r="2580" spans="1:6">
       <c r="A2580" t="s">
+        <v>9660</v>
+      </c>
+      <c r="B2580" t="s">
+        <v>9649</v>
+      </c>
+      <c r="D2580" t="s">
+        <v>9838</v>
+      </c>
+      <c r="E2580" t="s">
         <v>9661</v>
       </c>
-      <c r="B2580" t="s">
-        <v>9650</v>
-      </c>
-      <c r="D2580" t="s">
-        <v>9839</v>
-      </c>
-      <c r="E2580" t="s">
+      <c r="F2580" t="s">
         <v>9662</v>
-      </c>
-      <c r="F2580" t="s">
-        <v>9663</v>
       </c>
     </row>
     <row r="2581" spans="1:6">
@@ -96176,7 +96140,7 @@
         <v>204</v>
       </c>
       <c r="D2612" s="1" t="s">
-        <v>9530</v>
+        <v>9529</v>
       </c>
       <c r="F2612" t="s">
         <v>214</v>
@@ -96193,7 +96157,7 @@
         <v>8</v>
       </c>
       <c r="D2613" s="1" t="s">
-        <v>9530</v>
+        <v>9529</v>
       </c>
       <c r="E2613" s="1" t="s">
         <v>190</v>
@@ -96527,7 +96491,7 @@
         <v>709</v>
       </c>
       <c r="D2630" s="1" t="s">
-        <v>9885</v>
+        <v>9884</v>
       </c>
       <c r="E2630" s="1" t="s">
         <v>1293</v>
@@ -96795,101 +96759,101 @@
     </row>
     <row r="2644" spans="1:6">
       <c r="A2644" t="s">
+        <v>9905</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>9886</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>9921</v>
+      </c>
+      <c r="E2644" t="s">
         <v>9906</v>
       </c>
-      <c r="B2644" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2644" t="s">
-        <v>9922</v>
-      </c>
-      <c r="E2644" t="s">
+      <c r="F2644" t="s">
         <v>9907</v>
-      </c>
-      <c r="F2644" t="s">
-        <v>9908</v>
       </c>
     </row>
     <row r="2645" spans="1:6">
       <c r="A2645" t="s">
+        <v>9908</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>9886</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>9922</v>
+      </c>
+      <c r="E2645" t="s">
         <v>9909</v>
       </c>
-      <c r="B2645" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2645" t="s">
-        <v>9923</v>
-      </c>
-      <c r="E2645" t="s">
+      <c r="F2645" t="s">
         <v>9910</v>
-      </c>
-      <c r="F2645" t="s">
-        <v>9911</v>
       </c>
     </row>
     <row r="2646" spans="1:6">
       <c r="A2646" t="s">
+        <v>9911</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>9886</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>9923</v>
+      </c>
+      <c r="E2646" t="s">
+        <v>9913</v>
+      </c>
+      <c r="F2646" t="s">
         <v>9912</v>
-      </c>
-      <c r="B2646" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2646" t="s">
-        <v>9924</v>
-      </c>
-      <c r="E2646" t="s">
-        <v>9914</v>
-      </c>
-      <c r="F2646" t="s">
-        <v>9913</v>
       </c>
     </row>
     <row r="2647" spans="1:6">
       <c r="A2647" t="s">
+        <v>9893</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>9886</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>9924</v>
+      </c>
+      <c r="E2647" t="s">
         <v>9894</v>
       </c>
-      <c r="B2647" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2647" t="s">
-        <v>9925</v>
-      </c>
-      <c r="E2647" t="s">
+      <c r="F2647" t="s">
         <v>9895</v>
-      </c>
-      <c r="F2647" t="s">
-        <v>9896</v>
       </c>
     </row>
     <row r="2648" spans="1:6">
       <c r="A2648" t="s">
+        <v>9902</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>9886</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>9925</v>
+      </c>
+      <c r="E2648" t="s">
         <v>9903</v>
       </c>
-      <c r="B2648" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2648" t="s">
-        <v>9926</v>
-      </c>
-      <c r="E2648" t="s">
+      <c r="F2648" t="s">
         <v>9904</v>
-      </c>
-      <c r="F2648" t="s">
-        <v>9905</v>
       </c>
     </row>
     <row r="2649" spans="1:6">
       <c r="A2649" t="s">
+        <v>9890</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>9886</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>9926</v>
+      </c>
+      <c r="E2649" t="s">
         <v>9891</v>
-      </c>
-      <c r="B2649" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2649" t="s">
-        <v>9927</v>
-      </c>
-      <c r="E2649" t="s">
-        <v>9892</v>
       </c>
       <c r="F2649" t="s">
         <v>5788</v>
@@ -96897,16 +96861,16 @@
     </row>
     <row r="2650" spans="1:6">
       <c r="A2650" t="s">
-        <v>9893</v>
+        <v>9892</v>
       </c>
       <c r="B2650" t="s">
-        <v>9887</v>
+        <v>9886</v>
       </c>
       <c r="D2650" t="s">
-        <v>9927</v>
+        <v>9926</v>
       </c>
       <c r="E2650" t="s">
-        <v>9892</v>
+        <v>9891</v>
       </c>
       <c r="F2650" t="s">
         <v>5788</v>
@@ -96914,36 +96878,36 @@
     </row>
     <row r="2651" spans="1:6">
       <c r="A2651" t="s">
+        <v>9899</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>9886</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>9927</v>
+      </c>
+      <c r="E2651" t="s">
         <v>9900</v>
       </c>
-      <c r="B2651" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2651" t="s">
-        <v>9928</v>
-      </c>
-      <c r="E2651" t="s">
+      <c r="F2651" t="s">
         <v>9901</v>
-      </c>
-      <c r="F2651" t="s">
-        <v>9902</v>
       </c>
     </row>
     <row r="2652" spans="1:6">
       <c r="A2652" t="s">
+        <v>9896</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>9886</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>9928</v>
+      </c>
+      <c r="E2652" t="s">
         <v>9897</v>
       </c>
-      <c r="B2652" t="s">
-        <v>9887</v>
-      </c>
-      <c r="D2652" t="s">
-        <v>9929</v>
-      </c>
-      <c r="E2652" t="s">
+      <c r="F2652" t="s">
         <v>9898</v>
-      </c>
-      <c r="F2652" t="s">
-        <v>9899</v>
       </c>
     </row>
     <row r="2653" spans="1:6">
@@ -96961,7 +96925,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187FA553-26EE-4949-A53B-6652C7924D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19838691-6E36-42A3-AF04-9E886E210473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20880" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -45308,9 +45308,6 @@
     <t>actToggleMapRoof</t>
   </si>
   <si>
-    <t>Generate Roof  (#1)</t>
-  </si>
-  <si>
     <t>屋根の生成 (#1)</t>
   </si>
   <si>
@@ -46134,6 +46131,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Flecha(s) de #1</t>
+  </si>
+  <si>
+    <t>Generate Roof(#1)</t>
   </si>
 </sst>
 </file>
@@ -46336,9 +46336,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A1269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1283" sqref="D1283"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A1290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1304" sqref="E1304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
@@ -46651,7 +46651,7 @@
         <v>2956</v>
       </c>
       <c r="D18" t="s">
-        <v>9835</v>
+        <v>9834</v>
       </c>
       <c r="E18" t="s">
         <v>9653</v>
@@ -46764,19 +46764,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>9690</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9843</v>
+      </c>
+      <c r="E25" t="s">
         <v>9691</v>
       </c>
-      <c r="B25" t="s">
-        <v>9673</v>
-      </c>
-      <c r="D25" t="s">
-        <v>9844</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>9692</v>
-      </c>
-      <c r="F25" t="s">
-        <v>9693</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -46938,7 +46938,7 @@
         <v>8550</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>9885</v>
+        <v>9884</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>8554</v>
@@ -46983,19 +46983,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
+        <v>9687</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9842</v>
+      </c>
+      <c r="E37" t="s">
         <v>9688</v>
       </c>
-      <c r="B37" t="s">
-        <v>9673</v>
-      </c>
-      <c r="D37" t="s">
-        <v>9843</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>9689</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9690</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -47909,22 +47909,22 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>9729</v>
+      </c>
+      <c r="B86" t="s">
         <v>9730</v>
-      </c>
-      <c r="B86" t="s">
-        <v>9731</v>
       </c>
       <c r="C86" t="s">
         <v>6059</v>
       </c>
       <c r="D86" t="s">
-        <v>9854</v>
+        <v>9853</v>
       </c>
       <c r="E86" t="s">
         <v>6075</v>
       </c>
       <c r="F86" t="s">
-        <v>9732</v>
+        <v>9731</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -48223,22 +48223,22 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
+        <v>9743</v>
+      </c>
+      <c r="B102" t="s">
         <v>9744</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9745</v>
       </c>
       <c r="C102" t="s">
         <v>6059</v>
       </c>
       <c r="D102" t="s">
-        <v>9856</v>
+        <v>9855</v>
       </c>
       <c r="E102" t="s">
+        <v>9745</v>
+      </c>
+      <c r="F102" t="s">
         <v>9746</v>
-      </c>
-      <c r="F102" t="s">
-        <v>9747</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -48329,7 +48329,7 @@
         <v>6059</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>9929</v>
+        <v>9928</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>6069</v>
@@ -48831,7 +48831,7 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>9834</v>
+        <v>9833</v>
       </c>
       <c r="E133" t="s">
         <v>9650</v>
@@ -49387,7 +49387,7 @@
         <v>5461</v>
       </c>
       <c r="B162" t="s">
-        <v>9805</v>
+        <v>9804</v>
       </c>
       <c r="D162" t="s">
         <v>73</v>
@@ -49843,22 +49843,22 @@
     </row>
     <row r="186" spans="1:6">
       <c r="A186" t="s">
+        <v>9781</v>
+      </c>
+      <c r="B186" t="s">
         <v>9782</v>
-      </c>
-      <c r="B186" t="s">
-        <v>9783</v>
       </c>
       <c r="C186" t="s">
         <v>8</v>
       </c>
       <c r="D186" t="s">
-        <v>9862</v>
+        <v>9861</v>
       </c>
       <c r="E186" t="s">
+        <v>9783</v>
+      </c>
+      <c r="F186" t="s">
         <v>9784</v>
-      </c>
-      <c r="F186" t="s">
-        <v>9785</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -51161,19 +51161,19 @@
     </row>
     <row r="257" spans="1:6">
       <c r="A257" t="s">
+        <v>9706</v>
+      </c>
+      <c r="B257" t="s">
         <v>9707</v>
       </c>
-      <c r="B257" t="s">
+      <c r="D257" t="s">
+        <v>9846</v>
+      </c>
+      <c r="E257" t="s">
         <v>9708</v>
       </c>
-      <c r="D257" t="s">
-        <v>9847</v>
-      </c>
-      <c r="E257" t="s">
+      <c r="F257" t="s">
         <v>9709</v>
-      </c>
-      <c r="F257" t="s">
-        <v>9710</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -51198,19 +51198,19 @@
     </row>
     <row r="259" spans="1:6">
       <c r="A259" t="s">
+        <v>9710</v>
+      </c>
+      <c r="B259" t="s">
+        <v>9707</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9847</v>
+      </c>
+      <c r="E259" t="s">
         <v>9711</v>
       </c>
-      <c r="B259" t="s">
-        <v>9708</v>
-      </c>
-      <c r="D259" t="s">
-        <v>9848</v>
-      </c>
-      <c r="E259" t="s">
+      <c r="F259" t="s">
         <v>9712</v>
-      </c>
-      <c r="F259" t="s">
-        <v>9713</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -51346,42 +51346,42 @@
     </row>
     <row r="267" spans="1:6">
       <c r="A267" t="s">
+        <v>9701</v>
+      </c>
+      <c r="B267" t="s">
         <v>9702</v>
-      </c>
-      <c r="B267" t="s">
-        <v>9703</v>
       </c>
       <c r="C267" t="s">
         <v>8</v>
       </c>
       <c r="D267" t="s">
-        <v>9872</v>
+        <v>9871</v>
       </c>
       <c r="E267" t="s">
-        <v>9704</v>
+        <v>9703</v>
       </c>
       <c r="F267" t="s">
-        <v>9704</v>
+        <v>9703</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268" t="s">
-        <v>9705</v>
+        <v>9704</v>
       </c>
       <c r="B268" t="s">
-        <v>9703</v>
+        <v>9702</v>
       </c>
       <c r="C268" t="s">
         <v>8</v>
       </c>
       <c r="D268" t="s">
-        <v>9872</v>
+        <v>9871</v>
       </c>
       <c r="E268" t="s">
-        <v>9706</v>
+        <v>9705</v>
       </c>
       <c r="F268" t="s">
-        <v>9706</v>
+        <v>9705</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -51982,7 +51982,7 @@
         <v>9609</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>9873</v>
+        <v>9872</v>
       </c>
       <c r="E300" t="s">
         <v>9613</v>
@@ -51999,7 +51999,7 @@
         <v>9609</v>
       </c>
       <c r="D301" t="s">
-        <v>9825</v>
+        <v>9824</v>
       </c>
       <c r="E301" t="s">
         <v>9616</v>
@@ -52144,70 +52144,70 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
+        <v>9751</v>
+      </c>
+      <c r="B309" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9878</v>
+      </c>
+      <c r="E309" t="s">
         <v>9752</v>
       </c>
-      <c r="B309" t="s">
-        <v>9749</v>
-      </c>
-      <c r="D309" t="s">
-        <v>9879</v>
-      </c>
-      <c r="E309" t="s">
+      <c r="F309" t="s">
         <v>9753</v>
-      </c>
-      <c r="F309" t="s">
-        <v>9754</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
+        <v>9757</v>
+      </c>
+      <c r="B310" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9880</v>
+      </c>
+      <c r="E310" t="s">
         <v>9758</v>
       </c>
-      <c r="B310" t="s">
-        <v>9749</v>
-      </c>
-      <c r="D310" t="s">
-        <v>9881</v>
-      </c>
-      <c r="E310" t="s">
+      <c r="F310" t="s">
         <v>9759</v>
-      </c>
-      <c r="F310" t="s">
-        <v>9760</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
+        <v>9747</v>
+      </c>
+      <c r="B311" t="s">
         <v>9748</v>
       </c>
-      <c r="B311" t="s">
+      <c r="D311" t="s">
+        <v>9877</v>
+      </c>
+      <c r="E311" t="s">
         <v>9749</v>
       </c>
-      <c r="D311" t="s">
-        <v>9878</v>
-      </c>
-      <c r="E311" t="s">
+      <c r="F311" t="s">
         <v>9750</v>
-      </c>
-      <c r="F311" t="s">
-        <v>9751</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
+        <v>9754</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9748</v>
+      </c>
+      <c r="D312" t="s">
+        <v>9879</v>
+      </c>
+      <c r="E312" t="s">
         <v>9755</v>
       </c>
-      <c r="B312" t="s">
-        <v>9749</v>
-      </c>
-      <c r="D312" t="s">
-        <v>9880</v>
-      </c>
-      <c r="E312" t="s">
+      <c r="F312" t="s">
         <v>9756</v>
-      </c>
-      <c r="F312" t="s">
-        <v>9757</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -52786,19 +52786,19 @@
     </row>
     <row r="345" spans="1:6" ht="33">
       <c r="A345" t="s">
+        <v>9684</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>9870</v>
+      </c>
+      <c r="E345" t="s">
         <v>9685</v>
       </c>
-      <c r="B345" t="s">
-        <v>9673</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>9871</v>
-      </c>
-      <c r="E345" t="s">
+      <c r="F345" t="s">
         <v>9686</v>
-      </c>
-      <c r="F345" t="s">
-        <v>9687</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -53463,7 +53463,7 @@
         <v>709</v>
       </c>
       <c r="D379" t="s">
-        <v>9827</v>
+        <v>9826</v>
       </c>
       <c r="E379" t="s">
         <v>9624</v>
@@ -53902,7 +53902,7 @@
         <v>9631</v>
       </c>
       <c r="D402" t="s">
-        <v>9830</v>
+        <v>9829</v>
       </c>
       <c r="E402" t="s">
         <v>9635</v>
@@ -54044,22 +54044,22 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
+        <v>9771</v>
+      </c>
+      <c r="B410" t="s">
         <v>9772</v>
-      </c>
-      <c r="B410" t="s">
-        <v>9773</v>
       </c>
       <c r="C410" t="s">
         <v>217</v>
       </c>
       <c r="D410" t="s">
-        <v>9860</v>
+        <v>9859</v>
       </c>
       <c r="E410" t="s">
+        <v>9773</v>
+      </c>
+      <c r="F410" t="s">
         <v>9774</v>
-      </c>
-      <c r="F410" t="s">
-        <v>9775</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -54942,16 +54942,16 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
+        <v>9713</v>
+      </c>
+      <c r="B457" t="s">
         <v>9714</v>
-      </c>
-      <c r="B457" t="s">
-        <v>9715</v>
       </c>
       <c r="C457" t="s">
         <v>2502</v>
       </c>
       <c r="D457" t="s">
-        <v>9849</v>
+        <v>9848</v>
       </c>
       <c r="E457" t="s">
         <v>2927</v>
@@ -55096,7 +55096,7 @@
         <v>9640</v>
       </c>
       <c r="D465" t="s">
-        <v>9833</v>
+        <v>9832</v>
       </c>
       <c r="E465" t="s">
         <v>9646</v>
@@ -55586,19 +55586,19 @@
         <v>2097</v>
       </c>
       <c r="B491" t="s">
-        <v>9914</v>
+        <v>9913</v>
       </c>
       <c r="C491" t="s">
         <v>1945</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>9920</v>
+        <v>9919</v>
       </c>
       <c r="E491" t="s">
+        <v>9914</v>
+      </c>
+      <c r="F491" t="s">
         <v>9915</v>
-      </c>
-      <c r="F491" t="s">
-        <v>9916</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -55711,22 +55711,22 @@
     </row>
     <row r="498" spans="1:6" ht="33">
       <c r="A498" t="s">
-        <v>9676</v>
+        <v>9675</v>
       </c>
       <c r="B498" t="s">
-        <v>9673</v>
+        <v>9672</v>
       </c>
       <c r="C498" t="s">
         <v>709</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>9874</v>
+        <v>9873</v>
       </c>
       <c r="E498" t="s">
+        <v>9676</v>
+      </c>
+      <c r="F498" t="s">
         <v>9677</v>
-      </c>
-      <c r="F498" t="s">
-        <v>9678</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -56044,22 +56044,22 @@
     </row>
     <row r="516" spans="1:6">
       <c r="A516" t="s">
+        <v>9767</v>
+      </c>
+      <c r="B516" t="s">
         <v>9768</v>
-      </c>
-      <c r="B516" t="s">
-        <v>9769</v>
       </c>
       <c r="C516" t="s">
         <v>2111</v>
       </c>
       <c r="D516" t="s">
-        <v>9859</v>
+        <v>9858</v>
       </c>
       <c r="E516" t="s">
+        <v>9769</v>
+      </c>
+      <c r="F516" t="s">
         <v>9770</v>
-      </c>
-      <c r="F516" t="s">
-        <v>9771</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -56104,19 +56104,19 @@
     </row>
     <row r="519" spans="1:6" ht="49.5">
       <c r="A519" t="s">
+        <v>9678</v>
+      </c>
+      <c r="B519" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>9874</v>
+      </c>
+      <c r="E519" t="s">
         <v>9679</v>
       </c>
-      <c r="B519" t="s">
-        <v>9673</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>9875</v>
-      </c>
-      <c r="E519" t="s">
+      <c r="F519" t="s">
         <v>9680</v>
-      </c>
-      <c r="F519" t="s">
-        <v>9681</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -56606,7 +56606,7 @@
         <v>9631</v>
       </c>
       <c r="D545" t="s">
-        <v>9829</v>
+        <v>9828</v>
       </c>
       <c r="E545" t="s">
         <v>9632</v>
@@ -56617,19 +56617,19 @@
     </row>
     <row r="546" spans="1:6">
       <c r="A546" t="s">
+        <v>9801</v>
+      </c>
+      <c r="B546" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D546" t="s">
+        <v>9867</v>
+      </c>
+      <c r="E546" t="s">
         <v>9802</v>
       </c>
-      <c r="B546" t="s">
-        <v>9787</v>
-      </c>
-      <c r="D546" t="s">
-        <v>9868</v>
-      </c>
-      <c r="E546" t="s">
+      <c r="F546" t="s">
         <v>9803</v>
-      </c>
-      <c r="F546" t="s">
-        <v>9804</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -57173,22 +57173,22 @@
     </row>
     <row r="575" spans="1:6">
       <c r="A575" t="s">
-        <v>9776</v>
+        <v>9775</v>
       </c>
       <c r="B575" t="s">
-        <v>9773</v>
+        <v>9772</v>
       </c>
       <c r="C575" t="s">
         <v>709</v>
       </c>
       <c r="D575" t="s">
-        <v>9861</v>
+        <v>9860</v>
       </c>
       <c r="E575" t="s">
+        <v>9776</v>
+      </c>
+      <c r="F575" t="s">
         <v>9777</v>
-      </c>
-      <c r="F575" t="s">
-        <v>9778</v>
       </c>
     </row>
     <row r="576" spans="1:6">
@@ -57577,22 +57577,22 @@
     </row>
     <row r="597" spans="1:6">
       <c r="A597" t="s">
+        <v>9815</v>
+      </c>
+      <c r="B597" t="s">
         <v>9816</v>
-      </c>
-      <c r="B597" t="s">
-        <v>9817</v>
       </c>
       <c r="C597" t="s">
         <v>4217</v>
       </c>
       <c r="D597" t="s">
-        <v>9870</v>
+        <v>9869</v>
       </c>
       <c r="E597" t="s">
-        <v>9819</v>
+        <v>9818</v>
       </c>
       <c r="F597" t="s">
-        <v>9818</v>
+        <v>9817</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -61032,22 +61032,22 @@
     </row>
     <row r="778" spans="1:6">
       <c r="A778" t="s">
+        <v>9671</v>
+      </c>
+      <c r="B778" t="s">
         <v>9672</v>
-      </c>
-      <c r="B778" t="s">
-        <v>9673</v>
       </c>
       <c r="C778" t="s">
         <v>709</v>
       </c>
       <c r="D778" t="s">
-        <v>9841</v>
+        <v>9840</v>
       </c>
       <c r="E778" t="s">
+        <v>9673</v>
+      </c>
+      <c r="F778" t="s">
         <v>9674</v>
-      </c>
-      <c r="F778" t="s">
-        <v>9675</v>
       </c>
     </row>
     <row r="779" spans="1:6">
@@ -61095,19 +61095,19 @@
         <v>2165</v>
       </c>
       <c r="B781" t="s">
-        <v>9886</v>
+        <v>9885</v>
       </c>
       <c r="C781" t="s">
         <v>2111</v>
       </c>
       <c r="D781" t="s">
-        <v>9918</v>
+        <v>9917</v>
       </c>
       <c r="E781" t="s">
         <v>2167</v>
       </c>
       <c r="F781" t="s">
-        <v>9887</v>
+        <v>9886</v>
       </c>
     </row>
     <row r="782" spans="1:6">
@@ -61243,16 +61243,16 @@
         <v>5789</v>
       </c>
       <c r="B789" t="s">
-        <v>9886</v>
+        <v>9885</v>
       </c>
       <c r="D789" t="s">
-        <v>9919</v>
+        <v>9918</v>
       </c>
       <c r="E789" t="s">
+        <v>9887</v>
+      </c>
+      <c r="F789" t="s">
         <v>9888</v>
-      </c>
-      <c r="F789" t="s">
-        <v>9889</v>
       </c>
     </row>
     <row r="790" spans="1:6">
@@ -61697,7 +61697,7 @@
         <v>2956</v>
       </c>
       <c r="D812" t="s">
-        <v>9836</v>
+        <v>9835</v>
       </c>
       <c r="E812" t="s">
         <v>9655</v>
@@ -62116,7 +62116,7 @@
         <v>217</v>
       </c>
       <c r="D834" t="s">
-        <v>9826</v>
+        <v>9825</v>
       </c>
       <c r="E834" t="s">
         <v>9620</v>
@@ -64403,7 +64403,7 @@
         <v>709</v>
       </c>
       <c r="D953" t="s">
-        <v>9823</v>
+        <v>9822</v>
       </c>
       <c r="E953" t="s">
         <v>9606</v>
@@ -67659,42 +67659,42 @@
     </row>
     <row r="1123" spans="1:6">
       <c r="A1123" t="s">
+        <v>9760</v>
+      </c>
+      <c r="B1123" t="s">
         <v>9761</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>9762</v>
       </c>
       <c r="C1123" t="s">
         <v>2111</v>
       </c>
       <c r="D1123" t="s">
-        <v>9857</v>
+        <v>9856</v>
       </c>
       <c r="E1123" t="s">
+        <v>9762</v>
+      </c>
+      <c r="F1123" t="s">
         <v>9763</v>
-      </c>
-      <c r="F1123" t="s">
-        <v>9764</v>
       </c>
     </row>
     <row r="1124" spans="1:6">
       <c r="A1124" t="s">
-        <v>9765</v>
+        <v>9764</v>
       </c>
       <c r="B1124" t="s">
-        <v>9762</v>
+        <v>9761</v>
       </c>
       <c r="C1124" t="s">
         <v>2111</v>
       </c>
       <c r="D1124" t="s">
-        <v>9858</v>
+        <v>9857</v>
       </c>
       <c r="E1124" t="s">
+        <v>9765</v>
+      </c>
+      <c r="F1124" t="s">
         <v>9766</v>
-      </c>
-      <c r="F1124" t="s">
-        <v>9767</v>
       </c>
     </row>
     <row r="1125" spans="1:6">
@@ -68443,19 +68443,19 @@
     </row>
     <row r="1164" spans="1:6">
       <c r="A1164" t="s">
+        <v>9718</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>9714</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>9850</v>
+      </c>
+      <c r="E1164" t="s">
         <v>9719</v>
       </c>
-      <c r="B1164" t="s">
-        <v>9715</v>
-      </c>
-      <c r="D1164" t="s">
-        <v>9851</v>
-      </c>
-      <c r="E1164" t="s">
+      <c r="F1164" t="s">
         <v>9720</v>
-      </c>
-      <c r="F1164" t="s">
-        <v>9721</v>
       </c>
     </row>
     <row r="1165" spans="1:6">
@@ -69609,19 +69609,19 @@
     </row>
     <row r="1225" spans="1:6">
       <c r="A1225" t="s">
+        <v>9681</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>9672</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>9841</v>
+      </c>
+      <c r="E1225" t="s">
         <v>9682</v>
       </c>
-      <c r="B1225" t="s">
-        <v>9673</v>
-      </c>
-      <c r="D1225" t="s">
-        <v>9842</v>
-      </c>
-      <c r="E1225" t="s">
+      <c r="F1225" t="s">
         <v>9683</v>
-      </c>
-      <c r="F1225" t="s">
-        <v>9684</v>
       </c>
     </row>
     <row r="1226" spans="1:6">
@@ -71123,13 +71123,13 @@
         <v>217</v>
       </c>
       <c r="D1304" t="s">
-        <v>9839</v>
+        <v>9838</v>
       </c>
       <c r="E1304" t="s">
+        <v>9929</v>
+      </c>
+      <c r="F1304" t="s">
         <v>9667</v>
-      </c>
-      <c r="F1304" t="s">
-        <v>9668</v>
       </c>
     </row>
     <row r="1305" spans="1:6">
@@ -74663,22 +74663,22 @@
     </row>
     <row r="1490" spans="1:6">
       <c r="A1490" t="s">
+        <v>9809</v>
+      </c>
+      <c r="B1490" t="s">
         <v>9810</v>
       </c>
-      <c r="B1490" t="s">
+      <c r="C1490" t="s">
         <v>9811</v>
       </c>
-      <c r="C1490" t="s">
+      <c r="D1490" t="s">
         <v>9812</v>
       </c>
-      <c r="D1490" t="s">
+      <c r="E1490" t="s">
         <v>9813</v>
       </c>
-      <c r="E1490" t="s">
+      <c r="F1490" t="s">
         <v>9814</v>
-      </c>
-      <c r="F1490" t="s">
-        <v>9815</v>
       </c>
     </row>
     <row r="1491" spans="1:6">
@@ -74877,19 +74877,19 @@
     </row>
     <row r="1501" spans="1:6">
       <c r="A1501" t="s">
+        <v>9715</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>9714</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>9849</v>
+      </c>
+      <c r="E1501" t="s">
         <v>9716</v>
       </c>
-      <c r="B1501" t="s">
-        <v>9715</v>
-      </c>
-      <c r="D1501" t="s">
-        <v>9850</v>
-      </c>
-      <c r="E1501" t="s">
+      <c r="F1501" t="s">
         <v>9717</v>
-      </c>
-      <c r="F1501" t="s">
-        <v>9718</v>
       </c>
     </row>
     <row r="1502" spans="1:6">
@@ -75017,7 +75017,7 @@
         <v>9627</v>
       </c>
       <c r="D1508" t="s">
-        <v>9828</v>
+        <v>9827</v>
       </c>
       <c r="E1508" t="s">
         <v>9628</v>
@@ -77948,7 +77948,7 @@
         <v>9609</v>
       </c>
       <c r="D1661" t="s">
-        <v>9824</v>
+        <v>9823</v>
       </c>
       <c r="E1661" t="s">
         <v>9610</v>
@@ -78127,39 +78127,39 @@
     </row>
     <row r="1671" spans="1:6">
       <c r="A1671" t="s">
+        <v>9798</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>9866</v>
+      </c>
+      <c r="E1671" t="s">
         <v>9799</v>
       </c>
-      <c r="B1671" t="s">
-        <v>9787</v>
-      </c>
-      <c r="D1671" t="s">
-        <v>9867</v>
-      </c>
-      <c r="E1671" t="s">
+      <c r="F1671" t="s">
         <v>9800</v>
-      </c>
-      <c r="F1671" t="s">
-        <v>9801</v>
       </c>
     </row>
     <row r="1672" spans="1:6">
       <c r="A1672" t="s">
+        <v>9697</v>
+      </c>
+      <c r="B1672" t="s">
         <v>9698</v>
-      </c>
-      <c r="B1672" t="s">
-        <v>9699</v>
       </c>
       <c r="C1672" t="s">
         <v>709</v>
       </c>
       <c r="D1672" t="s">
-        <v>9846</v>
+        <v>9845</v>
       </c>
       <c r="E1672" t="s">
+        <v>9699</v>
+      </c>
+      <c r="F1672" t="s">
         <v>9700</v>
-      </c>
-      <c r="F1672" t="s">
-        <v>9701</v>
       </c>
     </row>
     <row r="1673" spans="1:6">
@@ -78332,22 +78332,22 @@
     </row>
     <row r="1682" spans="1:6" ht="66">
       <c r="A1682" t="s">
-        <v>9779</v>
+        <v>9778</v>
       </c>
       <c r="B1682" t="s">
-        <v>9773</v>
+        <v>9772</v>
       </c>
       <c r="C1682" t="s">
         <v>709</v>
       </c>
       <c r="D1682" s="3" t="s">
-        <v>9882</v>
+        <v>9881</v>
       </c>
       <c r="E1682" t="s">
+        <v>9779</v>
+      </c>
+      <c r="F1682" t="s">
         <v>9780</v>
-      </c>
-      <c r="F1682" t="s">
-        <v>9781</v>
       </c>
     </row>
     <row r="1683" spans="1:6">
@@ -78828,7 +78828,7 @@
         <v>1067</v>
       </c>
       <c r="B1708" t="s">
-        <v>9917</v>
+        <v>9916</v>
       </c>
       <c r="C1708" t="s">
         <v>870</v>
@@ -79837,19 +79837,19 @@
     </row>
     <row r="1761" spans="1:6">
       <c r="A1761" t="s">
+        <v>9721</v>
+      </c>
+      <c r="B1761" t="s">
         <v>9722</v>
       </c>
-      <c r="B1761" t="s">
+      <c r="D1761" t="s">
+        <v>9851</v>
+      </c>
+      <c r="E1761" t="s">
         <v>9723</v>
       </c>
-      <c r="D1761" t="s">
-        <v>9852</v>
-      </c>
-      <c r="E1761" t="s">
+      <c r="F1761" t="s">
         <v>9724</v>
-      </c>
-      <c r="F1761" t="s">
-        <v>9725</v>
       </c>
     </row>
     <row r="1762" spans="1:6">
@@ -81738,22 +81738,22 @@
     </row>
     <row r="1861" spans="1:6">
       <c r="A1861" t="s">
+        <v>9725</v>
+      </c>
+      <c r="B1861" t="s">
         <v>9726</v>
-      </c>
-      <c r="B1861" t="s">
-        <v>9727</v>
       </c>
       <c r="C1861" t="s">
         <v>1945</v>
       </c>
       <c r="D1861" t="s">
-        <v>9853</v>
+        <v>9852</v>
       </c>
       <c r="E1861" t="s">
+        <v>9727</v>
+      </c>
+      <c r="F1861" t="s">
         <v>9728</v>
-      </c>
-      <c r="F1861" t="s">
-        <v>9729</v>
       </c>
     </row>
     <row r="1862" spans="1:6" ht="33">
@@ -82449,7 +82449,7 @@
         <v>9649</v>
       </c>
       <c r="D1897" t="s">
-        <v>9837</v>
+        <v>9836</v>
       </c>
       <c r="E1897" t="s">
         <v>9658</v>
@@ -82654,19 +82654,19 @@
     </row>
     <row r="1908" spans="1:6">
       <c r="A1908" t="s">
+        <v>9736</v>
+      </c>
+      <c r="B1908" t="s">
         <v>9737</v>
       </c>
-      <c r="B1908" t="s">
+      <c r="D1908" t="s">
+        <v>9854</v>
+      </c>
+      <c r="E1908" t="s">
         <v>9738</v>
       </c>
-      <c r="D1908" t="s">
-        <v>9855</v>
-      </c>
-      <c r="E1908" t="s">
+      <c r="F1908" t="s">
         <v>9739</v>
-      </c>
-      <c r="F1908" t="s">
-        <v>9740</v>
       </c>
     </row>
     <row r="1909" spans="1:6">
@@ -83567,7 +83567,7 @@
     </row>
     <row r="1955" spans="1:6">
       <c r="A1955" t="s">
-        <v>9669</v>
+        <v>9668</v>
       </c>
       <c r="B1955" t="s">
         <v>9664</v>
@@ -83576,13 +83576,13 @@
         <v>2956</v>
       </c>
       <c r="D1955" t="s">
-        <v>9840</v>
+        <v>9839</v>
       </c>
       <c r="E1955" t="s">
+        <v>9669</v>
+      </c>
+      <c r="F1955" t="s">
         <v>9670</v>
-      </c>
-      <c r="F1955" t="s">
-        <v>9671</v>
       </c>
     </row>
     <row r="1956" spans="1:6">
@@ -85816,19 +85816,19 @@
     </row>
     <row r="2073" spans="1:6" ht="82.5">
       <c r="A2073" t="s">
+        <v>9740</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>9737</v>
+      </c>
+      <c r="D2073" s="3" t="s">
+        <v>9876</v>
+      </c>
+      <c r="E2073" t="s">
         <v>9741</v>
       </c>
-      <c r="B2073" t="s">
-        <v>9738</v>
-      </c>
-      <c r="D2073" s="3" t="s">
-        <v>9877</v>
-      </c>
-      <c r="E2073" t="s">
+      <c r="F2073" t="s">
         <v>9742</v>
-      </c>
-      <c r="F2073" t="s">
-        <v>9743</v>
       </c>
     </row>
     <row r="2074" spans="1:6">
@@ -86027,22 +86027,22 @@
     </row>
     <row r="2084" spans="1:6">
       <c r="A2084" t="s">
+        <v>9805</v>
+      </c>
+      <c r="B2084" t="s">
         <v>9806</v>
-      </c>
-      <c r="B2084" t="s">
-        <v>9807</v>
       </c>
       <c r="C2084" t="s">
         <v>2111</v>
       </c>
       <c r="D2084" t="s">
-        <v>9869</v>
+        <v>9868</v>
       </c>
       <c r="E2084" t="s">
+        <v>9807</v>
+      </c>
+      <c r="F2084" t="s">
         <v>9808</v>
-      </c>
-      <c r="F2084" t="s">
-        <v>9809</v>
       </c>
     </row>
     <row r="2085" spans="1:6">
@@ -88455,7 +88455,7 @@
         <v>4260</v>
       </c>
       <c r="D2209" t="s">
-        <v>9832</v>
+        <v>9831</v>
       </c>
       <c r="E2209" t="s">
         <v>9644</v>
@@ -90689,13 +90689,13 @@
         <v>1067</v>
       </c>
       <c r="B2327" t="s">
-        <v>9820</v>
+        <v>9819</v>
       </c>
       <c r="C2327" t="s">
         <v>870</v>
       </c>
       <c r="D2327" t="s">
-        <v>9883</v>
+        <v>9882</v>
       </c>
       <c r="E2327" t="s">
         <v>1069</v>
@@ -90709,13 +90709,13 @@
         <v>1067</v>
       </c>
       <c r="B2328" t="s">
-        <v>9820</v>
+        <v>9819</v>
       </c>
       <c r="C2328" t="s">
         <v>3723</v>
       </c>
       <c r="D2328" t="s">
-        <v>9883</v>
+        <v>9882</v>
       </c>
       <c r="E2328" t="s">
         <v>3732</v>
@@ -90729,13 +90729,13 @@
         <v>1067</v>
       </c>
       <c r="B2329" t="s">
-        <v>9917</v>
+        <v>9916</v>
       </c>
       <c r="C2329" t="s">
         <v>3723</v>
       </c>
       <c r="D2329" t="s">
-        <v>9883</v>
+        <v>9882</v>
       </c>
       <c r="E2329" t="s">
         <v>3732</v>
@@ -91122,19 +91122,19 @@
     </row>
     <row r="2350" spans="1:6" ht="33">
       <c r="A2350" t="s">
+        <v>9732</v>
+      </c>
+      <c r="B2350" t="s">
         <v>9733</v>
       </c>
-      <c r="B2350" t="s">
+      <c r="D2350" s="3" t="s">
+        <v>9875</v>
+      </c>
+      <c r="E2350" s="3" t="s">
         <v>9734</v>
       </c>
-      <c r="D2350" s="3" t="s">
-        <v>9876</v>
-      </c>
-      <c r="E2350" s="3" t="s">
+      <c r="F2350" t="s">
         <v>9735</v>
-      </c>
-      <c r="F2350" t="s">
-        <v>9736</v>
       </c>
     </row>
     <row r="2351" spans="1:6">
@@ -91462,7 +91462,7 @@
         <v>2956</v>
       </c>
       <c r="D2367" t="s">
-        <v>9822</v>
+        <v>9821</v>
       </c>
       <c r="E2367" t="s">
         <v>9602</v>
@@ -91482,7 +91482,7 @@
         <v>2956</v>
       </c>
       <c r="D2368" t="s">
-        <v>9821</v>
+        <v>9820</v>
       </c>
       <c r="E2368" t="s">
         <v>9599</v>
@@ -91781,22 +91781,22 @@
     </row>
     <row r="2384" spans="1:6">
       <c r="A2384" t="s">
+        <v>9693</v>
+      </c>
+      <c r="B2384" t="s">
         <v>9694</v>
-      </c>
-      <c r="B2384" t="s">
-        <v>9695</v>
       </c>
       <c r="C2384" t="s">
         <v>217</v>
       </c>
       <c r="D2384" t="s">
-        <v>9845</v>
+        <v>9844</v>
       </c>
       <c r="E2384" t="s">
+        <v>9695</v>
+      </c>
+      <c r="F2384" t="s">
         <v>9696</v>
-      </c>
-      <c r="F2384" t="s">
-        <v>9697</v>
       </c>
     </row>
     <row r="2385" spans="1:6">
@@ -93740,36 +93740,36 @@
     </row>
     <row r="2486" spans="1:6">
       <c r="A2486" t="s">
+        <v>9785</v>
+      </c>
+      <c r="B2486" t="s">
         <v>9786</v>
       </c>
-      <c r="B2486" t="s">
+      <c r="D2486" t="s">
+        <v>9862</v>
+      </c>
+      <c r="E2486" t="s">
+        <v>9788</v>
+      </c>
+      <c r="F2486" t="s">
         <v>9787</v>
-      </c>
-      <c r="D2486" t="s">
-        <v>9863</v>
-      </c>
-      <c r="E2486" t="s">
-        <v>9789</v>
-      </c>
-      <c r="F2486" t="s">
-        <v>9788</v>
       </c>
     </row>
     <row r="2487" spans="1:6">
       <c r="A2487" t="s">
+        <v>9789</v>
+      </c>
+      <c r="B2487" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D2487" t="s">
+        <v>9863</v>
+      </c>
+      <c r="E2487" t="s">
+        <v>9791</v>
+      </c>
+      <c r="F2487" t="s">
         <v>9790</v>
-      </c>
-      <c r="B2487" t="s">
-        <v>9787</v>
-      </c>
-      <c r="D2487" t="s">
-        <v>9864</v>
-      </c>
-      <c r="E2487" t="s">
-        <v>9792</v>
-      </c>
-      <c r="F2487" t="s">
-        <v>9791</v>
       </c>
     </row>
     <row r="2488" spans="1:6">
@@ -94666,36 +94666,36 @@
     </row>
     <row r="2535" spans="1:6">
       <c r="A2535" t="s">
+        <v>9792</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D2535" t="s">
+        <v>9864</v>
+      </c>
+      <c r="E2535" t="s">
         <v>9793</v>
       </c>
-      <c r="B2535" t="s">
-        <v>9787</v>
-      </c>
-      <c r="D2535" t="s">
-        <v>9865</v>
-      </c>
-      <c r="E2535" t="s">
+      <c r="F2535" t="s">
         <v>9794</v>
-      </c>
-      <c r="F2535" t="s">
-        <v>9795</v>
       </c>
     </row>
     <row r="2536" spans="1:6">
       <c r="A2536" t="s">
+        <v>9795</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>9786</v>
+      </c>
+      <c r="D2536" t="s">
+        <v>9865</v>
+      </c>
+      <c r="E2536" t="s">
         <v>9796</v>
       </c>
-      <c r="B2536" t="s">
-        <v>9787</v>
-      </c>
-      <c r="D2536" t="s">
-        <v>9866</v>
-      </c>
-      <c r="E2536" t="s">
+      <c r="F2536" t="s">
         <v>9797</v>
-      </c>
-      <c r="F2536" t="s">
-        <v>9798</v>
       </c>
     </row>
     <row r="2537" spans="1:6">
@@ -94954,7 +94954,7 @@
         <v>217</v>
       </c>
       <c r="D2550" t="s">
-        <v>9831</v>
+        <v>9830</v>
       </c>
       <c r="E2550" t="s">
         <v>9641</v>
@@ -95521,7 +95521,7 @@
         <v>9649</v>
       </c>
       <c r="D2580" t="s">
-        <v>9838</v>
+        <v>9837</v>
       </c>
       <c r="E2580" t="s">
         <v>9661</v>
@@ -96491,7 +96491,7 @@
         <v>709</v>
       </c>
       <c r="D2630" s="1" t="s">
-        <v>9884</v>
+        <v>9883</v>
       </c>
       <c r="E2630" s="1" t="s">
         <v>1293</v>
@@ -96759,101 +96759,101 @@
     </row>
     <row r="2644" spans="1:6">
       <c r="A2644" t="s">
+        <v>9904</v>
+      </c>
+      <c r="B2644" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2644" t="s">
+        <v>9920</v>
+      </c>
+      <c r="E2644" t="s">
         <v>9905</v>
       </c>
-      <c r="B2644" t="s">
-        <v>9886</v>
-      </c>
-      <c r="D2644" t="s">
-        <v>9921</v>
-      </c>
-      <c r="E2644" t="s">
+      <c r="F2644" t="s">
         <v>9906</v>
-      </c>
-      <c r="F2644" t="s">
-        <v>9907</v>
       </c>
     </row>
     <row r="2645" spans="1:6">
       <c r="A2645" t="s">
+        <v>9907</v>
+      </c>
+      <c r="B2645" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2645" t="s">
+        <v>9921</v>
+      </c>
+      <c r="E2645" t="s">
         <v>9908</v>
       </c>
-      <c r="B2645" t="s">
-        <v>9886</v>
-      </c>
-      <c r="D2645" t="s">
-        <v>9922</v>
-      </c>
-      <c r="E2645" t="s">
+      <c r="F2645" t="s">
         <v>9909</v>
-      </c>
-      <c r="F2645" t="s">
-        <v>9910</v>
       </c>
     </row>
     <row r="2646" spans="1:6">
       <c r="A2646" t="s">
+        <v>9910</v>
+      </c>
+      <c r="B2646" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2646" t="s">
+        <v>9922</v>
+      </c>
+      <c r="E2646" t="s">
+        <v>9912</v>
+      </c>
+      <c r="F2646" t="s">
         <v>9911</v>
-      </c>
-      <c r="B2646" t="s">
-        <v>9886</v>
-      </c>
-      <c r="D2646" t="s">
-        <v>9923</v>
-      </c>
-      <c r="E2646" t="s">
-        <v>9913</v>
-      </c>
-      <c r="F2646" t="s">
-        <v>9912</v>
       </c>
     </row>
     <row r="2647" spans="1:6">
       <c r="A2647" t="s">
+        <v>9892</v>
+      </c>
+      <c r="B2647" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2647" t="s">
+        <v>9923</v>
+      </c>
+      <c r="E2647" t="s">
         <v>9893</v>
       </c>
-      <c r="B2647" t="s">
-        <v>9886</v>
-      </c>
-      <c r="D2647" t="s">
-        <v>9924</v>
-      </c>
-      <c r="E2647" t="s">
+      <c r="F2647" t="s">
         <v>9894</v>
-      </c>
-      <c r="F2647" t="s">
-        <v>9895</v>
       </c>
     </row>
     <row r="2648" spans="1:6">
       <c r="A2648" t="s">
+        <v>9901</v>
+      </c>
+      <c r="B2648" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2648" t="s">
+        <v>9924</v>
+      </c>
+      <c r="E2648" t="s">
         <v>9902</v>
       </c>
-      <c r="B2648" t="s">
-        <v>9886</v>
-      </c>
-      <c r="D2648" t="s">
-        <v>9925</v>
-      </c>
-      <c r="E2648" t="s">
+      <c r="F2648" t="s">
         <v>9903</v>
-      </c>
-      <c r="F2648" t="s">
-        <v>9904</v>
       </c>
     </row>
     <row r="2649" spans="1:6">
       <c r="A2649" t="s">
+        <v>9889</v>
+      </c>
+      <c r="B2649" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2649" t="s">
+        <v>9925</v>
+      </c>
+      <c r="E2649" t="s">
         <v>9890</v>
-      </c>
-      <c r="B2649" t="s">
-        <v>9886</v>
-      </c>
-      <c r="D2649" t="s">
-        <v>9926</v>
-      </c>
-      <c r="E2649" t="s">
-        <v>9891</v>
       </c>
       <c r="F2649" t="s">
         <v>5788</v>
@@ -96861,16 +96861,16 @@
     </row>
     <row r="2650" spans="1:6">
       <c r="A2650" t="s">
-        <v>9892</v>
+        <v>9891</v>
       </c>
       <c r="B2650" t="s">
-        <v>9886</v>
+        <v>9885</v>
       </c>
       <c r="D2650" t="s">
-        <v>9926</v>
+        <v>9925</v>
       </c>
       <c r="E2650" t="s">
-        <v>9891</v>
+        <v>9890</v>
       </c>
       <c r="F2650" t="s">
         <v>5788</v>
@@ -96878,36 +96878,36 @@
     </row>
     <row r="2651" spans="1:6">
       <c r="A2651" t="s">
+        <v>9898</v>
+      </c>
+      <c r="B2651" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2651" t="s">
+        <v>9926</v>
+      </c>
+      <c r="E2651" t="s">
         <v>9899</v>
       </c>
-      <c r="B2651" t="s">
-        <v>9886</v>
-      </c>
-      <c r="D2651" t="s">
-        <v>9927</v>
-      </c>
-      <c r="E2651" t="s">
+      <c r="F2651" t="s">
         <v>9900</v>
-      </c>
-      <c r="F2651" t="s">
-        <v>9901</v>
       </c>
     </row>
     <row r="2652" spans="1:6">
       <c r="A2652" t="s">
+        <v>9895</v>
+      </c>
+      <c r="B2652" t="s">
+        <v>9885</v>
+      </c>
+      <c r="D2652" t="s">
+        <v>9927</v>
+      </c>
+      <c r="E2652" t="s">
         <v>9896</v>
       </c>
-      <c r="B2652" t="s">
-        <v>9886</v>
-      </c>
-      <c r="D2652" t="s">
-        <v>9928</v>
-      </c>
-      <c r="E2652" t="s">
+      <c r="F2652" t="s">
         <v>9897</v>
-      </c>
-      <c r="F2652" t="s">
-        <v>9898</v>
       </c>
     </row>
     <row r="2653" spans="1:6">

--- a/PTBR/Lang/PTBR/Game/General.xlsx
+++ b/PTBR/Lang/PTBR/Game/General.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7720AAB0-6AE8-454D-A94A-46744D11FD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0FDC8F-22CD-4174-9BCA-645962E40299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20880" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1275" windowWidth="15450" windowHeight="9810" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -46342,9 +46342,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2653"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="96" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5"/>
